--- a/HARIAN/2024.xlsx
+++ b/HARIAN/2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/277ffa1efc2bfcc1/Apartment Bintaro/Data Harian/BINTARO-APG/HARIAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5D1B0FE5-1771-4454-B991-D6D51F890AA9}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C00538F-59F8-41DA-BE8D-4E3A354DDBCD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETUP" sheetId="2" r:id="rId1"/>
@@ -459,6 +459,10 @@
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
+<file path=xl/persons/person1.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E59DBCAE-A14B-4EBE-A760-6D2226CFDF4B}" name="Tunai" displayName="Tunai" ref="A1:E367" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47">
   <autoFilter ref="A1:E367" xr:uid="{1935B11C-1E19-4BC4-8FDF-6A44A49D5DDA}"/>
@@ -892,11 +896,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACCD3D5-ABBC-4800-97A3-8932BD05F189}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D141" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D147" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D150" sqref="D150"/>
+      <selection pane="bottomRight" activeCell="D155" sqref="D155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4919,11 +4923,11 @@
       </c>
       <c r="H123" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G123)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I123" s="2" cm="1">
         <f t="array" ref="I123">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G123,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -4952,11 +4956,11 @@
       </c>
       <c r="H124" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G124)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I124" s="2" cm="1">
         <f t="array" ref="I124">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G124,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -4985,11 +4989,11 @@
       </c>
       <c r="H125" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G125)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I125" s="2" cm="1">
         <f t="array" ref="I125">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G125,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -5018,11 +5022,11 @@
       </c>
       <c r="H126" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G126)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I126" s="2" cm="1">
         <f t="array" ref="I126">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G126,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -5051,11 +5055,11 @@
       </c>
       <c r="H127" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G127)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I127" s="2" cm="1">
         <f t="array" ref="I127">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G127,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -5084,11 +5088,11 @@
       </c>
       <c r="H128" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G128)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I128" s="2" cm="1">
         <f t="array" ref="I128">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G128,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
@@ -5117,11 +5121,11 @@
       </c>
       <c r="H129" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G129)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I129" s="2" cm="1">
         <f t="array" ref="I129">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G129,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
@@ -5150,11 +5154,11 @@
       </c>
       <c r="H130" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G130)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I130" s="2" cm="1">
         <f t="array" ref="I130">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G130,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
@@ -5183,11 +5187,11 @@
       </c>
       <c r="H131" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G131)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I131" s="2" cm="1">
         <f t="array" ref="I131">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G131,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
@@ -5216,11 +5220,11 @@
       </c>
       <c r="H132" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G132)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I132" s="2" cm="1">
         <f t="array" ref="I132">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G132,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
@@ -5249,11 +5253,11 @@
       </c>
       <c r="H133" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G133)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I133" s="2" cm="1">
         <f t="array" ref="I133">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G133,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
@@ -5282,11 +5286,11 @@
       </c>
       <c r="H134" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G134)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I134" s="2" cm="1">
         <f t="array" ref="I134">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G134,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
@@ -5315,11 +5319,11 @@
       </c>
       <c r="H135" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G135)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I135" s="2" cm="1">
         <f t="array" ref="I135">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G135,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
@@ -5348,11 +5352,11 @@
       </c>
       <c r="H136" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G136)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I136" s="2" cm="1">
         <f t="array" ref="I136">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G136,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
@@ -5381,11 +5385,11 @@
       </c>
       <c r="H137" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G137)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I137" s="2" cm="1">
         <f t="array" ref="I137">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G137,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
@@ -5414,11 +5418,11 @@
       </c>
       <c r="H138" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G138)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I138" s="2" cm="1">
         <f t="array" ref="I138">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G138,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
@@ -5447,11 +5451,11 @@
       </c>
       <c r="H139" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G139)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I139" s="2" cm="1">
         <f t="array" ref="I139">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G139,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
@@ -5480,11 +5484,11 @@
       </c>
       <c r="H140" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G140)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I140" s="2" cm="1">
         <f t="array" ref="I140">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G140,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
@@ -5513,11 +5517,11 @@
       </c>
       <c r="H141" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G141)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I141" s="2" cm="1">
         <f t="array" ref="I141">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G141,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
@@ -5546,11 +5550,11 @@
       </c>
       <c r="H142" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G142)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I142" s="2" cm="1">
         <f t="array" ref="I142">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G142,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
@@ -5579,11 +5583,11 @@
       </c>
       <c r="H143" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G143)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I143" s="2" cm="1">
         <f t="array" ref="I143">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G143,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
@@ -5612,11 +5616,11 @@
       </c>
       <c r="H144" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G144)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I144" s="2" cm="1">
         <f t="array" ref="I144">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G144,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -5645,11 +5649,11 @@
       </c>
       <c r="H145" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G145)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I145" s="2" cm="1">
         <f t="array" ref="I145">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G145,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -5678,11 +5682,11 @@
       </c>
       <c r="H146" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G146)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I146" s="2" cm="1">
         <f t="array" ref="I146">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G146,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
@@ -5711,11 +5715,11 @@
       </c>
       <c r="H147" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G147)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I147" s="2" cm="1">
         <f t="array" ref="I147">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G147,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
@@ -5744,11 +5748,11 @@
       </c>
       <c r="H148" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G148)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I148" s="2" cm="1">
         <f t="array" ref="I148">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G148,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
@@ -5777,11 +5781,11 @@
       </c>
       <c r="H149" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G149)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I149" s="2" cm="1">
         <f t="array" ref="I149">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G149,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
@@ -5797,10 +5801,12 @@
         <f t="shared" si="10"/>
         <v>28</v>
       </c>
-      <c r="D150" s="2"/>
+      <c r="D150" s="2">
+        <v>332000</v>
+      </c>
       <c r="E150" s="2">
         <f>SUM($D$2:$D150)</f>
-        <v>42884000</v>
+        <v>43216000</v>
       </c>
       <c r="G150" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5808,11 +5814,11 @@
       </c>
       <c r="H150" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G150)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I150" s="2" cm="1">
         <f t="array" ref="I150">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G150,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
@@ -5828,10 +5834,12 @@
         <f t="shared" si="10"/>
         <v>29</v>
       </c>
-      <c r="D151" s="2"/>
+      <c r="D151" s="2">
+        <v>502000</v>
+      </c>
       <c r="E151" s="2">
         <f>SUM($D$2:$D151)</f>
-        <v>42884000</v>
+        <v>43718000</v>
       </c>
       <c r="G151" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5839,11 +5847,11 @@
       </c>
       <c r="H151" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G151)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I151" s="2" cm="1">
         <f t="array" ref="I151">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G151,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -5859,10 +5867,12 @@
         <f t="shared" si="10"/>
         <v>30</v>
       </c>
-      <c r="D152" s="2"/>
+      <c r="D152" s="2">
+        <v>192000</v>
+      </c>
       <c r="E152" s="2">
         <f>SUM($D$2:$D152)</f>
-        <v>42884000</v>
+        <v>43910000</v>
       </c>
       <c r="G152" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5870,11 +5880,11 @@
       </c>
       <c r="H152" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G152)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I152" s="2" cm="1">
         <f t="array" ref="I152">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G152,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
@@ -5890,10 +5900,12 @@
         <f t="shared" si="10"/>
         <v>31</v>
       </c>
-      <c r="D153" s="2"/>
+      <c r="D153" s="2">
+        <v>438000</v>
+      </c>
       <c r="E153" s="2">
         <f>SUM($D$2:$D153)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
       <c r="G153" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5901,11 +5913,11 @@
       </c>
       <c r="H153" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G153)</f>
-        <v>12079000</v>
+        <v>13543000</v>
       </c>
       <c r="I153" s="2" cm="1">
         <f t="array" ref="I153">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G153,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>44348000</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
@@ -5921,10 +5933,12 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="D154" s="2"/>
+      <c r="D154" s="2">
+        <v>862000</v>
+      </c>
       <c r="E154" s="2">
         <f>SUM($D$2:$D154)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G154" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5932,11 +5946,11 @@
       </c>
       <c r="H154" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G154)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I154" s="2" cm="1">
         <f t="array" ref="I154">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G154,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -5955,7 +5969,7 @@
       <c r="D155" s="2"/>
       <c r="E155" s="2">
         <f>SUM($D$2:$D155)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G155" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5963,11 +5977,11 @@
       </c>
       <c r="H155" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G155)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I155" s="2" cm="1">
         <f t="array" ref="I155">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G155,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
@@ -5986,7 +6000,7 @@
       <c r="D156" s="2"/>
       <c r="E156" s="2">
         <f>SUM($D$2:$D156)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G156" s="1" t="str">
         <f t="shared" si="8"/>
@@ -5994,11 +6008,11 @@
       </c>
       <c r="H156" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G156)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I156" s="2" cm="1">
         <f t="array" ref="I156">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G156,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
@@ -6017,7 +6031,7 @@
       <c r="D157" s="2"/>
       <c r="E157" s="2">
         <f>SUM($D$2:$D157)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G157" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6025,11 +6039,11 @@
       </c>
       <c r="H157" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G157)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I157" s="2" cm="1">
         <f t="array" ref="I157">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G157,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
@@ -6048,7 +6062,7 @@
       <c r="D158" s="2"/>
       <c r="E158" s="2">
         <f>SUM($D$2:$D158)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G158" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6056,11 +6070,11 @@
       </c>
       <c r="H158" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G158)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I158" s="2" cm="1">
         <f t="array" ref="I158">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G158,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
@@ -6079,7 +6093,7 @@
       <c r="D159" s="2"/>
       <c r="E159" s="2">
         <f>SUM($D$2:$D159)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G159" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6087,11 +6101,11 @@
       </c>
       <c r="H159" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G159)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I159" s="2" cm="1">
         <f t="array" ref="I159">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G159,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
@@ -6110,7 +6124,7 @@
       <c r="D160" s="2"/>
       <c r="E160" s="2">
         <f>SUM($D$2:$D160)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G160" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6118,11 +6132,11 @@
       </c>
       <c r="H160" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G160)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I160" s="2" cm="1">
         <f t="array" ref="I160">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G160,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
@@ -6141,7 +6155,7 @@
       <c r="D161" s="2"/>
       <c r="E161" s="2">
         <f>SUM($D$2:$D161)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G161" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6149,11 +6163,11 @@
       </c>
       <c r="H161" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G161)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I161" s="2" cm="1">
         <f t="array" ref="I161">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G161,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
@@ -6172,7 +6186,7 @@
       <c r="D162" s="2"/>
       <c r="E162" s="2">
         <f>SUM($D$2:$D162)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G162" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6180,11 +6194,11 @@
       </c>
       <c r="H162" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G162)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I162" s="2" cm="1">
         <f t="array" ref="I162">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G162,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
@@ -6203,7 +6217,7 @@
       <c r="D163" s="2"/>
       <c r="E163" s="2">
         <f>SUM($D$2:$D163)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G163" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6211,11 +6225,11 @@
       </c>
       <c r="H163" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G163)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I163" s="2" cm="1">
         <f t="array" ref="I163">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G163,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
@@ -6234,7 +6248,7 @@
       <c r="D164" s="2"/>
       <c r="E164" s="2">
         <f>SUM($D$2:$D164)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G164" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6242,11 +6256,11 @@
       </c>
       <c r="H164" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G164)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I164" s="2" cm="1">
         <f t="array" ref="I164">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G164,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
@@ -6265,7 +6279,7 @@
       <c r="D165" s="2"/>
       <c r="E165" s="2">
         <f>SUM($D$2:$D165)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G165" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6273,11 +6287,11 @@
       </c>
       <c r="H165" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G165)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I165" s="2" cm="1">
         <f t="array" ref="I165">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G165,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
@@ -6296,7 +6310,7 @@
       <c r="D166" s="2"/>
       <c r="E166" s="2">
         <f>SUM($D$2:$D166)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G166" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6304,11 +6318,11 @@
       </c>
       <c r="H166" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G166)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I166" s="2" cm="1">
         <f t="array" ref="I166">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G166,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
@@ -6327,7 +6341,7 @@
       <c r="D167" s="2"/>
       <c r="E167" s="2">
         <f>SUM($D$2:$D167)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G167" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6335,11 +6349,11 @@
       </c>
       <c r="H167" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G167)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I167" s="2" cm="1">
         <f t="array" ref="I167">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G167,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
@@ -6358,7 +6372,7 @@
       <c r="D168" s="2"/>
       <c r="E168" s="2">
         <f>SUM($D$2:$D168)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G168" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6366,11 +6380,11 @@
       </c>
       <c r="H168" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G168)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I168" s="2" cm="1">
         <f t="array" ref="I168">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G168,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
@@ -6389,7 +6403,7 @@
       <c r="D169" s="2"/>
       <c r="E169" s="2">
         <f>SUM($D$2:$D169)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G169" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6397,11 +6411,11 @@
       </c>
       <c r="H169" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G169)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I169" s="2" cm="1">
         <f t="array" ref="I169">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G169,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
@@ -6420,7 +6434,7 @@
       <c r="D170" s="2"/>
       <c r="E170" s="2">
         <f>SUM($D$2:$D170)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G170" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6428,11 +6442,11 @@
       </c>
       <c r="H170" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G170)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I170" s="2" cm="1">
         <f t="array" ref="I170">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G170,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
@@ -6451,7 +6465,7 @@
       <c r="D171" s="2"/>
       <c r="E171" s="2">
         <f>SUM($D$2:$D171)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G171" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6459,11 +6473,11 @@
       </c>
       <c r="H171" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G171)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I171" s="2" cm="1">
         <f t="array" ref="I171">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G171,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
@@ -6482,7 +6496,7 @@
       <c r="D172" s="2"/>
       <c r="E172" s="2">
         <f>SUM($D$2:$D172)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G172" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6490,11 +6504,11 @@
       </c>
       <c r="H172" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G172)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I172" s="2" cm="1">
         <f t="array" ref="I172">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G172,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
@@ -6513,7 +6527,7 @@
       <c r="D173" s="2"/>
       <c r="E173" s="2">
         <f>SUM($D$2:$D173)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G173" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6521,11 +6535,11 @@
       </c>
       <c r="H173" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G173)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I173" s="2" cm="1">
         <f t="array" ref="I173">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G173,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -6544,7 +6558,7 @@
       <c r="D174" s="2"/>
       <c r="E174" s="2">
         <f>SUM($D$2:$D174)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G174" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6552,11 +6566,11 @@
       </c>
       <c r="H174" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G174)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I174" s="2" cm="1">
         <f t="array" ref="I174">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G174,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
@@ -6575,7 +6589,7 @@
       <c r="D175" s="2"/>
       <c r="E175" s="2">
         <f>SUM($D$2:$D175)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G175" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6583,11 +6597,11 @@
       </c>
       <c r="H175" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G175)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I175" s="2" cm="1">
         <f t="array" ref="I175">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G175,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
@@ -6606,7 +6620,7 @@
       <c r="D176" s="2"/>
       <c r="E176" s="2">
         <f>SUM($D$2:$D176)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G176" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6614,11 +6628,11 @@
       </c>
       <c r="H176" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G176)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I176" s="2" cm="1">
         <f t="array" ref="I176">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G176,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -6637,7 +6651,7 @@
       <c r="D177" s="2"/>
       <c r="E177" s="2">
         <f>SUM($D$2:$D177)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G177" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6645,11 +6659,11 @@
       </c>
       <c r="H177" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G177)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I177" s="2" cm="1">
         <f t="array" ref="I177">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G177,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
@@ -6668,7 +6682,7 @@
       <c r="D178" s="2"/>
       <c r="E178" s="2">
         <f>SUM($D$2:$D178)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G178" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6676,11 +6690,11 @@
       </c>
       <c r="H178" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G178)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I178" s="2" cm="1">
         <f t="array" ref="I178">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G178,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
@@ -6699,7 +6713,7 @@
       <c r="D179" s="2"/>
       <c r="E179" s="2">
         <f>SUM($D$2:$D179)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G179" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6707,11 +6721,11 @@
       </c>
       <c r="H179" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G179)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I179" s="2" cm="1">
         <f t="array" ref="I179">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G179,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
@@ -6730,7 +6744,7 @@
       <c r="D180" s="2"/>
       <c r="E180" s="2">
         <f>SUM($D$2:$D180)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G180" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6738,11 +6752,11 @@
       </c>
       <c r="H180" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G180)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I180" s="2" cm="1">
         <f t="array" ref="I180">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G180,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
@@ -6761,7 +6775,7 @@
       <c r="D181" s="2"/>
       <c r="E181" s="2">
         <f>SUM($D$2:$D181)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G181" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6769,11 +6783,11 @@
       </c>
       <c r="H181" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G181)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I181" s="2" cm="1">
         <f t="array" ref="I181">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G181,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
@@ -6792,7 +6806,7 @@
       <c r="D182" s="2"/>
       <c r="E182" s="2">
         <f>SUM($D$2:$D182)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G182" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6800,11 +6814,11 @@
       </c>
       <c r="H182" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G182)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I182" s="2" cm="1">
         <f t="array" ref="I182">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G182,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
@@ -6823,7 +6837,7 @@
       <c r="D183" s="2"/>
       <c r="E183" s="2">
         <f>SUM($D$2:$D183)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G183" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6831,11 +6845,11 @@
       </c>
       <c r="H183" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G183)</f>
-        <v>0</v>
+        <v>862000</v>
       </c>
       <c r="I183" s="2" cm="1">
         <f t="array" ref="I183">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G183,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
@@ -6854,7 +6868,7 @@
       <c r="D184" s="2"/>
       <c r="E184" s="2">
         <f>SUM($D$2:$D184)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G184" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6866,7 +6880,7 @@
       </c>
       <c r="I184" s="2" cm="1">
         <f t="array" ref="I184">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G184,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
@@ -6885,7 +6899,7 @@
       <c r="D185" s="2"/>
       <c r="E185" s="2">
         <f>SUM($D$2:$D185)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G185" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6897,7 +6911,7 @@
       </c>
       <c r="I185" s="2" cm="1">
         <f t="array" ref="I185">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G185,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
@@ -6916,7 +6930,7 @@
       <c r="D186" s="2"/>
       <c r="E186" s="2">
         <f>SUM($D$2:$D186)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G186" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6928,7 +6942,7 @@
       </c>
       <c r="I186" s="2" cm="1">
         <f t="array" ref="I186">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G186,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
@@ -6947,7 +6961,7 @@
       <c r="D187" s="2"/>
       <c r="E187" s="2">
         <f>SUM($D$2:$D187)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G187" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6959,7 +6973,7 @@
       </c>
       <c r="I187" s="2" cm="1">
         <f t="array" ref="I187">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G187,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
@@ -6978,7 +6992,7 @@
       <c r="D188" s="2"/>
       <c r="E188" s="2">
         <f>SUM($D$2:$D188)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G188" s="1" t="str">
         <f t="shared" si="8"/>
@@ -6990,7 +7004,7 @@
       </c>
       <c r="I188" s="2" cm="1">
         <f t="array" ref="I188">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G188,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
@@ -7009,7 +7023,7 @@
       <c r="D189" s="2"/>
       <c r="E189" s="2">
         <f>SUM($D$2:$D189)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G189" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7021,7 +7035,7 @@
       </c>
       <c r="I189" s="2" cm="1">
         <f t="array" ref="I189">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G189,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
@@ -7040,7 +7054,7 @@
       <c r="D190" s="2"/>
       <c r="E190" s="2">
         <f>SUM($D$2:$D190)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G190" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7052,7 +7066,7 @@
       </c>
       <c r="I190" s="2" cm="1">
         <f t="array" ref="I190">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G190,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
@@ -7071,7 +7085,7 @@
       <c r="D191" s="2"/>
       <c r="E191" s="2">
         <f>SUM($D$2:$D191)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G191" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7083,7 +7097,7 @@
       </c>
       <c r="I191" s="2" cm="1">
         <f t="array" ref="I191">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G191,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.25">
@@ -7102,7 +7116,7 @@
       <c r="D192" s="2"/>
       <c r="E192" s="2">
         <f>SUM($D$2:$D192)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G192" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7114,7 +7128,7 @@
       </c>
       <c r="I192" s="2" cm="1">
         <f t="array" ref="I192">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G192,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
@@ -7133,7 +7147,7 @@
       <c r="D193" s="2"/>
       <c r="E193" s="2">
         <f>SUM($D$2:$D193)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G193" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7145,7 +7159,7 @@
       </c>
       <c r="I193" s="2" cm="1">
         <f t="array" ref="I193">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G193,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="194" spans="1:9" x14ac:dyDescent="0.25">
@@ -7164,7 +7178,7 @@
       <c r="D194" s="2"/>
       <c r="E194" s="2">
         <f>SUM($D$2:$D194)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G194" s="1" t="str">
         <f t="shared" si="8"/>
@@ -7176,7 +7190,7 @@
       </c>
       <c r="I194" s="2" cm="1">
         <f t="array" ref="I194">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G194,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
@@ -7195,7 +7209,7 @@
       <c r="D195" s="2"/>
       <c r="E195" s="2">
         <f>SUM($D$2:$D195)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G195" s="1" t="str">
         <f t="shared" ref="G195:G258" si="11">B195</f>
@@ -7207,7 +7221,7 @@
       </c>
       <c r="I195" s="2" cm="1">
         <f t="array" ref="I195">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G195,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
@@ -7226,7 +7240,7 @@
       <c r="D196" s="2"/>
       <c r="E196" s="2">
         <f>SUM($D$2:$D196)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G196" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7238,7 +7252,7 @@
       </c>
       <c r="I196" s="2" cm="1">
         <f t="array" ref="I196">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G196,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
@@ -7257,7 +7271,7 @@
       <c r="D197" s="2"/>
       <c r="E197" s="2">
         <f>SUM($D$2:$D197)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G197" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7269,7 +7283,7 @@
       </c>
       <c r="I197" s="2" cm="1">
         <f t="array" ref="I197">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G197,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -7288,7 +7302,7 @@
       <c r="D198" s="2"/>
       <c r="E198" s="2">
         <f>SUM($D$2:$D198)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G198" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7300,7 +7314,7 @@
       </c>
       <c r="I198" s="2" cm="1">
         <f t="array" ref="I198">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G198,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
@@ -7319,7 +7333,7 @@
       <c r="D199" s="2"/>
       <c r="E199" s="2">
         <f>SUM($D$2:$D199)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G199" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7331,7 +7345,7 @@
       </c>
       <c r="I199" s="2" cm="1">
         <f t="array" ref="I199">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G199,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -7350,7 +7364,7 @@
       <c r="D200" s="2"/>
       <c r="E200" s="2">
         <f>SUM($D$2:$D200)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G200" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7362,7 +7376,7 @@
       </c>
       <c r="I200" s="2" cm="1">
         <f t="array" ref="I200">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G200,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -7381,7 +7395,7 @@
       <c r="D201" s="2"/>
       <c r="E201" s="2">
         <f>SUM($D$2:$D201)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G201" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7393,7 +7407,7 @@
       </c>
       <c r="I201" s="2" cm="1">
         <f t="array" ref="I201">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G201,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -7412,7 +7426,7 @@
       <c r="D202" s="2"/>
       <c r="E202" s="2">
         <f>SUM($D$2:$D202)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G202" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7424,7 +7438,7 @@
       </c>
       <c r="I202" s="2" cm="1">
         <f t="array" ref="I202">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G202,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -7443,7 +7457,7 @@
       <c r="D203" s="2"/>
       <c r="E203" s="2">
         <f>SUM($D$2:$D203)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G203" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7455,7 +7469,7 @@
       </c>
       <c r="I203" s="2" cm="1">
         <f t="array" ref="I203">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G203,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
@@ -7474,7 +7488,7 @@
       <c r="D204" s="2"/>
       <c r="E204" s="2">
         <f>SUM($D$2:$D204)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G204" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7486,7 +7500,7 @@
       </c>
       <c r="I204" s="2" cm="1">
         <f t="array" ref="I204">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G204,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
@@ -7505,7 +7519,7 @@
       <c r="D205" s="2"/>
       <c r="E205" s="2">
         <f>SUM($D$2:$D205)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G205" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7517,7 +7531,7 @@
       </c>
       <c r="I205" s="2" cm="1">
         <f t="array" ref="I205">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G205,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -7536,7 +7550,7 @@
       <c r="D206" s="2"/>
       <c r="E206" s="2">
         <f>SUM($D$2:$D206)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G206" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7548,7 +7562,7 @@
       </c>
       <c r="I206" s="2" cm="1">
         <f t="array" ref="I206">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G206,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -7567,7 +7581,7 @@
       <c r="D207" s="2"/>
       <c r="E207" s="2">
         <f>SUM($D$2:$D207)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G207" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7579,7 +7593,7 @@
       </c>
       <c r="I207" s="2" cm="1">
         <f t="array" ref="I207">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G207,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7598,7 +7612,7 @@
       <c r="D208" s="2"/>
       <c r="E208" s="2">
         <f>SUM($D$2:$D208)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G208" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7610,7 +7624,7 @@
       </c>
       <c r="I208" s="2" cm="1">
         <f t="array" ref="I208">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G208,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -7629,7 +7643,7 @@
       <c r="D209" s="2"/>
       <c r="E209" s="2">
         <f>SUM($D$2:$D209)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G209" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7641,7 +7655,7 @@
       </c>
       <c r="I209" s="2" cm="1">
         <f t="array" ref="I209">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G209,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -7660,7 +7674,7 @@
       <c r="D210" s="2"/>
       <c r="E210" s="2">
         <f>SUM($D$2:$D210)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G210" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7672,7 +7686,7 @@
       </c>
       <c r="I210" s="2" cm="1">
         <f t="array" ref="I210">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G210,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -7691,7 +7705,7 @@
       <c r="D211" s="2"/>
       <c r="E211" s="2">
         <f>SUM($D$2:$D211)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G211" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7703,7 +7717,7 @@
       </c>
       <c r="I211" s="2" cm="1">
         <f t="array" ref="I211">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G211,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
@@ -7722,7 +7736,7 @@
       <c r="D212" s="2"/>
       <c r="E212" s="2">
         <f>SUM($D$2:$D212)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G212" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7734,7 +7748,7 @@
       </c>
       <c r="I212" s="2" cm="1">
         <f t="array" ref="I212">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G212,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
@@ -7753,7 +7767,7 @@
       <c r="D213" s="2"/>
       <c r="E213" s="2">
         <f>SUM($D$2:$D213)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G213" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7765,7 +7779,7 @@
       </c>
       <c r="I213" s="2" cm="1">
         <f t="array" ref="I213">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G213,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -7784,7 +7798,7 @@
       <c r="D214" s="2"/>
       <c r="E214" s="2">
         <f>SUM($D$2:$D214)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G214" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7796,7 +7810,7 @@
       </c>
       <c r="I214" s="2" cm="1">
         <f t="array" ref="I214">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G214,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
@@ -7815,7 +7829,7 @@
       <c r="D215" s="2"/>
       <c r="E215" s="2">
         <f>SUM($D$2:$D215)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G215" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7827,7 +7841,7 @@
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G215,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7846,7 +7860,7 @@
       <c r="D216" s="2"/>
       <c r="E216" s="2">
         <f>SUM($D$2:$D216)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G216" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7858,7 +7872,7 @@
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G216,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -7877,7 +7891,7 @@
       <c r="D217" s="2"/>
       <c r="E217" s="2">
         <f>SUM($D$2:$D217)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G217" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7889,7 +7903,7 @@
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G217,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -7908,7 +7922,7 @@
       <c r="D218" s="2"/>
       <c r="E218" s="2">
         <f>SUM($D$2:$D218)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G218" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7920,7 +7934,7 @@
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G218,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -7939,7 +7953,7 @@
       <c r="D219" s="2"/>
       <c r="E219" s="2">
         <f>SUM($D$2:$D219)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G219" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7951,7 +7965,7 @@
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G219,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -7970,7 +7984,7 @@
       <c r="D220" s="2"/>
       <c r="E220" s="2">
         <f>SUM($D$2:$D220)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G220" s="1" t="str">
         <f t="shared" si="11"/>
@@ -7982,7 +7996,7 @@
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G220,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8001,7 +8015,7 @@
       <c r="D221" s="2"/>
       <c r="E221" s="2">
         <f>SUM($D$2:$D221)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G221" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8013,7 +8027,7 @@
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G221,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8032,7 +8046,7 @@
       <c r="D222" s="2"/>
       <c r="E222" s="2">
         <f>SUM($D$2:$D222)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G222" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8044,7 +8058,7 @@
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G222,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8063,7 +8077,7 @@
       <c r="D223" s="2"/>
       <c r="E223" s="2">
         <f>SUM($D$2:$D223)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G223" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8075,7 +8089,7 @@
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G223,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8094,7 +8108,7 @@
       <c r="D224" s="2"/>
       <c r="E224" s="2">
         <f>SUM($D$2:$D224)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G224" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8106,7 +8120,7 @@
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G224,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8125,7 +8139,7 @@
       <c r="D225" s="2"/>
       <c r="E225" s="2">
         <f>SUM($D$2:$D225)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G225" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8137,7 +8151,7 @@
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G225,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8156,7 +8170,7 @@
       <c r="D226" s="2"/>
       <c r="E226" s="2">
         <f>SUM($D$2:$D226)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G226" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8168,7 +8182,7 @@
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G226,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8187,7 +8201,7 @@
       <c r="D227" s="2"/>
       <c r="E227" s="2">
         <f>SUM($D$2:$D227)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G227" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8199,7 +8213,7 @@
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G227,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8218,7 +8232,7 @@
       <c r="D228" s="2"/>
       <c r="E228" s="2">
         <f>SUM($D$2:$D228)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G228" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8230,7 +8244,7 @@
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G228,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8249,7 +8263,7 @@
       <c r="D229" s="2"/>
       <c r="E229" s="2">
         <f>SUM($D$2:$D229)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G229" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8261,7 +8275,7 @@
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G229,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8280,7 +8294,7 @@
       <c r="D230" s="2"/>
       <c r="E230" s="2">
         <f>SUM($D$2:$D230)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G230" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8292,7 +8306,7 @@
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G230,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8311,7 +8325,7 @@
       <c r="D231" s="2"/>
       <c r="E231" s="2">
         <f>SUM($D$2:$D231)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G231" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8323,7 +8337,7 @@
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G231,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8342,7 +8356,7 @@
       <c r="D232" s="2"/>
       <c r="E232" s="2">
         <f>SUM($D$2:$D232)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G232" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8354,7 +8368,7 @@
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G232,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8373,7 +8387,7 @@
       <c r="D233" s="2"/>
       <c r="E233" s="2">
         <f>SUM($D$2:$D233)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G233" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8385,7 +8399,7 @@
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G233,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8404,7 +8418,7 @@
       <c r="D234" s="2"/>
       <c r="E234" s="2">
         <f>SUM($D$2:$D234)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G234" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8416,7 +8430,7 @@
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G234,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8435,7 +8449,7 @@
       <c r="D235" s="2"/>
       <c r="E235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G235" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8447,7 +8461,7 @@
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G235,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8466,7 +8480,7 @@
       <c r="D236" s="2"/>
       <c r="E236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G236" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8478,7 +8492,7 @@
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G236,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8497,7 +8511,7 @@
       <c r="D237" s="2"/>
       <c r="E237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G237" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8509,7 +8523,7 @@
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G237,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8528,7 +8542,7 @@
       <c r="D238" s="2"/>
       <c r="E238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G238" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8540,7 +8554,7 @@
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G238,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8559,7 +8573,7 @@
       <c r="D239" s="2"/>
       <c r="E239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G239" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8571,7 +8585,7 @@
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G239,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8590,7 +8604,7 @@
       <c r="D240" s="2"/>
       <c r="E240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G240" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8602,7 +8616,7 @@
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G240,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -8621,7 +8635,7 @@
       <c r="D241" s="2"/>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8633,7 +8647,7 @@
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G241,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8652,7 +8666,7 @@
       <c r="D242" s="2"/>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8664,7 +8678,7 @@
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G242,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -8683,7 +8697,7 @@
       <c r="D243" s="2"/>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8695,7 +8709,7 @@
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G243,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8714,7 +8728,7 @@
       <c r="D244" s="2"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8726,7 +8740,7 @@
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G244,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8745,7 +8759,7 @@
       <c r="D245" s="2"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8757,7 +8771,7 @@
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G245,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8776,7 +8790,7 @@
       <c r="D246" s="2"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8788,7 +8802,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G246,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8807,7 +8821,7 @@
       <c r="D247" s="2"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8819,7 +8833,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G247,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8838,7 +8852,7 @@
       <c r="D248" s="2"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8850,7 +8864,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G248,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -8869,7 +8883,7 @@
       <c r="D249" s="2"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8881,7 +8895,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G249,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -8900,7 +8914,7 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8912,7 +8926,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G250,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -8931,7 +8945,7 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8943,7 +8957,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G251,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -8962,7 +8976,7 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8974,7 +8988,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G252,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -8993,7 +9007,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9005,7 +9019,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G253,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9024,7 +9038,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9036,7 +9050,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G254,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9055,7 +9069,7 @@
       <c r="D255" s="2"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9067,7 +9081,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G255,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9086,7 +9100,7 @@
       <c r="D256" s="2"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9098,7 +9112,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G256,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9117,7 +9131,7 @@
       <c r="D257" s="2"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9129,7 +9143,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G257,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9148,7 +9162,7 @@
       <c r="D258" s="2"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9160,7 +9174,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G258,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9179,7 +9193,7 @@
       <c r="D259" s="2"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="14">B259</f>
@@ -9191,7 +9205,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G259,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9210,7 +9224,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9222,7 +9236,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G260,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9241,7 +9255,7 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9253,7 +9267,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G261,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9272,7 +9286,7 @@
       <c r="D262" s="2"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9284,7 +9298,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G262,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9303,7 +9317,7 @@
       <c r="D263" s="2"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9315,7 +9329,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G263,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9334,7 +9348,7 @@
       <c r="D264" s="2"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9346,7 +9360,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G264,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9365,7 +9379,7 @@
       <c r="D265" s="2"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9377,7 +9391,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G265,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9396,7 +9410,7 @@
       <c r="D266" s="2"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9408,7 +9422,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G266,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -9427,7 +9441,7 @@
       <c r="D267" s="2"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9439,7 +9453,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G267,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -9458,7 +9472,7 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9470,7 +9484,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G268,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -9489,7 +9503,7 @@
       <c r="D269" s="2"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9501,7 +9515,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G269,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9520,7 +9534,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9532,7 +9546,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G270,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9551,7 +9565,7 @@
       <c r="D271" s="2"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9563,7 +9577,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G271,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9582,7 +9596,7 @@
       <c r="D272" s="2"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9594,7 +9608,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G272,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9613,7 +9627,7 @@
       <c r="D273" s="2"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9625,7 +9639,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G273,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9644,7 +9658,7 @@
       <c r="D274" s="2"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9656,7 +9670,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G274,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9675,7 +9689,7 @@
       <c r="D275" s="2"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9687,7 +9701,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G275,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9706,7 +9720,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9718,7 +9732,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G276,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -9737,7 +9751,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9749,7 +9763,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G277,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -9768,7 +9782,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9780,7 +9794,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G278,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -9799,7 +9813,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9811,7 +9825,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G279,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -9830,7 +9844,7 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9842,7 +9856,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G280,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -9861,7 +9875,7 @@
       <c r="D281" s="2"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9873,7 +9887,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G281,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -9892,7 +9906,7 @@
       <c r="D282" s="2"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9904,7 +9918,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G282,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -9923,7 +9937,7 @@
       <c r="D283" s="2"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9935,7 +9949,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G283,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -9954,7 +9968,7 @@
       <c r="D284" s="2"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9966,7 +9980,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G284,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -9985,7 +9999,7 @@
       <c r="D285" s="2"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9997,7 +10011,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G285,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10016,7 +10030,7 @@
       <c r="D286" s="2"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10028,7 +10042,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G286,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10047,7 +10061,7 @@
       <c r="D287" s="2"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10059,7 +10073,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G287,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10078,7 +10092,7 @@
       <c r="D288" s="2"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10090,7 +10104,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G288,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10109,7 +10123,7 @@
       <c r="D289" s="2"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10121,7 +10135,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G289,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10140,7 +10154,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10152,7 +10166,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G290,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10171,7 +10185,7 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10183,7 +10197,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G291,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10202,7 +10216,7 @@
       <c r="D292" s="2"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10214,7 +10228,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G292,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10233,7 +10247,7 @@
       <c r="D293" s="2"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10245,7 +10259,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G293,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10264,7 +10278,7 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10276,7 +10290,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G294,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10295,7 +10309,7 @@
       <c r="D295" s="2"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10307,7 +10321,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G295,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10326,7 +10340,7 @@
       <c r="D296" s="2"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10338,7 +10352,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G296,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10357,7 +10371,7 @@
       <c r="D297" s="2"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10369,7 +10383,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G297,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10388,7 +10402,7 @@
       <c r="D298" s="2"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10400,7 +10414,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G298,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10419,7 +10433,7 @@
       <c r="D299" s="2"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10431,7 +10445,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G299,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10450,7 +10464,7 @@
       <c r="D300" s="2"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10462,7 +10476,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G300,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10481,7 +10495,7 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10493,7 +10507,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G301,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10512,7 +10526,7 @@
       <c r="D302" s="2"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10524,7 +10538,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G302,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10543,7 +10557,7 @@
       <c r="D303" s="2"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10555,7 +10569,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G303,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10574,7 +10588,7 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10586,7 +10600,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G304,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10605,7 +10619,7 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10617,7 +10631,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G305,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10636,7 +10650,7 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10648,7 +10662,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G306,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10667,7 +10681,7 @@
       <c r="D307" s="2"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10679,7 +10693,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G307,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10698,7 +10712,7 @@
       <c r="D308" s="2"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10710,7 +10724,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G308,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10729,7 +10743,7 @@
       <c r="D309" s="2"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10741,7 +10755,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G309,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10760,7 +10774,7 @@
       <c r="D310" s="2"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10772,7 +10786,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G310,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10791,7 +10805,7 @@
       <c r="D311" s="2"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10803,7 +10817,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G311,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10822,7 +10836,7 @@
       <c r="D312" s="2"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10834,7 +10848,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G312,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -10853,7 +10867,7 @@
       <c r="D313" s="2"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10865,7 +10879,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G313,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -10884,7 +10898,7 @@
       <c r="D314" s="2"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10896,7 +10910,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G314,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -10915,7 +10929,7 @@
       <c r="D315" s="2"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10927,7 +10941,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G315,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -10946,7 +10960,7 @@
       <c r="D316" s="2"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10958,7 +10972,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G316,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -10977,7 +10991,7 @@
       <c r="D317" s="2"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10989,7 +11003,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G317,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11008,7 +11022,7 @@
       <c r="D318" s="2"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11020,7 +11034,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G318,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11039,7 +11053,7 @@
       <c r="D319" s="2"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11051,7 +11065,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G319,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11070,7 +11084,7 @@
       <c r="D320" s="2"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11082,7 +11096,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G320,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11101,7 +11115,7 @@
       <c r="D321" s="2"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11113,7 +11127,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G321,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11132,7 +11146,7 @@
       <c r="D322" s="2"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11144,7 +11158,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G322,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11163,7 +11177,7 @@
       <c r="D323" s="2"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="17">B323</f>
@@ -11175,7 +11189,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G323,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11194,7 +11208,7 @@
       <c r="D324" s="2"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11206,7 +11220,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G324,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11225,7 +11239,7 @@
       <c r="D325" s="2"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11237,7 +11251,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G325,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11256,7 +11270,7 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11268,7 +11282,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G326,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11287,7 +11301,7 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11299,7 +11313,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G327,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -11318,7 +11332,7 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11330,7 +11344,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G328,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -11349,7 +11363,7 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11361,7 +11375,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G329,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -11380,7 +11394,7 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11392,7 +11406,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G330,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -11411,7 +11425,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11423,7 +11437,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G331,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -11442,7 +11456,7 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11454,7 +11468,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G332,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -11473,7 +11487,7 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11485,7 +11499,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G333,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -11504,7 +11518,7 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11516,7 +11530,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G334,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -11535,7 +11549,7 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11547,7 +11561,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G335,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -11566,7 +11580,7 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11578,7 +11592,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G336,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -11597,7 +11611,7 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11609,7 +11623,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G337,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -11628,7 +11642,7 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11640,7 +11654,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G338,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -11659,7 +11673,7 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11671,7 +11685,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G339,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -11690,7 +11704,7 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11702,7 +11716,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G340,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -11721,7 +11735,7 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11733,7 +11747,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G341,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -11752,7 +11766,7 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11764,7 +11778,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G342,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -11783,7 +11797,7 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11795,7 +11809,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G343,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -11814,7 +11828,7 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11826,7 +11840,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G344,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -11845,7 +11859,7 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11857,7 +11871,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G345,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -11876,7 +11890,7 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11888,7 +11902,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G346,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -11907,7 +11921,7 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11919,7 +11933,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G347,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -11938,7 +11952,7 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11950,7 +11964,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G348,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -11969,7 +11983,7 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11981,7 +11995,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G349,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -12000,7 +12014,7 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12012,7 +12026,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G350,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -12031,7 +12045,7 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12043,7 +12057,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G351,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -12062,7 +12076,7 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12074,7 +12088,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G352,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -12093,7 +12107,7 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12105,7 +12119,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G353,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -12124,7 +12138,7 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12136,7 +12150,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G354,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -12155,7 +12169,7 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12167,7 +12181,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G355,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -12186,7 +12200,7 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12198,7 +12212,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G356,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -12217,7 +12231,7 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12229,7 +12243,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G357,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -12248,7 +12262,7 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12260,7 +12274,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G358,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -12279,7 +12293,7 @@
       <c r="D359" s="2"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12291,7 +12305,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G359,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -12310,7 +12324,7 @@
       <c r="D360" s="2"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12322,7 +12336,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G360,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -12341,7 +12355,7 @@
       <c r="D361" s="2"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12353,7 +12367,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G361,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -12372,7 +12386,7 @@
       <c r="D362" s="2"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12384,7 +12398,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G362,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -12403,7 +12417,7 @@
       <c r="D363" s="2"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12415,7 +12429,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G363,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -12434,7 +12448,7 @@
       <c r="D364" s="2"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12446,7 +12460,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G364,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -12465,7 +12479,7 @@
       <c r="D365" s="2"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12477,7 +12491,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G365,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -12496,7 +12510,7 @@
       <c r="D366" s="2"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12508,7 +12522,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G366,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -12527,7 +12541,7 @@
       <c r="D367" s="2"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12539,7 +12553,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G367,Tunai[TOTAL],,,-1)</f>
-        <v>42884000</v>
+        <v>45210000</v>
       </c>
     </row>
   </sheetData>
@@ -12573,8 +12587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86C5667-F5BA-4732-841C-6A499F4EB5B6}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D131" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D140" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="D150" sqref="D150"/>

--- a/HARIAN/2024.xlsx
+++ b/HARIAN/2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/277ffa1efc2bfcc1/Apartment Bintaro/Data Harian/BINTARO-APG/HARIAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="230" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB8D3F4A-20DC-4E2F-B12B-855D1846CEF7}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CD48485-7819-4747-8734-A9B1FFE9F3E1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETUP" sheetId="2" r:id="rId1"/>
@@ -895,11 +895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACCD3D5-ABBC-4800-97A3-8932BD05F189}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D209" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D221" sqref="D221"/>
+      <selection pane="bottomRight" activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,11 +7956,11 @@
       </c>
       <c r="H215" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G215)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G215,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7989,11 +7989,11 @@
       </c>
       <c r="H216" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G216)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G216,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8022,11 +8022,11 @@
       </c>
       <c r="H217" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G217)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G217,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8055,11 +8055,11 @@
       </c>
       <c r="H218" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G218)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G218,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8088,11 +8088,11 @@
       </c>
       <c r="H219" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G219)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G219,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8121,11 +8121,11 @@
       </c>
       <c r="H220" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G220)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G220,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8141,10 +8141,12 @@
         <f t="shared" si="13"/>
         <v>7</v>
       </c>
-      <c r="D221" s="2"/>
+      <c r="D221" s="2">
+        <v>320000</v>
+      </c>
       <c r="E221" s="2">
         <f>SUM($D$2:$D221)</f>
-        <v>71409000</v>
+        <v>71729000</v>
       </c>
       <c r="G221" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8152,11 +8154,11 @@
       </c>
       <c r="H221" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G221)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G221,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8172,10 +8174,12 @@
         <f t="shared" si="13"/>
         <v>8</v>
       </c>
-      <c r="D222" s="2"/>
+      <c r="D222" s="2">
+        <v>262000</v>
+      </c>
       <c r="E222" s="2">
         <f>SUM($D$2:$D222)</f>
-        <v>71409000</v>
+        <v>71991000</v>
       </c>
       <c r="G222" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8183,11 +8187,11 @@
       </c>
       <c r="H222" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G222)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G222,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8203,10 +8207,12 @@
         <f t="shared" si="13"/>
         <v>9</v>
       </c>
-      <c r="D223" s="2"/>
+      <c r="D223" s="2">
+        <v>324000</v>
+      </c>
       <c r="E223" s="2">
         <f>SUM($D$2:$D223)</f>
-        <v>71409000</v>
+        <v>72315000</v>
       </c>
       <c r="G223" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8214,11 +8220,11 @@
       </c>
       <c r="H223" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G223)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G223,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8234,10 +8240,12 @@
         <f t="shared" si="13"/>
         <v>10</v>
       </c>
-      <c r="D224" s="2"/>
+      <c r="D224" s="2">
+        <v>223000</v>
+      </c>
       <c r="E224" s="2">
         <f>SUM($D$2:$D224)</f>
-        <v>71409000</v>
+        <v>72538000</v>
       </c>
       <c r="G224" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8245,11 +8253,11 @@
       </c>
       <c r="H224" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G224)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G224,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8265,10 +8273,12 @@
         <f t="shared" si="13"/>
         <v>11</v>
       </c>
-      <c r="D225" s="2"/>
+      <c r="D225" s="2">
+        <v>320000</v>
+      </c>
       <c r="E225" s="2">
         <f>SUM($D$2:$D225)</f>
-        <v>71409000</v>
+        <v>72858000</v>
       </c>
       <c r="G225" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8276,11 +8286,11 @@
       </c>
       <c r="H225" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G225)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G225,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8296,10 +8306,12 @@
         <f t="shared" si="13"/>
         <v>12</v>
       </c>
-      <c r="D226" s="2"/>
+      <c r="D226" s="2">
+        <v>233000</v>
+      </c>
       <c r="E226" s="2">
         <f>SUM($D$2:$D226)</f>
-        <v>71409000</v>
+        <v>73091000</v>
       </c>
       <c r="G226" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8307,11 +8319,11 @@
       </c>
       <c r="H226" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G226)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G226,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8327,10 +8339,12 @@
         <f t="shared" si="13"/>
         <v>13</v>
       </c>
-      <c r="D227" s="2"/>
+      <c r="D227" s="2">
+        <v>425000</v>
+      </c>
       <c r="E227" s="2">
         <f>SUM($D$2:$D227)</f>
-        <v>71409000</v>
+        <v>73516000</v>
       </c>
       <c r="G227" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8338,11 +8352,11 @@
       </c>
       <c r="H227" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G227)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G227,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8358,10 +8372,12 @@
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="D228" s="2"/>
+      <c r="D228" s="2">
+        <v>196000</v>
+      </c>
       <c r="E228" s="2">
         <f>SUM($D$2:$D228)</f>
-        <v>71409000</v>
+        <v>73712000</v>
       </c>
       <c r="G228" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8369,11 +8385,11 @@
       </c>
       <c r="H228" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G228)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G228,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8389,10 +8405,12 @@
         <f t="shared" si="13"/>
         <v>15</v>
       </c>
-      <c r="D229" s="2"/>
+      <c r="D229" s="2">
+        <v>190000</v>
+      </c>
       <c r="E229" s="2">
         <f>SUM($D$2:$D229)</f>
-        <v>71409000</v>
+        <v>73902000</v>
       </c>
       <c r="G229" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8400,11 +8418,11 @@
       </c>
       <c r="H229" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G229)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G229,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8420,10 +8438,12 @@
         <f t="shared" si="13"/>
         <v>16</v>
       </c>
-      <c r="D230" s="2"/>
+      <c r="D230" s="2">
+        <v>194000</v>
+      </c>
       <c r="E230" s="2">
         <f>SUM($D$2:$D230)</f>
-        <v>71409000</v>
+        <v>74096000</v>
       </c>
       <c r="G230" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8431,11 +8451,11 @@
       </c>
       <c r="H230" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G230)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G230,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8451,10 +8471,12 @@
         <f t="shared" si="13"/>
         <v>17</v>
       </c>
-      <c r="D231" s="2"/>
+      <c r="D231" s="2">
+        <v>249000</v>
+      </c>
       <c r="E231" s="2">
         <f>SUM($D$2:$D231)</f>
-        <v>71409000</v>
+        <v>74345000</v>
       </c>
       <c r="G231" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8462,11 +8484,11 @@
       </c>
       <c r="H231" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G231)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G231,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8482,10 +8504,12 @@
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="D232" s="2"/>
+      <c r="D232" s="2">
+        <v>201000</v>
+      </c>
       <c r="E232" s="2">
         <f>SUM($D$2:$D232)</f>
-        <v>71409000</v>
+        <v>74546000</v>
       </c>
       <c r="G232" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8493,11 +8517,11 @@
       </c>
       <c r="H232" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G232)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G232,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8513,10 +8537,12 @@
         <f t="shared" si="13"/>
         <v>19</v>
       </c>
-      <c r="D233" s="2"/>
+      <c r="D233" s="2">
+        <v>145000</v>
+      </c>
       <c r="E233" s="2">
         <f>SUM($D$2:$D233)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G233" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8524,11 +8550,11 @@
       </c>
       <c r="H233" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G233)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G233,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8547,7 +8573,7 @@
       <c r="D234" s="2"/>
       <c r="E234" s="2">
         <f>SUM($D$2:$D234)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G234" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8555,11 +8581,11 @@
       </c>
       <c r="H234" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G234)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G234,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8578,7 +8604,7 @@
       <c r="D235" s="2"/>
       <c r="E235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G235" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8586,11 +8612,11 @@
       </c>
       <c r="H235" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G235)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G235,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8609,7 +8635,7 @@
       <c r="D236" s="2"/>
       <c r="E236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G236" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8617,11 +8643,11 @@
       </c>
       <c r="H236" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G236)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G236,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8640,7 +8666,7 @@
       <c r="D237" s="2"/>
       <c r="E237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G237" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8648,11 +8674,11 @@
       </c>
       <c r="H237" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G237)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G237,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8671,7 +8697,7 @@
       <c r="D238" s="2"/>
       <c r="E238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G238" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8679,11 +8705,11 @@
       </c>
       <c r="H238" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G238)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G238,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8702,7 +8728,7 @@
       <c r="D239" s="2"/>
       <c r="E239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G239" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8710,11 +8736,11 @@
       </c>
       <c r="H239" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G239)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G239,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8733,7 +8759,7 @@
       <c r="D240" s="2"/>
       <c r="E240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G240" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8741,11 +8767,11 @@
       </c>
       <c r="H240" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G240)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G240,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -8764,7 +8790,7 @@
       <c r="D241" s="2"/>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8772,11 +8798,11 @@
       </c>
       <c r="H241" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G241)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G241,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8795,7 +8821,7 @@
       <c r="D242" s="2"/>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8803,11 +8829,11 @@
       </c>
       <c r="H242" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G242)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G242,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -8826,7 +8852,7 @@
       <c r="D243" s="2"/>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8834,11 +8860,11 @@
       </c>
       <c r="H243" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G243)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G243,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8857,7 +8883,7 @@
       <c r="D244" s="2"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8865,11 +8891,11 @@
       </c>
       <c r="H244" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G244)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G244,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8888,7 +8914,7 @@
       <c r="D245" s="2"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8896,11 +8922,11 @@
       </c>
       <c r="H245" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G245)</f>
-        <v>2781000</v>
+        <v>6063000</v>
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G245,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8919,7 +8945,7 @@
       <c r="D246" s="2"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8931,7 +8957,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G246,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8950,7 +8976,7 @@
       <c r="D247" s="2"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8962,7 +8988,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G247,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8981,7 +9007,7 @@
       <c r="D248" s="2"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8993,7 +9019,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G248,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9012,7 +9038,7 @@
       <c r="D249" s="2"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9024,7 +9050,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G249,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9043,7 +9069,7 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9055,7 +9081,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G250,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9074,7 +9100,7 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9086,7 +9112,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G251,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9105,7 +9131,7 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9117,7 +9143,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G252,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9136,7 +9162,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9148,7 +9174,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G253,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9167,7 +9193,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9179,7 +9205,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G254,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9198,7 +9224,7 @@
       <c r="D255" s="2"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9210,7 +9236,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G255,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9229,7 +9255,7 @@
       <c r="D256" s="2"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9241,7 +9267,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G256,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9260,7 +9286,7 @@
       <c r="D257" s="2"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9272,7 +9298,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G257,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9291,7 +9317,7 @@
       <c r="D258" s="2"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9303,7 +9329,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G258,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9322,7 +9348,7 @@
       <c r="D259" s="2"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="14">B259</f>
@@ -9334,7 +9360,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G259,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9353,7 +9379,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9365,7 +9391,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G260,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9384,7 +9410,7 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9396,7 +9422,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G261,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9415,7 +9441,7 @@
       <c r="D262" s="2"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9427,7 +9453,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G262,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9446,7 +9472,7 @@
       <c r="D263" s="2"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9458,7 +9484,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G263,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9477,7 +9503,7 @@
       <c r="D264" s="2"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9489,7 +9515,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G264,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9508,7 +9534,7 @@
       <c r="D265" s="2"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9520,7 +9546,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G265,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9539,7 +9565,7 @@
       <c r="D266" s="2"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9551,7 +9577,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G266,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -9570,7 +9596,7 @@
       <c r="D267" s="2"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9582,7 +9608,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G267,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -9601,7 +9627,7 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9613,7 +9639,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G268,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -9632,7 +9658,7 @@
       <c r="D269" s="2"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9644,7 +9670,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G269,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9663,7 +9689,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9675,7 +9701,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G270,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9694,7 +9720,7 @@
       <c r="D271" s="2"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9706,7 +9732,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G271,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9725,7 +9751,7 @@
       <c r="D272" s="2"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9737,7 +9763,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G272,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9756,7 +9782,7 @@
       <c r="D273" s="2"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9768,7 +9794,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G273,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9787,7 +9813,7 @@
       <c r="D274" s="2"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9799,7 +9825,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G274,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9818,7 +9844,7 @@
       <c r="D275" s="2"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9830,7 +9856,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G275,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9849,7 +9875,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9861,7 +9887,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G276,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -9880,7 +9906,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9892,7 +9918,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G277,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -9911,7 +9937,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9923,7 +9949,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G278,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -9942,7 +9968,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9954,7 +9980,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G279,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -9973,7 +9999,7 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9985,7 +10011,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G280,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10004,7 +10030,7 @@
       <c r="D281" s="2"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10016,7 +10042,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G281,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -10035,7 +10061,7 @@
       <c r="D282" s="2"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10047,7 +10073,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G282,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -10066,7 +10092,7 @@
       <c r="D283" s="2"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10078,7 +10104,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G283,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10097,7 +10123,7 @@
       <c r="D284" s="2"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10109,7 +10135,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G284,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10128,7 +10154,7 @@
       <c r="D285" s="2"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10140,7 +10166,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G285,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10159,7 +10185,7 @@
       <c r="D286" s="2"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10171,7 +10197,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G286,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10190,7 +10216,7 @@
       <c r="D287" s="2"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10202,7 +10228,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G287,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10221,7 +10247,7 @@
       <c r="D288" s="2"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10233,7 +10259,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G288,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10252,7 +10278,7 @@
       <c r="D289" s="2"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10264,7 +10290,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G289,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10283,7 +10309,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10295,7 +10321,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G290,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10314,7 +10340,7 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10326,7 +10352,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G291,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10345,7 +10371,7 @@
       <c r="D292" s="2"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10357,7 +10383,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G292,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10376,7 +10402,7 @@
       <c r="D293" s="2"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10388,7 +10414,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G293,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10407,7 +10433,7 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10419,7 +10445,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G294,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10438,7 +10464,7 @@
       <c r="D295" s="2"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10450,7 +10476,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G295,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10469,7 +10495,7 @@
       <c r="D296" s="2"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10481,7 +10507,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G296,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10500,7 +10526,7 @@
       <c r="D297" s="2"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10512,7 +10538,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G297,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10531,7 +10557,7 @@
       <c r="D298" s="2"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10543,7 +10569,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G298,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10562,7 +10588,7 @@
       <c r="D299" s="2"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10574,7 +10600,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G299,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10593,7 +10619,7 @@
       <c r="D300" s="2"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10605,7 +10631,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G300,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10624,7 +10650,7 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10636,7 +10662,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G301,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10655,7 +10681,7 @@
       <c r="D302" s="2"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10667,7 +10693,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G302,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10686,7 +10712,7 @@
       <c r="D303" s="2"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10698,7 +10724,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G303,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10717,7 +10743,7 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10729,7 +10755,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G304,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10748,7 +10774,7 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10760,7 +10786,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G305,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10779,7 +10805,7 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10791,7 +10817,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G306,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10810,7 +10836,7 @@
       <c r="D307" s="2"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10822,7 +10848,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G307,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10841,7 +10867,7 @@
       <c r="D308" s="2"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10853,7 +10879,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G308,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10872,7 +10898,7 @@
       <c r="D309" s="2"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10884,7 +10910,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G309,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10903,7 +10929,7 @@
       <c r="D310" s="2"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10915,7 +10941,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G310,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10934,7 +10960,7 @@
       <c r="D311" s="2"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10946,7 +10972,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G311,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10965,7 +10991,7 @@
       <c r="D312" s="2"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10977,7 +11003,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G312,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -10996,7 +11022,7 @@
       <c r="D313" s="2"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11008,7 +11034,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G313,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -11027,7 +11053,7 @@
       <c r="D314" s="2"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11039,7 +11065,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G314,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -11058,7 +11084,7 @@
       <c r="D315" s="2"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11070,7 +11096,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G315,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11089,7 +11115,7 @@
       <c r="D316" s="2"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11101,7 +11127,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G316,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11120,7 +11146,7 @@
       <c r="D317" s="2"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11132,7 +11158,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G317,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11151,7 +11177,7 @@
       <c r="D318" s="2"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11163,7 +11189,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G318,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11182,7 +11208,7 @@
       <c r="D319" s="2"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11194,7 +11220,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G319,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11213,7 +11239,7 @@
       <c r="D320" s="2"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11225,7 +11251,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G320,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11244,7 +11270,7 @@
       <c r="D321" s="2"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11256,7 +11282,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G321,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11275,7 +11301,7 @@
       <c r="D322" s="2"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11287,7 +11313,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G322,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11306,7 +11332,7 @@
       <c r="D323" s="2"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="17">B323</f>
@@ -11318,7 +11344,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G323,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11337,7 +11363,7 @@
       <c r="D324" s="2"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11349,7 +11375,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G324,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11368,7 +11394,7 @@
       <c r="D325" s="2"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11380,7 +11406,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G325,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11399,7 +11425,7 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11411,7 +11437,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G326,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11430,7 +11456,7 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11442,7 +11468,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G327,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -11461,7 +11487,7 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11473,7 +11499,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G328,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -11492,7 +11518,7 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11504,7 +11530,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G329,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -11523,7 +11549,7 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11535,7 +11561,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G330,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -11554,7 +11580,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11566,7 +11592,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G331,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -11585,7 +11611,7 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11597,7 +11623,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G332,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -11616,7 +11642,7 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11628,7 +11654,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G333,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -11647,7 +11673,7 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11659,7 +11685,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G334,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -11678,7 +11704,7 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11690,7 +11716,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G335,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -11709,7 +11735,7 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11721,7 +11747,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G336,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -11740,7 +11766,7 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11752,7 +11778,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G337,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -11771,7 +11797,7 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11783,7 +11809,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G338,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -11802,7 +11828,7 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11814,7 +11840,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G339,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -11833,7 +11859,7 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11845,7 +11871,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G340,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -11864,7 +11890,7 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11876,7 +11902,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G341,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -11895,7 +11921,7 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11907,7 +11933,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G342,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -11926,7 +11952,7 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11938,7 +11964,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G343,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -11957,7 +11983,7 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11969,7 +11995,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G344,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -11988,7 +12014,7 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12000,7 +12026,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G345,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -12019,7 +12045,7 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12031,7 +12057,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G346,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12050,7 +12076,7 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12062,7 +12088,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G347,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -12081,7 +12107,7 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12093,7 +12119,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G348,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -12112,7 +12138,7 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12124,7 +12150,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G349,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -12143,7 +12169,7 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12155,7 +12181,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G350,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -12174,7 +12200,7 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12186,7 +12212,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G351,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -12205,7 +12231,7 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12217,7 +12243,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G352,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -12236,7 +12262,7 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12248,7 +12274,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G353,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -12267,7 +12293,7 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12279,7 +12305,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G354,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -12298,7 +12324,7 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12310,7 +12336,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G355,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -12329,7 +12355,7 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12341,7 +12367,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G356,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -12360,7 +12386,7 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12372,7 +12398,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G357,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -12391,7 +12417,7 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12403,7 +12429,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G358,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -12422,7 +12448,7 @@
       <c r="D359" s="2"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12434,7 +12460,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G359,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -12453,7 +12479,7 @@
       <c r="D360" s="2"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12465,7 +12491,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G360,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -12484,7 +12510,7 @@
       <c r="D361" s="2"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12496,7 +12522,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G361,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -12515,7 +12541,7 @@
       <c r="D362" s="2"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12527,7 +12553,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G362,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -12546,7 +12572,7 @@
       <c r="D363" s="2"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12558,7 +12584,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G363,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -12577,7 +12603,7 @@
       <c r="D364" s="2"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12589,7 +12615,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G364,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -12608,7 +12634,7 @@
       <c r="D365" s="2"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12620,7 +12646,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G365,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -12639,7 +12665,7 @@
       <c r="D366" s="2"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12651,7 +12677,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G366,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -12670,7 +12696,7 @@
       <c r="D367" s="2"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12682,7 +12708,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G367,Tunai[TOTAL],,,-1)</f>
-        <v>71409000</v>
+        <v>74691000</v>
       </c>
     </row>
   </sheetData>
@@ -12717,10 +12743,10 @@
   <dimension ref="A1:M367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D203" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E221" sqref="E221"/>
+      <selection pane="bottomRight" activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20134,11 +20160,11 @@
       </c>
       <c r="I215" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H215)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J215" s="2" cm="1">
         <f t="array" ref="J215">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H215,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -20170,11 +20196,11 @@
       </c>
       <c r="I216" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H216)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J216" s="2" cm="1">
         <f t="array" ref="J216">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H216,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -20206,11 +20232,11 @@
       </c>
       <c r="I217" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H217)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J217" s="2" cm="1">
         <f t="array" ref="J217">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H217,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -20242,11 +20268,11 @@
       </c>
       <c r="I218" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H218)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J218" s="2" cm="1">
         <f t="array" ref="J218">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H218,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -20278,11 +20304,11 @@
       </c>
       <c r="I219" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H219)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J219" s="2" cm="1">
         <f t="array" ref="J219">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H219,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -20314,11 +20340,11 @@
       </c>
       <c r="I220" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H220)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J220" s="2" cm="1">
         <f t="array" ref="J220">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H220,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -20334,11 +20360,15 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="D221" s="5"/>
-      <c r="E221" s="2"/>
+      <c r="D221" s="5">
+        <v>1990000</v>
+      </c>
+      <c r="E221" s="2">
+        <v>3123000</v>
+      </c>
       <c r="F221" s="2">
         <f>SUM($D$2:$D221)</f>
-        <v>508662000</v>
+        <v>510652000</v>
       </c>
       <c r="H221" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20346,11 +20376,11 @@
       </c>
       <c r="I221" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H221)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J221" s="2" cm="1">
         <f t="array" ref="J221">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H221,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -20366,11 +20396,15 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="D222" s="4"/>
-      <c r="E222" s="6"/>
+      <c r="D222" s="4">
+        <v>1917000</v>
+      </c>
+      <c r="E222" s="6">
+        <v>2737000</v>
+      </c>
       <c r="F222" s="2">
         <f>SUM($D$2:$D222)</f>
-        <v>508662000</v>
+        <v>512569000</v>
       </c>
       <c r="H222" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20378,11 +20412,11 @@
       </c>
       <c r="I222" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H222)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J222" s="2" cm="1">
         <f t="array" ref="J222">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H222,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -20398,11 +20432,15 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="D223" s="5"/>
-      <c r="E223" s="2"/>
+      <c r="D223" s="5">
+        <v>2198000</v>
+      </c>
+      <c r="E223" s="2">
+        <v>3285000</v>
+      </c>
       <c r="F223" s="2">
         <f>SUM($D$2:$D223)</f>
-        <v>508662000</v>
+        <v>514767000</v>
       </c>
       <c r="H223" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20410,11 +20448,11 @@
       </c>
       <c r="I223" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H223)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J223" s="2" cm="1">
         <f t="array" ref="J223">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H223,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -20430,11 +20468,15 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="D224" s="4"/>
-      <c r="E224" s="6"/>
+      <c r="D224" s="4">
+        <v>2160000</v>
+      </c>
+      <c r="E224" s="6">
+        <v>2635000</v>
+      </c>
       <c r="F224" s="2">
         <f>SUM($D$2:$D224)</f>
-        <v>508662000</v>
+        <v>516927000</v>
       </c>
       <c r="H224" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20442,11 +20484,11 @@
       </c>
       <c r="I224" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H224)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J224" s="2" cm="1">
         <f t="array" ref="J224">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H224,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -20462,11 +20504,15 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="D225" s="5"/>
-      <c r="E225" s="2"/>
+      <c r="D225" s="5">
+        <v>2382000</v>
+      </c>
+      <c r="E225" s="2">
+        <v>1873000</v>
+      </c>
       <c r="F225" s="2">
         <f>SUM($D$2:$D225)</f>
-        <v>508662000</v>
+        <v>519309000</v>
       </c>
       <c r="H225" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20474,11 +20520,11 @@
       </c>
       <c r="I225" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H225)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J225" s="2" cm="1">
         <f t="array" ref="J225">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H225,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -20494,11 +20540,15 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D226" s="4"/>
-      <c r="E226" s="6"/>
+      <c r="D226" s="4">
+        <v>2182000</v>
+      </c>
+      <c r="E226" s="6">
+        <v>2666000</v>
+      </c>
       <c r="F226" s="2">
         <f>SUM($D$2:$D226)</f>
-        <v>508662000</v>
+        <v>521491000</v>
       </c>
       <c r="H226" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20506,11 +20556,11 @@
       </c>
       <c r="I226" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H226)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J226" s="2" cm="1">
         <f t="array" ref="J226">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H226,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -20526,11 +20576,15 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="D227" s="5"/>
-      <c r="E227" s="2"/>
+      <c r="D227" s="5">
+        <v>1986000</v>
+      </c>
+      <c r="E227" s="2">
+        <v>3401000</v>
+      </c>
       <c r="F227" s="2">
         <f>SUM($D$2:$D227)</f>
-        <v>508662000</v>
+        <v>523477000</v>
       </c>
       <c r="H227" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20538,11 +20592,11 @@
       </c>
       <c r="I227" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H227)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J227" s="2" cm="1">
         <f t="array" ref="J227">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H227,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -20558,11 +20612,15 @@
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="D228" s="4"/>
-      <c r="E228" s="6"/>
+      <c r="D228" s="4">
+        <v>1982000</v>
+      </c>
+      <c r="E228" s="6">
+        <v>3360000</v>
+      </c>
       <c r="F228" s="2">
         <f>SUM($D$2:$D228)</f>
-        <v>508662000</v>
+        <v>525459000</v>
       </c>
       <c r="H228" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20570,11 +20628,11 @@
       </c>
       <c r="I228" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H228)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J228" s="2" cm="1">
         <f t="array" ref="J228">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H228,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -20590,11 +20648,15 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="D229" s="5"/>
-      <c r="E229" s="2"/>
+      <c r="D229" s="5">
+        <v>1781000</v>
+      </c>
+      <c r="E229" s="2">
+        <v>2737000</v>
+      </c>
       <c r="F229" s="2">
         <f>SUM($D$2:$D229)</f>
-        <v>508662000</v>
+        <v>527240000</v>
       </c>
       <c r="H229" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20602,11 +20664,11 @@
       </c>
       <c r="I229" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H229)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J229" s="2" cm="1">
         <f t="array" ref="J229">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H229,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -20622,11 +20684,15 @@
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="D230" s="4"/>
-      <c r="E230" s="6"/>
+      <c r="D230" s="4">
+        <v>1694000</v>
+      </c>
+      <c r="E230" s="6">
+        <v>2560000</v>
+      </c>
       <c r="F230" s="2">
         <f>SUM($D$2:$D230)</f>
-        <v>508662000</v>
+        <v>528934000</v>
       </c>
       <c r="H230" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20634,11 +20700,11 @@
       </c>
       <c r="I230" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H230)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J230" s="2" cm="1">
         <f t="array" ref="J230">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H230,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -20654,11 +20720,15 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D231" s="5"/>
-      <c r="E231" s="2"/>
+      <c r="D231" s="5">
+        <v>1948000</v>
+      </c>
+      <c r="E231" s="2">
+        <v>1200000</v>
+      </c>
       <c r="F231" s="2">
         <f>SUM($D$2:$D231)</f>
-        <v>508662000</v>
+        <v>530882000</v>
       </c>
       <c r="H231" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20666,11 +20736,11 @@
       </c>
       <c r="I231" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H231)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J231" s="2" cm="1">
         <f t="array" ref="J231">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H231,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -20686,11 +20756,15 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D232" s="4"/>
-      <c r="E232" s="6"/>
+      <c r="D232" s="4">
+        <v>1310000</v>
+      </c>
+      <c r="E232" s="6">
+        <v>2094000</v>
+      </c>
       <c r="F232" s="2">
         <f>SUM($D$2:$D232)</f>
-        <v>508662000</v>
+        <v>532192000</v>
       </c>
       <c r="H232" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20698,11 +20772,11 @@
       </c>
       <c r="I232" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H232)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J232" s="2" cm="1">
         <f t="array" ref="J232">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H232,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -20718,11 +20792,15 @@
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="D233" s="5"/>
-      <c r="E233" s="2"/>
+      <c r="D233" s="5">
+        <v>1741000</v>
+      </c>
+      <c r="E233" s="2">
+        <v>2324000</v>
+      </c>
       <c r="F233" s="2">
         <f>SUM($D$2:$D233)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H233" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20730,11 +20808,11 @@
       </c>
       <c r="I233" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H233)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J233" s="2" cm="1">
         <f t="array" ref="J233">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H233,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -20754,7 +20832,7 @@
       <c r="E234" s="6"/>
       <c r="F234" s="2">
         <f>SUM($D$2:$D234)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H234" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20762,11 +20840,11 @@
       </c>
       <c r="I234" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H234)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J234" s="2" cm="1">
         <f t="array" ref="J234">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H234,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -20786,7 +20864,7 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H235" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20794,11 +20872,11 @@
       </c>
       <c r="I235" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H235)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J235" s="2" cm="1">
         <f t="array" ref="J235">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H235,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -20818,7 +20896,7 @@
       <c r="E236" s="6"/>
       <c r="F236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H236" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20826,11 +20904,11 @@
       </c>
       <c r="I236" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H236)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J236" s="2" cm="1">
         <f t="array" ref="J236">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H236,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -20850,7 +20928,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H237" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20858,11 +20936,11 @@
       </c>
       <c r="I237" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H237)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J237" s="2" cm="1">
         <f t="array" ref="J237">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H237,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -20882,7 +20960,7 @@
       <c r="E238" s="6"/>
       <c r="F238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H238" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20890,11 +20968,11 @@
       </c>
       <c r="I238" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H238)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J238" s="2" cm="1">
         <f t="array" ref="J238">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H238,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -20914,7 +20992,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H239" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20922,11 +21000,11 @@
       </c>
       <c r="I239" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H239)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J239" s="2" cm="1">
         <f t="array" ref="J239">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H239,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -20946,7 +21024,7 @@
       <c r="E240" s="6"/>
       <c r="F240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H240" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20954,11 +21032,11 @@
       </c>
       <c r="I240" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H240)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J240" s="2" cm="1">
         <f t="array" ref="J240">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H240,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -20978,7 +21056,7 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H241" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20986,11 +21064,11 @@
       </c>
       <c r="I241" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H241)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J241" s="2" cm="1">
         <f t="array" ref="J241">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H241,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -21010,7 +21088,7 @@
       <c r="E242" s="6"/>
       <c r="F242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H242" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21018,11 +21096,11 @@
       </c>
       <c r="I242" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H242)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J242" s="2" cm="1">
         <f t="array" ref="J242">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H242,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -21042,7 +21120,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H243" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21050,11 +21128,11 @@
       </c>
       <c r="I243" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H243)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J243" s="2" cm="1">
         <f t="array" ref="J243">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H243,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -21074,7 +21152,7 @@
       <c r="E244" s="6"/>
       <c r="F244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H244" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21082,11 +21160,11 @@
       </c>
       <c r="I244" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H244)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J244" s="2" cm="1">
         <f t="array" ref="J244">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H244,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -21106,7 +21184,7 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H245" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21114,11 +21192,11 @@
       </c>
       <c r="I245" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H245)</f>
-        <v>13481000</v>
+        <v>38752000</v>
       </c>
       <c r="J245" s="2" cm="1">
         <f t="array" ref="J245">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H245,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -21138,7 +21216,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H246" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21150,7 +21228,7 @@
       </c>
       <c r="J246" s="2" cm="1">
         <f t="array" ref="J246">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H246,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -21170,7 +21248,7 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H247" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21182,7 +21260,7 @@
       </c>
       <c r="J247" s="2" cm="1">
         <f t="array" ref="J247">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H247,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -21202,7 +21280,7 @@
       <c r="E248" s="6"/>
       <c r="F248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H248" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21214,7 +21292,7 @@
       </c>
       <c r="J248" s="2" cm="1">
         <f t="array" ref="J248">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H248,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -21234,7 +21312,7 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H249" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21246,7 +21324,7 @@
       </c>
       <c r="J249" s="2" cm="1">
         <f t="array" ref="J249">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H249,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -21266,7 +21344,7 @@
       <c r="E250" s="6"/>
       <c r="F250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H250" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21278,7 +21356,7 @@
       </c>
       <c r="J250" s="2" cm="1">
         <f t="array" ref="J250">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H250,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -21298,7 +21376,7 @@
       <c r="E251" s="2"/>
       <c r="F251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H251" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21310,7 +21388,7 @@
       </c>
       <c r="J251" s="2" cm="1">
         <f t="array" ref="J251">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H251,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -21330,7 +21408,7 @@
       <c r="E252" s="6"/>
       <c r="F252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H252" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21342,7 +21420,7 @@
       </c>
       <c r="J252" s="2" cm="1">
         <f t="array" ref="J252">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H252,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -21362,7 +21440,7 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H253" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21374,7 +21452,7 @@
       </c>
       <c r="J253" s="2" cm="1">
         <f t="array" ref="J253">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H253,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -21394,7 +21472,7 @@
       <c r="E254" s="6"/>
       <c r="F254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H254" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21406,7 +21484,7 @@
       </c>
       <c r="J254" s="2" cm="1">
         <f t="array" ref="J254">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H254,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -21426,7 +21504,7 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H255" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21438,7 +21516,7 @@
       </c>
       <c r="J255" s="2" cm="1">
         <f t="array" ref="J255">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H255,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -21458,7 +21536,7 @@
       <c r="E256" s="6"/>
       <c r="F256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H256" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21470,7 +21548,7 @@
       </c>
       <c r="J256" s="2" cm="1">
         <f t="array" ref="J256">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H256,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -21490,7 +21568,7 @@
       <c r="E257" s="2"/>
       <c r="F257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H257" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21502,7 +21580,7 @@
       </c>
       <c r="J257" s="2" cm="1">
         <f t="array" ref="J257">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H257,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -21522,7 +21600,7 @@
       <c r="E258" s="6"/>
       <c r="F258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H258" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21534,7 +21612,7 @@
       </c>
       <c r="J258" s="2" cm="1">
         <f t="array" ref="J258">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H258,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -21554,7 +21632,7 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H259" s="1" t="str">
         <f t="shared" ref="H259:H322" si="13">B259</f>
@@ -21566,7 +21644,7 @@
       </c>
       <c r="J259" s="2" cm="1">
         <f t="array" ref="J259">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H259,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -21586,7 +21664,7 @@
       <c r="E260" s="6"/>
       <c r="F260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H260" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21598,7 +21676,7 @@
       </c>
       <c r="J260" s="2" cm="1">
         <f t="array" ref="J260">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H260,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -21618,7 +21696,7 @@
       <c r="E261" s="2"/>
       <c r="F261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H261" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21630,7 +21708,7 @@
       </c>
       <c r="J261" s="2" cm="1">
         <f t="array" ref="J261">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H261,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -21650,7 +21728,7 @@
       <c r="E262" s="6"/>
       <c r="F262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H262" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21662,7 +21740,7 @@
       </c>
       <c r="J262" s="2" cm="1">
         <f t="array" ref="J262">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H262,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -21682,7 +21760,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H263" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21694,7 +21772,7 @@
       </c>
       <c r="J263" s="2" cm="1">
         <f t="array" ref="J263">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H263,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -21714,7 +21792,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H264" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21726,7 +21804,7 @@
       </c>
       <c r="J264" s="2" cm="1">
         <f t="array" ref="J264">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H264,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -21746,7 +21824,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H265" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21758,7 +21836,7 @@
       </c>
       <c r="J265" s="2" cm="1">
         <f t="array" ref="J265">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H265,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -21778,7 +21856,7 @@
       <c r="E266" s="6"/>
       <c r="F266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H266" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21790,7 +21868,7 @@
       </c>
       <c r="J266" s="2" cm="1">
         <f t="array" ref="J266">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H266,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -21810,7 +21888,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H267" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21822,7 +21900,7 @@
       </c>
       <c r="J267" s="2" cm="1">
         <f t="array" ref="J267">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H267,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -21842,7 +21920,7 @@
       <c r="E268" s="6"/>
       <c r="F268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H268" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21854,7 +21932,7 @@
       </c>
       <c r="J268" s="2" cm="1">
         <f t="array" ref="J268">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H268,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -21874,7 +21952,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H269" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21886,7 +21964,7 @@
       </c>
       <c r="J269" s="2" cm="1">
         <f t="array" ref="J269">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H269,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -21906,7 +21984,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H270" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21918,7 +21996,7 @@
       </c>
       <c r="J270" s="2" cm="1">
         <f t="array" ref="J270">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H270,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -21938,7 +22016,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H271" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21950,7 +22028,7 @@
       </c>
       <c r="J271" s="2" cm="1">
         <f t="array" ref="J271">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H271,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -21970,7 +22048,7 @@
       <c r="E272" s="6"/>
       <c r="F272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H272" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21982,7 +22060,7 @@
       </c>
       <c r="J272" s="2" cm="1">
         <f t="array" ref="J272">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H272,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -22002,7 +22080,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H273" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22014,7 +22092,7 @@
       </c>
       <c r="J273" s="2" cm="1">
         <f t="array" ref="J273">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H273,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -22034,7 +22112,7 @@
       <c r="E274" s="6"/>
       <c r="F274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H274" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22046,7 +22124,7 @@
       </c>
       <c r="J274" s="2" cm="1">
         <f t="array" ref="J274">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H274,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -22066,7 +22144,7 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H275" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22078,7 +22156,7 @@
       </c>
       <c r="J275" s="2" cm="1">
         <f t="array" ref="J275">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H275,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -22098,7 +22176,7 @@
       <c r="E276" s="6"/>
       <c r="F276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H276" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22110,7 +22188,7 @@
       </c>
       <c r="J276" s="2" cm="1">
         <f t="array" ref="J276">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H276,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -22130,7 +22208,7 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H277" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22142,7 +22220,7 @@
       </c>
       <c r="J277" s="2" cm="1">
         <f t="array" ref="J277">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H277,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -22162,7 +22240,7 @@
       <c r="E278" s="6"/>
       <c r="F278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H278" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22174,7 +22252,7 @@
       </c>
       <c r="J278" s="2" cm="1">
         <f t="array" ref="J278">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H278,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -22194,7 +22272,7 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H279" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22206,7 +22284,7 @@
       </c>
       <c r="J279" s="2" cm="1">
         <f t="array" ref="J279">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H279,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -22226,7 +22304,7 @@
       <c r="E280" s="6"/>
       <c r="F280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H280" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22238,7 +22316,7 @@
       </c>
       <c r="J280" s="2" cm="1">
         <f t="array" ref="J280">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H280,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -22258,7 +22336,7 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H281" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22270,7 +22348,7 @@
       </c>
       <c r="J281" s="2" cm="1">
         <f t="array" ref="J281">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H281,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -22290,7 +22368,7 @@
       <c r="E282" s="6"/>
       <c r="F282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H282" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22302,7 +22380,7 @@
       </c>
       <c r="J282" s="2" cm="1">
         <f t="array" ref="J282">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H282,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -22322,7 +22400,7 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H283" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22334,7 +22412,7 @@
       </c>
       <c r="J283" s="2" cm="1">
         <f t="array" ref="J283">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H283,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -22354,7 +22432,7 @@
       <c r="E284" s="6"/>
       <c r="F284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H284" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22366,7 +22444,7 @@
       </c>
       <c r="J284" s="2" cm="1">
         <f t="array" ref="J284">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H284,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -22386,7 +22464,7 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H285" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22398,7 +22476,7 @@
       </c>
       <c r="J285" s="2" cm="1">
         <f t="array" ref="J285">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H285,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -22418,7 +22496,7 @@
       <c r="E286" s="6"/>
       <c r="F286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H286" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22430,7 +22508,7 @@
       </c>
       <c r="J286" s="2" cm="1">
         <f t="array" ref="J286">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H286,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -22450,7 +22528,7 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H287" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22462,7 +22540,7 @@
       </c>
       <c r="J287" s="2" cm="1">
         <f t="array" ref="J287">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H287,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -22482,7 +22560,7 @@
       <c r="E288" s="6"/>
       <c r="F288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H288" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22494,7 +22572,7 @@
       </c>
       <c r="J288" s="2" cm="1">
         <f t="array" ref="J288">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H288,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -22514,7 +22592,7 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H289" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22526,7 +22604,7 @@
       </c>
       <c r="J289" s="2" cm="1">
         <f t="array" ref="J289">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H289,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -22546,7 +22624,7 @@
       <c r="E290" s="6"/>
       <c r="F290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H290" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22558,7 +22636,7 @@
       </c>
       <c r="J290" s="2" cm="1">
         <f t="array" ref="J290">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H290,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -22578,7 +22656,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H291" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22590,7 +22668,7 @@
       </c>
       <c r="J291" s="2" cm="1">
         <f t="array" ref="J291">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H291,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -22610,7 +22688,7 @@
       <c r="E292" s="6"/>
       <c r="F292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H292" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22622,7 +22700,7 @@
       </c>
       <c r="J292" s="2" cm="1">
         <f t="array" ref="J292">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H292,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -22642,7 +22720,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H293" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22654,7 +22732,7 @@
       </c>
       <c r="J293" s="2" cm="1">
         <f t="array" ref="J293">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H293,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -22674,7 +22752,7 @@
       <c r="E294" s="6"/>
       <c r="F294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H294" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22686,7 +22764,7 @@
       </c>
       <c r="J294" s="2" cm="1">
         <f t="array" ref="J294">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H294,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -22706,7 +22784,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H295" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22718,7 +22796,7 @@
       </c>
       <c r="J295" s="2" cm="1">
         <f t="array" ref="J295">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H295,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -22738,7 +22816,7 @@
       <c r="E296" s="6"/>
       <c r="F296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H296" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22750,7 +22828,7 @@
       </c>
       <c r="J296" s="2" cm="1">
         <f t="array" ref="J296">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H296,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -22770,7 +22848,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H297" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22782,7 +22860,7 @@
       </c>
       <c r="J297" s="2" cm="1">
         <f t="array" ref="J297">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H297,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -22802,7 +22880,7 @@
       <c r="E298" s="6"/>
       <c r="F298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H298" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22814,7 +22892,7 @@
       </c>
       <c r="J298" s="2" cm="1">
         <f t="array" ref="J298">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H298,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -22834,7 +22912,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H299" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22846,7 +22924,7 @@
       </c>
       <c r="J299" s="2" cm="1">
         <f t="array" ref="J299">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H299,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -22866,7 +22944,7 @@
       <c r="E300" s="6"/>
       <c r="F300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H300" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22878,7 +22956,7 @@
       </c>
       <c r="J300" s="2" cm="1">
         <f t="array" ref="J300">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H300,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -22898,7 +22976,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H301" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22910,7 +22988,7 @@
       </c>
       <c r="J301" s="2" cm="1">
         <f t="array" ref="J301">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H301,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -22930,7 +23008,7 @@
       <c r="E302" s="6"/>
       <c r="F302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22942,7 +23020,7 @@
       </c>
       <c r="J302" s="2" cm="1">
         <f t="array" ref="J302">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H302,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -22962,7 +23040,7 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22974,7 +23052,7 @@
       </c>
       <c r="J303" s="2" cm="1">
         <f t="array" ref="J303">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H303,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -22994,7 +23072,7 @@
       <c r="E304" s="6"/>
       <c r="F304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23006,7 +23084,7 @@
       </c>
       <c r="J304" s="2" cm="1">
         <f t="array" ref="J304">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H304,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -23026,7 +23104,7 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23038,7 +23116,7 @@
       </c>
       <c r="J305" s="2" cm="1">
         <f t="array" ref="J305">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H305,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -23058,7 +23136,7 @@
       <c r="E306" s="6"/>
       <c r="F306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23070,7 +23148,7 @@
       </c>
       <c r="J306" s="2" cm="1">
         <f t="array" ref="J306">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H306,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -23090,7 +23168,7 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23102,7 +23180,7 @@
       </c>
       <c r="J307" s="2" cm="1">
         <f t="array" ref="J307">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H307,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -23122,7 +23200,7 @@
       <c r="E308" s="6"/>
       <c r="F308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23134,7 +23212,7 @@
       </c>
       <c r="J308" s="2" cm="1">
         <f t="array" ref="J308">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H308,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -23154,7 +23232,7 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23166,7 +23244,7 @@
       </c>
       <c r="J309" s="2" cm="1">
         <f t="array" ref="J309">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H309,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -23186,7 +23264,7 @@
       <c r="E310" s="6"/>
       <c r="F310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23198,7 +23276,7 @@
       </c>
       <c r="J310" s="2" cm="1">
         <f t="array" ref="J310">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H310,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -23218,7 +23296,7 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23230,7 +23308,7 @@
       </c>
       <c r="J311" s="2" cm="1">
         <f t="array" ref="J311">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H311,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -23250,7 +23328,7 @@
       <c r="E312" s="6"/>
       <c r="F312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23262,7 +23340,7 @@
       </c>
       <c r="J312" s="2" cm="1">
         <f t="array" ref="J312">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H312,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -23282,7 +23360,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23294,7 +23372,7 @@
       </c>
       <c r="J313" s="2" cm="1">
         <f t="array" ref="J313">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H313,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -23314,7 +23392,7 @@
       <c r="E314" s="6"/>
       <c r="F314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23326,7 +23404,7 @@
       </c>
       <c r="J314" s="2" cm="1">
         <f t="array" ref="J314">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H314,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -23346,7 +23424,7 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23358,7 +23436,7 @@
       </c>
       <c r="J315" s="2" cm="1">
         <f t="array" ref="J315">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H315,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -23378,7 +23456,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23390,7 +23468,7 @@
       </c>
       <c r="J316" s="2" cm="1">
         <f t="array" ref="J316">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H316,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -23410,7 +23488,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23422,7 +23500,7 @@
       </c>
       <c r="J317" s="2" cm="1">
         <f t="array" ref="J317">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H317,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -23442,7 +23520,7 @@
       <c r="E318" s="6"/>
       <c r="F318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23454,7 +23532,7 @@
       </c>
       <c r="J318" s="2" cm="1">
         <f t="array" ref="J318">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H318,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -23474,7 +23552,7 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23486,7 +23564,7 @@
       </c>
       <c r="J319" s="2" cm="1">
         <f t="array" ref="J319">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H319,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -23506,7 +23584,7 @@
       <c r="E320" s="6"/>
       <c r="F320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23518,7 +23596,7 @@
       </c>
       <c r="J320" s="2" cm="1">
         <f t="array" ref="J320">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H320,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -23538,7 +23616,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23550,7 +23628,7 @@
       </c>
       <c r="J321" s="2" cm="1">
         <f t="array" ref="J321">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H321,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -23570,7 +23648,7 @@
       <c r="E322" s="6"/>
       <c r="F322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23582,7 +23660,7 @@
       </c>
       <c r="J322" s="2" cm="1">
         <f t="array" ref="J322">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H322,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -23602,7 +23680,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H323" s="1" t="str">
         <f t="shared" ref="H323:H367" si="16">B323</f>
@@ -23614,7 +23692,7 @@
       </c>
       <c r="J323" s="2" cm="1">
         <f t="array" ref="J323">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H323,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -23634,7 +23712,7 @@
       <c r="E324" s="6"/>
       <c r="F324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23646,7 +23724,7 @@
       </c>
       <c r="J324" s="2" cm="1">
         <f t="array" ref="J324">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H324,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -23666,7 +23744,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23678,7 +23756,7 @@
       </c>
       <c r="J325" s="2" cm="1">
         <f t="array" ref="J325">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H325,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -23698,7 +23776,7 @@
       <c r="E326" s="6"/>
       <c r="F326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23710,7 +23788,7 @@
       </c>
       <c r="J326" s="2" cm="1">
         <f t="array" ref="J326">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H326,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -23730,7 +23808,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23742,7 +23820,7 @@
       </c>
       <c r="J327" s="2" cm="1">
         <f t="array" ref="J327">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H327,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -23762,7 +23840,7 @@
       <c r="E328" s="6"/>
       <c r="F328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23774,7 +23852,7 @@
       </c>
       <c r="J328" s="2" cm="1">
         <f t="array" ref="J328">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H328,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -23794,7 +23872,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23806,7 +23884,7 @@
       </c>
       <c r="J329" s="2" cm="1">
         <f t="array" ref="J329">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H329,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -23826,7 +23904,7 @@
       <c r="E330" s="6"/>
       <c r="F330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23838,7 +23916,7 @@
       </c>
       <c r="J330" s="2" cm="1">
         <f t="array" ref="J330">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H330,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -23858,7 +23936,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23870,7 +23948,7 @@
       </c>
       <c r="J331" s="2" cm="1">
         <f t="array" ref="J331">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H331,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -23890,7 +23968,7 @@
       <c r="E332" s="6"/>
       <c r="F332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23902,7 +23980,7 @@
       </c>
       <c r="J332" s="2" cm="1">
         <f t="array" ref="J332">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H332,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -23922,7 +24000,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23934,7 +24012,7 @@
       </c>
       <c r="J333" s="2" cm="1">
         <f t="array" ref="J333">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H333,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -23954,7 +24032,7 @@
       <c r="E334" s="6"/>
       <c r="F334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23966,7 +24044,7 @@
       </c>
       <c r="J334" s="2" cm="1">
         <f t="array" ref="J334">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H334,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -23986,7 +24064,7 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23998,7 +24076,7 @@
       </c>
       <c r="J335" s="2" cm="1">
         <f t="array" ref="J335">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H335,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -24018,7 +24096,7 @@
       <c r="E336" s="6"/>
       <c r="F336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24030,7 +24108,7 @@
       </c>
       <c r="J336" s="2" cm="1">
         <f t="array" ref="J336">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H336,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -24050,7 +24128,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24062,7 +24140,7 @@
       </c>
       <c r="J337" s="2" cm="1">
         <f t="array" ref="J337">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H337,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -24082,7 +24160,7 @@
       <c r="E338" s="6"/>
       <c r="F338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24094,7 +24172,7 @@
       </c>
       <c r="J338" s="2" cm="1">
         <f t="array" ref="J338">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H338,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -24114,7 +24192,7 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24126,7 +24204,7 @@
       </c>
       <c r="J339" s="2" cm="1">
         <f t="array" ref="J339">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H339,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -24146,7 +24224,7 @@
       <c r="E340" s="6"/>
       <c r="F340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24158,7 +24236,7 @@
       </c>
       <c r="J340" s="2" cm="1">
         <f t="array" ref="J340">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H340,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -24178,7 +24256,7 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24190,7 +24268,7 @@
       </c>
       <c r="J341" s="2" cm="1">
         <f t="array" ref="J341">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H341,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -24210,7 +24288,7 @@
       <c r="E342" s="6"/>
       <c r="F342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24222,7 +24300,7 @@
       </c>
       <c r="J342" s="2" cm="1">
         <f t="array" ref="J342">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H342,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -24242,7 +24320,7 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24254,7 +24332,7 @@
       </c>
       <c r="J343" s="2" cm="1">
         <f t="array" ref="J343">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H343,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -24274,7 +24352,7 @@
       <c r="E344" s="6"/>
       <c r="F344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24286,7 +24364,7 @@
       </c>
       <c r="J344" s="2" cm="1">
         <f t="array" ref="J344">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H344,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -24306,7 +24384,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24318,7 +24396,7 @@
       </c>
       <c r="J345" s="2" cm="1">
         <f t="array" ref="J345">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H345,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -24338,7 +24416,7 @@
       <c r="E346" s="6"/>
       <c r="F346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24350,7 +24428,7 @@
       </c>
       <c r="J346" s="2" cm="1">
         <f t="array" ref="J346">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H346,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -24370,7 +24448,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24382,7 +24460,7 @@
       </c>
       <c r="J347" s="2" cm="1">
         <f t="array" ref="J347">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H347,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -24402,7 +24480,7 @@
       <c r="E348" s="6"/>
       <c r="F348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24414,7 +24492,7 @@
       </c>
       <c r="J348" s="2" cm="1">
         <f t="array" ref="J348">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H348,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -24434,7 +24512,7 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24446,7 +24524,7 @@
       </c>
       <c r="J349" s="2" cm="1">
         <f t="array" ref="J349">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H349,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -24466,7 +24544,7 @@
       <c r="E350" s="6"/>
       <c r="F350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24478,7 +24556,7 @@
       </c>
       <c r="J350" s="2" cm="1">
         <f t="array" ref="J350">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H350,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -24498,7 +24576,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24510,7 +24588,7 @@
       </c>
       <c r="J351" s="2" cm="1">
         <f t="array" ref="J351">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H351,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -24530,7 +24608,7 @@
       <c r="E352" s="6"/>
       <c r="F352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24542,7 +24620,7 @@
       </c>
       <c r="J352" s="2" cm="1">
         <f t="array" ref="J352">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H352,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -24562,7 +24640,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24574,7 +24652,7 @@
       </c>
       <c r="J353" s="2" cm="1">
         <f t="array" ref="J353">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H353,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -24594,7 +24672,7 @@
       <c r="E354" s="6"/>
       <c r="F354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24606,7 +24684,7 @@
       </c>
       <c r="J354" s="2" cm="1">
         <f t="array" ref="J354">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H354,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -24626,7 +24704,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24638,7 +24716,7 @@
       </c>
       <c r="J355" s="2" cm="1">
         <f t="array" ref="J355">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H355,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -24658,7 +24736,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24670,7 +24748,7 @@
       </c>
       <c r="J356" s="2" cm="1">
         <f t="array" ref="J356">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H356,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -24690,7 +24768,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24702,7 +24780,7 @@
       </c>
       <c r="J357" s="2" cm="1">
         <f t="array" ref="J357">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H357,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -24722,7 +24800,7 @@
       <c r="E358" s="6"/>
       <c r="F358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24734,7 +24812,7 @@
       </c>
       <c r="J358" s="2" cm="1">
         <f t="array" ref="J358">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H358,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -24754,7 +24832,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24766,7 +24844,7 @@
       </c>
       <c r="J359" s="2" cm="1">
         <f t="array" ref="J359">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H359,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -24786,7 +24864,7 @@
       <c r="E360" s="6"/>
       <c r="F360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24798,7 +24876,7 @@
       </c>
       <c r="J360" s="2" cm="1">
         <f t="array" ref="J360">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H360,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -24818,7 +24896,7 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24830,7 +24908,7 @@
       </c>
       <c r="J361" s="2" cm="1">
         <f t="array" ref="J361">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H361,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -24850,7 +24928,7 @@
       <c r="E362" s="6"/>
       <c r="F362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24862,7 +24940,7 @@
       </c>
       <c r="J362" s="2" cm="1">
         <f t="array" ref="J362">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H362,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -24882,7 +24960,7 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24894,7 +24972,7 @@
       </c>
       <c r="J363" s="2" cm="1">
         <f t="array" ref="J363">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H363,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -24914,7 +24992,7 @@
       <c r="E364" s="6"/>
       <c r="F364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24926,7 +25004,7 @@
       </c>
       <c r="J364" s="2" cm="1">
         <f t="array" ref="J364">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H364,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -24946,7 +25024,7 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24958,7 +25036,7 @@
       </c>
       <c r="J365" s="2" cm="1">
         <f t="array" ref="J365">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H365,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -24978,7 +25056,7 @@
       <c r="E366" s="6"/>
       <c r="F366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24990,7 +25068,7 @@
       </c>
       <c r="J366" s="2" cm="1">
         <f t="array" ref="J366">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H366,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -25010,7 +25088,7 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
       <c r="H367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25022,7 +25100,7 @@
       </c>
       <c r="J367" s="2" cm="1">
         <f t="array" ref="J367">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H367,Belanja[TOTAL],,,-1)</f>
-        <v>508662000</v>
+        <v>533933000</v>
       </c>
     </row>
   </sheetData>
@@ -25064,11 +25142,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C1940F-1311-4B0D-B6DB-47C1226A8423}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D207" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D216" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D221" sqref="D221"/>
+      <selection pane="bottomRight" activeCell="D234" sqref="D234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32131,11 +32209,11 @@
       </c>
       <c r="H215" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G215)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G215,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -32164,11 +32242,11 @@
       </c>
       <c r="H216" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G216)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G216,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -32197,11 +32275,11 @@
       </c>
       <c r="H217" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G217)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G217,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -32230,11 +32308,11 @@
       </c>
       <c r="H218" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G218)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G218,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -32263,11 +32341,11 @@
       </c>
       <c r="H219" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G219)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G219,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -32296,11 +32374,11 @@
       </c>
       <c r="H220" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G220)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G220,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -32316,10 +32394,12 @@
         <f t="shared" si="9"/>
         <v>7</v>
       </c>
-      <c r="D221" s="5"/>
+      <c r="D221" s="5">
+        <v>1990000</v>
+      </c>
       <c r="E221" s="2">
         <f>SUM($D$2:$D221)</f>
-        <v>379552000</v>
+        <v>381542000</v>
       </c>
       <c r="G221" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32327,11 +32407,11 @@
       </c>
       <c r="H221" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G221)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G221,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -32347,10 +32427,12 @@
         <f t="shared" si="9"/>
         <v>8</v>
       </c>
-      <c r="D222" s="4"/>
+      <c r="D222" s="4">
+        <v>1917000</v>
+      </c>
       <c r="E222" s="2">
         <f>SUM($D$2:$D222)</f>
-        <v>379552000</v>
+        <v>383459000</v>
       </c>
       <c r="G222" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32358,11 +32440,11 @@
       </c>
       <c r="H222" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G222)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G222,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -32378,10 +32460,12 @@
         <f t="shared" si="9"/>
         <v>9</v>
       </c>
-      <c r="D223" s="5"/>
+      <c r="D223" s="5">
+        <v>2198000</v>
+      </c>
       <c r="E223" s="2">
         <f>SUM($D$2:$D223)</f>
-        <v>379552000</v>
+        <v>385657000</v>
       </c>
       <c r="G223" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32389,11 +32473,11 @@
       </c>
       <c r="H223" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G223)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G223,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -32409,10 +32493,12 @@
         <f t="shared" si="9"/>
         <v>10</v>
       </c>
-      <c r="D224" s="4"/>
+      <c r="D224" s="4">
+        <v>2162000</v>
+      </c>
       <c r="E224" s="2">
         <f>SUM($D$2:$D224)</f>
-        <v>379552000</v>
+        <v>387819000</v>
       </c>
       <c r="G224" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32420,11 +32506,11 @@
       </c>
       <c r="H224" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G224)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G224,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -32440,10 +32526,12 @@
         <f t="shared" si="9"/>
         <v>11</v>
       </c>
-      <c r="D225" s="5"/>
+      <c r="D225" s="5">
+        <v>2382000</v>
+      </c>
       <c r="E225" s="2">
         <f>SUM($D$2:$D225)</f>
-        <v>379552000</v>
+        <v>390201000</v>
       </c>
       <c r="G225" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32451,11 +32539,11 @@
       </c>
       <c r="H225" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G225)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G225,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -32471,10 +32559,12 @@
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
-      <c r="D226" s="4"/>
+      <c r="D226" s="4">
+        <v>2182000</v>
+      </c>
       <c r="E226" s="2">
         <f>SUM($D$2:$D226)</f>
-        <v>379552000</v>
+        <v>392383000</v>
       </c>
       <c r="G226" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32482,11 +32572,11 @@
       </c>
       <c r="H226" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G226)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G226,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -32502,10 +32592,12 @@
         <f t="shared" si="9"/>
         <v>13</v>
       </c>
-      <c r="D227" s="5"/>
+      <c r="D227" s="5">
+        <v>1986000</v>
+      </c>
       <c r="E227" s="2">
         <f>SUM($D$2:$D227)</f>
-        <v>379552000</v>
+        <v>394369000</v>
       </c>
       <c r="G227" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32513,11 +32605,11 @@
       </c>
       <c r="H227" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G227)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G227,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -32533,10 +32625,12 @@
         <f t="shared" si="9"/>
         <v>14</v>
       </c>
-      <c r="D228" s="4"/>
+      <c r="D228" s="4">
+        <v>1982000</v>
+      </c>
       <c r="E228" s="2">
         <f>SUM($D$2:$D228)</f>
-        <v>379552000</v>
+        <v>396351000</v>
       </c>
       <c r="G228" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32544,11 +32638,11 @@
       </c>
       <c r="H228" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G228)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G228,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -32564,10 +32658,12 @@
         <f t="shared" si="9"/>
         <v>15</v>
       </c>
-      <c r="D229" s="5"/>
+      <c r="D229" s="5">
+        <v>1781000</v>
+      </c>
       <c r="E229" s="2">
         <f>SUM($D$2:$D229)</f>
-        <v>379552000</v>
+        <v>398132000</v>
       </c>
       <c r="G229" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32575,11 +32671,11 @@
       </c>
       <c r="H229" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G229)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G229,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -32595,10 +32691,12 @@
         <f t="shared" si="9"/>
         <v>16</v>
       </c>
-      <c r="D230" s="4"/>
+      <c r="D230" s="4">
+        <v>1694000</v>
+      </c>
       <c r="E230" s="2">
         <f>SUM($D$2:$D230)</f>
-        <v>379552000</v>
+        <v>399826000</v>
       </c>
       <c r="G230" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32606,11 +32704,11 @@
       </c>
       <c r="H230" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G230)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G230,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -32626,10 +32724,12 @@
         <f t="shared" si="9"/>
         <v>17</v>
       </c>
-      <c r="D231" s="5"/>
+      <c r="D231" s="5">
+        <v>1948000</v>
+      </c>
       <c r="E231" s="2">
         <f>SUM($D$2:$D231)</f>
-        <v>379552000</v>
+        <v>401774000</v>
       </c>
       <c r="G231" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32637,11 +32737,11 @@
       </c>
       <c r="H231" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G231)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G231,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -32657,10 +32757,12 @@
         <f t="shared" si="9"/>
         <v>18</v>
       </c>
-      <c r="D232" s="4"/>
+      <c r="D232" s="4">
+        <v>1310000</v>
+      </c>
       <c r="E232" s="2">
         <f>SUM($D$2:$D232)</f>
-        <v>379552000</v>
+        <v>403084000</v>
       </c>
       <c r="G232" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32668,11 +32770,11 @@
       </c>
       <c r="H232" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G232)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G232,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -32688,10 +32790,12 @@
         <f t="shared" si="9"/>
         <v>19</v>
       </c>
-      <c r="D233" s="5"/>
+      <c r="D233" s="5">
+        <v>1741000</v>
+      </c>
       <c r="E233" s="2">
         <f>SUM($D$2:$D233)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G233" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32699,11 +32803,11 @@
       </c>
       <c r="H233" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G233)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G233,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -32722,7 +32826,7 @@
       <c r="D234" s="4"/>
       <c r="E234" s="2">
         <f>SUM($D$2:$D234)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G234" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32730,11 +32834,11 @@
       </c>
       <c r="H234" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G234)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G234,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -32753,7 +32857,7 @@
       <c r="D235" s="5"/>
       <c r="E235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G235" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32761,11 +32865,11 @@
       </c>
       <c r="H235" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G235)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G235,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -32784,7 +32888,7 @@
       <c r="D236" s="4"/>
       <c r="E236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G236" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32792,11 +32896,11 @@
       </c>
       <c r="H236" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G236)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G236,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -32815,7 +32919,7 @@
       <c r="D237" s="5"/>
       <c r="E237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G237" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32823,11 +32927,11 @@
       </c>
       <c r="H237" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G237)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G237,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -32846,7 +32950,7 @@
       <c r="D238" s="4"/>
       <c r="E238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G238" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32854,11 +32958,11 @@
       </c>
       <c r="H238" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G238)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G238,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -32877,7 +32981,7 @@
       <c r="D239" s="5"/>
       <c r="E239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G239" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32885,11 +32989,11 @@
       </c>
       <c r="H239" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G239)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G239,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -32908,7 +33012,7 @@
       <c r="D240" s="4"/>
       <c r="E240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G240" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32916,11 +33020,11 @@
       </c>
       <c r="H240" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G240)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G240,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -32939,7 +33043,7 @@
       <c r="D241" s="5"/>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32947,11 +33051,11 @@
       </c>
       <c r="H241" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G241)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G241,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -32970,7 +33074,7 @@
       <c r="D242" s="4"/>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32978,11 +33082,11 @@
       </c>
       <c r="H242" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G242)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G242,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -33001,7 +33105,7 @@
       <c r="D243" s="5"/>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33009,11 +33113,11 @@
       </c>
       <c r="H243" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G243)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G243,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -33032,7 +33136,7 @@
       <c r="D244" s="4"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33040,11 +33144,11 @@
       </c>
       <c r="H244" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G244)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G244,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -33063,7 +33167,7 @@
       <c r="D245" s="5"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33071,11 +33175,11 @@
       </c>
       <c r="H245" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G245)</f>
-        <v>13481000</v>
+        <v>38754000</v>
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G245,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -33094,7 +33198,7 @@
       <c r="D246" s="4"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33106,7 +33210,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G246,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -33125,7 +33229,7 @@
       <c r="D247" s="5"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33137,7 +33241,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G247,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -33156,7 +33260,7 @@
       <c r="D248" s="4"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33168,7 +33272,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G248,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -33187,7 +33291,7 @@
       <c r="D249" s="5"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33199,7 +33303,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G249,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -33218,7 +33322,7 @@
       <c r="D250" s="4"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33230,7 +33334,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G250,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -33249,7 +33353,7 @@
       <c r="D251" s="5"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33261,7 +33365,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G251,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -33280,7 +33384,7 @@
       <c r="D252" s="4"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33292,7 +33396,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G252,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -33311,7 +33415,7 @@
       <c r="D253" s="5"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33323,7 +33427,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G253,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -33342,7 +33446,7 @@
       <c r="D254" s="4"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33354,7 +33458,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G254,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -33373,7 +33477,7 @@
       <c r="D255" s="5"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33385,7 +33489,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G255,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -33404,7 +33508,7 @@
       <c r="D256" s="4"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33416,7 +33520,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G256,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -33435,7 +33539,7 @@
       <c r="D257" s="5"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33447,7 +33551,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G257,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -33466,7 +33570,7 @@
       <c r="D258" s="4"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33478,7 +33582,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G258,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -33497,7 +33601,7 @@
       <c r="D259" s="5"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="13">B259</f>
@@ -33509,7 +33613,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G259,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -33528,7 +33632,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33540,7 +33644,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G260,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -33559,7 +33663,7 @@
       <c r="D261" s="5"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33571,7 +33675,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G261,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -33590,7 +33694,7 @@
       <c r="D262" s="4"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33602,7 +33706,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G262,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -33621,7 +33725,7 @@
       <c r="D263" s="5"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33633,7 +33737,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G263,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -33652,7 +33756,7 @@
       <c r="D264" s="4"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33664,7 +33768,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G264,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -33683,7 +33787,7 @@
       <c r="D265" s="5"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33695,7 +33799,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G265,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -33714,7 +33818,7 @@
       <c r="D266" s="4"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33726,7 +33830,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G266,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -33745,7 +33849,7 @@
       <c r="D267" s="5"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33757,7 +33861,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G267,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -33776,7 +33880,7 @@
       <c r="D268" s="4"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33788,7 +33892,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G268,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -33807,7 +33911,7 @@
       <c r="D269" s="5"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33819,7 +33923,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G269,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -33838,7 +33942,7 @@
       <c r="D270" s="4"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33850,7 +33954,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G270,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -33869,7 +33973,7 @@
       <c r="D271" s="5"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33881,7 +33985,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G271,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -33900,7 +34004,7 @@
       <c r="D272" s="4"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33912,7 +34016,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G272,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -33931,7 +34035,7 @@
       <c r="D273" s="5"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33943,7 +34047,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G273,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -33962,7 +34066,7 @@
       <c r="D274" s="4"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33974,7 +34078,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G274,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -33993,7 +34097,7 @@
       <c r="D275" s="5"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34005,7 +34109,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G275,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -34024,7 +34128,7 @@
       <c r="D276" s="4"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34036,7 +34140,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G276,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -34055,7 +34159,7 @@
       <c r="D277" s="5"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34067,7 +34171,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G277,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -34086,7 +34190,7 @@
       <c r="D278" s="4"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34098,7 +34202,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G278,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -34117,7 +34221,7 @@
       <c r="D279" s="5"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34129,7 +34233,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G279,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -34148,7 +34252,7 @@
       <c r="D280" s="4"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34160,7 +34264,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G280,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -34179,7 +34283,7 @@
       <c r="D281" s="5"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34191,7 +34295,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G281,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -34210,7 +34314,7 @@
       <c r="D282" s="4"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34222,7 +34326,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G282,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -34241,7 +34345,7 @@
       <c r="D283" s="5"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34253,7 +34357,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G283,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -34272,7 +34376,7 @@
       <c r="D284" s="4"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34284,7 +34388,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G284,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -34303,7 +34407,7 @@
       <c r="D285" s="5"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34315,7 +34419,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G285,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -34334,7 +34438,7 @@
       <c r="D286" s="4"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34346,7 +34450,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G286,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -34365,7 +34469,7 @@
       <c r="D287" s="5"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34377,7 +34481,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G287,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -34396,7 +34500,7 @@
       <c r="D288" s="4"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34408,7 +34512,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G288,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -34427,7 +34531,7 @@
       <c r="D289" s="5"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34439,7 +34543,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G289,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -34458,7 +34562,7 @@
       <c r="D290" s="4"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34470,7 +34574,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G290,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -34489,7 +34593,7 @@
       <c r="D291" s="5"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34501,7 +34605,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G291,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -34520,7 +34624,7 @@
       <c r="D292" s="4"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34532,7 +34636,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G292,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -34551,7 +34655,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34563,7 +34667,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G293,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -34582,7 +34686,7 @@
       <c r="D294" s="4"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34594,7 +34698,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G294,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -34613,7 +34717,7 @@
       <c r="D295" s="5"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34625,7 +34729,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G295,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -34644,7 +34748,7 @@
       <c r="D296" s="4"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34656,7 +34760,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G296,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -34675,7 +34779,7 @@
       <c r="D297" s="5"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34687,7 +34791,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G297,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -34706,7 +34810,7 @@
       <c r="D298" s="4"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34718,7 +34822,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G298,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -34737,7 +34841,7 @@
       <c r="D299" s="5"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34749,7 +34853,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G299,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -34768,7 +34872,7 @@
       <c r="D300" s="4"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34780,7 +34884,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G300,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -34799,7 +34903,7 @@
       <c r="D301" s="5"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34811,7 +34915,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G301,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -34830,7 +34934,7 @@
       <c r="D302" s="4"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34842,7 +34946,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G302,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -34861,7 +34965,7 @@
       <c r="D303" s="5"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34873,7 +34977,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G303,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -34892,7 +34996,7 @@
       <c r="D304" s="4"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34904,7 +35008,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G304,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -34923,7 +35027,7 @@
       <c r="D305" s="5"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34935,7 +35039,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G305,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -34954,7 +35058,7 @@
       <c r="D306" s="4"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34966,7 +35070,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G306,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -34985,7 +35089,7 @@
       <c r="D307" s="5"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34997,7 +35101,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G307,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -35016,7 +35120,7 @@
       <c r="D308" s="4"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35028,7 +35132,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G308,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -35047,7 +35151,7 @@
       <c r="D309" s="5"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35059,7 +35163,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G309,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -35078,7 +35182,7 @@
       <c r="D310" s="4"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35090,7 +35194,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G310,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -35109,7 +35213,7 @@
       <c r="D311" s="5"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35121,7 +35225,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G311,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -35140,7 +35244,7 @@
       <c r="D312" s="4"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35152,7 +35256,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G312,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -35171,7 +35275,7 @@
       <c r="D313" s="5"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35183,7 +35287,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G313,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -35202,7 +35306,7 @@
       <c r="D314" s="4"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35214,7 +35318,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G314,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -35233,7 +35337,7 @@
       <c r="D315" s="5"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35245,7 +35349,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G315,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -35264,7 +35368,7 @@
       <c r="D316" s="4"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35276,7 +35380,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G316,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -35295,7 +35399,7 @@
       <c r="D317" s="5"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35307,7 +35411,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G317,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -35326,7 +35430,7 @@
       <c r="D318" s="4"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35338,7 +35442,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G318,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -35357,7 +35461,7 @@
       <c r="D319" s="5"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35369,7 +35473,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G319,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -35388,7 +35492,7 @@
       <c r="D320" s="4"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35400,7 +35504,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G320,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -35419,7 +35523,7 @@
       <c r="D321" s="5"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35431,7 +35535,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G321,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -35450,7 +35554,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35462,7 +35566,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G322,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -35481,7 +35585,7 @@
       <c r="D323" s="5"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="16">B323</f>
@@ -35493,7 +35597,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G323,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -35512,7 +35616,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35524,7 +35628,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G324,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -35543,7 +35647,7 @@
       <c r="D325" s="5"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35555,7 +35659,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G325,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -35574,7 +35678,7 @@
       <c r="D326" s="4"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35586,7 +35690,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G326,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -35605,7 +35709,7 @@
       <c r="D327" s="5"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35617,7 +35721,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G327,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -35636,7 +35740,7 @@
       <c r="D328" s="4"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35648,7 +35752,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G328,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -35667,7 +35771,7 @@
       <c r="D329" s="5"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35679,7 +35783,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G329,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -35698,7 +35802,7 @@
       <c r="D330" s="4"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35710,7 +35814,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G330,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -35729,7 +35833,7 @@
       <c r="D331" s="5"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35741,7 +35845,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G331,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -35760,7 +35864,7 @@
       <c r="D332" s="4"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35772,7 +35876,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G332,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -35791,7 +35895,7 @@
       <c r="D333" s="5"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35803,7 +35907,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G333,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -35822,7 +35926,7 @@
       <c r="D334" s="4"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35834,7 +35938,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G334,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -35853,7 +35957,7 @@
       <c r="D335" s="5"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35865,7 +35969,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G335,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -35884,7 +35988,7 @@
       <c r="D336" s="4"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35896,7 +36000,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G336,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -35915,7 +36019,7 @@
       <c r="D337" s="5"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35927,7 +36031,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G337,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -35946,7 +36050,7 @@
       <c r="D338" s="4"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35958,7 +36062,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G338,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -35977,7 +36081,7 @@
       <c r="D339" s="5"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35989,7 +36093,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G339,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -36008,7 +36112,7 @@
       <c r="D340" s="4"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36020,7 +36124,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G340,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -36039,7 +36143,7 @@
       <c r="D341" s="5"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36051,7 +36155,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G341,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -36070,7 +36174,7 @@
       <c r="D342" s="4"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36082,7 +36186,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G342,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -36101,7 +36205,7 @@
       <c r="D343" s="5"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36113,7 +36217,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G343,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -36132,7 +36236,7 @@
       <c r="D344" s="4"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36144,7 +36248,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G344,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -36163,7 +36267,7 @@
       <c r="D345" s="5"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36175,7 +36279,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G345,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -36194,7 +36298,7 @@
       <c r="D346" s="4"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36206,7 +36310,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G346,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -36225,7 +36329,7 @@
       <c r="D347" s="5"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36237,7 +36341,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G347,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -36256,7 +36360,7 @@
       <c r="D348" s="4"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36268,7 +36372,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G348,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -36287,7 +36391,7 @@
       <c r="D349" s="5"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36299,7 +36403,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G349,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -36318,7 +36422,7 @@
       <c r="D350" s="4"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36330,7 +36434,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G350,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -36349,7 +36453,7 @@
       <c r="D351" s="5"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36361,7 +36465,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G351,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -36380,7 +36484,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36392,7 +36496,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G352,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -36411,7 +36515,7 @@
       <c r="D353" s="5"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36423,7 +36527,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G353,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -36442,7 +36546,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36454,7 +36558,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G354,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -36473,7 +36577,7 @@
       <c r="D355" s="5"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36485,7 +36589,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G355,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -36504,7 +36608,7 @@
       <c r="D356" s="4"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36516,7 +36620,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G356,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -36535,7 +36639,7 @@
       <c r="D357" s="5"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36547,7 +36651,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G357,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -36566,7 +36670,7 @@
       <c r="D358" s="4"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36578,7 +36682,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G358,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -36597,7 +36701,7 @@
       <c r="D359" s="5"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36609,7 +36713,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G359,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -36628,7 +36732,7 @@
       <c r="D360" s="4"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36640,7 +36744,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G360,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -36659,7 +36763,7 @@
       <c r="D361" s="5"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36671,7 +36775,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G361,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -36690,7 +36794,7 @@
       <c r="D362" s="4"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36702,7 +36806,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G362,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -36721,7 +36825,7 @@
       <c r="D363" s="5"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36733,7 +36837,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G363,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -36752,7 +36856,7 @@
       <c r="D364" s="4"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36764,7 +36868,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G364,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -36783,7 +36887,7 @@
       <c r="D365" s="5"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36795,7 +36899,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G365,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -36814,7 +36918,7 @@
       <c r="D366" s="4"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36826,7 +36930,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G366,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -36845,7 +36949,7 @@
       <c r="D367" s="5"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36857,7 +36961,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G367,Transferan[TOTAL],,,-1)</f>
-        <v>379552000</v>
+        <v>404825000</v>
       </c>
     </row>
   </sheetData>

--- a/HARIAN/2024.xlsx
+++ b/HARIAN/2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/277ffa1efc2bfcc1/Apartment Bintaro/Data Harian/BINTARO-APG/HARIAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CD48485-7819-4747-8734-A9B1FFE9F3E1}"/>
+  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800D8A7E-8618-45D9-AB47-E396564A0198}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETUP" sheetId="2" r:id="rId1"/>
@@ -895,11 +895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACCD3D5-ABBC-4800-97A3-8932BD05F189}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D234" sqref="D234"/>
+      <selection pane="bottomRight" activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,11 +7956,11 @@
       </c>
       <c r="H215" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G215)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G215,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7989,11 +7989,11 @@
       </c>
       <c r="H216" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G216)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G216,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8022,11 +8022,11 @@
       </c>
       <c r="H217" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G217)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G217,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8055,11 +8055,11 @@
       </c>
       <c r="H218" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G218)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G218,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8088,11 +8088,11 @@
       </c>
       <c r="H219" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G219)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G219,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8121,11 +8121,11 @@
       </c>
       <c r="H220" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G220)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G220,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8154,11 +8154,11 @@
       </c>
       <c r="H221" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G221)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G221,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8187,11 +8187,11 @@
       </c>
       <c r="H222" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G222)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G222,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8220,11 +8220,11 @@
       </c>
       <c r="H223" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G223)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G223,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8253,11 +8253,11 @@
       </c>
       <c r="H224" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G224)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G224,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8286,11 +8286,11 @@
       </c>
       <c r="H225" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G225)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G225,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8319,11 +8319,11 @@
       </c>
       <c r="H226" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G226)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G226,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8352,11 +8352,11 @@
       </c>
       <c r="H227" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G227)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G227,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8385,11 +8385,11 @@
       </c>
       <c r="H228" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G228)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G228,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8418,11 +8418,11 @@
       </c>
       <c r="H229" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G229)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G229,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8451,11 +8451,11 @@
       </c>
       <c r="H230" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G230)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G230,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8484,11 +8484,11 @@
       </c>
       <c r="H231" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G231)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G231,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8517,11 +8517,11 @@
       </c>
       <c r="H232" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G232)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G232,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8550,11 +8550,11 @@
       </c>
       <c r="H233" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G233)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G233,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8570,10 +8570,12 @@
         <f t="shared" si="13"/>
         <v>20</v>
       </c>
-      <c r="D234" s="2"/>
+      <c r="D234" s="2">
+        <v>336000</v>
+      </c>
       <c r="E234" s="2">
         <f>SUM($D$2:$D234)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G234" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8581,11 +8583,11 @@
       </c>
       <c r="H234" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G234)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G234,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8604,7 +8606,7 @@
       <c r="D235" s="2"/>
       <c r="E235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G235" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8612,11 +8614,11 @@
       </c>
       <c r="H235" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G235)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G235,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8635,7 +8637,7 @@
       <c r="D236" s="2"/>
       <c r="E236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G236" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8643,11 +8645,11 @@
       </c>
       <c r="H236" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G236)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G236,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8666,7 +8668,7 @@
       <c r="D237" s="2"/>
       <c r="E237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G237" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8674,11 +8676,11 @@
       </c>
       <c r="H237" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G237)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G237,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8697,7 +8699,7 @@
       <c r="D238" s="2"/>
       <c r="E238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G238" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8705,11 +8707,11 @@
       </c>
       <c r="H238" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G238)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G238,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8728,7 +8730,7 @@
       <c r="D239" s="2"/>
       <c r="E239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G239" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8736,11 +8738,11 @@
       </c>
       <c r="H239" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G239)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G239,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8759,7 +8761,7 @@
       <c r="D240" s="2"/>
       <c r="E240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G240" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8767,11 +8769,11 @@
       </c>
       <c r="H240" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G240)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G240,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -8790,7 +8792,7 @@
       <c r="D241" s="2"/>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8798,11 +8800,11 @@
       </c>
       <c r="H241" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G241)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G241,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8821,7 +8823,7 @@
       <c r="D242" s="2"/>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8829,11 +8831,11 @@
       </c>
       <c r="H242" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G242)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G242,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -8852,7 +8854,7 @@
       <c r="D243" s="2"/>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8860,11 +8862,11 @@
       </c>
       <c r="H243" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G243)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G243,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8883,7 +8885,7 @@
       <c r="D244" s="2"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8891,11 +8893,11 @@
       </c>
       <c r="H244" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G244)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G244,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8914,7 +8916,7 @@
       <c r="D245" s="2"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8922,11 +8924,11 @@
       </c>
       <c r="H245" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G245)</f>
-        <v>6063000</v>
+        <v>6399000</v>
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G245,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8945,7 +8947,7 @@
       <c r="D246" s="2"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8957,7 +8959,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G246,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8976,7 +8978,7 @@
       <c r="D247" s="2"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8988,7 +8990,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G247,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9007,7 +9009,7 @@
       <c r="D248" s="2"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9019,7 +9021,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G248,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9038,7 +9040,7 @@
       <c r="D249" s="2"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9050,7 +9052,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G249,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9069,7 +9071,7 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9081,7 +9083,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G250,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9100,7 +9102,7 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9112,7 +9114,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G251,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9131,7 +9133,7 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9143,7 +9145,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G252,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9162,7 +9164,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9174,7 +9176,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G253,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9193,7 +9195,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9205,7 +9207,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G254,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9224,7 +9226,7 @@
       <c r="D255" s="2"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9236,7 +9238,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G255,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9255,7 +9257,7 @@
       <c r="D256" s="2"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9267,7 +9269,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G256,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9286,7 +9288,7 @@
       <c r="D257" s="2"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9298,7 +9300,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G257,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9317,7 +9319,7 @@
       <c r="D258" s="2"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9329,7 +9331,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G258,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9348,7 +9350,7 @@
       <c r="D259" s="2"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="14">B259</f>
@@ -9360,7 +9362,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G259,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9379,7 +9381,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9391,7 +9393,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G260,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9410,7 +9412,7 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9422,7 +9424,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G261,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9441,7 +9443,7 @@
       <c r="D262" s="2"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9453,7 +9455,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G262,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9472,7 +9474,7 @@
       <c r="D263" s="2"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9484,7 +9486,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G263,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9503,7 +9505,7 @@
       <c r="D264" s="2"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9515,7 +9517,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G264,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9534,7 +9536,7 @@
       <c r="D265" s="2"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9546,7 +9548,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G265,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9565,7 +9567,7 @@
       <c r="D266" s="2"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9577,7 +9579,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G266,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -9596,7 +9598,7 @@
       <c r="D267" s="2"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9608,7 +9610,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G267,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -9627,7 +9629,7 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9639,7 +9641,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G268,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -9658,7 +9660,7 @@
       <c r="D269" s="2"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9670,7 +9672,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G269,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9689,7 +9691,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9701,7 +9703,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G270,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9720,7 +9722,7 @@
       <c r="D271" s="2"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9732,7 +9734,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G271,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9751,7 +9753,7 @@
       <c r="D272" s="2"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9763,7 +9765,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G272,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9782,7 +9784,7 @@
       <c r="D273" s="2"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9794,7 +9796,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G273,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9813,7 +9815,7 @@
       <c r="D274" s="2"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9825,7 +9827,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G274,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9844,7 +9846,7 @@
       <c r="D275" s="2"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9856,7 +9858,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G275,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9875,7 +9877,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9887,7 +9889,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G276,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -9906,7 +9908,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9918,7 +9920,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G277,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -9937,7 +9939,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9949,7 +9951,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G278,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -9968,7 +9970,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9980,7 +9982,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G279,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -9999,7 +10001,7 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10011,7 +10013,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G280,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10030,7 +10032,7 @@
       <c r="D281" s="2"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10042,7 +10044,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G281,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -10061,7 +10063,7 @@
       <c r="D282" s="2"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10073,7 +10075,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G282,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -10092,7 +10094,7 @@
       <c r="D283" s="2"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10104,7 +10106,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G283,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10123,7 +10125,7 @@
       <c r="D284" s="2"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10135,7 +10137,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G284,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10154,7 +10156,7 @@
       <c r="D285" s="2"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10166,7 +10168,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G285,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10185,7 +10187,7 @@
       <c r="D286" s="2"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10197,7 +10199,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G286,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10216,7 +10218,7 @@
       <c r="D287" s="2"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10228,7 +10230,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G287,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10247,7 +10249,7 @@
       <c r="D288" s="2"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10259,7 +10261,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G288,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10278,7 +10280,7 @@
       <c r="D289" s="2"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10290,7 +10292,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G289,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10309,7 +10311,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10321,7 +10323,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G290,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10340,7 +10342,7 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10352,7 +10354,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G291,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10371,7 +10373,7 @@
       <c r="D292" s="2"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10383,7 +10385,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G292,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10402,7 +10404,7 @@
       <c r="D293" s="2"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10414,7 +10416,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G293,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10433,7 +10435,7 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10445,7 +10447,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G294,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10464,7 +10466,7 @@
       <c r="D295" s="2"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10476,7 +10478,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G295,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10495,7 +10497,7 @@
       <c r="D296" s="2"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10507,7 +10509,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G296,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10526,7 +10528,7 @@
       <c r="D297" s="2"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10538,7 +10540,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G297,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10557,7 +10559,7 @@
       <c r="D298" s="2"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10569,7 +10571,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G298,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10588,7 +10590,7 @@
       <c r="D299" s="2"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10600,7 +10602,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G299,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10619,7 +10621,7 @@
       <c r="D300" s="2"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10631,7 +10633,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G300,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10650,7 +10652,7 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10662,7 +10664,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G301,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10681,7 +10683,7 @@
       <c r="D302" s="2"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10693,7 +10695,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G302,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10712,7 +10714,7 @@
       <c r="D303" s="2"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10724,7 +10726,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G303,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10743,7 +10745,7 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10755,7 +10757,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G304,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10774,7 +10776,7 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10786,7 +10788,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G305,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10805,7 +10807,7 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10817,7 +10819,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G306,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10836,7 +10838,7 @@
       <c r="D307" s="2"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10848,7 +10850,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G307,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10867,7 +10869,7 @@
       <c r="D308" s="2"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10879,7 +10881,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G308,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10898,7 +10900,7 @@
       <c r="D309" s="2"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10910,7 +10912,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G309,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10929,7 +10931,7 @@
       <c r="D310" s="2"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10941,7 +10943,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G310,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10960,7 +10962,7 @@
       <c r="D311" s="2"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10972,7 +10974,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G311,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10991,7 +10993,7 @@
       <c r="D312" s="2"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11003,7 +11005,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G312,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -11022,7 +11024,7 @@
       <c r="D313" s="2"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11034,7 +11036,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G313,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -11053,7 +11055,7 @@
       <c r="D314" s="2"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11065,7 +11067,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G314,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -11084,7 +11086,7 @@
       <c r="D315" s="2"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11096,7 +11098,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G315,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11115,7 +11117,7 @@
       <c r="D316" s="2"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11127,7 +11129,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G316,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11146,7 +11148,7 @@
       <c r="D317" s="2"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11158,7 +11160,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G317,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11177,7 +11179,7 @@
       <c r="D318" s="2"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11189,7 +11191,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G318,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11208,7 +11210,7 @@
       <c r="D319" s="2"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11220,7 +11222,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G319,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11239,7 +11241,7 @@
       <c r="D320" s="2"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11251,7 +11253,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G320,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11270,7 +11272,7 @@
       <c r="D321" s="2"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11282,7 +11284,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G321,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11301,7 +11303,7 @@
       <c r="D322" s="2"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11313,7 +11315,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G322,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11332,7 +11334,7 @@
       <c r="D323" s="2"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="17">B323</f>
@@ -11344,7 +11346,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G323,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11363,7 +11365,7 @@
       <c r="D324" s="2"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11375,7 +11377,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G324,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11394,7 +11396,7 @@
       <c r="D325" s="2"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11406,7 +11408,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G325,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11425,7 +11427,7 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11437,7 +11439,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G326,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11456,7 +11458,7 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11468,7 +11470,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G327,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -11487,7 +11489,7 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11499,7 +11501,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G328,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -11518,7 +11520,7 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11530,7 +11532,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G329,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -11549,7 +11551,7 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11561,7 +11563,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G330,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -11580,7 +11582,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11592,7 +11594,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G331,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -11611,7 +11613,7 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11623,7 +11625,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G332,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -11642,7 +11644,7 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11654,7 +11656,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G333,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -11673,7 +11675,7 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11685,7 +11687,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G334,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -11704,7 +11706,7 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11716,7 +11718,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G335,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -11735,7 +11737,7 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11747,7 +11749,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G336,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -11766,7 +11768,7 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11778,7 +11780,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G337,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -11797,7 +11799,7 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11809,7 +11811,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G338,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -11828,7 +11830,7 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11840,7 +11842,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G339,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -11859,7 +11861,7 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11871,7 +11873,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G340,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -11890,7 +11892,7 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11902,7 +11904,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G341,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -11921,7 +11923,7 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11933,7 +11935,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G342,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -11952,7 +11954,7 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11964,7 +11966,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G343,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -11983,7 +11985,7 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11995,7 +11997,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G344,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -12014,7 +12016,7 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12026,7 +12028,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G345,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -12045,7 +12047,7 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12057,7 +12059,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G346,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12076,7 +12078,7 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12088,7 +12090,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G347,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -12107,7 +12109,7 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12119,7 +12121,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G348,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -12138,7 +12140,7 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12150,7 +12152,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G349,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -12169,7 +12171,7 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12181,7 +12183,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G350,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -12200,7 +12202,7 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12212,7 +12214,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G351,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -12231,7 +12233,7 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12243,7 +12245,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G352,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -12262,7 +12264,7 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12274,7 +12276,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G353,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -12293,7 +12295,7 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12305,7 +12307,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G354,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -12324,7 +12326,7 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12336,7 +12338,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G355,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -12355,7 +12357,7 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12367,7 +12369,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G356,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -12386,7 +12388,7 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12398,7 +12400,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G357,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -12417,7 +12419,7 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12429,7 +12431,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G358,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -12448,7 +12450,7 @@
       <c r="D359" s="2"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12460,7 +12462,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G359,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -12479,7 +12481,7 @@
       <c r="D360" s="2"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12491,7 +12493,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G360,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -12510,7 +12512,7 @@
       <c r="D361" s="2"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12522,7 +12524,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G361,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -12541,7 +12543,7 @@
       <c r="D362" s="2"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12553,7 +12555,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G362,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -12572,7 +12574,7 @@
       <c r="D363" s="2"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12584,7 +12586,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G363,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -12603,7 +12605,7 @@
       <c r="D364" s="2"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12615,7 +12617,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G364,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -12634,7 +12636,7 @@
       <c r="D365" s="2"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12646,7 +12648,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G365,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -12665,7 +12667,7 @@
       <c r="D366" s="2"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12677,7 +12679,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G366,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -12696,7 +12698,7 @@
       <c r="D367" s="2"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12708,7 +12710,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G367,Tunai[TOTAL],,,-1)</f>
-        <v>74691000</v>
+        <v>75027000</v>
       </c>
     </row>
   </sheetData>
@@ -12746,7 +12748,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="D218" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D234" sqref="D234"/>
+      <selection pane="bottomRight" activeCell="E235" sqref="E235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20160,11 +20162,11 @@
       </c>
       <c r="I215" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H215)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J215" s="2" cm="1">
         <f t="array" ref="J215">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H215,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -20196,11 +20198,11 @@
       </c>
       <c r="I216" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H216)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J216" s="2" cm="1">
         <f t="array" ref="J216">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H216,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -20232,11 +20234,11 @@
       </c>
       <c r="I217" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H217)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J217" s="2" cm="1">
         <f t="array" ref="J217">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H217,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -20268,11 +20270,11 @@
       </c>
       <c r="I218" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H218)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J218" s="2" cm="1">
         <f t="array" ref="J218">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H218,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -20304,11 +20306,11 @@
       </c>
       <c r="I219" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H219)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J219" s="2" cm="1">
         <f t="array" ref="J219">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H219,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -20340,11 +20342,11 @@
       </c>
       <c r="I220" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H220)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J220" s="2" cm="1">
         <f t="array" ref="J220">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H220,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -20376,11 +20378,11 @@
       </c>
       <c r="I221" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H221)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J221" s="2" cm="1">
         <f t="array" ref="J221">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H221,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -20412,11 +20414,11 @@
       </c>
       <c r="I222" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H222)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J222" s="2" cm="1">
         <f t="array" ref="J222">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H222,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -20448,11 +20450,11 @@
       </c>
       <c r="I223" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H223)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J223" s="2" cm="1">
         <f t="array" ref="J223">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H223,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -20484,11 +20486,11 @@
       </c>
       <c r="I224" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H224)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J224" s="2" cm="1">
         <f t="array" ref="J224">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H224,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -20520,11 +20522,11 @@
       </c>
       <c r="I225" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H225)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J225" s="2" cm="1">
         <f t="array" ref="J225">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H225,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -20556,11 +20558,11 @@
       </c>
       <c r="I226" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H226)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J226" s="2" cm="1">
         <f t="array" ref="J226">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H226,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -20592,11 +20594,11 @@
       </c>
       <c r="I227" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H227)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J227" s="2" cm="1">
         <f t="array" ref="J227">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H227,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -20628,11 +20630,11 @@
       </c>
       <c r="I228" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H228)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J228" s="2" cm="1">
         <f t="array" ref="J228">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H228,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -20664,11 +20666,11 @@
       </c>
       <c r="I229" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H229)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J229" s="2" cm="1">
         <f t="array" ref="J229">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H229,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -20700,11 +20702,11 @@
       </c>
       <c r="I230" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H230)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J230" s="2" cm="1">
         <f t="array" ref="J230">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H230,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -20736,11 +20738,11 @@
       </c>
       <c r="I231" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H231)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J231" s="2" cm="1">
         <f t="array" ref="J231">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H231,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -20772,11 +20774,11 @@
       </c>
       <c r="I232" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H232)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J232" s="2" cm="1">
         <f t="array" ref="J232">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H232,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -20808,11 +20810,11 @@
       </c>
       <c r="I233" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H233)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J233" s="2" cm="1">
         <f t="array" ref="J233">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H233,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -20828,11 +20830,15 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="D234" s="4"/>
-      <c r="E234" s="6"/>
+      <c r="D234" s="4">
+        <v>2087000</v>
+      </c>
+      <c r="E234" s="6">
+        <v>1328000</v>
+      </c>
       <c r="F234" s="2">
         <f>SUM($D$2:$D234)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H234" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20840,11 +20846,11 @@
       </c>
       <c r="I234" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H234)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J234" s="2" cm="1">
         <f t="array" ref="J234">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H234,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -20864,7 +20870,7 @@
       <c r="E235" s="2"/>
       <c r="F235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H235" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20872,11 +20878,11 @@
       </c>
       <c r="I235" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H235)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J235" s="2" cm="1">
         <f t="array" ref="J235">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H235,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -20896,7 +20902,7 @@
       <c r="E236" s="6"/>
       <c r="F236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H236" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20904,11 +20910,11 @@
       </c>
       <c r="I236" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H236)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J236" s="2" cm="1">
         <f t="array" ref="J236">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H236,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -20928,7 +20934,7 @@
       <c r="E237" s="2"/>
       <c r="F237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H237" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20936,11 +20942,11 @@
       </c>
       <c r="I237" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H237)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J237" s="2" cm="1">
         <f t="array" ref="J237">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H237,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -20960,7 +20966,7 @@
       <c r="E238" s="6"/>
       <c r="F238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H238" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20968,11 +20974,11 @@
       </c>
       <c r="I238" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H238)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J238" s="2" cm="1">
         <f t="array" ref="J238">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H238,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -20992,7 +20998,7 @@
       <c r="E239" s="2"/>
       <c r="F239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H239" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21000,11 +21006,11 @@
       </c>
       <c r="I239" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H239)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J239" s="2" cm="1">
         <f t="array" ref="J239">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H239,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -21024,7 +21030,7 @@
       <c r="E240" s="6"/>
       <c r="F240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H240" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21032,11 +21038,11 @@
       </c>
       <c r="I240" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H240)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J240" s="2" cm="1">
         <f t="array" ref="J240">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H240,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -21056,7 +21062,7 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H241" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21064,11 +21070,11 @@
       </c>
       <c r="I241" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H241)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J241" s="2" cm="1">
         <f t="array" ref="J241">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H241,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -21088,7 +21094,7 @@
       <c r="E242" s="6"/>
       <c r="F242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H242" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21096,11 +21102,11 @@
       </c>
       <c r="I242" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H242)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J242" s="2" cm="1">
         <f t="array" ref="J242">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H242,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -21120,7 +21126,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H243" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21128,11 +21134,11 @@
       </c>
       <c r="I243" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H243)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J243" s="2" cm="1">
         <f t="array" ref="J243">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H243,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -21152,7 +21158,7 @@
       <c r="E244" s="6"/>
       <c r="F244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H244" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21160,11 +21166,11 @@
       </c>
       <c r="I244" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H244)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J244" s="2" cm="1">
         <f t="array" ref="J244">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H244,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -21184,7 +21190,7 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H245" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21192,11 +21198,11 @@
       </c>
       <c r="I245" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H245)</f>
-        <v>38752000</v>
+        <v>40839000</v>
       </c>
       <c r="J245" s="2" cm="1">
         <f t="array" ref="J245">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H245,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -21216,7 +21222,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H246" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21228,7 +21234,7 @@
       </c>
       <c r="J246" s="2" cm="1">
         <f t="array" ref="J246">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H246,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -21248,7 +21254,7 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H247" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21260,7 +21266,7 @@
       </c>
       <c r="J247" s="2" cm="1">
         <f t="array" ref="J247">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H247,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -21280,7 +21286,7 @@
       <c r="E248" s="6"/>
       <c r="F248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H248" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21292,7 +21298,7 @@
       </c>
       <c r="J248" s="2" cm="1">
         <f t="array" ref="J248">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H248,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -21312,7 +21318,7 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H249" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21324,7 +21330,7 @@
       </c>
       <c r="J249" s="2" cm="1">
         <f t="array" ref="J249">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H249,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -21344,7 +21350,7 @@
       <c r="E250" s="6"/>
       <c r="F250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H250" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21356,7 +21362,7 @@
       </c>
       <c r="J250" s="2" cm="1">
         <f t="array" ref="J250">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H250,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -21376,7 +21382,7 @@
       <c r="E251" s="2"/>
       <c r="F251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H251" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21388,7 +21394,7 @@
       </c>
       <c r="J251" s="2" cm="1">
         <f t="array" ref="J251">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H251,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -21408,7 +21414,7 @@
       <c r="E252" s="6"/>
       <c r="F252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H252" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21420,7 +21426,7 @@
       </c>
       <c r="J252" s="2" cm="1">
         <f t="array" ref="J252">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H252,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -21440,7 +21446,7 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H253" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21452,7 +21458,7 @@
       </c>
       <c r="J253" s="2" cm="1">
         <f t="array" ref="J253">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H253,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -21472,7 +21478,7 @@
       <c r="E254" s="6"/>
       <c r="F254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H254" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21484,7 +21490,7 @@
       </c>
       <c r="J254" s="2" cm="1">
         <f t="array" ref="J254">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H254,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -21504,7 +21510,7 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H255" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21516,7 +21522,7 @@
       </c>
       <c r="J255" s="2" cm="1">
         <f t="array" ref="J255">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H255,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -21536,7 +21542,7 @@
       <c r="E256" s="6"/>
       <c r="F256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H256" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21548,7 +21554,7 @@
       </c>
       <c r="J256" s="2" cm="1">
         <f t="array" ref="J256">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H256,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -21568,7 +21574,7 @@
       <c r="E257" s="2"/>
       <c r="F257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H257" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21580,7 +21586,7 @@
       </c>
       <c r="J257" s="2" cm="1">
         <f t="array" ref="J257">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H257,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -21600,7 +21606,7 @@
       <c r="E258" s="6"/>
       <c r="F258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H258" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21612,7 +21618,7 @@
       </c>
       <c r="J258" s="2" cm="1">
         <f t="array" ref="J258">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H258,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -21632,7 +21638,7 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H259" s="1" t="str">
         <f t="shared" ref="H259:H322" si="13">B259</f>
@@ -21644,7 +21650,7 @@
       </c>
       <c r="J259" s="2" cm="1">
         <f t="array" ref="J259">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H259,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -21664,7 +21670,7 @@
       <c r="E260" s="6"/>
       <c r="F260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H260" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21676,7 +21682,7 @@
       </c>
       <c r="J260" s="2" cm="1">
         <f t="array" ref="J260">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H260,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -21696,7 +21702,7 @@
       <c r="E261" s="2"/>
       <c r="F261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H261" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21708,7 +21714,7 @@
       </c>
       <c r="J261" s="2" cm="1">
         <f t="array" ref="J261">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H261,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -21728,7 +21734,7 @@
       <c r="E262" s="6"/>
       <c r="F262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H262" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21740,7 +21746,7 @@
       </c>
       <c r="J262" s="2" cm="1">
         <f t="array" ref="J262">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H262,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -21760,7 +21766,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H263" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21772,7 +21778,7 @@
       </c>
       <c r="J263" s="2" cm="1">
         <f t="array" ref="J263">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H263,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -21792,7 +21798,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H264" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21804,7 +21810,7 @@
       </c>
       <c r="J264" s="2" cm="1">
         <f t="array" ref="J264">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H264,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -21824,7 +21830,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H265" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21836,7 +21842,7 @@
       </c>
       <c r="J265" s="2" cm="1">
         <f t="array" ref="J265">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H265,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -21856,7 +21862,7 @@
       <c r="E266" s="6"/>
       <c r="F266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H266" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21868,7 +21874,7 @@
       </c>
       <c r="J266" s="2" cm="1">
         <f t="array" ref="J266">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H266,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -21888,7 +21894,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H267" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21900,7 +21906,7 @@
       </c>
       <c r="J267" s="2" cm="1">
         <f t="array" ref="J267">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H267,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -21920,7 +21926,7 @@
       <c r="E268" s="6"/>
       <c r="F268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H268" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21932,7 +21938,7 @@
       </c>
       <c r="J268" s="2" cm="1">
         <f t="array" ref="J268">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H268,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -21952,7 +21958,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H269" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21964,7 +21970,7 @@
       </c>
       <c r="J269" s="2" cm="1">
         <f t="array" ref="J269">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H269,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -21984,7 +21990,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H270" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21996,7 +22002,7 @@
       </c>
       <c r="J270" s="2" cm="1">
         <f t="array" ref="J270">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H270,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -22016,7 +22022,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H271" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22028,7 +22034,7 @@
       </c>
       <c r="J271" s="2" cm="1">
         <f t="array" ref="J271">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H271,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -22048,7 +22054,7 @@
       <c r="E272" s="6"/>
       <c r="F272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H272" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22060,7 +22066,7 @@
       </c>
       <c r="J272" s="2" cm="1">
         <f t="array" ref="J272">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H272,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -22080,7 +22086,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H273" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22092,7 +22098,7 @@
       </c>
       <c r="J273" s="2" cm="1">
         <f t="array" ref="J273">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H273,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -22112,7 +22118,7 @@
       <c r="E274" s="6"/>
       <c r="F274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H274" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22124,7 +22130,7 @@
       </c>
       <c r="J274" s="2" cm="1">
         <f t="array" ref="J274">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H274,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -22144,7 +22150,7 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H275" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22156,7 +22162,7 @@
       </c>
       <c r="J275" s="2" cm="1">
         <f t="array" ref="J275">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H275,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -22176,7 +22182,7 @@
       <c r="E276" s="6"/>
       <c r="F276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H276" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22188,7 +22194,7 @@
       </c>
       <c r="J276" s="2" cm="1">
         <f t="array" ref="J276">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H276,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -22208,7 +22214,7 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H277" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22220,7 +22226,7 @@
       </c>
       <c r="J277" s="2" cm="1">
         <f t="array" ref="J277">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H277,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -22240,7 +22246,7 @@
       <c r="E278" s="6"/>
       <c r="F278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H278" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22252,7 +22258,7 @@
       </c>
       <c r="J278" s="2" cm="1">
         <f t="array" ref="J278">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H278,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -22272,7 +22278,7 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H279" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22284,7 +22290,7 @@
       </c>
       <c r="J279" s="2" cm="1">
         <f t="array" ref="J279">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H279,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -22304,7 +22310,7 @@
       <c r="E280" s="6"/>
       <c r="F280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H280" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22316,7 +22322,7 @@
       </c>
       <c r="J280" s="2" cm="1">
         <f t="array" ref="J280">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H280,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -22336,7 +22342,7 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H281" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22348,7 +22354,7 @@
       </c>
       <c r="J281" s="2" cm="1">
         <f t="array" ref="J281">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H281,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -22368,7 +22374,7 @@
       <c r="E282" s="6"/>
       <c r="F282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H282" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22380,7 +22386,7 @@
       </c>
       <c r="J282" s="2" cm="1">
         <f t="array" ref="J282">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H282,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -22400,7 +22406,7 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H283" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22412,7 +22418,7 @@
       </c>
       <c r="J283" s="2" cm="1">
         <f t="array" ref="J283">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H283,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -22432,7 +22438,7 @@
       <c r="E284" s="6"/>
       <c r="F284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H284" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22444,7 +22450,7 @@
       </c>
       <c r="J284" s="2" cm="1">
         <f t="array" ref="J284">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H284,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -22464,7 +22470,7 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H285" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22476,7 +22482,7 @@
       </c>
       <c r="J285" s="2" cm="1">
         <f t="array" ref="J285">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H285,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -22496,7 +22502,7 @@
       <c r="E286" s="6"/>
       <c r="F286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H286" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22508,7 +22514,7 @@
       </c>
       <c r="J286" s="2" cm="1">
         <f t="array" ref="J286">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H286,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -22528,7 +22534,7 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H287" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22540,7 +22546,7 @@
       </c>
       <c r="J287" s="2" cm="1">
         <f t="array" ref="J287">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H287,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -22560,7 +22566,7 @@
       <c r="E288" s="6"/>
       <c r="F288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H288" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22572,7 +22578,7 @@
       </c>
       <c r="J288" s="2" cm="1">
         <f t="array" ref="J288">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H288,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -22592,7 +22598,7 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H289" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22604,7 +22610,7 @@
       </c>
       <c r="J289" s="2" cm="1">
         <f t="array" ref="J289">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H289,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -22624,7 +22630,7 @@
       <c r="E290" s="6"/>
       <c r="F290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H290" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22636,7 +22642,7 @@
       </c>
       <c r="J290" s="2" cm="1">
         <f t="array" ref="J290">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H290,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -22656,7 +22662,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H291" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22668,7 +22674,7 @@
       </c>
       <c r="J291" s="2" cm="1">
         <f t="array" ref="J291">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H291,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -22688,7 +22694,7 @@
       <c r="E292" s="6"/>
       <c r="F292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H292" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22700,7 +22706,7 @@
       </c>
       <c r="J292" s="2" cm="1">
         <f t="array" ref="J292">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H292,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -22720,7 +22726,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H293" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22732,7 +22738,7 @@
       </c>
       <c r="J293" s="2" cm="1">
         <f t="array" ref="J293">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H293,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -22752,7 +22758,7 @@
       <c r="E294" s="6"/>
       <c r="F294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H294" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22764,7 +22770,7 @@
       </c>
       <c r="J294" s="2" cm="1">
         <f t="array" ref="J294">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H294,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -22784,7 +22790,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H295" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22796,7 +22802,7 @@
       </c>
       <c r="J295" s="2" cm="1">
         <f t="array" ref="J295">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H295,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -22816,7 +22822,7 @@
       <c r="E296" s="6"/>
       <c r="F296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H296" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22828,7 +22834,7 @@
       </c>
       <c r="J296" s="2" cm="1">
         <f t="array" ref="J296">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H296,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -22848,7 +22854,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H297" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22860,7 +22866,7 @@
       </c>
       <c r="J297" s="2" cm="1">
         <f t="array" ref="J297">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H297,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -22880,7 +22886,7 @@
       <c r="E298" s="6"/>
       <c r="F298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H298" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22892,7 +22898,7 @@
       </c>
       <c r="J298" s="2" cm="1">
         <f t="array" ref="J298">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H298,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -22912,7 +22918,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H299" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22924,7 +22930,7 @@
       </c>
       <c r="J299" s="2" cm="1">
         <f t="array" ref="J299">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H299,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -22944,7 +22950,7 @@
       <c r="E300" s="6"/>
       <c r="F300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H300" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22956,7 +22962,7 @@
       </c>
       <c r="J300" s="2" cm="1">
         <f t="array" ref="J300">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H300,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -22976,7 +22982,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H301" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22988,7 +22994,7 @@
       </c>
       <c r="J301" s="2" cm="1">
         <f t="array" ref="J301">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H301,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -23008,7 +23014,7 @@
       <c r="E302" s="6"/>
       <c r="F302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23020,7 +23026,7 @@
       </c>
       <c r="J302" s="2" cm="1">
         <f t="array" ref="J302">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H302,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -23040,7 +23046,7 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23052,7 +23058,7 @@
       </c>
       <c r="J303" s="2" cm="1">
         <f t="array" ref="J303">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H303,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -23072,7 +23078,7 @@
       <c r="E304" s="6"/>
       <c r="F304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23084,7 +23090,7 @@
       </c>
       <c r="J304" s="2" cm="1">
         <f t="array" ref="J304">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H304,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -23104,7 +23110,7 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23116,7 +23122,7 @@
       </c>
       <c r="J305" s="2" cm="1">
         <f t="array" ref="J305">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H305,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -23136,7 +23142,7 @@
       <c r="E306" s="6"/>
       <c r="F306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23148,7 +23154,7 @@
       </c>
       <c r="J306" s="2" cm="1">
         <f t="array" ref="J306">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H306,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -23168,7 +23174,7 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23180,7 +23186,7 @@
       </c>
       <c r="J307" s="2" cm="1">
         <f t="array" ref="J307">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H307,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -23200,7 +23206,7 @@
       <c r="E308" s="6"/>
       <c r="F308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23212,7 +23218,7 @@
       </c>
       <c r="J308" s="2" cm="1">
         <f t="array" ref="J308">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H308,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -23232,7 +23238,7 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23244,7 +23250,7 @@
       </c>
       <c r="J309" s="2" cm="1">
         <f t="array" ref="J309">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H309,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -23264,7 +23270,7 @@
       <c r="E310" s="6"/>
       <c r="F310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23276,7 +23282,7 @@
       </c>
       <c r="J310" s="2" cm="1">
         <f t="array" ref="J310">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H310,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -23296,7 +23302,7 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23308,7 +23314,7 @@
       </c>
       <c r="J311" s="2" cm="1">
         <f t="array" ref="J311">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H311,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -23328,7 +23334,7 @@
       <c r="E312" s="6"/>
       <c r="F312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23340,7 +23346,7 @@
       </c>
       <c r="J312" s="2" cm="1">
         <f t="array" ref="J312">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H312,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -23360,7 +23366,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23372,7 +23378,7 @@
       </c>
       <c r="J313" s="2" cm="1">
         <f t="array" ref="J313">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H313,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -23392,7 +23398,7 @@
       <c r="E314" s="6"/>
       <c r="F314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23404,7 +23410,7 @@
       </c>
       <c r="J314" s="2" cm="1">
         <f t="array" ref="J314">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H314,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -23424,7 +23430,7 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23436,7 +23442,7 @@
       </c>
       <c r="J315" s="2" cm="1">
         <f t="array" ref="J315">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H315,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -23456,7 +23462,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23468,7 +23474,7 @@
       </c>
       <c r="J316" s="2" cm="1">
         <f t="array" ref="J316">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H316,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -23488,7 +23494,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23500,7 +23506,7 @@
       </c>
       <c r="J317" s="2" cm="1">
         <f t="array" ref="J317">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H317,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -23520,7 +23526,7 @@
       <c r="E318" s="6"/>
       <c r="F318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23532,7 +23538,7 @@
       </c>
       <c r="J318" s="2" cm="1">
         <f t="array" ref="J318">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H318,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -23552,7 +23558,7 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23564,7 +23570,7 @@
       </c>
       <c r="J319" s="2" cm="1">
         <f t="array" ref="J319">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H319,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -23584,7 +23590,7 @@
       <c r="E320" s="6"/>
       <c r="F320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23596,7 +23602,7 @@
       </c>
       <c r="J320" s="2" cm="1">
         <f t="array" ref="J320">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H320,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -23616,7 +23622,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23628,7 +23634,7 @@
       </c>
       <c r="J321" s="2" cm="1">
         <f t="array" ref="J321">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H321,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -23648,7 +23654,7 @@
       <c r="E322" s="6"/>
       <c r="F322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23660,7 +23666,7 @@
       </c>
       <c r="J322" s="2" cm="1">
         <f t="array" ref="J322">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H322,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -23680,7 +23686,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H323" s="1" t="str">
         <f t="shared" ref="H323:H367" si="16">B323</f>
@@ -23692,7 +23698,7 @@
       </c>
       <c r="J323" s="2" cm="1">
         <f t="array" ref="J323">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H323,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -23712,7 +23718,7 @@
       <c r="E324" s="6"/>
       <c r="F324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23724,7 +23730,7 @@
       </c>
       <c r="J324" s="2" cm="1">
         <f t="array" ref="J324">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H324,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -23744,7 +23750,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23756,7 +23762,7 @@
       </c>
       <c r="J325" s="2" cm="1">
         <f t="array" ref="J325">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H325,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -23776,7 +23782,7 @@
       <c r="E326" s="6"/>
       <c r="F326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23788,7 +23794,7 @@
       </c>
       <c r="J326" s="2" cm="1">
         <f t="array" ref="J326">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H326,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -23808,7 +23814,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23820,7 +23826,7 @@
       </c>
       <c r="J327" s="2" cm="1">
         <f t="array" ref="J327">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H327,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -23840,7 +23846,7 @@
       <c r="E328" s="6"/>
       <c r="F328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23852,7 +23858,7 @@
       </c>
       <c r="J328" s="2" cm="1">
         <f t="array" ref="J328">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H328,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -23872,7 +23878,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23884,7 +23890,7 @@
       </c>
       <c r="J329" s="2" cm="1">
         <f t="array" ref="J329">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H329,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -23904,7 +23910,7 @@
       <c r="E330" s="6"/>
       <c r="F330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23916,7 +23922,7 @@
       </c>
       <c r="J330" s="2" cm="1">
         <f t="array" ref="J330">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H330,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -23936,7 +23942,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23948,7 +23954,7 @@
       </c>
       <c r="J331" s="2" cm="1">
         <f t="array" ref="J331">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H331,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -23968,7 +23974,7 @@
       <c r="E332" s="6"/>
       <c r="F332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23980,7 +23986,7 @@
       </c>
       <c r="J332" s="2" cm="1">
         <f t="array" ref="J332">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H332,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -24000,7 +24006,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24012,7 +24018,7 @@
       </c>
       <c r="J333" s="2" cm="1">
         <f t="array" ref="J333">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H333,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -24032,7 +24038,7 @@
       <c r="E334" s="6"/>
       <c r="F334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24044,7 +24050,7 @@
       </c>
       <c r="J334" s="2" cm="1">
         <f t="array" ref="J334">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H334,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -24064,7 +24070,7 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24076,7 +24082,7 @@
       </c>
       <c r="J335" s="2" cm="1">
         <f t="array" ref="J335">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H335,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -24096,7 +24102,7 @@
       <c r="E336" s="6"/>
       <c r="F336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24108,7 +24114,7 @@
       </c>
       <c r="J336" s="2" cm="1">
         <f t="array" ref="J336">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H336,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -24128,7 +24134,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24140,7 +24146,7 @@
       </c>
       <c r="J337" s="2" cm="1">
         <f t="array" ref="J337">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H337,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -24160,7 +24166,7 @@
       <c r="E338" s="6"/>
       <c r="F338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24172,7 +24178,7 @@
       </c>
       <c r="J338" s="2" cm="1">
         <f t="array" ref="J338">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H338,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -24192,7 +24198,7 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24204,7 +24210,7 @@
       </c>
       <c r="J339" s="2" cm="1">
         <f t="array" ref="J339">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H339,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -24224,7 +24230,7 @@
       <c r="E340" s="6"/>
       <c r="F340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24236,7 +24242,7 @@
       </c>
       <c r="J340" s="2" cm="1">
         <f t="array" ref="J340">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H340,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -24256,7 +24262,7 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24268,7 +24274,7 @@
       </c>
       <c r="J341" s="2" cm="1">
         <f t="array" ref="J341">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H341,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -24288,7 +24294,7 @@
       <c r="E342" s="6"/>
       <c r="F342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24300,7 +24306,7 @@
       </c>
       <c r="J342" s="2" cm="1">
         <f t="array" ref="J342">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H342,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -24320,7 +24326,7 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24332,7 +24338,7 @@
       </c>
       <c r="J343" s="2" cm="1">
         <f t="array" ref="J343">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H343,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -24352,7 +24358,7 @@
       <c r="E344" s="6"/>
       <c r="F344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24364,7 +24370,7 @@
       </c>
       <c r="J344" s="2" cm="1">
         <f t="array" ref="J344">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H344,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -24384,7 +24390,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24396,7 +24402,7 @@
       </c>
       <c r="J345" s="2" cm="1">
         <f t="array" ref="J345">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H345,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -24416,7 +24422,7 @@
       <c r="E346" s="6"/>
       <c r="F346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24428,7 +24434,7 @@
       </c>
       <c r="J346" s="2" cm="1">
         <f t="array" ref="J346">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H346,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -24448,7 +24454,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24460,7 +24466,7 @@
       </c>
       <c r="J347" s="2" cm="1">
         <f t="array" ref="J347">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H347,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -24480,7 +24486,7 @@
       <c r="E348" s="6"/>
       <c r="F348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24492,7 +24498,7 @@
       </c>
       <c r="J348" s="2" cm="1">
         <f t="array" ref="J348">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H348,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -24512,7 +24518,7 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24524,7 +24530,7 @@
       </c>
       <c r="J349" s="2" cm="1">
         <f t="array" ref="J349">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H349,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -24544,7 +24550,7 @@
       <c r="E350" s="6"/>
       <c r="F350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24556,7 +24562,7 @@
       </c>
       <c r="J350" s="2" cm="1">
         <f t="array" ref="J350">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H350,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -24576,7 +24582,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24588,7 +24594,7 @@
       </c>
       <c r="J351" s="2" cm="1">
         <f t="array" ref="J351">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H351,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -24608,7 +24614,7 @@
       <c r="E352" s="6"/>
       <c r="F352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24620,7 +24626,7 @@
       </c>
       <c r="J352" s="2" cm="1">
         <f t="array" ref="J352">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H352,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -24640,7 +24646,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24652,7 +24658,7 @@
       </c>
       <c r="J353" s="2" cm="1">
         <f t="array" ref="J353">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H353,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -24672,7 +24678,7 @@
       <c r="E354" s="6"/>
       <c r="F354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24684,7 +24690,7 @@
       </c>
       <c r="J354" s="2" cm="1">
         <f t="array" ref="J354">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H354,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -24704,7 +24710,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24716,7 +24722,7 @@
       </c>
       <c r="J355" s="2" cm="1">
         <f t="array" ref="J355">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H355,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -24736,7 +24742,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24748,7 +24754,7 @@
       </c>
       <c r="J356" s="2" cm="1">
         <f t="array" ref="J356">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H356,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -24768,7 +24774,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24780,7 +24786,7 @@
       </c>
       <c r="J357" s="2" cm="1">
         <f t="array" ref="J357">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H357,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -24800,7 +24806,7 @@
       <c r="E358" s="6"/>
       <c r="F358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24812,7 +24818,7 @@
       </c>
       <c r="J358" s="2" cm="1">
         <f t="array" ref="J358">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H358,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -24832,7 +24838,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24844,7 +24850,7 @@
       </c>
       <c r="J359" s="2" cm="1">
         <f t="array" ref="J359">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H359,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -24864,7 +24870,7 @@
       <c r="E360" s="6"/>
       <c r="F360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24876,7 +24882,7 @@
       </c>
       <c r="J360" s="2" cm="1">
         <f t="array" ref="J360">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H360,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -24896,7 +24902,7 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24908,7 +24914,7 @@
       </c>
       <c r="J361" s="2" cm="1">
         <f t="array" ref="J361">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H361,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -24928,7 +24934,7 @@
       <c r="E362" s="6"/>
       <c r="F362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24940,7 +24946,7 @@
       </c>
       <c r="J362" s="2" cm="1">
         <f t="array" ref="J362">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H362,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -24960,7 +24966,7 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24972,7 +24978,7 @@
       </c>
       <c r="J363" s="2" cm="1">
         <f t="array" ref="J363">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H363,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -24992,7 +24998,7 @@
       <c r="E364" s="6"/>
       <c r="F364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25004,7 +25010,7 @@
       </c>
       <c r="J364" s="2" cm="1">
         <f t="array" ref="J364">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H364,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -25024,7 +25030,7 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25036,7 +25042,7 @@
       </c>
       <c r="J365" s="2" cm="1">
         <f t="array" ref="J365">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H365,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -25056,7 +25062,7 @@
       <c r="E366" s="6"/>
       <c r="F366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25068,7 +25074,7 @@
       </c>
       <c r="J366" s="2" cm="1">
         <f t="array" ref="J366">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H366,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -25088,7 +25094,7 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
       <c r="H367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25100,7 +25106,7 @@
       </c>
       <c r="J367" s="2" cm="1">
         <f t="array" ref="J367">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H367,Belanja[TOTAL],,,-1)</f>
-        <v>533933000</v>
+        <v>536020000</v>
       </c>
     </row>
   </sheetData>
@@ -25142,11 +25148,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C1940F-1311-4B0D-B6DB-47C1226A8423}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D216" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D234" sqref="D234"/>
+      <selection pane="bottomRight" activeCell="D235" sqref="D235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32209,11 +32215,11 @@
       </c>
       <c r="H215" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G215)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G215,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -32242,11 +32248,11 @@
       </c>
       <c r="H216" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G216)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G216,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -32275,11 +32281,11 @@
       </c>
       <c r="H217" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G217)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G217,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -32308,11 +32314,11 @@
       </c>
       <c r="H218" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G218)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G218,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -32341,11 +32347,11 @@
       </c>
       <c r="H219" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G219)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G219,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -32374,11 +32380,11 @@
       </c>
       <c r="H220" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G220)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G220,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -32407,11 +32413,11 @@
       </c>
       <c r="H221" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G221)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G221,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -32440,11 +32446,11 @@
       </c>
       <c r="H222" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G222)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G222,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -32473,11 +32479,11 @@
       </c>
       <c r="H223" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G223)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G223,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -32506,11 +32512,11 @@
       </c>
       <c r="H224" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G224)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G224,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -32539,11 +32545,11 @@
       </c>
       <c r="H225" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G225)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G225,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -32572,11 +32578,11 @@
       </c>
       <c r="H226" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G226)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G226,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -32605,11 +32611,11 @@
       </c>
       <c r="H227" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G227)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G227,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -32638,11 +32644,11 @@
       </c>
       <c r="H228" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G228)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G228,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -32671,11 +32677,11 @@
       </c>
       <c r="H229" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G229)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G229,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -32704,11 +32710,11 @@
       </c>
       <c r="H230" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G230)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G230,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -32737,11 +32743,11 @@
       </c>
       <c r="H231" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G231)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G231,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -32770,11 +32776,11 @@
       </c>
       <c r="H232" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G232)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G232,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -32803,11 +32809,11 @@
       </c>
       <c r="H233" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G233)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G233,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -32823,10 +32829,12 @@
         <f t="shared" si="9"/>
         <v>20</v>
       </c>
-      <c r="D234" s="4"/>
+      <c r="D234" s="4">
+        <v>2087000</v>
+      </c>
       <c r="E234" s="2">
         <f>SUM($D$2:$D234)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G234" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32834,11 +32842,11 @@
       </c>
       <c r="H234" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G234)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G234,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -32857,7 +32865,7 @@
       <c r="D235" s="5"/>
       <c r="E235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G235" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32865,11 +32873,11 @@
       </c>
       <c r="H235" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G235)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G235,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -32888,7 +32896,7 @@
       <c r="D236" s="4"/>
       <c r="E236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G236" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32896,11 +32904,11 @@
       </c>
       <c r="H236" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G236)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G236,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -32919,7 +32927,7 @@
       <c r="D237" s="5"/>
       <c r="E237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G237" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32927,11 +32935,11 @@
       </c>
       <c r="H237" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G237)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G237,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -32950,7 +32958,7 @@
       <c r="D238" s="4"/>
       <c r="E238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G238" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32958,11 +32966,11 @@
       </c>
       <c r="H238" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G238)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G238,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -32981,7 +32989,7 @@
       <c r="D239" s="5"/>
       <c r="E239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G239" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32989,11 +32997,11 @@
       </c>
       <c r="H239" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G239)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G239,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -33012,7 +33020,7 @@
       <c r="D240" s="4"/>
       <c r="E240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G240" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33020,11 +33028,11 @@
       </c>
       <c r="H240" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G240)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G240,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -33043,7 +33051,7 @@
       <c r="D241" s="5"/>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33051,11 +33059,11 @@
       </c>
       <c r="H241" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G241)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G241,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -33074,7 +33082,7 @@
       <c r="D242" s="4"/>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33082,11 +33090,11 @@
       </c>
       <c r="H242" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G242)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G242,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -33105,7 +33113,7 @@
       <c r="D243" s="5"/>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33113,11 +33121,11 @@
       </c>
       <c r="H243" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G243)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G243,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -33136,7 +33144,7 @@
       <c r="D244" s="4"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33144,11 +33152,11 @@
       </c>
       <c r="H244" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G244)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G244,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -33167,7 +33175,7 @@
       <c r="D245" s="5"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33175,11 +33183,11 @@
       </c>
       <c r="H245" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G245)</f>
-        <v>38754000</v>
+        <v>40841000</v>
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G245,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -33198,7 +33206,7 @@
       <c r="D246" s="4"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33210,7 +33218,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G246,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -33229,7 +33237,7 @@
       <c r="D247" s="5"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33241,7 +33249,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G247,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -33260,7 +33268,7 @@
       <c r="D248" s="4"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33272,7 +33280,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G248,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -33291,7 +33299,7 @@
       <c r="D249" s="5"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33303,7 +33311,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G249,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -33322,7 +33330,7 @@
       <c r="D250" s="4"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33334,7 +33342,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G250,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -33353,7 +33361,7 @@
       <c r="D251" s="5"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33365,7 +33373,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G251,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -33384,7 +33392,7 @@
       <c r="D252" s="4"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33396,7 +33404,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G252,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -33415,7 +33423,7 @@
       <c r="D253" s="5"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33427,7 +33435,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G253,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -33446,7 +33454,7 @@
       <c r="D254" s="4"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33458,7 +33466,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G254,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -33477,7 +33485,7 @@
       <c r="D255" s="5"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33489,7 +33497,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G255,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -33508,7 +33516,7 @@
       <c r="D256" s="4"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33520,7 +33528,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G256,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -33539,7 +33547,7 @@
       <c r="D257" s="5"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33551,7 +33559,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G257,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -33570,7 +33578,7 @@
       <c r="D258" s="4"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33582,7 +33590,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G258,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -33601,7 +33609,7 @@
       <c r="D259" s="5"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="13">B259</f>
@@ -33613,7 +33621,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G259,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -33632,7 +33640,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33644,7 +33652,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G260,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -33663,7 +33671,7 @@
       <c r="D261" s="5"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33675,7 +33683,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G261,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -33694,7 +33702,7 @@
       <c r="D262" s="4"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33706,7 +33714,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G262,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -33725,7 +33733,7 @@
       <c r="D263" s="5"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33737,7 +33745,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G263,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -33756,7 +33764,7 @@
       <c r="D264" s="4"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33768,7 +33776,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G264,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -33787,7 +33795,7 @@
       <c r="D265" s="5"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33799,7 +33807,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G265,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -33818,7 +33826,7 @@
       <c r="D266" s="4"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33830,7 +33838,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G266,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -33849,7 +33857,7 @@
       <c r="D267" s="5"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33861,7 +33869,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G267,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -33880,7 +33888,7 @@
       <c r="D268" s="4"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33892,7 +33900,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G268,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -33911,7 +33919,7 @@
       <c r="D269" s="5"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33923,7 +33931,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G269,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -33942,7 +33950,7 @@
       <c r="D270" s="4"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33954,7 +33962,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G270,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -33973,7 +33981,7 @@
       <c r="D271" s="5"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33985,7 +33993,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G271,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -34004,7 +34012,7 @@
       <c r="D272" s="4"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34016,7 +34024,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G272,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -34035,7 +34043,7 @@
       <c r="D273" s="5"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34047,7 +34055,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G273,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -34066,7 +34074,7 @@
       <c r="D274" s="4"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34078,7 +34086,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G274,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -34097,7 +34105,7 @@
       <c r="D275" s="5"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34109,7 +34117,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G275,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -34128,7 +34136,7 @@
       <c r="D276" s="4"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34140,7 +34148,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G276,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -34159,7 +34167,7 @@
       <c r="D277" s="5"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34171,7 +34179,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G277,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -34190,7 +34198,7 @@
       <c r="D278" s="4"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34202,7 +34210,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G278,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -34221,7 +34229,7 @@
       <c r="D279" s="5"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34233,7 +34241,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G279,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -34252,7 +34260,7 @@
       <c r="D280" s="4"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34264,7 +34272,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G280,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -34283,7 +34291,7 @@
       <c r="D281" s="5"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34295,7 +34303,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G281,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -34314,7 +34322,7 @@
       <c r="D282" s="4"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34326,7 +34334,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G282,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -34345,7 +34353,7 @@
       <c r="D283" s="5"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34357,7 +34365,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G283,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -34376,7 +34384,7 @@
       <c r="D284" s="4"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34388,7 +34396,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G284,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -34407,7 +34415,7 @@
       <c r="D285" s="5"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34419,7 +34427,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G285,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -34438,7 +34446,7 @@
       <c r="D286" s="4"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34450,7 +34458,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G286,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -34469,7 +34477,7 @@
       <c r="D287" s="5"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34481,7 +34489,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G287,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -34500,7 +34508,7 @@
       <c r="D288" s="4"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34512,7 +34520,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G288,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -34531,7 +34539,7 @@
       <c r="D289" s="5"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34543,7 +34551,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G289,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -34562,7 +34570,7 @@
       <c r="D290" s="4"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34574,7 +34582,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G290,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -34593,7 +34601,7 @@
       <c r="D291" s="5"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34605,7 +34613,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G291,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -34624,7 +34632,7 @@
       <c r="D292" s="4"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34636,7 +34644,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G292,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -34655,7 +34663,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34667,7 +34675,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G293,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -34686,7 +34694,7 @@
       <c r="D294" s="4"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34698,7 +34706,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G294,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -34717,7 +34725,7 @@
       <c r="D295" s="5"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34729,7 +34737,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G295,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -34748,7 +34756,7 @@
       <c r="D296" s="4"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34760,7 +34768,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G296,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -34779,7 +34787,7 @@
       <c r="D297" s="5"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34791,7 +34799,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G297,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -34810,7 +34818,7 @@
       <c r="D298" s="4"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34822,7 +34830,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G298,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -34841,7 +34849,7 @@
       <c r="D299" s="5"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34853,7 +34861,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G299,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -34872,7 +34880,7 @@
       <c r="D300" s="4"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34884,7 +34892,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G300,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -34903,7 +34911,7 @@
       <c r="D301" s="5"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34915,7 +34923,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G301,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -34934,7 +34942,7 @@
       <c r="D302" s="4"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34946,7 +34954,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G302,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -34965,7 +34973,7 @@
       <c r="D303" s="5"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34977,7 +34985,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G303,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -34996,7 +35004,7 @@
       <c r="D304" s="4"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35008,7 +35016,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G304,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -35027,7 +35035,7 @@
       <c r="D305" s="5"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35039,7 +35047,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G305,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -35058,7 +35066,7 @@
       <c r="D306" s="4"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35070,7 +35078,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G306,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -35089,7 +35097,7 @@
       <c r="D307" s="5"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35101,7 +35109,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G307,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -35120,7 +35128,7 @@
       <c r="D308" s="4"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35132,7 +35140,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G308,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -35151,7 +35159,7 @@
       <c r="D309" s="5"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35163,7 +35171,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G309,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -35182,7 +35190,7 @@
       <c r="D310" s="4"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35194,7 +35202,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G310,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -35213,7 +35221,7 @@
       <c r="D311" s="5"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35225,7 +35233,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G311,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -35244,7 +35252,7 @@
       <c r="D312" s="4"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35256,7 +35264,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G312,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -35275,7 +35283,7 @@
       <c r="D313" s="5"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35287,7 +35295,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G313,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -35306,7 +35314,7 @@
       <c r="D314" s="4"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35318,7 +35326,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G314,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -35337,7 +35345,7 @@
       <c r="D315" s="5"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35349,7 +35357,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G315,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -35368,7 +35376,7 @@
       <c r="D316" s="4"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35380,7 +35388,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G316,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -35399,7 +35407,7 @@
       <c r="D317" s="5"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35411,7 +35419,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G317,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -35430,7 +35438,7 @@
       <c r="D318" s="4"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35442,7 +35450,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G318,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -35461,7 +35469,7 @@
       <c r="D319" s="5"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35473,7 +35481,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G319,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -35492,7 +35500,7 @@
       <c r="D320" s="4"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35504,7 +35512,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G320,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -35523,7 +35531,7 @@
       <c r="D321" s="5"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35535,7 +35543,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G321,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -35554,7 +35562,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35566,7 +35574,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G322,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -35585,7 +35593,7 @@
       <c r="D323" s="5"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="16">B323</f>
@@ -35597,7 +35605,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G323,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -35616,7 +35624,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35628,7 +35636,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G324,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -35647,7 +35655,7 @@
       <c r="D325" s="5"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35659,7 +35667,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G325,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -35678,7 +35686,7 @@
       <c r="D326" s="4"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35690,7 +35698,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G326,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -35709,7 +35717,7 @@
       <c r="D327" s="5"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35721,7 +35729,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G327,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -35740,7 +35748,7 @@
       <c r="D328" s="4"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35752,7 +35760,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G328,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -35771,7 +35779,7 @@
       <c r="D329" s="5"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35783,7 +35791,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G329,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -35802,7 +35810,7 @@
       <c r="D330" s="4"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35814,7 +35822,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G330,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -35833,7 +35841,7 @@
       <c r="D331" s="5"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35845,7 +35853,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G331,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -35864,7 +35872,7 @@
       <c r="D332" s="4"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35876,7 +35884,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G332,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -35895,7 +35903,7 @@
       <c r="D333" s="5"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35907,7 +35915,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G333,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -35926,7 +35934,7 @@
       <c r="D334" s="4"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35938,7 +35946,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G334,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -35957,7 +35965,7 @@
       <c r="D335" s="5"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35969,7 +35977,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G335,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -35988,7 +35996,7 @@
       <c r="D336" s="4"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36000,7 +36008,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G336,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -36019,7 +36027,7 @@
       <c r="D337" s="5"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36031,7 +36039,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G337,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -36050,7 +36058,7 @@
       <c r="D338" s="4"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36062,7 +36070,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G338,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -36081,7 +36089,7 @@
       <c r="D339" s="5"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36093,7 +36101,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G339,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -36112,7 +36120,7 @@
       <c r="D340" s="4"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36124,7 +36132,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G340,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -36143,7 +36151,7 @@
       <c r="D341" s="5"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36155,7 +36163,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G341,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -36174,7 +36182,7 @@
       <c r="D342" s="4"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36186,7 +36194,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G342,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -36205,7 +36213,7 @@
       <c r="D343" s="5"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36217,7 +36225,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G343,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -36236,7 +36244,7 @@
       <c r="D344" s="4"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36248,7 +36256,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G344,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -36267,7 +36275,7 @@
       <c r="D345" s="5"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36279,7 +36287,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G345,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -36298,7 +36306,7 @@
       <c r="D346" s="4"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36310,7 +36318,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G346,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -36329,7 +36337,7 @@
       <c r="D347" s="5"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36341,7 +36349,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G347,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -36360,7 +36368,7 @@
       <c r="D348" s="4"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36372,7 +36380,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G348,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -36391,7 +36399,7 @@
       <c r="D349" s="5"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36403,7 +36411,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G349,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -36422,7 +36430,7 @@
       <c r="D350" s="4"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36434,7 +36442,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G350,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -36453,7 +36461,7 @@
       <c r="D351" s="5"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36465,7 +36473,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G351,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -36484,7 +36492,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36496,7 +36504,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G352,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -36515,7 +36523,7 @@
       <c r="D353" s="5"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36527,7 +36535,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G353,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -36546,7 +36554,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36558,7 +36566,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G354,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -36577,7 +36585,7 @@
       <c r="D355" s="5"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36589,7 +36597,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G355,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -36608,7 +36616,7 @@
       <c r="D356" s="4"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36620,7 +36628,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G356,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -36639,7 +36647,7 @@
       <c r="D357" s="5"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36651,7 +36659,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G357,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -36670,7 +36678,7 @@
       <c r="D358" s="4"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36682,7 +36690,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G358,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -36701,7 +36709,7 @@
       <c r="D359" s="5"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36713,7 +36721,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G359,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -36732,7 +36740,7 @@
       <c r="D360" s="4"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36744,7 +36752,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G360,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -36763,7 +36771,7 @@
       <c r="D361" s="5"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36775,7 +36783,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G361,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -36794,7 +36802,7 @@
       <c r="D362" s="4"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36806,7 +36814,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G362,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -36825,7 +36833,7 @@
       <c r="D363" s="5"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36837,7 +36845,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G363,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -36856,7 +36864,7 @@
       <c r="D364" s="4"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36868,7 +36876,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G364,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -36887,7 +36895,7 @@
       <c r="D365" s="5"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36899,7 +36907,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G365,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -36918,7 +36926,7 @@
       <c r="D366" s="4"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36930,7 +36938,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G366,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -36949,7 +36957,7 @@
       <c r="D367" s="5"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36961,7 +36969,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G367,Transferan[TOTAL],,,-1)</f>
-        <v>404825000</v>
+        <v>406912000</v>
       </c>
     </row>
   </sheetData>

--- a/HARIAN/2024.xlsx
+++ b/HARIAN/2024.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/277ffa1efc2bfcc1/Apartment Bintaro/Data Harian/BINTARO-APG/HARIAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="239" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{800D8A7E-8618-45D9-AB47-E396564A0198}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8929FB94-87A8-494C-BAA5-AA63F398D028}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETUP" sheetId="2" r:id="rId1"/>
@@ -895,11 +895,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACCD3D5-ABBC-4800-97A3-8932BD05F189}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D221" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D227" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D235" sqref="D235"/>
+      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,11 +7956,11 @@
       </c>
       <c r="H215" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G215)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G215,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7989,11 +7989,11 @@
       </c>
       <c r="H216" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G216)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G216,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8022,11 +8022,11 @@
       </c>
       <c r="H217" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G217)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G217,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8055,11 +8055,11 @@
       </c>
       <c r="H218" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G218)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G218,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8088,11 +8088,11 @@
       </c>
       <c r="H219" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G219)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G219,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8121,11 +8121,11 @@
       </c>
       <c r="H220" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G220)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G220,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8154,11 +8154,11 @@
       </c>
       <c r="H221" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G221)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G221,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8187,11 +8187,11 @@
       </c>
       <c r="H222" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G222)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G222,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8220,11 +8220,11 @@
       </c>
       <c r="H223" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G223)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G223,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8253,11 +8253,11 @@
       </c>
       <c r="H224" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G224)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G224,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8286,11 +8286,11 @@
       </c>
       <c r="H225" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G225)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G225,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8319,11 +8319,11 @@
       </c>
       <c r="H226" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G226)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G226,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8352,11 +8352,11 @@
       </c>
       <c r="H227" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G227)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G227,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8385,11 +8385,11 @@
       </c>
       <c r="H228" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G228)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G228,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8418,11 +8418,11 @@
       </c>
       <c r="H229" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G229)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G229,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8451,11 +8451,11 @@
       </c>
       <c r="H230" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G230)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G230,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8484,11 +8484,11 @@
       </c>
       <c r="H231" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G231)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G231,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8517,11 +8517,11 @@
       </c>
       <c r="H232" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G232)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G232,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8550,11 +8550,11 @@
       </c>
       <c r="H233" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G233)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G233,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8583,11 +8583,11 @@
       </c>
       <c r="H234" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G234)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G234,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8603,10 +8603,12 @@
         <f t="shared" si="13"/>
         <v>21</v>
       </c>
-      <c r="D235" s="2"/>
+      <c r="D235" s="2">
+        <v>205000</v>
+      </c>
       <c r="E235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>75027000</v>
+        <v>75232000</v>
       </c>
       <c r="G235" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8614,11 +8616,11 @@
       </c>
       <c r="H235" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G235)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G235,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8634,10 +8636,12 @@
         <f t="shared" si="13"/>
         <v>22</v>
       </c>
-      <c r="D236" s="2"/>
+      <c r="D236" s="2">
+        <v>258000</v>
+      </c>
       <c r="E236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>75027000</v>
+        <v>75490000</v>
       </c>
       <c r="G236" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8645,11 +8649,11 @@
       </c>
       <c r="H236" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G236)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G236,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8665,10 +8669,12 @@
         <f t="shared" si="13"/>
         <v>23</v>
       </c>
-      <c r="D237" s="2"/>
+      <c r="D237" s="2">
+        <v>158000</v>
+      </c>
       <c r="E237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>75027000</v>
+        <v>75648000</v>
       </c>
       <c r="G237" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8676,11 +8682,11 @@
       </c>
       <c r="H237" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G237)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G237,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8696,10 +8702,12 @@
         <f t="shared" si="13"/>
         <v>24</v>
       </c>
-      <c r="D238" s="2"/>
+      <c r="D238" s="2">
+        <v>357000</v>
+      </c>
       <c r="E238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>75027000</v>
+        <v>76005000</v>
       </c>
       <c r="G238" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8707,11 +8715,11 @@
       </c>
       <c r="H238" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G238)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G238,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8727,10 +8735,12 @@
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="D239" s="2"/>
+      <c r="D239" s="2">
+        <v>401000</v>
+      </c>
       <c r="E239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>75027000</v>
+        <v>76406000</v>
       </c>
       <c r="G239" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8738,11 +8748,11 @@
       </c>
       <c r="H239" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G239)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G239,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8758,10 +8768,12 @@
         <f t="shared" si="13"/>
         <v>26</v>
       </c>
-      <c r="D240" s="2"/>
+      <c r="D240" s="2">
+        <v>214000</v>
+      </c>
       <c r="E240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G240" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8769,11 +8781,11 @@
       </c>
       <c r="H240" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G240)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G240,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -8792,7 +8804,7 @@
       <c r="D241" s="2"/>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8800,11 +8812,11 @@
       </c>
       <c r="H241" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G241)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G241,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8823,7 +8835,7 @@
       <c r="D242" s="2"/>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8831,11 +8843,11 @@
       </c>
       <c r="H242" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G242)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G242,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -8854,7 +8866,7 @@
       <c r="D243" s="2"/>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8862,11 +8874,11 @@
       </c>
       <c r="H243" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G243)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G243,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8885,7 +8897,7 @@
       <c r="D244" s="2"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8893,11 +8905,11 @@
       </c>
       <c r="H244" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G244)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G244,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8916,7 +8928,7 @@
       <c r="D245" s="2"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8924,11 +8936,11 @@
       </c>
       <c r="H245" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G245)</f>
-        <v>6399000</v>
+        <v>7992000</v>
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G245,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8947,7 +8959,7 @@
       <c r="D246" s="2"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8959,7 +8971,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G246,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8978,7 +8990,7 @@
       <c r="D247" s="2"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8990,7 +9002,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G247,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9009,7 +9021,7 @@
       <c r="D248" s="2"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9021,7 +9033,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G248,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9040,7 +9052,7 @@
       <c r="D249" s="2"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9052,7 +9064,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G249,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9071,7 +9083,7 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9083,7 +9095,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G250,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9102,7 +9114,7 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9114,7 +9126,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G251,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9133,7 +9145,7 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9145,7 +9157,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G252,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9164,7 +9176,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9176,7 +9188,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G253,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9195,7 +9207,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9207,7 +9219,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G254,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9226,7 +9238,7 @@
       <c r="D255" s="2"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9238,7 +9250,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G255,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9257,7 +9269,7 @@
       <c r="D256" s="2"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9269,7 +9281,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G256,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9288,7 +9300,7 @@
       <c r="D257" s="2"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9300,7 +9312,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G257,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9319,7 +9331,7 @@
       <c r="D258" s="2"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9331,7 +9343,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G258,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9350,7 +9362,7 @@
       <c r="D259" s="2"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="14">B259</f>
@@ -9362,7 +9374,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G259,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9381,7 +9393,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9393,7 +9405,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G260,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9412,7 +9424,7 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9424,7 +9436,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G261,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9443,7 +9455,7 @@
       <c r="D262" s="2"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9455,7 +9467,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G262,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9474,7 +9486,7 @@
       <c r="D263" s="2"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9486,7 +9498,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G263,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9505,7 +9517,7 @@
       <c r="D264" s="2"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9517,7 +9529,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G264,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9536,7 +9548,7 @@
       <c r="D265" s="2"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9548,7 +9560,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G265,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9567,7 +9579,7 @@
       <c r="D266" s="2"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9579,7 +9591,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G266,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -9598,7 +9610,7 @@
       <c r="D267" s="2"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9610,7 +9622,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G267,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -9629,7 +9641,7 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9641,7 +9653,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G268,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -9660,7 +9672,7 @@
       <c r="D269" s="2"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9672,7 +9684,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G269,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9691,7 +9703,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9703,7 +9715,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G270,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9722,7 +9734,7 @@
       <c r="D271" s="2"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9734,7 +9746,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G271,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9753,7 +9765,7 @@
       <c r="D272" s="2"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9765,7 +9777,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G272,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9784,7 +9796,7 @@
       <c r="D273" s="2"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9796,7 +9808,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G273,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9815,7 +9827,7 @@
       <c r="D274" s="2"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9827,7 +9839,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G274,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9846,7 +9858,7 @@
       <c r="D275" s="2"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9858,7 +9870,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G275,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9877,7 +9889,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9889,7 +9901,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G276,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -9908,7 +9920,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9920,7 +9932,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G277,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -9939,7 +9951,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9951,7 +9963,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G278,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -9970,7 +9982,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9982,7 +9994,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G279,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -10001,7 +10013,7 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10013,7 +10025,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G280,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10032,7 +10044,7 @@
       <c r="D281" s="2"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10044,7 +10056,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G281,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -10063,7 +10075,7 @@
       <c r="D282" s="2"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10075,7 +10087,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G282,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -10094,7 +10106,7 @@
       <c r="D283" s="2"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10106,7 +10118,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G283,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10125,7 +10137,7 @@
       <c r="D284" s="2"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10137,7 +10149,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G284,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10156,7 +10168,7 @@
       <c r="D285" s="2"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10168,7 +10180,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G285,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10187,7 +10199,7 @@
       <c r="D286" s="2"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10199,7 +10211,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G286,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10218,7 +10230,7 @@
       <c r="D287" s="2"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10230,7 +10242,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G287,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10249,7 +10261,7 @@
       <c r="D288" s="2"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10261,7 +10273,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G288,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10280,7 +10292,7 @@
       <c r="D289" s="2"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10292,7 +10304,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G289,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10311,7 +10323,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10323,7 +10335,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G290,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10342,7 +10354,7 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10354,7 +10366,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G291,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10373,7 +10385,7 @@
       <c r="D292" s="2"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10385,7 +10397,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G292,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10404,7 +10416,7 @@
       <c r="D293" s="2"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10416,7 +10428,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G293,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10435,7 +10447,7 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10447,7 +10459,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G294,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10466,7 +10478,7 @@
       <c r="D295" s="2"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10478,7 +10490,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G295,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10497,7 +10509,7 @@
       <c r="D296" s="2"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10509,7 +10521,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G296,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10528,7 +10540,7 @@
       <c r="D297" s="2"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10540,7 +10552,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G297,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10559,7 +10571,7 @@
       <c r="D298" s="2"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10571,7 +10583,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G298,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10590,7 +10602,7 @@
       <c r="D299" s="2"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10602,7 +10614,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G299,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10621,7 +10633,7 @@
       <c r="D300" s="2"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10633,7 +10645,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G300,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10652,7 +10664,7 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10664,7 +10676,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G301,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10683,7 +10695,7 @@
       <c r="D302" s="2"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10695,7 +10707,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G302,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10714,7 +10726,7 @@
       <c r="D303" s="2"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10726,7 +10738,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G303,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10745,7 +10757,7 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10757,7 +10769,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G304,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10776,7 +10788,7 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10788,7 +10800,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G305,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10807,7 +10819,7 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10819,7 +10831,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G306,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10838,7 +10850,7 @@
       <c r="D307" s="2"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10850,7 +10862,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G307,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10869,7 +10881,7 @@
       <c r="D308" s="2"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10881,7 +10893,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G308,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10900,7 +10912,7 @@
       <c r="D309" s="2"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10912,7 +10924,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G309,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10931,7 +10943,7 @@
       <c r="D310" s="2"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10943,7 +10955,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G310,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10962,7 +10974,7 @@
       <c r="D311" s="2"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10974,7 +10986,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G311,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -10993,7 +11005,7 @@
       <c r="D312" s="2"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11005,7 +11017,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G312,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -11024,7 +11036,7 @@
       <c r="D313" s="2"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11036,7 +11048,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G313,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -11055,7 +11067,7 @@
       <c r="D314" s="2"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11067,7 +11079,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G314,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -11086,7 +11098,7 @@
       <c r="D315" s="2"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11098,7 +11110,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G315,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11117,7 +11129,7 @@
       <c r="D316" s="2"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11129,7 +11141,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G316,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11148,7 +11160,7 @@
       <c r="D317" s="2"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11160,7 +11172,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G317,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11179,7 +11191,7 @@
       <c r="D318" s="2"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11191,7 +11203,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G318,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11210,7 +11222,7 @@
       <c r="D319" s="2"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11222,7 +11234,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G319,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11241,7 +11253,7 @@
       <c r="D320" s="2"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11253,7 +11265,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G320,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11272,7 +11284,7 @@
       <c r="D321" s="2"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11284,7 +11296,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G321,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11303,7 +11315,7 @@
       <c r="D322" s="2"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11315,7 +11327,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G322,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11334,7 +11346,7 @@
       <c r="D323" s="2"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="17">B323</f>
@@ -11346,7 +11358,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G323,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11365,7 +11377,7 @@
       <c r="D324" s="2"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11377,7 +11389,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G324,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11396,7 +11408,7 @@
       <c r="D325" s="2"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11408,7 +11420,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G325,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11427,7 +11439,7 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11439,7 +11451,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G326,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11458,7 +11470,7 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11470,7 +11482,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G327,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -11489,7 +11501,7 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11501,7 +11513,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G328,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -11520,7 +11532,7 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11532,7 +11544,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G329,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -11551,7 +11563,7 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11563,7 +11575,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G330,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -11582,7 +11594,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11594,7 +11606,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G331,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -11613,7 +11625,7 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11625,7 +11637,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G332,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -11644,7 +11656,7 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11656,7 +11668,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G333,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -11675,7 +11687,7 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11687,7 +11699,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G334,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -11706,7 +11718,7 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11718,7 +11730,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G335,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -11737,7 +11749,7 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11749,7 +11761,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G336,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -11768,7 +11780,7 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11780,7 +11792,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G337,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -11799,7 +11811,7 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11811,7 +11823,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G338,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -11830,7 +11842,7 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11842,7 +11854,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G339,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -11861,7 +11873,7 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11873,7 +11885,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G340,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -11892,7 +11904,7 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11904,7 +11916,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G341,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -11923,7 +11935,7 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11935,7 +11947,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G342,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -11954,7 +11966,7 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11966,7 +11978,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G343,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -11985,7 +11997,7 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11997,7 +12009,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G344,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -12016,7 +12028,7 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12028,7 +12040,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G345,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -12047,7 +12059,7 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12059,7 +12071,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G346,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12078,7 +12090,7 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12090,7 +12102,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G347,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -12109,7 +12121,7 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12121,7 +12133,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G348,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -12140,7 +12152,7 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12152,7 +12164,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G349,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -12171,7 +12183,7 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12183,7 +12195,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G350,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -12202,7 +12214,7 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12214,7 +12226,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G351,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -12233,7 +12245,7 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12245,7 +12257,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G352,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -12264,7 +12276,7 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12276,7 +12288,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G353,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -12295,7 +12307,7 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12307,7 +12319,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G354,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -12326,7 +12338,7 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12338,7 +12350,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G355,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -12357,7 +12369,7 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12369,7 +12381,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G356,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -12388,7 +12400,7 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12400,7 +12412,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G357,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -12419,7 +12431,7 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12431,7 +12443,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G358,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -12450,7 +12462,7 @@
       <c r="D359" s="2"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12462,7 +12474,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G359,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -12481,7 +12493,7 @@
       <c r="D360" s="2"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12493,7 +12505,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G360,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -12512,7 +12524,7 @@
       <c r="D361" s="2"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12524,7 +12536,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G361,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -12543,7 +12555,7 @@
       <c r="D362" s="2"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12555,7 +12567,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G362,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -12574,7 +12586,7 @@
       <c r="D363" s="2"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12586,7 +12598,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G363,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -12605,7 +12617,7 @@
       <c r="D364" s="2"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12617,7 +12629,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G364,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -12636,7 +12648,7 @@
       <c r="D365" s="2"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12648,7 +12660,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G365,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -12667,7 +12679,7 @@
       <c r="D366" s="2"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12679,7 +12691,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G366,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -12698,7 +12710,7 @@
       <c r="D367" s="2"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12710,7 +12722,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G367,Tunai[TOTAL],,,-1)</f>
-        <v>75027000</v>
+        <v>76620000</v>
       </c>
     </row>
   </sheetData>
@@ -12744,11 +12756,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86C5667-F5BA-4732-841C-6A499F4EB5B6}">
   <dimension ref="A1:M367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D218" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E235" sqref="E235"/>
+      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20162,11 +20174,11 @@
       </c>
       <c r="I215" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H215)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J215" s="2" cm="1">
         <f t="array" ref="J215">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H215,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -20198,11 +20210,11 @@
       </c>
       <c r="I216" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H216)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J216" s="2" cm="1">
         <f t="array" ref="J216">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H216,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -20234,11 +20246,11 @@
       </c>
       <c r="I217" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H217)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J217" s="2" cm="1">
         <f t="array" ref="J217">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H217,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -20270,11 +20282,11 @@
       </c>
       <c r="I218" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H218)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J218" s="2" cm="1">
         <f t="array" ref="J218">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H218,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -20306,11 +20318,11 @@
       </c>
       <c r="I219" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H219)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J219" s="2" cm="1">
         <f t="array" ref="J219">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H219,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -20342,11 +20354,11 @@
       </c>
       <c r="I220" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H220)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J220" s="2" cm="1">
         <f t="array" ref="J220">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H220,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -20378,11 +20390,11 @@
       </c>
       <c r="I221" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H221)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J221" s="2" cm="1">
         <f t="array" ref="J221">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H221,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -20414,11 +20426,11 @@
       </c>
       <c r="I222" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H222)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J222" s="2" cm="1">
         <f t="array" ref="J222">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H222,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -20450,11 +20462,11 @@
       </c>
       <c r="I223" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H223)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J223" s="2" cm="1">
         <f t="array" ref="J223">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H223,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -20486,11 +20498,11 @@
       </c>
       <c r="I224" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H224)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J224" s="2" cm="1">
         <f t="array" ref="J224">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H224,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -20522,11 +20534,11 @@
       </c>
       <c r="I225" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H225)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J225" s="2" cm="1">
         <f t="array" ref="J225">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H225,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -20558,11 +20570,11 @@
       </c>
       <c r="I226" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H226)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J226" s="2" cm="1">
         <f t="array" ref="J226">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H226,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -20594,11 +20606,11 @@
       </c>
       <c r="I227" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H227)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J227" s="2" cm="1">
         <f t="array" ref="J227">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H227,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -20630,11 +20642,11 @@
       </c>
       <c r="I228" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H228)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J228" s="2" cm="1">
         <f t="array" ref="J228">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H228,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -20666,11 +20678,11 @@
       </c>
       <c r="I229" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H229)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J229" s="2" cm="1">
         <f t="array" ref="J229">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H229,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -20702,11 +20714,11 @@
       </c>
       <c r="I230" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H230)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J230" s="2" cm="1">
         <f t="array" ref="J230">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H230,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -20738,11 +20750,11 @@
       </c>
       <c r="I231" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H231)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J231" s="2" cm="1">
         <f t="array" ref="J231">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H231,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -20774,11 +20786,11 @@
       </c>
       <c r="I232" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H232)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J232" s="2" cm="1">
         <f t="array" ref="J232">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H232,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -20810,11 +20822,11 @@
       </c>
       <c r="I233" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H233)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J233" s="2" cm="1">
         <f t="array" ref="J233">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H233,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -20846,11 +20858,11 @@
       </c>
       <c r="I234" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H234)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J234" s="2" cm="1">
         <f t="array" ref="J234">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H234,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -20866,11 +20878,15 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D235" s="5"/>
-      <c r="E235" s="2"/>
+      <c r="D235" s="5">
+        <v>1599000</v>
+      </c>
+      <c r="E235" s="2">
+        <v>2272000</v>
+      </c>
       <c r="F235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>536020000</v>
+        <v>537619000</v>
       </c>
       <c r="H235" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20878,11 +20894,11 @@
       </c>
       <c r="I235" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H235)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J235" s="2" cm="1">
         <f t="array" ref="J235">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H235,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -20898,11 +20914,15 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="D236" s="4"/>
-      <c r="E236" s="6"/>
+      <c r="D236" s="4">
+        <v>1924000</v>
+      </c>
+      <c r="E236" s="6">
+        <v>2151000</v>
+      </c>
       <c r="F236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>536020000</v>
+        <v>539543000</v>
       </c>
       <c r="H236" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20910,11 +20930,11 @@
       </c>
       <c r="I236" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H236)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J236" s="2" cm="1">
         <f t="array" ref="J236">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H236,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -20930,11 +20950,15 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="D237" s="5"/>
-      <c r="E237" s="2"/>
+      <c r="D237" s="5">
+        <v>2030000</v>
+      </c>
+      <c r="E237" s="2">
+        <v>2027000</v>
+      </c>
       <c r="F237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>536020000</v>
+        <v>541573000</v>
       </c>
       <c r="H237" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20942,11 +20966,11 @@
       </c>
       <c r="I237" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H237)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J237" s="2" cm="1">
         <f t="array" ref="J237">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H237,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -20962,11 +20986,15 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="D238" s="4"/>
-      <c r="E238" s="6"/>
+      <c r="D238" s="4">
+        <v>2096000</v>
+      </c>
+      <c r="E238" s="6">
+        <v>2078000</v>
+      </c>
       <c r="F238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>536020000</v>
+        <v>543669000</v>
       </c>
       <c r="H238" s="1" t="str">
         <f t="shared" si="10"/>
@@ -20974,11 +21002,11 @@
       </c>
       <c r="I238" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H238)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J238" s="2" cm="1">
         <f t="array" ref="J238">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H238,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -20994,11 +21022,15 @@
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="D239" s="5"/>
-      <c r="E239" s="2"/>
+      <c r="D239" s="5">
+        <v>1974000</v>
+      </c>
+      <c r="E239" s="2">
+        <v>1576000</v>
+      </c>
       <c r="F239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>536020000</v>
+        <v>545643000</v>
       </c>
       <c r="H239" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21006,11 +21038,11 @@
       </c>
       <c r="I239" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H239)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J239" s="2" cm="1">
         <f t="array" ref="J239">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H239,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -21026,11 +21058,15 @@
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="D240" s="4"/>
-      <c r="E240" s="6"/>
+      <c r="D240" s="4">
+        <v>1617000</v>
+      </c>
+      <c r="E240" s="6">
+        <v>2165000</v>
+      </c>
       <c r="F240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H240" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21038,11 +21074,11 @@
       </c>
       <c r="I240" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H240)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J240" s="2" cm="1">
         <f t="array" ref="J240">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H240,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -21062,7 +21098,7 @@
       <c r="E241" s="2"/>
       <c r="F241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H241" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21070,11 +21106,11 @@
       </c>
       <c r="I241" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H241)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J241" s="2" cm="1">
         <f t="array" ref="J241">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H241,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -21094,7 +21130,7 @@
       <c r="E242" s="6"/>
       <c r="F242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H242" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21102,11 +21138,11 @@
       </c>
       <c r="I242" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H242)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J242" s="2" cm="1">
         <f t="array" ref="J242">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H242,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -21126,7 +21162,7 @@
       <c r="E243" s="2"/>
       <c r="F243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H243" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21134,11 +21170,11 @@
       </c>
       <c r="I243" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H243)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J243" s="2" cm="1">
         <f t="array" ref="J243">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H243,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -21158,7 +21194,7 @@
       <c r="E244" s="6"/>
       <c r="F244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H244" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21166,11 +21202,11 @@
       </c>
       <c r="I244" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H244)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J244" s="2" cm="1">
         <f t="array" ref="J244">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H244,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -21190,7 +21226,7 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H245" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21198,11 +21234,11 @@
       </c>
       <c r="I245" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H245)</f>
-        <v>40839000</v>
+        <v>52079000</v>
       </c>
       <c r="J245" s="2" cm="1">
         <f t="array" ref="J245">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H245,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -21222,7 +21258,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H246" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21234,7 +21270,7 @@
       </c>
       <c r="J246" s="2" cm="1">
         <f t="array" ref="J246">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H246,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -21254,7 +21290,7 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H247" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21266,7 +21302,7 @@
       </c>
       <c r="J247" s="2" cm="1">
         <f t="array" ref="J247">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H247,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -21286,7 +21322,7 @@
       <c r="E248" s="6"/>
       <c r="F248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H248" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21298,7 +21334,7 @@
       </c>
       <c r="J248" s="2" cm="1">
         <f t="array" ref="J248">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H248,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -21318,7 +21354,7 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H249" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21330,7 +21366,7 @@
       </c>
       <c r="J249" s="2" cm="1">
         <f t="array" ref="J249">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H249,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -21350,7 +21386,7 @@
       <c r="E250" s="6"/>
       <c r="F250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H250" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21362,7 +21398,7 @@
       </c>
       <c r="J250" s="2" cm="1">
         <f t="array" ref="J250">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H250,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -21382,7 +21418,7 @@
       <c r="E251" s="2"/>
       <c r="F251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H251" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21394,7 +21430,7 @@
       </c>
       <c r="J251" s="2" cm="1">
         <f t="array" ref="J251">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H251,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -21414,7 +21450,7 @@
       <c r="E252" s="6"/>
       <c r="F252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H252" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21426,7 +21462,7 @@
       </c>
       <c r="J252" s="2" cm="1">
         <f t="array" ref="J252">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H252,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -21446,7 +21482,7 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H253" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21458,7 +21494,7 @@
       </c>
       <c r="J253" s="2" cm="1">
         <f t="array" ref="J253">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H253,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -21478,7 +21514,7 @@
       <c r="E254" s="6"/>
       <c r="F254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H254" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21490,7 +21526,7 @@
       </c>
       <c r="J254" s="2" cm="1">
         <f t="array" ref="J254">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H254,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -21510,7 +21546,7 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H255" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21522,7 +21558,7 @@
       </c>
       <c r="J255" s="2" cm="1">
         <f t="array" ref="J255">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H255,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -21542,7 +21578,7 @@
       <c r="E256" s="6"/>
       <c r="F256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H256" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21554,7 +21590,7 @@
       </c>
       <c r="J256" s="2" cm="1">
         <f t="array" ref="J256">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H256,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -21574,7 +21610,7 @@
       <c r="E257" s="2"/>
       <c r="F257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H257" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21586,7 +21622,7 @@
       </c>
       <c r="J257" s="2" cm="1">
         <f t="array" ref="J257">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H257,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -21606,7 +21642,7 @@
       <c r="E258" s="6"/>
       <c r="F258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H258" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21618,7 +21654,7 @@
       </c>
       <c r="J258" s="2" cm="1">
         <f t="array" ref="J258">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H258,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -21638,7 +21674,7 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H259" s="1" t="str">
         <f t="shared" ref="H259:H322" si="13">B259</f>
@@ -21650,7 +21686,7 @@
       </c>
       <c r="J259" s="2" cm="1">
         <f t="array" ref="J259">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H259,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -21670,7 +21706,7 @@
       <c r="E260" s="6"/>
       <c r="F260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H260" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21682,7 +21718,7 @@
       </c>
       <c r="J260" s="2" cm="1">
         <f t="array" ref="J260">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H260,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -21702,7 +21738,7 @@
       <c r="E261" s="2"/>
       <c r="F261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H261" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21714,7 +21750,7 @@
       </c>
       <c r="J261" s="2" cm="1">
         <f t="array" ref="J261">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H261,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -21734,7 +21770,7 @@
       <c r="E262" s="6"/>
       <c r="F262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H262" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21746,7 +21782,7 @@
       </c>
       <c r="J262" s="2" cm="1">
         <f t="array" ref="J262">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H262,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -21766,7 +21802,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H263" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21778,7 +21814,7 @@
       </c>
       <c r="J263" s="2" cm="1">
         <f t="array" ref="J263">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H263,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -21798,7 +21834,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H264" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21810,7 +21846,7 @@
       </c>
       <c r="J264" s="2" cm="1">
         <f t="array" ref="J264">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H264,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -21830,7 +21866,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H265" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21842,7 +21878,7 @@
       </c>
       <c r="J265" s="2" cm="1">
         <f t="array" ref="J265">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H265,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -21862,7 +21898,7 @@
       <c r="E266" s="6"/>
       <c r="F266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H266" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21874,7 +21910,7 @@
       </c>
       <c r="J266" s="2" cm="1">
         <f t="array" ref="J266">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H266,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -21894,7 +21930,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H267" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21906,7 +21942,7 @@
       </c>
       <c r="J267" s="2" cm="1">
         <f t="array" ref="J267">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H267,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -21926,7 +21962,7 @@
       <c r="E268" s="6"/>
       <c r="F268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H268" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21938,7 +21974,7 @@
       </c>
       <c r="J268" s="2" cm="1">
         <f t="array" ref="J268">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H268,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -21958,7 +21994,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H269" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21970,7 +22006,7 @@
       </c>
       <c r="J269" s="2" cm="1">
         <f t="array" ref="J269">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H269,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -21990,7 +22026,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H270" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22002,7 +22038,7 @@
       </c>
       <c r="J270" s="2" cm="1">
         <f t="array" ref="J270">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H270,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -22022,7 +22058,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H271" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22034,7 +22070,7 @@
       </c>
       <c r="J271" s="2" cm="1">
         <f t="array" ref="J271">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H271,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -22054,7 +22090,7 @@
       <c r="E272" s="6"/>
       <c r="F272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H272" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22066,7 +22102,7 @@
       </c>
       <c r="J272" s="2" cm="1">
         <f t="array" ref="J272">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H272,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -22086,7 +22122,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H273" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22098,7 +22134,7 @@
       </c>
       <c r="J273" s="2" cm="1">
         <f t="array" ref="J273">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H273,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -22118,7 +22154,7 @@
       <c r="E274" s="6"/>
       <c r="F274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H274" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22130,7 +22166,7 @@
       </c>
       <c r="J274" s="2" cm="1">
         <f t="array" ref="J274">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H274,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -22150,7 +22186,7 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H275" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22162,7 +22198,7 @@
       </c>
       <c r="J275" s="2" cm="1">
         <f t="array" ref="J275">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H275,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -22182,7 +22218,7 @@
       <c r="E276" s="6"/>
       <c r="F276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H276" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22194,7 +22230,7 @@
       </c>
       <c r="J276" s="2" cm="1">
         <f t="array" ref="J276">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H276,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -22214,7 +22250,7 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H277" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22226,7 +22262,7 @@
       </c>
       <c r="J277" s="2" cm="1">
         <f t="array" ref="J277">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H277,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -22246,7 +22282,7 @@
       <c r="E278" s="6"/>
       <c r="F278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H278" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22258,7 +22294,7 @@
       </c>
       <c r="J278" s="2" cm="1">
         <f t="array" ref="J278">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H278,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -22278,7 +22314,7 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H279" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22290,7 +22326,7 @@
       </c>
       <c r="J279" s="2" cm="1">
         <f t="array" ref="J279">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H279,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -22310,7 +22346,7 @@
       <c r="E280" s="6"/>
       <c r="F280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H280" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22322,7 +22358,7 @@
       </c>
       <c r="J280" s="2" cm="1">
         <f t="array" ref="J280">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H280,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -22342,7 +22378,7 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H281" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22354,7 +22390,7 @@
       </c>
       <c r="J281" s="2" cm="1">
         <f t="array" ref="J281">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H281,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -22374,7 +22410,7 @@
       <c r="E282" s="6"/>
       <c r="F282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H282" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22386,7 +22422,7 @@
       </c>
       <c r="J282" s="2" cm="1">
         <f t="array" ref="J282">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H282,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -22406,7 +22442,7 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H283" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22418,7 +22454,7 @@
       </c>
       <c r="J283" s="2" cm="1">
         <f t="array" ref="J283">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H283,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -22438,7 +22474,7 @@
       <c r="E284" s="6"/>
       <c r="F284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H284" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22450,7 +22486,7 @@
       </c>
       <c r="J284" s="2" cm="1">
         <f t="array" ref="J284">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H284,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -22470,7 +22506,7 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H285" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22482,7 +22518,7 @@
       </c>
       <c r="J285" s="2" cm="1">
         <f t="array" ref="J285">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H285,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -22502,7 +22538,7 @@
       <c r="E286" s="6"/>
       <c r="F286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H286" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22514,7 +22550,7 @@
       </c>
       <c r="J286" s="2" cm="1">
         <f t="array" ref="J286">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H286,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -22534,7 +22570,7 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H287" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22546,7 +22582,7 @@
       </c>
       <c r="J287" s="2" cm="1">
         <f t="array" ref="J287">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H287,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -22566,7 +22602,7 @@
       <c r="E288" s="6"/>
       <c r="F288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H288" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22578,7 +22614,7 @@
       </c>
       <c r="J288" s="2" cm="1">
         <f t="array" ref="J288">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H288,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -22598,7 +22634,7 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H289" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22610,7 +22646,7 @@
       </c>
       <c r="J289" s="2" cm="1">
         <f t="array" ref="J289">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H289,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -22630,7 +22666,7 @@
       <c r="E290" s="6"/>
       <c r="F290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H290" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22642,7 +22678,7 @@
       </c>
       <c r="J290" s="2" cm="1">
         <f t="array" ref="J290">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H290,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -22662,7 +22698,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H291" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22674,7 +22710,7 @@
       </c>
       <c r="J291" s="2" cm="1">
         <f t="array" ref="J291">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H291,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -22694,7 +22730,7 @@
       <c r="E292" s="6"/>
       <c r="F292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H292" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22706,7 +22742,7 @@
       </c>
       <c r="J292" s="2" cm="1">
         <f t="array" ref="J292">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H292,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -22726,7 +22762,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H293" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22738,7 +22774,7 @@
       </c>
       <c r="J293" s="2" cm="1">
         <f t="array" ref="J293">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H293,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -22758,7 +22794,7 @@
       <c r="E294" s="6"/>
       <c r="F294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H294" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22770,7 +22806,7 @@
       </c>
       <c r="J294" s="2" cm="1">
         <f t="array" ref="J294">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H294,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -22790,7 +22826,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H295" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22802,7 +22838,7 @@
       </c>
       <c r="J295" s="2" cm="1">
         <f t="array" ref="J295">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H295,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -22822,7 +22858,7 @@
       <c r="E296" s="6"/>
       <c r="F296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H296" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22834,7 +22870,7 @@
       </c>
       <c r="J296" s="2" cm="1">
         <f t="array" ref="J296">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H296,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -22854,7 +22890,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H297" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22866,7 +22902,7 @@
       </c>
       <c r="J297" s="2" cm="1">
         <f t="array" ref="J297">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H297,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -22886,7 +22922,7 @@
       <c r="E298" s="6"/>
       <c r="F298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H298" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22898,7 +22934,7 @@
       </c>
       <c r="J298" s="2" cm="1">
         <f t="array" ref="J298">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H298,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -22918,7 +22954,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H299" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22930,7 +22966,7 @@
       </c>
       <c r="J299" s="2" cm="1">
         <f t="array" ref="J299">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H299,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -22950,7 +22986,7 @@
       <c r="E300" s="6"/>
       <c r="F300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H300" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22962,7 +22998,7 @@
       </c>
       <c r="J300" s="2" cm="1">
         <f t="array" ref="J300">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H300,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -22982,7 +23018,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H301" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22994,7 +23030,7 @@
       </c>
       <c r="J301" s="2" cm="1">
         <f t="array" ref="J301">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H301,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -23014,7 +23050,7 @@
       <c r="E302" s="6"/>
       <c r="F302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23026,7 +23062,7 @@
       </c>
       <c r="J302" s="2" cm="1">
         <f t="array" ref="J302">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H302,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -23046,7 +23082,7 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23058,7 +23094,7 @@
       </c>
       <c r="J303" s="2" cm="1">
         <f t="array" ref="J303">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H303,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -23078,7 +23114,7 @@
       <c r="E304" s="6"/>
       <c r="F304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23090,7 +23126,7 @@
       </c>
       <c r="J304" s="2" cm="1">
         <f t="array" ref="J304">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H304,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -23110,7 +23146,7 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23122,7 +23158,7 @@
       </c>
       <c r="J305" s="2" cm="1">
         <f t="array" ref="J305">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H305,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -23142,7 +23178,7 @@
       <c r="E306" s="6"/>
       <c r="F306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23154,7 +23190,7 @@
       </c>
       <c r="J306" s="2" cm="1">
         <f t="array" ref="J306">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H306,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -23174,7 +23210,7 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23186,7 +23222,7 @@
       </c>
       <c r="J307" s="2" cm="1">
         <f t="array" ref="J307">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H307,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -23206,7 +23242,7 @@
       <c r="E308" s="6"/>
       <c r="F308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23218,7 +23254,7 @@
       </c>
       <c r="J308" s="2" cm="1">
         <f t="array" ref="J308">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H308,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -23238,7 +23274,7 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23250,7 +23286,7 @@
       </c>
       <c r="J309" s="2" cm="1">
         <f t="array" ref="J309">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H309,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -23270,7 +23306,7 @@
       <c r="E310" s="6"/>
       <c r="F310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23282,7 +23318,7 @@
       </c>
       <c r="J310" s="2" cm="1">
         <f t="array" ref="J310">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H310,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -23302,7 +23338,7 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23314,7 +23350,7 @@
       </c>
       <c r="J311" s="2" cm="1">
         <f t="array" ref="J311">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H311,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -23334,7 +23370,7 @@
       <c r="E312" s="6"/>
       <c r="F312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23346,7 +23382,7 @@
       </c>
       <c r="J312" s="2" cm="1">
         <f t="array" ref="J312">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H312,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -23366,7 +23402,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23378,7 +23414,7 @@
       </c>
       <c r="J313" s="2" cm="1">
         <f t="array" ref="J313">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H313,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -23398,7 +23434,7 @@
       <c r="E314" s="6"/>
       <c r="F314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23410,7 +23446,7 @@
       </c>
       <c r="J314" s="2" cm="1">
         <f t="array" ref="J314">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H314,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -23430,7 +23466,7 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23442,7 +23478,7 @@
       </c>
       <c r="J315" s="2" cm="1">
         <f t="array" ref="J315">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H315,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -23462,7 +23498,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23474,7 +23510,7 @@
       </c>
       <c r="J316" s="2" cm="1">
         <f t="array" ref="J316">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H316,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -23494,7 +23530,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23506,7 +23542,7 @@
       </c>
       <c r="J317" s="2" cm="1">
         <f t="array" ref="J317">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H317,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -23526,7 +23562,7 @@
       <c r="E318" s="6"/>
       <c r="F318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23538,7 +23574,7 @@
       </c>
       <c r="J318" s="2" cm="1">
         <f t="array" ref="J318">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H318,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -23558,7 +23594,7 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23570,7 +23606,7 @@
       </c>
       <c r="J319" s="2" cm="1">
         <f t="array" ref="J319">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H319,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -23590,7 +23626,7 @@
       <c r="E320" s="6"/>
       <c r="F320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23602,7 +23638,7 @@
       </c>
       <c r="J320" s="2" cm="1">
         <f t="array" ref="J320">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H320,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -23622,7 +23658,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23634,7 +23670,7 @@
       </c>
       <c r="J321" s="2" cm="1">
         <f t="array" ref="J321">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H321,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -23654,7 +23690,7 @@
       <c r="E322" s="6"/>
       <c r="F322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23666,7 +23702,7 @@
       </c>
       <c r="J322" s="2" cm="1">
         <f t="array" ref="J322">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H322,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -23686,7 +23722,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H323" s="1" t="str">
         <f t="shared" ref="H323:H367" si="16">B323</f>
@@ -23698,7 +23734,7 @@
       </c>
       <c r="J323" s="2" cm="1">
         <f t="array" ref="J323">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H323,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -23718,7 +23754,7 @@
       <c r="E324" s="6"/>
       <c r="F324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23730,7 +23766,7 @@
       </c>
       <c r="J324" s="2" cm="1">
         <f t="array" ref="J324">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H324,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -23750,7 +23786,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23762,7 +23798,7 @@
       </c>
       <c r="J325" s="2" cm="1">
         <f t="array" ref="J325">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H325,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -23782,7 +23818,7 @@
       <c r="E326" s="6"/>
       <c r="F326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23794,7 +23830,7 @@
       </c>
       <c r="J326" s="2" cm="1">
         <f t="array" ref="J326">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H326,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -23814,7 +23850,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23826,7 +23862,7 @@
       </c>
       <c r="J327" s="2" cm="1">
         <f t="array" ref="J327">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H327,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -23846,7 +23882,7 @@
       <c r="E328" s="6"/>
       <c r="F328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23858,7 +23894,7 @@
       </c>
       <c r="J328" s="2" cm="1">
         <f t="array" ref="J328">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H328,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -23878,7 +23914,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23890,7 +23926,7 @@
       </c>
       <c r="J329" s="2" cm="1">
         <f t="array" ref="J329">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H329,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -23910,7 +23946,7 @@
       <c r="E330" s="6"/>
       <c r="F330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23922,7 +23958,7 @@
       </c>
       <c r="J330" s="2" cm="1">
         <f t="array" ref="J330">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H330,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -23942,7 +23978,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23954,7 +23990,7 @@
       </c>
       <c r="J331" s="2" cm="1">
         <f t="array" ref="J331">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H331,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -23974,7 +24010,7 @@
       <c r="E332" s="6"/>
       <c r="F332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23986,7 +24022,7 @@
       </c>
       <c r="J332" s="2" cm="1">
         <f t="array" ref="J332">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H332,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -24006,7 +24042,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24018,7 +24054,7 @@
       </c>
       <c r="J333" s="2" cm="1">
         <f t="array" ref="J333">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H333,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -24038,7 +24074,7 @@
       <c r="E334" s="6"/>
       <c r="F334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24050,7 +24086,7 @@
       </c>
       <c r="J334" s="2" cm="1">
         <f t="array" ref="J334">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H334,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -24070,7 +24106,7 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24082,7 +24118,7 @@
       </c>
       <c r="J335" s="2" cm="1">
         <f t="array" ref="J335">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H335,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -24102,7 +24138,7 @@
       <c r="E336" s="6"/>
       <c r="F336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24114,7 +24150,7 @@
       </c>
       <c r="J336" s="2" cm="1">
         <f t="array" ref="J336">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H336,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -24134,7 +24170,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24146,7 +24182,7 @@
       </c>
       <c r="J337" s="2" cm="1">
         <f t="array" ref="J337">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H337,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -24166,7 +24202,7 @@
       <c r="E338" s="6"/>
       <c r="F338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24178,7 +24214,7 @@
       </c>
       <c r="J338" s="2" cm="1">
         <f t="array" ref="J338">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H338,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -24198,7 +24234,7 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24210,7 +24246,7 @@
       </c>
       <c r="J339" s="2" cm="1">
         <f t="array" ref="J339">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H339,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -24230,7 +24266,7 @@
       <c r="E340" s="6"/>
       <c r="F340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24242,7 +24278,7 @@
       </c>
       <c r="J340" s="2" cm="1">
         <f t="array" ref="J340">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H340,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -24262,7 +24298,7 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24274,7 +24310,7 @@
       </c>
       <c r="J341" s="2" cm="1">
         <f t="array" ref="J341">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H341,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -24294,7 +24330,7 @@
       <c r="E342" s="6"/>
       <c r="F342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24306,7 +24342,7 @@
       </c>
       <c r="J342" s="2" cm="1">
         <f t="array" ref="J342">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H342,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -24326,7 +24362,7 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24338,7 +24374,7 @@
       </c>
       <c r="J343" s="2" cm="1">
         <f t="array" ref="J343">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H343,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -24358,7 +24394,7 @@
       <c r="E344" s="6"/>
       <c r="F344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24370,7 +24406,7 @@
       </c>
       <c r="J344" s="2" cm="1">
         <f t="array" ref="J344">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H344,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -24390,7 +24426,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24402,7 +24438,7 @@
       </c>
       <c r="J345" s="2" cm="1">
         <f t="array" ref="J345">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H345,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -24422,7 +24458,7 @@
       <c r="E346" s="6"/>
       <c r="F346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24434,7 +24470,7 @@
       </c>
       <c r="J346" s="2" cm="1">
         <f t="array" ref="J346">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H346,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -24454,7 +24490,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24466,7 +24502,7 @@
       </c>
       <c r="J347" s="2" cm="1">
         <f t="array" ref="J347">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H347,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -24486,7 +24522,7 @@
       <c r="E348" s="6"/>
       <c r="F348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24498,7 +24534,7 @@
       </c>
       <c r="J348" s="2" cm="1">
         <f t="array" ref="J348">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H348,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -24518,7 +24554,7 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24530,7 +24566,7 @@
       </c>
       <c r="J349" s="2" cm="1">
         <f t="array" ref="J349">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H349,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -24550,7 +24586,7 @@
       <c r="E350" s="6"/>
       <c r="F350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24562,7 +24598,7 @@
       </c>
       <c r="J350" s="2" cm="1">
         <f t="array" ref="J350">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H350,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -24582,7 +24618,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24594,7 +24630,7 @@
       </c>
       <c r="J351" s="2" cm="1">
         <f t="array" ref="J351">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H351,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -24614,7 +24650,7 @@
       <c r="E352" s="6"/>
       <c r="F352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24626,7 +24662,7 @@
       </c>
       <c r="J352" s="2" cm="1">
         <f t="array" ref="J352">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H352,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -24646,7 +24682,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24658,7 +24694,7 @@
       </c>
       <c r="J353" s="2" cm="1">
         <f t="array" ref="J353">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H353,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -24678,7 +24714,7 @@
       <c r="E354" s="6"/>
       <c r="F354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24690,7 +24726,7 @@
       </c>
       <c r="J354" s="2" cm="1">
         <f t="array" ref="J354">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H354,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -24710,7 +24746,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24722,7 +24758,7 @@
       </c>
       <c r="J355" s="2" cm="1">
         <f t="array" ref="J355">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H355,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -24742,7 +24778,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24754,7 +24790,7 @@
       </c>
       <c r="J356" s="2" cm="1">
         <f t="array" ref="J356">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H356,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -24774,7 +24810,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24786,7 +24822,7 @@
       </c>
       <c r="J357" s="2" cm="1">
         <f t="array" ref="J357">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H357,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -24806,7 +24842,7 @@
       <c r="E358" s="6"/>
       <c r="F358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24818,7 +24854,7 @@
       </c>
       <c r="J358" s="2" cm="1">
         <f t="array" ref="J358">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H358,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -24838,7 +24874,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24850,7 +24886,7 @@
       </c>
       <c r="J359" s="2" cm="1">
         <f t="array" ref="J359">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H359,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -24870,7 +24906,7 @@
       <c r="E360" s="6"/>
       <c r="F360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24882,7 +24918,7 @@
       </c>
       <c r="J360" s="2" cm="1">
         <f t="array" ref="J360">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H360,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -24902,7 +24938,7 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24914,7 +24950,7 @@
       </c>
       <c r="J361" s="2" cm="1">
         <f t="array" ref="J361">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H361,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -24934,7 +24970,7 @@
       <c r="E362" s="6"/>
       <c r="F362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24946,7 +24982,7 @@
       </c>
       <c r="J362" s="2" cm="1">
         <f t="array" ref="J362">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H362,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -24966,7 +25002,7 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24978,7 +25014,7 @@
       </c>
       <c r="J363" s="2" cm="1">
         <f t="array" ref="J363">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H363,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -24998,7 +25034,7 @@
       <c r="E364" s="6"/>
       <c r="F364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25010,7 +25046,7 @@
       </c>
       <c r="J364" s="2" cm="1">
         <f t="array" ref="J364">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H364,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -25030,7 +25066,7 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25042,7 +25078,7 @@
       </c>
       <c r="J365" s="2" cm="1">
         <f t="array" ref="J365">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H365,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -25062,7 +25098,7 @@
       <c r="E366" s="6"/>
       <c r="F366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25074,7 +25110,7 @@
       </c>
       <c r="J366" s="2" cm="1">
         <f t="array" ref="J366">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H366,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -25094,7 +25130,7 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
       <c r="H367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25106,7 +25142,7 @@
       </c>
       <c r="J367" s="2" cm="1">
         <f t="array" ref="J367">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H367,Belanja[TOTAL],,,-1)</f>
-        <v>536020000</v>
+        <v>547260000</v>
       </c>
     </row>
   </sheetData>
@@ -25149,10 +25185,10 @@
   <dimension ref="A1:L367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D222" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D235" sqref="D235"/>
+      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32215,11 +32251,11 @@
       </c>
       <c r="H215" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G215)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G215,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -32248,11 +32284,11 @@
       </c>
       <c r="H216" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G216)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G216,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -32281,11 +32317,11 @@
       </c>
       <c r="H217" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G217)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G217,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -32314,11 +32350,11 @@
       </c>
       <c r="H218" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G218)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G218,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -32347,11 +32383,11 @@
       </c>
       <c r="H219" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G219)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G219,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -32380,11 +32416,11 @@
       </c>
       <c r="H220" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G220)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G220,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -32413,11 +32449,11 @@
       </c>
       <c r="H221" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G221)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G221,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -32446,11 +32482,11 @@
       </c>
       <c r="H222" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G222)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G222,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -32479,11 +32515,11 @@
       </c>
       <c r="H223" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G223)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G223,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -32512,11 +32548,11 @@
       </c>
       <c r="H224" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G224)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G224,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -32545,11 +32581,11 @@
       </c>
       <c r="H225" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G225)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G225,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -32578,11 +32614,11 @@
       </c>
       <c r="H226" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G226)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G226,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -32611,11 +32647,11 @@
       </c>
       <c r="H227" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G227)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G227,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -32644,11 +32680,11 @@
       </c>
       <c r="H228" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G228)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G228,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -32677,11 +32713,11 @@
       </c>
       <c r="H229" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G229)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G229,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -32710,11 +32746,11 @@
       </c>
       <c r="H230" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G230)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G230,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -32743,11 +32779,11 @@
       </c>
       <c r="H231" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G231)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G231,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -32776,11 +32812,11 @@
       </c>
       <c r="H232" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G232)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G232,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -32809,11 +32845,11 @@
       </c>
       <c r="H233" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G233)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G233,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -32842,11 +32878,11 @@
       </c>
       <c r="H234" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G234)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G234,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -32862,10 +32898,12 @@
         <f t="shared" si="9"/>
         <v>21</v>
       </c>
-      <c r="D235" s="5"/>
+      <c r="D235" s="5">
+        <v>1599000</v>
+      </c>
       <c r="E235" s="2">
         <f>SUM($D$2:$D235)</f>
-        <v>406912000</v>
+        <v>408511000</v>
       </c>
       <c r="G235" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32873,11 +32911,11 @@
       </c>
       <c r="H235" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G235)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G235,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -32893,10 +32931,12 @@
         <f t="shared" si="9"/>
         <v>22</v>
       </c>
-      <c r="D236" s="4"/>
+      <c r="D236" s="4">
+        <v>1924000</v>
+      </c>
       <c r="E236" s="2">
         <f>SUM($D$2:$D236)</f>
-        <v>406912000</v>
+        <v>410435000</v>
       </c>
       <c r="G236" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32904,11 +32944,11 @@
       </c>
       <c r="H236" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G236)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G236,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -32924,10 +32964,12 @@
         <f t="shared" si="9"/>
         <v>23</v>
       </c>
-      <c r="D237" s="5"/>
+      <c r="D237" s="5">
+        <v>2030000</v>
+      </c>
       <c r="E237" s="2">
         <f>SUM($D$2:$D237)</f>
-        <v>406912000</v>
+        <v>412465000</v>
       </c>
       <c r="G237" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32935,11 +32977,11 @@
       </c>
       <c r="H237" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G237)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G237,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -32955,10 +32997,12 @@
         <f t="shared" si="9"/>
         <v>24</v>
       </c>
-      <c r="D238" s="4"/>
+      <c r="D238" s="4">
+        <v>2096000</v>
+      </c>
       <c r="E238" s="2">
         <f>SUM($D$2:$D238)</f>
-        <v>406912000</v>
+        <v>414561000</v>
       </c>
       <c r="G238" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32966,11 +33010,11 @@
       </c>
       <c r="H238" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G238)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G238,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -32986,10 +33030,12 @@
         <f t="shared" si="9"/>
         <v>25</v>
       </c>
-      <c r="D239" s="5"/>
+      <c r="D239" s="5">
+        <v>1974000</v>
+      </c>
       <c r="E239" s="2">
         <f>SUM($D$2:$D239)</f>
-        <v>406912000</v>
+        <v>416535000</v>
       </c>
       <c r="G239" s="1" t="str">
         <f t="shared" si="10"/>
@@ -32997,11 +33043,11 @@
       </c>
       <c r="H239" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G239)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G239,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -33017,10 +33063,12 @@
         <f t="shared" si="9"/>
         <v>26</v>
       </c>
-      <c r="D240" s="4"/>
+      <c r="D240" s="4">
+        <v>1617000</v>
+      </c>
       <c r="E240" s="2">
         <f>SUM($D$2:$D240)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G240" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33028,11 +33076,11 @@
       </c>
       <c r="H240" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G240)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G240,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -33051,7 +33099,7 @@
       <c r="D241" s="5"/>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33059,11 +33107,11 @@
       </c>
       <c r="H241" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G241)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G241,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -33082,7 +33130,7 @@
       <c r="D242" s="4"/>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33090,11 +33138,11 @@
       </c>
       <c r="H242" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G242)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G242,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -33113,7 +33161,7 @@
       <c r="D243" s="5"/>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33121,11 +33169,11 @@
       </c>
       <c r="H243" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G243)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G243,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -33144,7 +33192,7 @@
       <c r="D244" s="4"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33152,11 +33200,11 @@
       </c>
       <c r="H244" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G244)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G244,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -33175,7 +33223,7 @@
       <c r="D245" s="5"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33183,11 +33231,11 @@
       </c>
       <c r="H245" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G245)</f>
-        <v>40841000</v>
+        <v>52081000</v>
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G245,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -33206,7 +33254,7 @@
       <c r="D246" s="4"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33218,7 +33266,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G246,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -33237,7 +33285,7 @@
       <c r="D247" s="5"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33249,7 +33297,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G247,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -33268,7 +33316,7 @@
       <c r="D248" s="4"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33280,7 +33328,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G248,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -33299,7 +33347,7 @@
       <c r="D249" s="5"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33311,7 +33359,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G249,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -33330,7 +33378,7 @@
       <c r="D250" s="4"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33342,7 +33390,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G250,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -33361,7 +33409,7 @@
       <c r="D251" s="5"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33373,7 +33421,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G251,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -33392,7 +33440,7 @@
       <c r="D252" s="4"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33404,7 +33452,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G252,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -33423,7 +33471,7 @@
       <c r="D253" s="5"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33435,7 +33483,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G253,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -33454,7 +33502,7 @@
       <c r="D254" s="4"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33466,7 +33514,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G254,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -33485,7 +33533,7 @@
       <c r="D255" s="5"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33497,7 +33545,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G255,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -33516,7 +33564,7 @@
       <c r="D256" s="4"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33528,7 +33576,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G256,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -33547,7 +33595,7 @@
       <c r="D257" s="5"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33559,7 +33607,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G257,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -33578,7 +33626,7 @@
       <c r="D258" s="4"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33590,7 +33638,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G258,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -33609,7 +33657,7 @@
       <c r="D259" s="5"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="13">B259</f>
@@ -33621,7 +33669,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G259,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -33640,7 +33688,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33652,7 +33700,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G260,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -33671,7 +33719,7 @@
       <c r="D261" s="5"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33683,7 +33731,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G261,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -33702,7 +33750,7 @@
       <c r="D262" s="4"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33714,7 +33762,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G262,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -33733,7 +33781,7 @@
       <c r="D263" s="5"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33745,7 +33793,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G263,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -33764,7 +33812,7 @@
       <c r="D264" s="4"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33776,7 +33824,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G264,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -33795,7 +33843,7 @@
       <c r="D265" s="5"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33807,7 +33855,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G265,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -33826,7 +33874,7 @@
       <c r="D266" s="4"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33838,7 +33886,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G266,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -33857,7 +33905,7 @@
       <c r="D267" s="5"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33869,7 +33917,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G267,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -33888,7 +33936,7 @@
       <c r="D268" s="4"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33900,7 +33948,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G268,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -33919,7 +33967,7 @@
       <c r="D269" s="5"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33931,7 +33979,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G269,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -33950,7 +33998,7 @@
       <c r="D270" s="4"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33962,7 +34010,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G270,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -33981,7 +34029,7 @@
       <c r="D271" s="5"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33993,7 +34041,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G271,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -34012,7 +34060,7 @@
       <c r="D272" s="4"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34024,7 +34072,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G272,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -34043,7 +34091,7 @@
       <c r="D273" s="5"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34055,7 +34103,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G273,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -34074,7 +34122,7 @@
       <c r="D274" s="4"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34086,7 +34134,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G274,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -34105,7 +34153,7 @@
       <c r="D275" s="5"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34117,7 +34165,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G275,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -34136,7 +34184,7 @@
       <c r="D276" s="4"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34148,7 +34196,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G276,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -34167,7 +34215,7 @@
       <c r="D277" s="5"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34179,7 +34227,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G277,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -34198,7 +34246,7 @@
       <c r="D278" s="4"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34210,7 +34258,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G278,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -34229,7 +34277,7 @@
       <c r="D279" s="5"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34241,7 +34289,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G279,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -34260,7 +34308,7 @@
       <c r="D280" s="4"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34272,7 +34320,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G280,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -34291,7 +34339,7 @@
       <c r="D281" s="5"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34303,7 +34351,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G281,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -34322,7 +34370,7 @@
       <c r="D282" s="4"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34334,7 +34382,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G282,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -34353,7 +34401,7 @@
       <c r="D283" s="5"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34365,7 +34413,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G283,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -34384,7 +34432,7 @@
       <c r="D284" s="4"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34396,7 +34444,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G284,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -34415,7 +34463,7 @@
       <c r="D285" s="5"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34427,7 +34475,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G285,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -34446,7 +34494,7 @@
       <c r="D286" s="4"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34458,7 +34506,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G286,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -34477,7 +34525,7 @@
       <c r="D287" s="5"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34489,7 +34537,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G287,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -34508,7 +34556,7 @@
       <c r="D288" s="4"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34520,7 +34568,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G288,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -34539,7 +34587,7 @@
       <c r="D289" s="5"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34551,7 +34599,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G289,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -34570,7 +34618,7 @@
       <c r="D290" s="4"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34582,7 +34630,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G290,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -34601,7 +34649,7 @@
       <c r="D291" s="5"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34613,7 +34661,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G291,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -34632,7 +34680,7 @@
       <c r="D292" s="4"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34644,7 +34692,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G292,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -34663,7 +34711,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34675,7 +34723,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G293,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -34694,7 +34742,7 @@
       <c r="D294" s="4"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34706,7 +34754,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G294,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -34725,7 +34773,7 @@
       <c r="D295" s="5"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34737,7 +34785,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G295,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -34756,7 +34804,7 @@
       <c r="D296" s="4"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34768,7 +34816,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G296,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -34787,7 +34835,7 @@
       <c r="D297" s="5"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34799,7 +34847,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G297,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -34818,7 +34866,7 @@
       <c r="D298" s="4"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34830,7 +34878,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G298,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -34849,7 +34897,7 @@
       <c r="D299" s="5"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34861,7 +34909,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G299,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -34880,7 +34928,7 @@
       <c r="D300" s="4"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34892,7 +34940,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G300,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -34911,7 +34959,7 @@
       <c r="D301" s="5"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34923,7 +34971,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G301,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -34942,7 +34990,7 @@
       <c r="D302" s="4"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34954,7 +35002,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G302,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -34973,7 +35021,7 @@
       <c r="D303" s="5"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34985,7 +35033,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G303,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -35004,7 +35052,7 @@
       <c r="D304" s="4"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35016,7 +35064,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G304,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -35035,7 +35083,7 @@
       <c r="D305" s="5"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35047,7 +35095,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G305,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -35066,7 +35114,7 @@
       <c r="D306" s="4"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35078,7 +35126,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G306,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -35097,7 +35145,7 @@
       <c r="D307" s="5"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35109,7 +35157,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G307,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -35128,7 +35176,7 @@
       <c r="D308" s="4"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35140,7 +35188,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G308,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -35159,7 +35207,7 @@
       <c r="D309" s="5"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35171,7 +35219,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G309,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -35190,7 +35238,7 @@
       <c r="D310" s="4"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35202,7 +35250,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G310,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -35221,7 +35269,7 @@
       <c r="D311" s="5"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35233,7 +35281,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G311,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -35252,7 +35300,7 @@
       <c r="D312" s="4"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35264,7 +35312,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G312,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -35283,7 +35331,7 @@
       <c r="D313" s="5"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35295,7 +35343,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G313,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -35314,7 +35362,7 @@
       <c r="D314" s="4"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35326,7 +35374,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G314,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -35345,7 +35393,7 @@
       <c r="D315" s="5"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35357,7 +35405,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G315,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -35376,7 +35424,7 @@
       <c r="D316" s="4"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35388,7 +35436,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G316,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -35407,7 +35455,7 @@
       <c r="D317" s="5"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35419,7 +35467,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G317,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -35438,7 +35486,7 @@
       <c r="D318" s="4"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35450,7 +35498,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G318,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -35469,7 +35517,7 @@
       <c r="D319" s="5"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35481,7 +35529,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G319,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -35500,7 +35548,7 @@
       <c r="D320" s="4"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35512,7 +35560,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G320,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -35531,7 +35579,7 @@
       <c r="D321" s="5"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35543,7 +35591,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G321,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -35562,7 +35610,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35574,7 +35622,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G322,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -35593,7 +35641,7 @@
       <c r="D323" s="5"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="16">B323</f>
@@ -35605,7 +35653,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G323,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -35624,7 +35672,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35636,7 +35684,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G324,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -35655,7 +35703,7 @@
       <c r="D325" s="5"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35667,7 +35715,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G325,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -35686,7 +35734,7 @@
       <c r="D326" s="4"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35698,7 +35746,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G326,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -35717,7 +35765,7 @@
       <c r="D327" s="5"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35729,7 +35777,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G327,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -35748,7 +35796,7 @@
       <c r="D328" s="4"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35760,7 +35808,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G328,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -35779,7 +35827,7 @@
       <c r="D329" s="5"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35791,7 +35839,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G329,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -35810,7 +35858,7 @@
       <c r="D330" s="4"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35822,7 +35870,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G330,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -35841,7 +35889,7 @@
       <c r="D331" s="5"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35853,7 +35901,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G331,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -35872,7 +35920,7 @@
       <c r="D332" s="4"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35884,7 +35932,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G332,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -35903,7 +35951,7 @@
       <c r="D333" s="5"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35915,7 +35963,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G333,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -35934,7 +35982,7 @@
       <c r="D334" s="4"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35946,7 +35994,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G334,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -35965,7 +36013,7 @@
       <c r="D335" s="5"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35977,7 +36025,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G335,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -35996,7 +36044,7 @@
       <c r="D336" s="4"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36008,7 +36056,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G336,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -36027,7 +36075,7 @@
       <c r="D337" s="5"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36039,7 +36087,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G337,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -36058,7 +36106,7 @@
       <c r="D338" s="4"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36070,7 +36118,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G338,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -36089,7 +36137,7 @@
       <c r="D339" s="5"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36101,7 +36149,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G339,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -36120,7 +36168,7 @@
       <c r="D340" s="4"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36132,7 +36180,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G340,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -36151,7 +36199,7 @@
       <c r="D341" s="5"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36163,7 +36211,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G341,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -36182,7 +36230,7 @@
       <c r="D342" s="4"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36194,7 +36242,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G342,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -36213,7 +36261,7 @@
       <c r="D343" s="5"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36225,7 +36273,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G343,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -36244,7 +36292,7 @@
       <c r="D344" s="4"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36256,7 +36304,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G344,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -36275,7 +36323,7 @@
       <c r="D345" s="5"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36287,7 +36335,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G345,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -36306,7 +36354,7 @@
       <c r="D346" s="4"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36318,7 +36366,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G346,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -36337,7 +36385,7 @@
       <c r="D347" s="5"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36349,7 +36397,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G347,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -36368,7 +36416,7 @@
       <c r="D348" s="4"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36380,7 +36428,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G348,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -36399,7 +36447,7 @@
       <c r="D349" s="5"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36411,7 +36459,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G349,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -36430,7 +36478,7 @@
       <c r="D350" s="4"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36442,7 +36490,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G350,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -36461,7 +36509,7 @@
       <c r="D351" s="5"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36473,7 +36521,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G351,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -36492,7 +36540,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36504,7 +36552,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G352,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -36523,7 +36571,7 @@
       <c r="D353" s="5"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36535,7 +36583,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G353,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -36554,7 +36602,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36566,7 +36614,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G354,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -36585,7 +36633,7 @@
       <c r="D355" s="5"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36597,7 +36645,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G355,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -36616,7 +36664,7 @@
       <c r="D356" s="4"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36628,7 +36676,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G356,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -36647,7 +36695,7 @@
       <c r="D357" s="5"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36659,7 +36707,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G357,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -36678,7 +36726,7 @@
       <c r="D358" s="4"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36690,7 +36738,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G358,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -36709,7 +36757,7 @@
       <c r="D359" s="5"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36721,7 +36769,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G359,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -36740,7 +36788,7 @@
       <c r="D360" s="4"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36752,7 +36800,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G360,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -36771,7 +36819,7 @@
       <c r="D361" s="5"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36783,7 +36831,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G361,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -36802,7 +36850,7 @@
       <c r="D362" s="4"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36814,7 +36862,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G362,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -36833,7 +36881,7 @@
       <c r="D363" s="5"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36845,7 +36893,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G363,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -36864,7 +36912,7 @@
       <c r="D364" s="4"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36876,7 +36924,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G364,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -36895,7 +36943,7 @@
       <c r="D365" s="5"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36907,7 +36955,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G365,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -36926,7 +36974,7 @@
       <c r="D366" s="4"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36938,7 +36986,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G366,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -36957,7 +37005,7 @@
       <c r="D367" s="5"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36969,7 +37017,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G367,Transferan[TOTAL],,,-1)</f>
-        <v>406912000</v>
+        <v>418152000</v>
       </c>
     </row>
   </sheetData>

--- a/HARIAN/2024.xlsx
+++ b/HARIAN/2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/277ffa1efc2bfcc1/Apartment Bintaro/Data Harian/BINTARO-APG/HARIAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8929FB94-87A8-494C-BAA5-AA63F398D028}"/>
+  <xr:revisionPtr revIDLastSave="276" documentId="13_ncr:1_{9A698A35-11EF-477C-882B-3C655332DD57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0250BD78-5BA7-41CC-BCAB-8855D90CDDCC}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETUP" sheetId="2" r:id="rId1"/>
@@ -896,10 +896,10 @@
   <dimension ref="A1:L367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D227" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D239" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
+      <selection pane="bottomRight" activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7956,11 +7956,11 @@
       </c>
       <c r="H215" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G215)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G215,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -7989,11 +7989,11 @@
       </c>
       <c r="H216" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G216)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G216,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -8022,11 +8022,11 @@
       </c>
       <c r="H217" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G217)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G217,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -8055,11 +8055,11 @@
       </c>
       <c r="H218" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G218)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G218,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -8088,11 +8088,11 @@
       </c>
       <c r="H219" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G219)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G219,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -8121,11 +8121,11 @@
       </c>
       <c r="H220" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G220)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G220,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -8154,11 +8154,11 @@
       </c>
       <c r="H221" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G221)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G221,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -8187,11 +8187,11 @@
       </c>
       <c r="H222" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G222)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G222,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -8220,11 +8220,11 @@
       </c>
       <c r="H223" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G223)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G223,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -8253,11 +8253,11 @@
       </c>
       <c r="H224" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G224)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G224,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -8286,11 +8286,11 @@
       </c>
       <c r="H225" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G225)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G225,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -8319,11 +8319,11 @@
       </c>
       <c r="H226" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G226)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G226,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -8352,11 +8352,11 @@
       </c>
       <c r="H227" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G227)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G227,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -8385,11 +8385,11 @@
       </c>
       <c r="H228" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G228)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G228,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -8418,11 +8418,11 @@
       </c>
       <c r="H229" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G229)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G229,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -8451,11 +8451,11 @@
       </c>
       <c r="H230" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G230)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G230,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -8484,11 +8484,11 @@
       </c>
       <c r="H231" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G231)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G231,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -8517,11 +8517,11 @@
       </c>
       <c r="H232" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G232)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G232,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -8550,11 +8550,11 @@
       </c>
       <c r="H233" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G233)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G233,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -8583,11 +8583,11 @@
       </c>
       <c r="H234" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G234)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G234,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -8616,11 +8616,11 @@
       </c>
       <c r="H235" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G235)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G235,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -8649,11 +8649,11 @@
       </c>
       <c r="H236" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G236)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G236,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -8682,11 +8682,11 @@
       </c>
       <c r="H237" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G237)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G237,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -8715,11 +8715,11 @@
       </c>
       <c r="H238" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G238)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G238,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -8748,11 +8748,11 @@
       </c>
       <c r="H239" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G239)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G239,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -8781,11 +8781,11 @@
       </c>
       <c r="H240" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G240)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G240,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -8801,10 +8801,12 @@
         <f t="shared" si="13"/>
         <v>27</v>
       </c>
-      <c r="D241" s="2"/>
+      <c r="D241" s="2">
+        <v>252000</v>
+      </c>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>76620000</v>
+        <v>76872000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8812,11 +8814,11 @@
       </c>
       <c r="H241" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G241)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G241,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -8832,10 +8834,12 @@
         <f t="shared" si="13"/>
         <v>28</v>
       </c>
-      <c r="D242" s="2"/>
+      <c r="D242" s="2">
+        <v>234000</v>
+      </c>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>76620000</v>
+        <v>77106000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8843,11 +8847,11 @@
       </c>
       <c r="H242" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G242)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G242,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -8863,10 +8867,12 @@
         <f t="shared" si="13"/>
         <v>29</v>
       </c>
-      <c r="D243" s="2"/>
+      <c r="D243" s="2">
+        <v>294000</v>
+      </c>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8874,11 +8880,11 @@
       </c>
       <c r="H243" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G243)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G243,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -8897,7 +8903,7 @@
       <c r="D244" s="2"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8905,11 +8911,11 @@
       </c>
       <c r="H244" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G244)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G244,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -8928,7 +8934,7 @@
       <c r="D245" s="2"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8936,11 +8942,11 @@
       </c>
       <c r="H245" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G245)</f>
-        <v>7992000</v>
+        <v>8772000</v>
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G245,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -8959,7 +8965,7 @@
       <c r="D246" s="2"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="11"/>
@@ -8971,7 +8977,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G246,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -8990,7 +8996,7 @@
       <c r="D247" s="2"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9002,7 +9008,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G247,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -9021,7 +9027,7 @@
       <c r="D248" s="2"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9033,7 +9039,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G248,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -9052,7 +9058,7 @@
       <c r="D249" s="2"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9064,7 +9070,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G249,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -9083,7 +9089,7 @@
       <c r="D250" s="2"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9095,7 +9101,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G250,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -9114,7 +9120,7 @@
       <c r="D251" s="2"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9126,7 +9132,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G251,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -9145,7 +9151,7 @@
       <c r="D252" s="2"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9157,7 +9163,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G252,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -9176,7 +9182,7 @@
       <c r="D253" s="2"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9188,7 +9194,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G253,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -9207,7 +9213,7 @@
       <c r="D254" s="2"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9219,7 +9225,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G254,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -9238,7 +9244,7 @@
       <c r="D255" s="2"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9250,7 +9256,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G255,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -9269,7 +9275,7 @@
       <c r="D256" s="2"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9281,7 +9287,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G256,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -9300,7 +9306,7 @@
       <c r="D257" s="2"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9312,7 +9318,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G257,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -9331,7 +9337,7 @@
       <c r="D258" s="2"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="11"/>
@@ -9343,7 +9349,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G258,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9362,7 +9368,7 @@
       <c r="D259" s="2"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="14">B259</f>
@@ -9374,7 +9380,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G259,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -9393,7 +9399,7 @@
       <c r="D260" s="2"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9405,7 +9411,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G260,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -9424,7 +9430,7 @@
       <c r="D261" s="2"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9436,7 +9442,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G261,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -9455,7 +9461,7 @@
       <c r="D262" s="2"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9467,7 +9473,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G262,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -9486,7 +9492,7 @@
       <c r="D263" s="2"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9498,7 +9504,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G263,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -9517,7 +9523,7 @@
       <c r="D264" s="2"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9529,7 +9535,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G264,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -9548,7 +9554,7 @@
       <c r="D265" s="2"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9560,7 +9566,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G265,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -9579,7 +9585,7 @@
       <c r="D266" s="2"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9591,7 +9597,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G266,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -9610,7 +9616,7 @@
       <c r="D267" s="2"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9622,7 +9628,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G267,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -9641,7 +9647,7 @@
       <c r="D268" s="2"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9653,7 +9659,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G268,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -9672,7 +9678,7 @@
       <c r="D269" s="2"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9684,7 +9690,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G269,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -9703,7 +9709,7 @@
       <c r="D270" s="2"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9715,7 +9721,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G270,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -9734,7 +9740,7 @@
       <c r="D271" s="2"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9746,7 +9752,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G271,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -9765,7 +9771,7 @@
       <c r="D272" s="2"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9777,7 +9783,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G272,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -9796,7 +9802,7 @@
       <c r="D273" s="2"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9808,7 +9814,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G273,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -9827,7 +9833,7 @@
       <c r="D274" s="2"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9839,7 +9845,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G274,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -9858,7 +9864,7 @@
       <c r="D275" s="2"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9870,7 +9876,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G275,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -9889,7 +9895,7 @@
       <c r="D276" s="2"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9901,7 +9907,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G276,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -9920,7 +9926,7 @@
       <c r="D277" s="2"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9932,7 +9938,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G277,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -9951,7 +9957,7 @@
       <c r="D278" s="2"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9963,7 +9969,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G278,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -9982,7 +9988,7 @@
       <c r="D279" s="2"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="14"/>
@@ -9994,7 +10000,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G279,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -10013,7 +10019,7 @@
       <c r="D280" s="2"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10025,7 +10031,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G280,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10044,7 +10050,7 @@
       <c r="D281" s="2"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10056,7 +10062,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G281,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -10075,7 +10081,7 @@
       <c r="D282" s="2"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10087,7 +10093,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G282,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -10106,7 +10112,7 @@
       <c r="D283" s="2"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10118,7 +10124,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G283,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10137,7 +10143,7 @@
       <c r="D284" s="2"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10149,7 +10155,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G284,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10168,7 +10174,7 @@
       <c r="D285" s="2"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10180,7 +10186,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G285,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10199,7 +10205,7 @@
       <c r="D286" s="2"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10211,7 +10217,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G286,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10230,7 +10236,7 @@
       <c r="D287" s="2"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10242,7 +10248,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G287,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10261,7 +10267,7 @@
       <c r="D288" s="2"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10273,7 +10279,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G288,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10292,7 +10298,7 @@
       <c r="D289" s="2"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10304,7 +10310,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G289,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10323,7 +10329,7 @@
       <c r="D290" s="2"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10335,7 +10341,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G290,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10354,7 +10360,7 @@
       <c r="D291" s="2"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10366,7 +10372,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G291,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10385,7 +10391,7 @@
       <c r="D292" s="2"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10397,7 +10403,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G292,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10416,7 +10422,7 @@
       <c r="D293" s="2"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10428,7 +10434,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G293,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10447,7 +10453,7 @@
       <c r="D294" s="2"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10459,7 +10465,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G294,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10478,7 +10484,7 @@
       <c r="D295" s="2"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10490,7 +10496,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G295,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10509,7 +10515,7 @@
       <c r="D296" s="2"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10521,7 +10527,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G296,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10540,7 +10546,7 @@
       <c r="D297" s="2"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10552,7 +10558,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G297,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10571,7 +10577,7 @@
       <c r="D298" s="2"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10583,7 +10589,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G298,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10602,7 +10608,7 @@
       <c r="D299" s="2"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10614,7 +10620,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G299,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10633,7 +10639,7 @@
       <c r="D300" s="2"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10645,7 +10651,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G300,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10664,7 +10670,7 @@
       <c r="D301" s="2"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10676,7 +10682,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G301,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10695,7 +10701,7 @@
       <c r="D302" s="2"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10707,7 +10713,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G302,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10726,7 +10732,7 @@
       <c r="D303" s="2"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10738,7 +10744,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G303,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10757,7 +10763,7 @@
       <c r="D304" s="2"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10769,7 +10775,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G304,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10788,7 +10794,7 @@
       <c r="D305" s="2"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10800,7 +10806,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G305,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10819,7 +10825,7 @@
       <c r="D306" s="2"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10831,7 +10837,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G306,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -10850,7 +10856,7 @@
       <c r="D307" s="2"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10862,7 +10868,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G307,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -10881,7 +10887,7 @@
       <c r="D308" s="2"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10893,7 +10899,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G308,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -10912,7 +10918,7 @@
       <c r="D309" s="2"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10924,7 +10930,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G309,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -10943,7 +10949,7 @@
       <c r="D310" s="2"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10955,7 +10961,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G310,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -10974,7 +10980,7 @@
       <c r="D311" s="2"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10986,7 +10992,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G311,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -11005,7 +11011,7 @@
       <c r="D312" s="2"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11017,7 +11023,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G312,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -11036,7 +11042,7 @@
       <c r="D313" s="2"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11048,7 +11054,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G313,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -11067,7 +11073,7 @@
       <c r="D314" s="2"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11079,7 +11085,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G314,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -11098,7 +11104,7 @@
       <c r="D315" s="2"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11110,7 +11116,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G315,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11129,7 +11135,7 @@
       <c r="D316" s="2"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11141,7 +11147,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G316,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11160,7 +11166,7 @@
       <c r="D317" s="2"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11172,7 +11178,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G317,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11191,7 +11197,7 @@
       <c r="D318" s="2"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11203,7 +11209,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G318,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11222,7 +11228,7 @@
       <c r="D319" s="2"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11234,7 +11240,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G319,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11253,7 +11259,7 @@
       <c r="D320" s="2"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11265,7 +11271,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G320,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11284,7 +11290,7 @@
       <c r="D321" s="2"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11296,7 +11302,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G321,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11315,7 +11321,7 @@
       <c r="D322" s="2"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11327,7 +11333,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G322,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11346,7 +11352,7 @@
       <c r="D323" s="2"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="17">B323</f>
@@ -11358,7 +11364,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G323,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11377,7 +11383,7 @@
       <c r="D324" s="2"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11389,7 +11395,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G324,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11408,7 +11414,7 @@
       <c r="D325" s="2"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11420,7 +11426,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G325,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11439,7 +11445,7 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11451,7 +11457,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G326,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11470,7 +11476,7 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11482,7 +11488,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G327,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -11501,7 +11507,7 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11513,7 +11519,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G328,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -11532,7 +11538,7 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11544,7 +11550,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G329,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -11563,7 +11569,7 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11575,7 +11581,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G330,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -11594,7 +11600,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11606,7 +11612,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G331,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -11625,7 +11631,7 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11637,7 +11643,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G332,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -11656,7 +11662,7 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11668,7 +11674,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G333,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -11687,7 +11693,7 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11699,7 +11705,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G334,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -11718,7 +11724,7 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11730,7 +11736,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G335,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -11749,7 +11755,7 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11761,7 +11767,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G336,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -11780,7 +11786,7 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11792,7 +11798,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G337,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -11811,7 +11817,7 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11823,7 +11829,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G338,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -11842,7 +11848,7 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11854,7 +11860,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G339,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -11873,7 +11879,7 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11885,7 +11891,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G340,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -11904,7 +11910,7 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11916,7 +11922,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G341,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -11935,7 +11941,7 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11947,7 +11953,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G342,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -11966,7 +11972,7 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11978,7 +11984,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G343,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -11997,7 +12003,7 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12009,7 +12015,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G344,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -12028,7 +12034,7 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12040,7 +12046,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G345,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -12059,7 +12065,7 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12071,7 +12077,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G346,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12090,7 +12096,7 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12102,7 +12108,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G347,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -12121,7 +12127,7 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12133,7 +12139,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G348,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -12152,7 +12158,7 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12164,7 +12170,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G349,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -12183,7 +12189,7 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12195,7 +12201,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G350,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -12214,7 +12220,7 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12226,7 +12232,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G351,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -12245,7 +12251,7 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12257,7 +12263,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G352,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -12276,7 +12282,7 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12288,7 +12294,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G353,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -12307,7 +12313,7 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12319,7 +12325,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G354,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -12338,7 +12344,7 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12350,7 +12356,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G355,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -12369,7 +12375,7 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12381,7 +12387,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G356,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -12400,7 +12406,7 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12412,7 +12418,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G357,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -12431,7 +12437,7 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12443,7 +12449,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G358,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -12462,7 +12468,7 @@
       <c r="D359" s="2"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12474,7 +12480,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G359,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -12493,7 +12499,7 @@
       <c r="D360" s="2"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12505,7 +12511,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G360,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -12524,7 +12530,7 @@
       <c r="D361" s="2"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12536,7 +12542,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G361,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -12555,7 +12561,7 @@
       <c r="D362" s="2"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12567,7 +12573,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G362,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -12586,7 +12592,7 @@
       <c r="D363" s="2"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12598,7 +12604,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G363,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -12617,7 +12623,7 @@
       <c r="D364" s="2"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12629,7 +12635,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G364,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -12648,7 +12654,7 @@
       <c r="D365" s="2"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12660,7 +12666,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G365,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -12679,7 +12685,7 @@
       <c r="D366" s="2"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12691,7 +12697,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G366,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -12710,7 +12716,7 @@
       <c r="D367" s="2"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12722,7 +12728,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G367,Tunai[TOTAL],,,-1)</f>
-        <v>76620000</v>
+        <v>77400000</v>
       </c>
     </row>
   </sheetData>
@@ -12756,11 +12762,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A86C5667-F5BA-4732-841C-6A499F4EB5B6}">
   <dimension ref="A1:M367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D230" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
+      <selection pane="bottomRight" activeCell="E244" sqref="E244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20174,11 +20180,11 @@
       </c>
       <c r="I215" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H215)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J215" s="2" cm="1">
         <f t="array" ref="J215">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H215,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
@@ -20210,11 +20216,11 @@
       </c>
       <c r="I216" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H216)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J216" s="2" cm="1">
         <f t="array" ref="J216">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H216,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -20246,11 +20252,11 @@
       </c>
       <c r="I217" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H217)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J217" s="2" cm="1">
         <f t="array" ref="J217">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H217,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -20282,11 +20288,11 @@
       </c>
       <c r="I218" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H218)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J218" s="2" cm="1">
         <f t="array" ref="J218">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H218,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -20318,11 +20324,11 @@
       </c>
       <c r="I219" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H219)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J219" s="2" cm="1">
         <f t="array" ref="J219">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H219,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
@@ -20354,11 +20360,11 @@
       </c>
       <c r="I220" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H220)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J220" s="2" cm="1">
         <f t="array" ref="J220">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H220,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -20390,11 +20396,11 @@
       </c>
       <c r="I221" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H221)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J221" s="2" cm="1">
         <f t="array" ref="J221">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H221,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
@@ -20426,11 +20432,11 @@
       </c>
       <c r="I222" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H222)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J222" s="2" cm="1">
         <f t="array" ref="J222">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H222,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -20462,11 +20468,11 @@
       </c>
       <c r="I223" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H223)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J223" s="2" cm="1">
         <f t="array" ref="J223">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H223,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -20498,11 +20504,11 @@
       </c>
       <c r="I224" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H224)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J224" s="2" cm="1">
         <f t="array" ref="J224">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H224,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -20534,11 +20540,11 @@
       </c>
       <c r="I225" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H225)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J225" s="2" cm="1">
         <f t="array" ref="J225">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H225,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -20570,11 +20576,11 @@
       </c>
       <c r="I226" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H226)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J226" s="2" cm="1">
         <f t="array" ref="J226">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H226,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -20606,11 +20612,11 @@
       </c>
       <c r="I227" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H227)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J227" s="2" cm="1">
         <f t="array" ref="J227">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H227,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
@@ -20642,11 +20648,11 @@
       </c>
       <c r="I228" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H228)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J228" s="2" cm="1">
         <f t="array" ref="J228">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H228,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -20678,11 +20684,11 @@
       </c>
       <c r="I229" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H229)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J229" s="2" cm="1">
         <f t="array" ref="J229">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H229,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
@@ -20714,11 +20720,11 @@
       </c>
       <c r="I230" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H230)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J230" s="2" cm="1">
         <f t="array" ref="J230">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H230,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -20750,11 +20756,11 @@
       </c>
       <c r="I231" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H231)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J231" s="2" cm="1">
         <f t="array" ref="J231">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H231,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
@@ -20786,11 +20792,11 @@
       </c>
       <c r="I232" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H232)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J232" s="2" cm="1">
         <f t="array" ref="J232">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H232,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -20822,11 +20828,11 @@
       </c>
       <c r="I233" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H233)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J233" s="2" cm="1">
         <f t="array" ref="J233">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H233,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -20858,11 +20864,11 @@
       </c>
       <c r="I234" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H234)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J234" s="2" cm="1">
         <f t="array" ref="J234">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H234,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
@@ -20894,11 +20900,11 @@
       </c>
       <c r="I235" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H235)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J235" s="2" cm="1">
         <f t="array" ref="J235">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H235,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -20930,11 +20936,11 @@
       </c>
       <c r="I236" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H236)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J236" s="2" cm="1">
         <f t="array" ref="J236">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H236,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -20966,11 +20972,11 @@
       </c>
       <c r="I237" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H237)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J237" s="2" cm="1">
         <f t="array" ref="J237">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H237,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
@@ -21002,11 +21008,11 @@
       </c>
       <c r="I238" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H238)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J238" s="2" cm="1">
         <f t="array" ref="J238">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H238,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
@@ -21038,11 +21044,11 @@
       </c>
       <c r="I239" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H239)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J239" s="2" cm="1">
         <f t="array" ref="J239">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H239,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -21074,11 +21080,11 @@
       </c>
       <c r="I240" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H240)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J240" s="2" cm="1">
         <f t="array" ref="J240">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H240,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -21094,11 +21100,15 @@
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="D241" s="5"/>
-      <c r="E241" s="2"/>
+      <c r="D241" s="5">
+        <v>1788000</v>
+      </c>
+      <c r="E241" s="2">
+        <v>2421000</v>
+      </c>
       <c r="F241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>547260000</v>
+        <v>549048000</v>
       </c>
       <c r="H241" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21106,11 +21116,11 @@
       </c>
       <c r="I241" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H241)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J241" s="2" cm="1">
         <f t="array" ref="J241">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H241,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
@@ -21126,11 +21136,15 @@
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="D242" s="4"/>
-      <c r="E242" s="6"/>
+      <c r="D242" s="4">
+        <v>1890000</v>
+      </c>
+      <c r="E242" s="6">
+        <v>1656000</v>
+      </c>
       <c r="F242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>547260000</v>
+        <v>550938000</v>
       </c>
       <c r="H242" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21138,11 +21152,11 @@
       </c>
       <c r="I242" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H242)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J242" s="2" cm="1">
         <f t="array" ref="J242">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H242,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -21158,11 +21172,15 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="D243" s="5"/>
-      <c r="E243" s="2"/>
+      <c r="D243" s="5">
+        <v>1524000</v>
+      </c>
+      <c r="E243" s="2">
+        <v>1915000</v>
+      </c>
       <c r="F243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H243" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21170,11 +21188,11 @@
       </c>
       <c r="I243" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H243)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J243" s="2" cm="1">
         <f t="array" ref="J243">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H243,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -21194,7 +21212,7 @@
       <c r="E244" s="6"/>
       <c r="F244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H244" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21202,11 +21220,11 @@
       </c>
       <c r="I244" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H244)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J244" s="2" cm="1">
         <f t="array" ref="J244">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H244,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -21226,7 +21244,7 @@
       <c r="E245" s="2"/>
       <c r="F245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H245" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21234,11 +21252,11 @@
       </c>
       <c r="I245" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H245)</f>
-        <v>52079000</v>
+        <v>57281000</v>
       </c>
       <c r="J245" s="2" cm="1">
         <f t="array" ref="J245">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H245,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
@@ -21258,7 +21276,7 @@
       <c r="E246" s="6"/>
       <c r="F246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H246" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21270,7 +21288,7 @@
       </c>
       <c r="J246" s="2" cm="1">
         <f t="array" ref="J246">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H246,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
@@ -21290,7 +21308,7 @@
       <c r="E247" s="2"/>
       <c r="F247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H247" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21302,7 +21320,7 @@
       </c>
       <c r="J247" s="2" cm="1">
         <f t="array" ref="J247">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H247,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -21322,7 +21340,7 @@
       <c r="E248" s="6"/>
       <c r="F248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H248" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21334,7 +21352,7 @@
       </c>
       <c r="J248" s="2" cm="1">
         <f t="array" ref="J248">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H248,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -21354,7 +21372,7 @@
       <c r="E249" s="2"/>
       <c r="F249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H249" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21366,7 +21384,7 @@
       </c>
       <c r="J249" s="2" cm="1">
         <f t="array" ref="J249">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H249,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
@@ -21386,7 +21404,7 @@
       <c r="E250" s="6"/>
       <c r="F250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H250" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21398,7 +21416,7 @@
       </c>
       <c r="J250" s="2" cm="1">
         <f t="array" ref="J250">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H250,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -21418,7 +21436,7 @@
       <c r="E251" s="2"/>
       <c r="F251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H251" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21430,7 +21448,7 @@
       </c>
       <c r="J251" s="2" cm="1">
         <f t="array" ref="J251">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H251,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
@@ -21450,7 +21468,7 @@
       <c r="E252" s="6"/>
       <c r="F252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H252" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21462,7 +21480,7 @@
       </c>
       <c r="J252" s="2" cm="1">
         <f t="array" ref="J252">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H252,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
@@ -21482,7 +21500,7 @@
       <c r="E253" s="2"/>
       <c r="F253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H253" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21494,7 +21512,7 @@
       </c>
       <c r="J253" s="2" cm="1">
         <f t="array" ref="J253">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H253,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -21514,7 +21532,7 @@
       <c r="E254" s="6"/>
       <c r="F254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H254" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21526,7 +21544,7 @@
       </c>
       <c r="J254" s="2" cm="1">
         <f t="array" ref="J254">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H254,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
@@ -21546,7 +21564,7 @@
       <c r="E255" s="2"/>
       <c r="F255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H255" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21558,7 +21576,7 @@
       </c>
       <c r="J255" s="2" cm="1">
         <f t="array" ref="J255">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H255,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
@@ -21578,7 +21596,7 @@
       <c r="E256" s="6"/>
       <c r="F256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H256" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21590,7 +21608,7 @@
       </c>
       <c r="J256" s="2" cm="1">
         <f t="array" ref="J256">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H256,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -21610,7 +21628,7 @@
       <c r="E257" s="2"/>
       <c r="F257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H257" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21622,7 +21640,7 @@
       </c>
       <c r="J257" s="2" cm="1">
         <f t="array" ref="J257">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H257,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -21642,7 +21660,7 @@
       <c r="E258" s="6"/>
       <c r="F258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H258" s="1" t="str">
         <f t="shared" si="10"/>
@@ -21654,7 +21672,7 @@
       </c>
       <c r="J258" s="2" cm="1">
         <f t="array" ref="J258">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H258,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.25">
@@ -21674,7 +21692,7 @@
       <c r="E259" s="2"/>
       <c r="F259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H259" s="1" t="str">
         <f t="shared" ref="H259:H322" si="13">B259</f>
@@ -21686,7 +21704,7 @@
       </c>
       <c r="J259" s="2" cm="1">
         <f t="array" ref="J259">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H259,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.25">
@@ -21706,7 +21724,7 @@
       <c r="E260" s="6"/>
       <c r="F260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H260" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21718,7 +21736,7 @@
       </c>
       <c r="J260" s="2" cm="1">
         <f t="array" ref="J260">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H260,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.25">
@@ -21738,7 +21756,7 @@
       <c r="E261" s="2"/>
       <c r="F261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H261" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21750,7 +21768,7 @@
       </c>
       <c r="J261" s="2" cm="1">
         <f t="array" ref="J261">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H261,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.25">
@@ -21770,7 +21788,7 @@
       <c r="E262" s="6"/>
       <c r="F262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H262" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21782,7 +21800,7 @@
       </c>
       <c r="J262" s="2" cm="1">
         <f t="array" ref="J262">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H262,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="263" spans="1:10" x14ac:dyDescent="0.25">
@@ -21802,7 +21820,7 @@
       <c r="E263" s="2"/>
       <c r="F263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H263" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21814,7 +21832,7 @@
       </c>
       <c r="J263" s="2" cm="1">
         <f t="array" ref="J263">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H263,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="264" spans="1:10" x14ac:dyDescent="0.25">
@@ -21834,7 +21852,7 @@
       <c r="E264" s="6"/>
       <c r="F264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H264" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21846,7 +21864,7 @@
       </c>
       <c r="J264" s="2" cm="1">
         <f t="array" ref="J264">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H264,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.25">
@@ -21866,7 +21884,7 @@
       <c r="E265" s="2"/>
       <c r="F265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H265" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21878,7 +21896,7 @@
       </c>
       <c r="J265" s="2" cm="1">
         <f t="array" ref="J265">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H265,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.25">
@@ -21898,7 +21916,7 @@
       <c r="E266" s="6"/>
       <c r="F266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H266" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21910,7 +21928,7 @@
       </c>
       <c r="J266" s="2" cm="1">
         <f t="array" ref="J266">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H266,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.25">
@@ -21930,7 +21948,7 @@
       <c r="E267" s="2"/>
       <c r="F267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H267" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21942,7 +21960,7 @@
       </c>
       <c r="J267" s="2" cm="1">
         <f t="array" ref="J267">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H267,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.25">
@@ -21962,7 +21980,7 @@
       <c r="E268" s="6"/>
       <c r="F268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H268" s="1" t="str">
         <f t="shared" si="13"/>
@@ -21974,7 +21992,7 @@
       </c>
       <c r="J268" s="2" cm="1">
         <f t="array" ref="J268">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H268,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="269" spans="1:10" x14ac:dyDescent="0.25">
@@ -21994,7 +22012,7 @@
       <c r="E269" s="2"/>
       <c r="F269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H269" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22006,7 +22024,7 @@
       </c>
       <c r="J269" s="2" cm="1">
         <f t="array" ref="J269">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H269,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.25">
@@ -22026,7 +22044,7 @@
       <c r="E270" s="6"/>
       <c r="F270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H270" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22038,7 +22056,7 @@
       </c>
       <c r="J270" s="2" cm="1">
         <f t="array" ref="J270">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H270,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.25">
@@ -22058,7 +22076,7 @@
       <c r="E271" s="2"/>
       <c r="F271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H271" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22070,7 +22088,7 @@
       </c>
       <c r="J271" s="2" cm="1">
         <f t="array" ref="J271">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H271,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.25">
@@ -22090,7 +22108,7 @@
       <c r="E272" s="6"/>
       <c r="F272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H272" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22102,7 +22120,7 @@
       </c>
       <c r="J272" s="2" cm="1">
         <f t="array" ref="J272">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H272,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.25">
@@ -22122,7 +22140,7 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H273" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22134,7 +22152,7 @@
       </c>
       <c r="J273" s="2" cm="1">
         <f t="array" ref="J273">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H273,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.25">
@@ -22154,7 +22172,7 @@
       <c r="E274" s="6"/>
       <c r="F274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H274" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22166,7 +22184,7 @@
       </c>
       <c r="J274" s="2" cm="1">
         <f t="array" ref="J274">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H274,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="275" spans="1:10" x14ac:dyDescent="0.25">
@@ -22186,7 +22204,7 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H275" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22198,7 +22216,7 @@
       </c>
       <c r="J275" s="2" cm="1">
         <f t="array" ref="J275">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H275,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="276" spans="1:10" x14ac:dyDescent="0.25">
@@ -22218,7 +22236,7 @@
       <c r="E276" s="6"/>
       <c r="F276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H276" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22230,7 +22248,7 @@
       </c>
       <c r="J276" s="2" cm="1">
         <f t="array" ref="J276">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H276,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.25">
@@ -22250,7 +22268,7 @@
       <c r="E277" s="2"/>
       <c r="F277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H277" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22262,7 +22280,7 @@
       </c>
       <c r="J277" s="2" cm="1">
         <f t="array" ref="J277">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H277,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.25">
@@ -22282,7 +22300,7 @@
       <c r="E278" s="6"/>
       <c r="F278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H278" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22294,7 +22312,7 @@
       </c>
       <c r="J278" s="2" cm="1">
         <f t="array" ref="J278">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H278,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.25">
@@ -22314,7 +22332,7 @@
       <c r="E279" s="2"/>
       <c r="F279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H279" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22326,7 +22344,7 @@
       </c>
       <c r="J279" s="2" cm="1">
         <f t="array" ref="J279">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H279,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.25">
@@ -22346,7 +22364,7 @@
       <c r="E280" s="6"/>
       <c r="F280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H280" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22358,7 +22376,7 @@
       </c>
       <c r="J280" s="2" cm="1">
         <f t="array" ref="J280">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H280,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.25">
@@ -22378,7 +22396,7 @@
       <c r="E281" s="2"/>
       <c r="F281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H281" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22390,7 +22408,7 @@
       </c>
       <c r="J281" s="2" cm="1">
         <f t="array" ref="J281">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H281,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="282" spans="1:10" x14ac:dyDescent="0.25">
@@ -22410,7 +22428,7 @@
       <c r="E282" s="6"/>
       <c r="F282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H282" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22422,7 +22440,7 @@
       </c>
       <c r="J282" s="2" cm="1">
         <f t="array" ref="J282">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H282,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.25">
@@ -22442,7 +22460,7 @@
       <c r="E283" s="2"/>
       <c r="F283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H283" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22454,7 +22472,7 @@
       </c>
       <c r="J283" s="2" cm="1">
         <f t="array" ref="J283">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H283,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="284" spans="1:10" x14ac:dyDescent="0.25">
@@ -22474,7 +22492,7 @@
       <c r="E284" s="6"/>
       <c r="F284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H284" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22486,7 +22504,7 @@
       </c>
       <c r="J284" s="2" cm="1">
         <f t="array" ref="J284">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H284,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="285" spans="1:10" x14ac:dyDescent="0.25">
@@ -22506,7 +22524,7 @@
       <c r="E285" s="2"/>
       <c r="F285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H285" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22518,7 +22536,7 @@
       </c>
       <c r="J285" s="2" cm="1">
         <f t="array" ref="J285">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H285,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="286" spans="1:10" x14ac:dyDescent="0.25">
@@ -22538,7 +22556,7 @@
       <c r="E286" s="6"/>
       <c r="F286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H286" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22550,7 +22568,7 @@
       </c>
       <c r="J286" s="2" cm="1">
         <f t="array" ref="J286">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H286,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.25">
@@ -22570,7 +22588,7 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H287" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22582,7 +22600,7 @@
       </c>
       <c r="J287" s="2" cm="1">
         <f t="array" ref="J287">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H287,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.25">
@@ -22602,7 +22620,7 @@
       <c r="E288" s="6"/>
       <c r="F288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H288" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22614,7 +22632,7 @@
       </c>
       <c r="J288" s="2" cm="1">
         <f t="array" ref="J288">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H288,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.25">
@@ -22634,7 +22652,7 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H289" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22646,7 +22664,7 @@
       </c>
       <c r="J289" s="2" cm="1">
         <f t="array" ref="J289">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H289,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="290" spans="1:10" x14ac:dyDescent="0.25">
@@ -22666,7 +22684,7 @@
       <c r="E290" s="6"/>
       <c r="F290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H290" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22678,7 +22696,7 @@
       </c>
       <c r="J290" s="2" cm="1">
         <f t="array" ref="J290">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H290,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="291" spans="1:10" x14ac:dyDescent="0.25">
@@ -22698,7 +22716,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H291" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22710,7 +22728,7 @@
       </c>
       <c r="J291" s="2" cm="1">
         <f t="array" ref="J291">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H291,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="292" spans="1:10" x14ac:dyDescent="0.25">
@@ -22730,7 +22748,7 @@
       <c r="E292" s="6"/>
       <c r="F292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H292" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22742,7 +22760,7 @@
       </c>
       <c r="J292" s="2" cm="1">
         <f t="array" ref="J292">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H292,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.25">
@@ -22762,7 +22780,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H293" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22774,7 +22792,7 @@
       </c>
       <c r="J293" s="2" cm="1">
         <f t="array" ref="J293">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H293,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="294" spans="1:10" x14ac:dyDescent="0.25">
@@ -22794,7 +22812,7 @@
       <c r="E294" s="6"/>
       <c r="F294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H294" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22806,7 +22824,7 @@
       </c>
       <c r="J294" s="2" cm="1">
         <f t="array" ref="J294">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H294,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.25">
@@ -22826,7 +22844,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H295" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22838,7 +22856,7 @@
       </c>
       <c r="J295" s="2" cm="1">
         <f t="array" ref="J295">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H295,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.25">
@@ -22858,7 +22876,7 @@
       <c r="E296" s="6"/>
       <c r="F296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H296" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22870,7 +22888,7 @@
       </c>
       <c r="J296" s="2" cm="1">
         <f t="array" ref="J296">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H296,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="297" spans="1:10" x14ac:dyDescent="0.25">
@@ -22890,7 +22908,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H297" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22902,7 +22920,7 @@
       </c>
       <c r="J297" s="2" cm="1">
         <f t="array" ref="J297">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H297,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="298" spans="1:10" x14ac:dyDescent="0.25">
@@ -22922,7 +22940,7 @@
       <c r="E298" s="6"/>
       <c r="F298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H298" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22934,7 +22952,7 @@
       </c>
       <c r="J298" s="2" cm="1">
         <f t="array" ref="J298">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H298,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.25">
@@ -22954,7 +22972,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H299" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22966,7 +22984,7 @@
       </c>
       <c r="J299" s="2" cm="1">
         <f t="array" ref="J299">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H299,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.25">
@@ -22986,7 +23004,7 @@
       <c r="E300" s="6"/>
       <c r="F300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H300" s="1" t="str">
         <f t="shared" si="13"/>
@@ -22998,7 +23016,7 @@
       </c>
       <c r="J300" s="2" cm="1">
         <f t="array" ref="J300">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H300,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="301" spans="1:10" x14ac:dyDescent="0.25">
@@ -23018,7 +23036,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H301" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23030,7 +23048,7 @@
       </c>
       <c r="J301" s="2" cm="1">
         <f t="array" ref="J301">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H301,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.25">
@@ -23050,7 +23068,7 @@
       <c r="E302" s="6"/>
       <c r="F302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23062,7 +23080,7 @@
       </c>
       <c r="J302" s="2" cm="1">
         <f t="array" ref="J302">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H302,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.25">
@@ -23082,7 +23100,7 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23094,7 +23112,7 @@
       </c>
       <c r="J303" s="2" cm="1">
         <f t="array" ref="J303">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H303,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="304" spans="1:10" x14ac:dyDescent="0.25">
@@ -23114,7 +23132,7 @@
       <c r="E304" s="6"/>
       <c r="F304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23126,7 +23144,7 @@
       </c>
       <c r="J304" s="2" cm="1">
         <f t="array" ref="J304">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H304,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.25">
@@ -23146,7 +23164,7 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23158,7 +23176,7 @@
       </c>
       <c r="J305" s="2" cm="1">
         <f t="array" ref="J305">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H305,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="306" spans="1:10" x14ac:dyDescent="0.25">
@@ -23178,7 +23196,7 @@
       <c r="E306" s="6"/>
       <c r="F306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23190,7 +23208,7 @@
       </c>
       <c r="J306" s="2" cm="1">
         <f t="array" ref="J306">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H306,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="307" spans="1:10" x14ac:dyDescent="0.25">
@@ -23210,7 +23228,7 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23222,7 +23240,7 @@
       </c>
       <c r="J307" s="2" cm="1">
         <f t="array" ref="J307">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H307,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="308" spans="1:10" x14ac:dyDescent="0.25">
@@ -23242,7 +23260,7 @@
       <c r="E308" s="6"/>
       <c r="F308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23254,7 +23272,7 @@
       </c>
       <c r="J308" s="2" cm="1">
         <f t="array" ref="J308">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H308,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.25">
@@ -23274,7 +23292,7 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23286,7 +23304,7 @@
       </c>
       <c r="J309" s="2" cm="1">
         <f t="array" ref="J309">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H309,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="310" spans="1:10" x14ac:dyDescent="0.25">
@@ -23306,7 +23324,7 @@
       <c r="E310" s="6"/>
       <c r="F310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23318,7 +23336,7 @@
       </c>
       <c r="J310" s="2" cm="1">
         <f t="array" ref="J310">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H310,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="311" spans="1:10" x14ac:dyDescent="0.25">
@@ -23338,7 +23356,7 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23350,7 +23368,7 @@
       </c>
       <c r="J311" s="2" cm="1">
         <f t="array" ref="J311">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H311,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="312" spans="1:10" x14ac:dyDescent="0.25">
@@ -23370,7 +23388,7 @@
       <c r="E312" s="6"/>
       <c r="F312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23382,7 +23400,7 @@
       </c>
       <c r="J312" s="2" cm="1">
         <f t="array" ref="J312">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H312,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="313" spans="1:10" x14ac:dyDescent="0.25">
@@ -23402,7 +23420,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23414,7 +23432,7 @@
       </c>
       <c r="J313" s="2" cm="1">
         <f t="array" ref="J313">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H313,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="314" spans="1:10" x14ac:dyDescent="0.25">
@@ -23434,7 +23452,7 @@
       <c r="E314" s="6"/>
       <c r="F314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23446,7 +23464,7 @@
       </c>
       <c r="J314" s="2" cm="1">
         <f t="array" ref="J314">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H314,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="315" spans="1:10" x14ac:dyDescent="0.25">
@@ -23466,7 +23484,7 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23478,7 +23496,7 @@
       </c>
       <c r="J315" s="2" cm="1">
         <f t="array" ref="J315">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H315,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="316" spans="1:10" x14ac:dyDescent="0.25">
@@ -23498,7 +23516,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23510,7 +23528,7 @@
       </c>
       <c r="J316" s="2" cm="1">
         <f t="array" ref="J316">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H316,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="317" spans="1:10" x14ac:dyDescent="0.25">
@@ -23530,7 +23548,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23542,7 +23560,7 @@
       </c>
       <c r="J317" s="2" cm="1">
         <f t="array" ref="J317">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H317,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="318" spans="1:10" x14ac:dyDescent="0.25">
@@ -23562,7 +23580,7 @@
       <c r="E318" s="6"/>
       <c r="F318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23574,7 +23592,7 @@
       </c>
       <c r="J318" s="2" cm="1">
         <f t="array" ref="J318">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H318,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="319" spans="1:10" x14ac:dyDescent="0.25">
@@ -23594,7 +23612,7 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23606,7 +23624,7 @@
       </c>
       <c r="J319" s="2" cm="1">
         <f t="array" ref="J319">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H319,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="320" spans="1:10" x14ac:dyDescent="0.25">
@@ -23626,7 +23644,7 @@
       <c r="E320" s="6"/>
       <c r="F320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23638,7 +23656,7 @@
       </c>
       <c r="J320" s="2" cm="1">
         <f t="array" ref="J320">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H320,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="321" spans="1:10" x14ac:dyDescent="0.25">
@@ -23658,7 +23676,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23670,7 +23688,7 @@
       </c>
       <c r="J321" s="2" cm="1">
         <f t="array" ref="J321">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H321,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="322" spans="1:10" x14ac:dyDescent="0.25">
@@ -23690,7 +23708,7 @@
       <c r="E322" s="6"/>
       <c r="F322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -23702,7 +23720,7 @@
       </c>
       <c r="J322" s="2" cm="1">
         <f t="array" ref="J322">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H322,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="323" spans="1:10" x14ac:dyDescent="0.25">
@@ -23722,7 +23740,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H323" s="1" t="str">
         <f t="shared" ref="H323:H367" si="16">B323</f>
@@ -23734,7 +23752,7 @@
       </c>
       <c r="J323" s="2" cm="1">
         <f t="array" ref="J323">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H323,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="324" spans="1:10" x14ac:dyDescent="0.25">
@@ -23754,7 +23772,7 @@
       <c r="E324" s="6"/>
       <c r="F324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23766,7 +23784,7 @@
       </c>
       <c r="J324" s="2" cm="1">
         <f t="array" ref="J324">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H324,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="325" spans="1:10" x14ac:dyDescent="0.25">
@@ -23786,7 +23804,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23798,7 +23816,7 @@
       </c>
       <c r="J325" s="2" cm="1">
         <f t="array" ref="J325">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H325,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="326" spans="1:10" x14ac:dyDescent="0.25">
@@ -23818,7 +23836,7 @@
       <c r="E326" s="6"/>
       <c r="F326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23830,7 +23848,7 @@
       </c>
       <c r="J326" s="2" cm="1">
         <f t="array" ref="J326">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H326,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.25">
@@ -23850,7 +23868,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23862,7 +23880,7 @@
       </c>
       <c r="J327" s="2" cm="1">
         <f t="array" ref="J327">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H327,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.25">
@@ -23882,7 +23900,7 @@
       <c r="E328" s="6"/>
       <c r="F328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23894,7 +23912,7 @@
       </c>
       <c r="J328" s="2" cm="1">
         <f t="array" ref="J328">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H328,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.25">
@@ -23914,7 +23932,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23926,7 +23944,7 @@
       </c>
       <c r="J329" s="2" cm="1">
         <f t="array" ref="J329">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H329,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.25">
@@ -23946,7 +23964,7 @@
       <c r="E330" s="6"/>
       <c r="F330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23958,7 +23976,7 @@
       </c>
       <c r="J330" s="2" cm="1">
         <f t="array" ref="J330">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H330,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.25">
@@ -23978,7 +23996,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -23990,7 +24008,7 @@
       </c>
       <c r="J331" s="2" cm="1">
         <f t="array" ref="J331">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H331,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.25">
@@ -24010,7 +24028,7 @@
       <c r="E332" s="6"/>
       <c r="F332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24022,7 +24040,7 @@
       </c>
       <c r="J332" s="2" cm="1">
         <f t="array" ref="J332">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H332,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.25">
@@ -24042,7 +24060,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24054,7 +24072,7 @@
       </c>
       <c r="J333" s="2" cm="1">
         <f t="array" ref="J333">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H333,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.25">
@@ -24074,7 +24092,7 @@
       <c r="E334" s="6"/>
       <c r="F334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24086,7 +24104,7 @@
       </c>
       <c r="J334" s="2" cm="1">
         <f t="array" ref="J334">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H334,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.25">
@@ -24106,7 +24124,7 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24118,7 +24136,7 @@
       </c>
       <c r="J335" s="2" cm="1">
         <f t="array" ref="J335">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H335,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.25">
@@ -24138,7 +24156,7 @@
       <c r="E336" s="6"/>
       <c r="F336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24150,7 +24168,7 @@
       </c>
       <c r="J336" s="2" cm="1">
         <f t="array" ref="J336">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H336,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.25">
@@ -24170,7 +24188,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24182,7 +24200,7 @@
       </c>
       <c r="J337" s="2" cm="1">
         <f t="array" ref="J337">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H337,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.25">
@@ -24202,7 +24220,7 @@
       <c r="E338" s="6"/>
       <c r="F338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24214,7 +24232,7 @@
       </c>
       <c r="J338" s="2" cm="1">
         <f t="array" ref="J338">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H338,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.25">
@@ -24234,7 +24252,7 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24246,7 +24264,7 @@
       </c>
       <c r="J339" s="2" cm="1">
         <f t="array" ref="J339">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H339,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.25">
@@ -24266,7 +24284,7 @@
       <c r="E340" s="6"/>
       <c r="F340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24278,7 +24296,7 @@
       </c>
       <c r="J340" s="2" cm="1">
         <f t="array" ref="J340">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H340,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="341" spans="1:10" x14ac:dyDescent="0.25">
@@ -24298,7 +24316,7 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24310,7 +24328,7 @@
       </c>
       <c r="J341" s="2" cm="1">
         <f t="array" ref="J341">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H341,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="342" spans="1:10" x14ac:dyDescent="0.25">
@@ -24330,7 +24348,7 @@
       <c r="E342" s="6"/>
       <c r="F342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24342,7 +24360,7 @@
       </c>
       <c r="J342" s="2" cm="1">
         <f t="array" ref="J342">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H342,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="343" spans="1:10" x14ac:dyDescent="0.25">
@@ -24362,7 +24380,7 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24374,7 +24392,7 @@
       </c>
       <c r="J343" s="2" cm="1">
         <f t="array" ref="J343">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H343,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="344" spans="1:10" x14ac:dyDescent="0.25">
@@ -24394,7 +24412,7 @@
       <c r="E344" s="6"/>
       <c r="F344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24406,7 +24424,7 @@
       </c>
       <c r="J344" s="2" cm="1">
         <f t="array" ref="J344">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H344,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="345" spans="1:10" x14ac:dyDescent="0.25">
@@ -24426,7 +24444,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24438,7 +24456,7 @@
       </c>
       <c r="J345" s="2" cm="1">
         <f t="array" ref="J345">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H345,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="346" spans="1:10" x14ac:dyDescent="0.25">
@@ -24458,7 +24476,7 @@
       <c r="E346" s="6"/>
       <c r="F346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24470,7 +24488,7 @@
       </c>
       <c r="J346" s="2" cm="1">
         <f t="array" ref="J346">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H346,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="347" spans="1:10" x14ac:dyDescent="0.25">
@@ -24490,7 +24508,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24502,7 +24520,7 @@
       </c>
       <c r="J347" s="2" cm="1">
         <f t="array" ref="J347">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H347,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="348" spans="1:10" x14ac:dyDescent="0.25">
@@ -24522,7 +24540,7 @@
       <c r="E348" s="6"/>
       <c r="F348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24534,7 +24552,7 @@
       </c>
       <c r="J348" s="2" cm="1">
         <f t="array" ref="J348">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H348,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="349" spans="1:10" x14ac:dyDescent="0.25">
@@ -24554,7 +24572,7 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24566,7 +24584,7 @@
       </c>
       <c r="J349" s="2" cm="1">
         <f t="array" ref="J349">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H349,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="350" spans="1:10" x14ac:dyDescent="0.25">
@@ -24586,7 +24604,7 @@
       <c r="E350" s="6"/>
       <c r="F350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24598,7 +24616,7 @@
       </c>
       <c r="J350" s="2" cm="1">
         <f t="array" ref="J350">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H350,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.25">
@@ -24618,7 +24636,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24630,7 +24648,7 @@
       </c>
       <c r="J351" s="2" cm="1">
         <f t="array" ref="J351">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H351,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.25">
@@ -24650,7 +24668,7 @@
       <c r="E352" s="6"/>
       <c r="F352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24662,7 +24680,7 @@
       </c>
       <c r="J352" s="2" cm="1">
         <f t="array" ref="J352">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H352,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.25">
@@ -24682,7 +24700,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24694,7 +24712,7 @@
       </c>
       <c r="J353" s="2" cm="1">
         <f t="array" ref="J353">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H353,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.25">
@@ -24714,7 +24732,7 @@
       <c r="E354" s="6"/>
       <c r="F354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24726,7 +24744,7 @@
       </c>
       <c r="J354" s="2" cm="1">
         <f t="array" ref="J354">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H354,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="355" spans="1:10" x14ac:dyDescent="0.25">
@@ -24746,7 +24764,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24758,7 +24776,7 @@
       </c>
       <c r="J355" s="2" cm="1">
         <f t="array" ref="J355">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H355,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.25">
@@ -24778,7 +24796,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24790,7 +24808,7 @@
       </c>
       <c r="J356" s="2" cm="1">
         <f t="array" ref="J356">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H356,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.25">
@@ -24810,7 +24828,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24822,7 +24840,7 @@
       </c>
       <c r="J357" s="2" cm="1">
         <f t="array" ref="J357">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H357,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.25">
@@ -24842,7 +24860,7 @@
       <c r="E358" s="6"/>
       <c r="F358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24854,7 +24872,7 @@
       </c>
       <c r="J358" s="2" cm="1">
         <f t="array" ref="J358">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H358,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.25">
@@ -24874,7 +24892,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24886,7 +24904,7 @@
       </c>
       <c r="J359" s="2" cm="1">
         <f t="array" ref="J359">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H359,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.25">
@@ -24906,7 +24924,7 @@
       <c r="E360" s="6"/>
       <c r="F360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24918,7 +24936,7 @@
       </c>
       <c r="J360" s="2" cm="1">
         <f t="array" ref="J360">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H360,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.25">
@@ -24938,7 +24956,7 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24950,7 +24968,7 @@
       </c>
       <c r="J361" s="2" cm="1">
         <f t="array" ref="J361">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H361,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.25">
@@ -24970,7 +24988,7 @@
       <c r="E362" s="6"/>
       <c r="F362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -24982,7 +25000,7 @@
       </c>
       <c r="J362" s="2" cm="1">
         <f t="array" ref="J362">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H362,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="363" spans="1:10" x14ac:dyDescent="0.25">
@@ -25002,7 +25020,7 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25014,7 +25032,7 @@
       </c>
       <c r="J363" s="2" cm="1">
         <f t="array" ref="J363">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H363,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="364" spans="1:10" x14ac:dyDescent="0.25">
@@ -25034,7 +25052,7 @@
       <c r="E364" s="6"/>
       <c r="F364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25046,7 +25064,7 @@
       </c>
       <c r="J364" s="2" cm="1">
         <f t="array" ref="J364">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H364,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="365" spans="1:10" x14ac:dyDescent="0.25">
@@ -25066,7 +25084,7 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25078,7 +25096,7 @@
       </c>
       <c r="J365" s="2" cm="1">
         <f t="array" ref="J365">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H365,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="366" spans="1:10" x14ac:dyDescent="0.25">
@@ -25098,7 +25116,7 @@
       <c r="E366" s="6"/>
       <c r="F366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25110,7 +25128,7 @@
       </c>
       <c r="J366" s="2" cm="1">
         <f t="array" ref="J366">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H366,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
     <row r="367" spans="1:10" x14ac:dyDescent="0.25">
@@ -25130,7 +25148,7 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
       <c r="H367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -25142,7 +25160,7 @@
       </c>
       <c r="J367" s="2" cm="1">
         <f t="array" ref="J367">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H367,Belanja[TOTAL],,,-1)</f>
-        <v>547260000</v>
+        <v>552462000</v>
       </c>
     </row>
   </sheetData>
@@ -25184,11 +25202,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C1940F-1311-4B0D-B6DB-47C1226A8423}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D234" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D241" sqref="D241"/>
+      <selection pane="bottomRight" activeCell="D244" sqref="D244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32251,11 +32269,11 @@
       </c>
       <c r="H215" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G215)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I215" s="2" cm="1">
         <f t="array" ref="I215">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G215,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
@@ -32284,11 +32302,11 @@
       </c>
       <c r="H216" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G216)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I216" s="2" cm="1">
         <f t="array" ref="I216">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G216,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
@@ -32317,11 +32335,11 @@
       </c>
       <c r="H217" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G217)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I217" s="2" cm="1">
         <f t="array" ref="I217">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G217,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -32350,11 +32368,11 @@
       </c>
       <c r="H218" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G218)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I218" s="2" cm="1">
         <f t="array" ref="I218">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G218,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -32383,11 +32401,11 @@
       </c>
       <c r="H219" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G219)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I219" s="2" cm="1">
         <f t="array" ref="I219">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G219,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -32416,11 +32434,11 @@
       </c>
       <c r="H220" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G220)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I220" s="2" cm="1">
         <f t="array" ref="I220">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G220,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -32449,11 +32467,11 @@
       </c>
       <c r="H221" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G221)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I221" s="2" cm="1">
         <f t="array" ref="I221">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G221,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
@@ -32482,11 +32500,11 @@
       </c>
       <c r="H222" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G222)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I222" s="2" cm="1">
         <f t="array" ref="I222">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G222,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -32515,11 +32533,11 @@
       </c>
       <c r="H223" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G223)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I223" s="2" cm="1">
         <f t="array" ref="I223">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G223,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
@@ -32548,11 +32566,11 @@
       </c>
       <c r="H224" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G224)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I224" s="2" cm="1">
         <f t="array" ref="I224">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G224,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -32581,11 +32599,11 @@
       </c>
       <c r="H225" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G225)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I225" s="2" cm="1">
         <f t="array" ref="I225">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G225,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -32614,11 +32632,11 @@
       </c>
       <c r="H226" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G226)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I226" s="2" cm="1">
         <f t="array" ref="I226">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G226,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -32647,11 +32665,11 @@
       </c>
       <c r="H227" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G227)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I227" s="2" cm="1">
         <f t="array" ref="I227">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G227,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -32680,11 +32698,11 @@
       </c>
       <c r="H228" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G228)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I228" s="2" cm="1">
         <f t="array" ref="I228">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G228,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -32713,11 +32731,11 @@
       </c>
       <c r="H229" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G229)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I229" s="2" cm="1">
         <f t="array" ref="I229">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G229,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
@@ -32746,11 +32764,11 @@
       </c>
       <c r="H230" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G230)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I230" s="2" cm="1">
         <f t="array" ref="I230">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G230,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -32779,11 +32797,11 @@
       </c>
       <c r="H231" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G231)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I231" s="2" cm="1">
         <f t="array" ref="I231">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G231,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
@@ -32812,11 +32830,11 @@
       </c>
       <c r="H232" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G232)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I232" s="2" cm="1">
         <f t="array" ref="I232">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G232,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -32845,11 +32863,11 @@
       </c>
       <c r="H233" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G233)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I233" s="2" cm="1">
         <f t="array" ref="I233">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G233,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
@@ -32878,11 +32896,11 @@
       </c>
       <c r="H234" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G234)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I234" s="2" cm="1">
         <f t="array" ref="I234">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G234,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -32911,11 +32929,11 @@
       </c>
       <c r="H235" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G235)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I235" s="2" cm="1">
         <f t="array" ref="I235">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G235,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -32944,11 +32962,11 @@
       </c>
       <c r="H236" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G236)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I236" s="2" cm="1">
         <f t="array" ref="I236">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G236,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
@@ -32977,11 +32995,11 @@
       </c>
       <c r="H237" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G237)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I237" s="2" cm="1">
         <f t="array" ref="I237">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G237,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
@@ -33010,11 +33028,11 @@
       </c>
       <c r="H238" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G238)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I238" s="2" cm="1">
         <f t="array" ref="I238">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G238,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
@@ -33043,11 +33061,11 @@
       </c>
       <c r="H239" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G239)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I239" s="2" cm="1">
         <f t="array" ref="I239">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G239,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -33076,11 +33094,11 @@
       </c>
       <c r="H240" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G240)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I240" s="2" cm="1">
         <f t="array" ref="I240">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G240,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
@@ -33096,10 +33114,12 @@
         <f t="shared" si="9"/>
         <v>27</v>
       </c>
-      <c r="D241" s="5"/>
+      <c r="D241" s="5">
+        <v>1788000</v>
+      </c>
       <c r="E241" s="2">
         <f>SUM($D$2:$D241)</f>
-        <v>418152000</v>
+        <v>419940000</v>
       </c>
       <c r="G241" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33107,11 +33127,11 @@
       </c>
       <c r="H241" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G241)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I241" s="2" cm="1">
         <f t="array" ref="I241">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G241,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
@@ -33127,10 +33147,12 @@
         <f t="shared" si="9"/>
         <v>28</v>
       </c>
-      <c r="D242" s="4"/>
+      <c r="D242" s="4">
+        <v>1890000</v>
+      </c>
       <c r="E242" s="2">
         <f>SUM($D$2:$D242)</f>
-        <v>418152000</v>
+        <v>421830000</v>
       </c>
       <c r="G242" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33138,11 +33160,11 @@
       </c>
       <c r="H242" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G242)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I242" s="2" cm="1">
         <f t="array" ref="I242">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G242,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
@@ -33158,10 +33180,12 @@
         <f t="shared" si="9"/>
         <v>29</v>
       </c>
-      <c r="D243" s="5"/>
+      <c r="D243" s="5">
+        <v>1524000</v>
+      </c>
       <c r="E243" s="2">
         <f>SUM($D$2:$D243)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G243" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33169,11 +33193,11 @@
       </c>
       <c r="H243" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G243)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I243" s="2" cm="1">
         <f t="array" ref="I243">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G243,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
@@ -33192,7 +33216,7 @@
       <c r="D244" s="4"/>
       <c r="E244" s="2">
         <f>SUM($D$2:$D244)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G244" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33200,11 +33224,11 @@
       </c>
       <c r="H244" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G244)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I244" s="2" cm="1">
         <f t="array" ref="I244">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G244,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
@@ -33223,7 +33247,7 @@
       <c r="D245" s="5"/>
       <c r="E245" s="2">
         <f>SUM($D$2:$D245)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G245" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33231,11 +33255,11 @@
       </c>
       <c r="H245" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G245)</f>
-        <v>52081000</v>
+        <v>57283000</v>
       </c>
       <c r="I245" s="2" cm="1">
         <f t="array" ref="I245">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G245,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
@@ -33254,7 +33278,7 @@
       <c r="D246" s="4"/>
       <c r="E246" s="2">
         <f>SUM($D$2:$D246)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G246" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33266,7 +33290,7 @@
       </c>
       <c r="I246" s="2" cm="1">
         <f t="array" ref="I246">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G246,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
@@ -33285,7 +33309,7 @@
       <c r="D247" s="5"/>
       <c r="E247" s="2">
         <f>SUM($D$2:$D247)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G247" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33297,7 +33321,7 @@
       </c>
       <c r="I247" s="2" cm="1">
         <f t="array" ref="I247">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G247,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -33316,7 +33340,7 @@
       <c r="D248" s="4"/>
       <c r="E248" s="2">
         <f>SUM($D$2:$D248)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G248" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33328,7 +33352,7 @@
       </c>
       <c r="I248" s="2" cm="1">
         <f t="array" ref="I248">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G248,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
@@ -33347,7 +33371,7 @@
       <c r="D249" s="5"/>
       <c r="E249" s="2">
         <f>SUM($D$2:$D249)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G249" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33359,7 +33383,7 @@
       </c>
       <c r="I249" s="2" cm="1">
         <f t="array" ref="I249">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G249,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
@@ -33378,7 +33402,7 @@
       <c r="D250" s="4"/>
       <c r="E250" s="2">
         <f>SUM($D$2:$D250)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G250" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33390,7 +33414,7 @@
       </c>
       <c r="I250" s="2" cm="1">
         <f t="array" ref="I250">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G250,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
@@ -33409,7 +33433,7 @@
       <c r="D251" s="5"/>
       <c r="E251" s="2">
         <f>SUM($D$2:$D251)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G251" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33421,7 +33445,7 @@
       </c>
       <c r="I251" s="2" cm="1">
         <f t="array" ref="I251">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G251,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
@@ -33440,7 +33464,7 @@
       <c r="D252" s="4"/>
       <c r="E252" s="2">
         <f>SUM($D$2:$D252)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G252" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33452,7 +33476,7 @@
       </c>
       <c r="I252" s="2" cm="1">
         <f t="array" ref="I252">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G252,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
@@ -33471,7 +33495,7 @@
       <c r="D253" s="5"/>
       <c r="E253" s="2">
         <f>SUM($D$2:$D253)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G253" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33483,7 +33507,7 @@
       </c>
       <c r="I253" s="2" cm="1">
         <f t="array" ref="I253">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G253,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
@@ -33502,7 +33526,7 @@
       <c r="D254" s="4"/>
       <c r="E254" s="2">
         <f>SUM($D$2:$D254)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G254" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33514,7 +33538,7 @@
       </c>
       <c r="I254" s="2" cm="1">
         <f t="array" ref="I254">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G254,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
@@ -33533,7 +33557,7 @@
       <c r="D255" s="5"/>
       <c r="E255" s="2">
         <f>SUM($D$2:$D255)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G255" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33545,7 +33569,7 @@
       </c>
       <c r="I255" s="2" cm="1">
         <f t="array" ref="I255">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G255,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
@@ -33564,7 +33588,7 @@
       <c r="D256" s="4"/>
       <c r="E256" s="2">
         <f>SUM($D$2:$D256)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G256" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33576,7 +33600,7 @@
       </c>
       <c r="I256" s="2" cm="1">
         <f t="array" ref="I256">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G256,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
@@ -33595,7 +33619,7 @@
       <c r="D257" s="5"/>
       <c r="E257" s="2">
         <f>SUM($D$2:$D257)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G257" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33607,7 +33631,7 @@
       </c>
       <c r="I257" s="2" cm="1">
         <f t="array" ref="I257">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G257,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
@@ -33626,7 +33650,7 @@
       <c r="D258" s="4"/>
       <c r="E258" s="2">
         <f>SUM($D$2:$D258)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G258" s="1" t="str">
         <f t="shared" si="10"/>
@@ -33638,7 +33662,7 @@
       </c>
       <c r="I258" s="2" cm="1">
         <f t="array" ref="I258">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G258,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -33657,7 +33681,7 @@
       <c r="D259" s="5"/>
       <c r="E259" s="2">
         <f>SUM($D$2:$D259)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G259" s="1" t="str">
         <f t="shared" ref="G259:G322" si="13">B259</f>
@@ -33669,7 +33693,7 @@
       </c>
       <c r="I259" s="2" cm="1">
         <f t="array" ref="I259">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G259,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="260" spans="1:9" x14ac:dyDescent="0.25">
@@ -33688,7 +33712,7 @@
       <c r="D260" s="4"/>
       <c r="E260" s="2">
         <f>SUM($D$2:$D260)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G260" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33700,7 +33724,7 @@
       </c>
       <c r="I260" s="2" cm="1">
         <f t="array" ref="I260">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G260,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="261" spans="1:9" x14ac:dyDescent="0.25">
@@ -33719,7 +33743,7 @@
       <c r="D261" s="5"/>
       <c r="E261" s="2">
         <f>SUM($D$2:$D261)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G261" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33731,7 +33755,7 @@
       </c>
       <c r="I261" s="2" cm="1">
         <f t="array" ref="I261">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G261,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="262" spans="1:9" x14ac:dyDescent="0.25">
@@ -33750,7 +33774,7 @@
       <c r="D262" s="4"/>
       <c r="E262" s="2">
         <f>SUM($D$2:$D262)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G262" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33762,7 +33786,7 @@
       </c>
       <c r="I262" s="2" cm="1">
         <f t="array" ref="I262">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G262,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="263" spans="1:9" x14ac:dyDescent="0.25">
@@ -33781,7 +33805,7 @@
       <c r="D263" s="5"/>
       <c r="E263" s="2">
         <f>SUM($D$2:$D263)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G263" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33793,7 +33817,7 @@
       </c>
       <c r="I263" s="2" cm="1">
         <f t="array" ref="I263">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G263,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="264" spans="1:9" x14ac:dyDescent="0.25">
@@ -33812,7 +33836,7 @@
       <c r="D264" s="4"/>
       <c r="E264" s="2">
         <f>SUM($D$2:$D264)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G264" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33824,7 +33848,7 @@
       </c>
       <c r="I264" s="2" cm="1">
         <f t="array" ref="I264">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G264,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
@@ -33843,7 +33867,7 @@
       <c r="D265" s="5"/>
       <c r="E265" s="2">
         <f>SUM($D$2:$D265)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G265" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33855,7 +33879,7 @@
       </c>
       <c r="I265" s="2" cm="1">
         <f t="array" ref="I265">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G265,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
@@ -33874,7 +33898,7 @@
       <c r="D266" s="4"/>
       <c r="E266" s="2">
         <f>SUM($D$2:$D266)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G266" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33886,7 +33910,7 @@
       </c>
       <c r="I266" s="2" cm="1">
         <f t="array" ref="I266">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G266,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -33905,7 +33929,7 @@
       <c r="D267" s="5"/>
       <c r="E267" s="2">
         <f>SUM($D$2:$D267)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G267" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33917,7 +33941,7 @@
       </c>
       <c r="I267" s="2" cm="1">
         <f t="array" ref="I267">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G267,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="268" spans="1:9" x14ac:dyDescent="0.25">
@@ -33936,7 +33960,7 @@
       <c r="D268" s="4"/>
       <c r="E268" s="2">
         <f>SUM($D$2:$D268)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G268" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33948,7 +33972,7 @@
       </c>
       <c r="I268" s="2" cm="1">
         <f t="array" ref="I268">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G268,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="269" spans="1:9" x14ac:dyDescent="0.25">
@@ -33967,7 +33991,7 @@
       <c r="D269" s="5"/>
       <c r="E269" s="2">
         <f>SUM($D$2:$D269)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G269" s="1" t="str">
         <f t="shared" si="13"/>
@@ -33979,7 +34003,7 @@
       </c>
       <c r="I269" s="2" cm="1">
         <f t="array" ref="I269">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G269,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="270" spans="1:9" x14ac:dyDescent="0.25">
@@ -33998,7 +34022,7 @@
       <c r="D270" s="4"/>
       <c r="E270" s="2">
         <f>SUM($D$2:$D270)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G270" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34010,7 +34034,7 @@
       </c>
       <c r="I270" s="2" cm="1">
         <f t="array" ref="I270">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G270,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="271" spans="1:9" x14ac:dyDescent="0.25">
@@ -34029,7 +34053,7 @@
       <c r="D271" s="5"/>
       <c r="E271" s="2">
         <f>SUM($D$2:$D271)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G271" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34041,7 +34065,7 @@
       </c>
       <c r="I271" s="2" cm="1">
         <f t="array" ref="I271">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G271,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="272" spans="1:9" x14ac:dyDescent="0.25">
@@ -34060,7 +34084,7 @@
       <c r="D272" s="4"/>
       <c r="E272" s="2">
         <f>SUM($D$2:$D272)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G272" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34072,7 +34096,7 @@
       </c>
       <c r="I272" s="2" cm="1">
         <f t="array" ref="I272">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G272,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="273" spans="1:9" x14ac:dyDescent="0.25">
@@ -34091,7 +34115,7 @@
       <c r="D273" s="5"/>
       <c r="E273" s="2">
         <f>SUM($D$2:$D273)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G273" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34103,7 +34127,7 @@
       </c>
       <c r="I273" s="2" cm="1">
         <f t="array" ref="I273">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G273,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="274" spans="1:9" x14ac:dyDescent="0.25">
@@ -34122,7 +34146,7 @@
       <c r="D274" s="4"/>
       <c r="E274" s="2">
         <f>SUM($D$2:$D274)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G274" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34134,7 +34158,7 @@
       </c>
       <c r="I274" s="2" cm="1">
         <f t="array" ref="I274">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G274,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="275" spans="1:9" x14ac:dyDescent="0.25">
@@ -34153,7 +34177,7 @@
       <c r="D275" s="5"/>
       <c r="E275" s="2">
         <f>SUM($D$2:$D275)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G275" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34165,7 +34189,7 @@
       </c>
       <c r="I275" s="2" cm="1">
         <f t="array" ref="I275">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G275,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="276" spans="1:9" x14ac:dyDescent="0.25">
@@ -34184,7 +34208,7 @@
       <c r="D276" s="4"/>
       <c r="E276" s="2">
         <f>SUM($D$2:$D276)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G276" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34196,7 +34220,7 @@
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G276,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -34215,7 +34239,7 @@
       <c r="D277" s="5"/>
       <c r="E277" s="2">
         <f>SUM($D$2:$D277)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G277" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34227,7 +34251,7 @@
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G277,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -34246,7 +34270,7 @@
       <c r="D278" s="4"/>
       <c r="E278" s="2">
         <f>SUM($D$2:$D278)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G278" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34258,7 +34282,7 @@
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G278,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -34277,7 +34301,7 @@
       <c r="D279" s="5"/>
       <c r="E279" s="2">
         <f>SUM($D$2:$D279)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G279" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34289,7 +34313,7 @@
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G279,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -34308,7 +34332,7 @@
       <c r="D280" s="4"/>
       <c r="E280" s="2">
         <f>SUM($D$2:$D280)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G280" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34320,7 +34344,7 @@
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G280,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -34339,7 +34363,7 @@
       <c r="D281" s="5"/>
       <c r="E281" s="2">
         <f>SUM($D$2:$D281)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G281" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34351,7 +34375,7 @@
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G281,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -34370,7 +34394,7 @@
       <c r="D282" s="4"/>
       <c r="E282" s="2">
         <f>SUM($D$2:$D282)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G282" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34382,7 +34406,7 @@
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G282,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -34401,7 +34425,7 @@
       <c r="D283" s="5"/>
       <c r="E283" s="2">
         <f>SUM($D$2:$D283)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G283" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34413,7 +34437,7 @@
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G283,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -34432,7 +34456,7 @@
       <c r="D284" s="4"/>
       <c r="E284" s="2">
         <f>SUM($D$2:$D284)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G284" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34444,7 +34468,7 @@
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G284,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -34463,7 +34487,7 @@
       <c r="D285" s="5"/>
       <c r="E285" s="2">
         <f>SUM($D$2:$D285)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G285" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34475,7 +34499,7 @@
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G285,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -34494,7 +34518,7 @@
       <c r="D286" s="4"/>
       <c r="E286" s="2">
         <f>SUM($D$2:$D286)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G286" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34506,7 +34530,7 @@
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G286,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -34525,7 +34549,7 @@
       <c r="D287" s="5"/>
       <c r="E287" s="2">
         <f>SUM($D$2:$D287)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G287" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34537,7 +34561,7 @@
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G287,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -34556,7 +34580,7 @@
       <c r="D288" s="4"/>
       <c r="E288" s="2">
         <f>SUM($D$2:$D288)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G288" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34568,7 +34592,7 @@
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G288,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -34587,7 +34611,7 @@
       <c r="D289" s="5"/>
       <c r="E289" s="2">
         <f>SUM($D$2:$D289)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G289" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34599,7 +34623,7 @@
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G289,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -34618,7 +34642,7 @@
       <c r="D290" s="4"/>
       <c r="E290" s="2">
         <f>SUM($D$2:$D290)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G290" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34630,7 +34654,7 @@
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G290,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -34649,7 +34673,7 @@
       <c r="D291" s="5"/>
       <c r="E291" s="2">
         <f>SUM($D$2:$D291)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G291" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34661,7 +34685,7 @@
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G291,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -34680,7 +34704,7 @@
       <c r="D292" s="4"/>
       <c r="E292" s="2">
         <f>SUM($D$2:$D292)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G292" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34692,7 +34716,7 @@
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G292,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -34711,7 +34735,7 @@
       <c r="D293" s="5"/>
       <c r="E293" s="2">
         <f>SUM($D$2:$D293)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G293" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34723,7 +34747,7 @@
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G293,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -34742,7 +34766,7 @@
       <c r="D294" s="4"/>
       <c r="E294" s="2">
         <f>SUM($D$2:$D294)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G294" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34754,7 +34778,7 @@
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G294,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -34773,7 +34797,7 @@
       <c r="D295" s="5"/>
       <c r="E295" s="2">
         <f>SUM($D$2:$D295)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G295" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34785,7 +34809,7 @@
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G295,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -34804,7 +34828,7 @@
       <c r="D296" s="4"/>
       <c r="E296" s="2">
         <f>SUM($D$2:$D296)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G296" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34816,7 +34840,7 @@
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G296,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -34835,7 +34859,7 @@
       <c r="D297" s="5"/>
       <c r="E297" s="2">
         <f>SUM($D$2:$D297)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G297" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34847,7 +34871,7 @@
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G297,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -34866,7 +34890,7 @@
       <c r="D298" s="4"/>
       <c r="E298" s="2">
         <f>SUM($D$2:$D298)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G298" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34878,7 +34902,7 @@
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G298,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -34897,7 +34921,7 @@
       <c r="D299" s="5"/>
       <c r="E299" s="2">
         <f>SUM($D$2:$D299)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G299" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34909,7 +34933,7 @@
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G299,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -34928,7 +34952,7 @@
       <c r="D300" s="4"/>
       <c r="E300" s="2">
         <f>SUM($D$2:$D300)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G300" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34940,7 +34964,7 @@
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G300,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -34959,7 +34983,7 @@
       <c r="D301" s="5"/>
       <c r="E301" s="2">
         <f>SUM($D$2:$D301)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G301" s="1" t="str">
         <f t="shared" si="13"/>
@@ -34971,7 +34995,7 @@
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G301,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -34990,7 +35014,7 @@
       <c r="D302" s="4"/>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35002,7 +35026,7 @@
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G302,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -35021,7 +35045,7 @@
       <c r="D303" s="5"/>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35033,7 +35057,7 @@
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G303,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -35052,7 +35076,7 @@
       <c r="D304" s="4"/>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35064,7 +35088,7 @@
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G304,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -35083,7 +35107,7 @@
       <c r="D305" s="5"/>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35095,7 +35119,7 @@
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G305,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -35114,7 +35138,7 @@
       <c r="D306" s="4"/>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35126,7 +35150,7 @@
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G306,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -35145,7 +35169,7 @@
       <c r="D307" s="5"/>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35157,7 +35181,7 @@
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G307,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -35176,7 +35200,7 @@
       <c r="D308" s="4"/>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35188,7 +35212,7 @@
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G308,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -35207,7 +35231,7 @@
       <c r="D309" s="5"/>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35219,7 +35243,7 @@
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G309,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -35238,7 +35262,7 @@
       <c r="D310" s="4"/>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35250,7 +35274,7 @@
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G310,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -35269,7 +35293,7 @@
       <c r="D311" s="5"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35281,7 +35305,7 @@
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G311,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -35300,7 +35324,7 @@
       <c r="D312" s="4"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35312,7 +35336,7 @@
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G312,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -35331,7 +35355,7 @@
       <c r="D313" s="5"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35343,7 +35367,7 @@
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G313,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -35362,7 +35386,7 @@
       <c r="D314" s="4"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35374,7 +35398,7 @@
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G314,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -35393,7 +35417,7 @@
       <c r="D315" s="5"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35405,7 +35429,7 @@
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G315,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -35424,7 +35448,7 @@
       <c r="D316" s="4"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35436,7 +35460,7 @@
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G316,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -35455,7 +35479,7 @@
       <c r="D317" s="5"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35467,7 +35491,7 @@
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G317,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -35486,7 +35510,7 @@
       <c r="D318" s="4"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35498,7 +35522,7 @@
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G318,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -35517,7 +35541,7 @@
       <c r="D319" s="5"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35529,7 +35553,7 @@
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G319,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -35548,7 +35572,7 @@
       <c r="D320" s="4"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35560,7 +35584,7 @@
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G320,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -35579,7 +35603,7 @@
       <c r="D321" s="5"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35591,7 +35615,7 @@
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G321,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -35610,7 +35634,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -35622,7 +35646,7 @@
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G322,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -35641,7 +35665,7 @@
       <c r="D323" s="5"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="16">B323</f>
@@ -35653,7 +35677,7 @@
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G323,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -35672,7 +35696,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35684,7 +35708,7 @@
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G324,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -35703,7 +35727,7 @@
       <c r="D325" s="5"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35715,7 +35739,7 @@
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G325,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -35734,7 +35758,7 @@
       <c r="D326" s="4"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35746,7 +35770,7 @@
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G326,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -35765,7 +35789,7 @@
       <c r="D327" s="5"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35777,7 +35801,7 @@
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G327,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -35796,7 +35820,7 @@
       <c r="D328" s="4"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35808,7 +35832,7 @@
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G328,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -35827,7 +35851,7 @@
       <c r="D329" s="5"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35839,7 +35863,7 @@
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G329,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -35858,7 +35882,7 @@
       <c r="D330" s="4"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35870,7 +35894,7 @@
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G330,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -35889,7 +35913,7 @@
       <c r="D331" s="5"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35901,7 +35925,7 @@
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G331,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -35920,7 +35944,7 @@
       <c r="D332" s="4"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35932,7 +35956,7 @@
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G332,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -35951,7 +35975,7 @@
       <c r="D333" s="5"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35963,7 +35987,7 @@
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G333,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -35982,7 +36006,7 @@
       <c r="D334" s="4"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -35994,7 +36018,7 @@
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G334,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -36013,7 +36037,7 @@
       <c r="D335" s="5"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36025,7 +36049,7 @@
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G335,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -36044,7 +36068,7 @@
       <c r="D336" s="4"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36056,7 +36080,7 @@
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G336,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -36075,7 +36099,7 @@
       <c r="D337" s="5"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36087,7 +36111,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G337,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -36106,7 +36130,7 @@
       <c r="D338" s="4"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36118,7 +36142,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G338,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -36137,7 +36161,7 @@
       <c r="D339" s="5"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36149,7 +36173,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G339,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -36168,7 +36192,7 @@
       <c r="D340" s="4"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36180,7 +36204,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G340,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -36199,7 +36223,7 @@
       <c r="D341" s="5"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36211,7 +36235,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G341,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -36230,7 +36254,7 @@
       <c r="D342" s="4"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36242,7 +36266,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G342,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -36261,7 +36285,7 @@
       <c r="D343" s="5"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36273,7 +36297,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G343,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -36292,7 +36316,7 @@
       <c r="D344" s="4"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36304,7 +36328,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G344,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -36323,7 +36347,7 @@
       <c r="D345" s="5"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36335,7 +36359,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G345,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -36354,7 +36378,7 @@
       <c r="D346" s="4"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36366,7 +36390,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G346,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -36385,7 +36409,7 @@
       <c r="D347" s="5"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36397,7 +36421,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G347,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -36416,7 +36440,7 @@
       <c r="D348" s="4"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36428,7 +36452,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G348,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -36447,7 +36471,7 @@
       <c r="D349" s="5"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36459,7 +36483,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G349,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -36478,7 +36502,7 @@
       <c r="D350" s="4"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36490,7 +36514,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G350,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -36509,7 +36533,7 @@
       <c r="D351" s="5"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36521,7 +36545,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G351,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -36540,7 +36564,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36552,7 +36576,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G352,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -36571,7 +36595,7 @@
       <c r="D353" s="5"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36583,7 +36607,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G353,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -36602,7 +36626,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36614,7 +36638,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G354,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -36633,7 +36657,7 @@
       <c r="D355" s="5"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36645,7 +36669,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G355,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -36664,7 +36688,7 @@
       <c r="D356" s="4"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36676,7 +36700,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G356,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -36695,7 +36719,7 @@
       <c r="D357" s="5"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36707,7 +36731,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G357,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -36726,7 +36750,7 @@
       <c r="D358" s="4"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36738,7 +36762,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G358,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -36757,7 +36781,7 @@
       <c r="D359" s="5"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36769,7 +36793,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G359,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -36788,7 +36812,7 @@
       <c r="D360" s="4"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36800,7 +36824,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G360,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -36819,7 +36843,7 @@
       <c r="D361" s="5"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36831,7 +36855,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G361,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -36850,7 +36874,7 @@
       <c r="D362" s="4"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36862,7 +36886,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G362,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -36881,7 +36905,7 @@
       <c r="D363" s="5"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36893,7 +36917,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G363,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -36912,7 +36936,7 @@
       <c r="D364" s="4"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36924,7 +36948,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G364,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -36943,7 +36967,7 @@
       <c r="D365" s="5"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36955,7 +36979,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G365,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -36974,7 +36998,7 @@
       <c r="D366" s="4"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -36986,7 +37010,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G366,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -37005,7 +37029,7 @@
       <c r="D367" s="5"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -37017,7 +37041,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G367,Transferan[TOTAL],,,-1)</f>
-        <v>418152000</v>
+        <v>423354000</v>
       </c>
     </row>
   </sheetData>

--- a/HARIAN/2024.xlsx
+++ b/HARIAN/2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/277ffa1efc2bfcc1/Apartment Bintaro/Data Harian/BINTARO-APG/HARIAN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="14_{F7233F15-B989-4462-BF2D-978465561192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427B970B-1302-4F0F-A97A-6892199AD368}"/>
+  <xr:revisionPtr revIDLastSave="40" documentId="14_{F7233F15-B989-4462-BF2D-978465561192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{28E36984-9B72-41E2-B6EE-4574856707D1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SETUP" sheetId="2" r:id="rId1"/>
@@ -941,11 +941,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ACCD3D5-ABBC-4800-97A3-8932BD05F189}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D285" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D297" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D302" sqref="D302"/>
+      <selection pane="bottomRight" activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10015,11 +10015,11 @@
       </c>
       <c r="H276" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G276)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G276,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -10048,11 +10048,11 @@
       </c>
       <c r="H277" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G277)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G277,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -10081,11 +10081,11 @@
       </c>
       <c r="H278" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G278)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G278,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -10114,11 +10114,11 @@
       </c>
       <c r="H279" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G279)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G279,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -10147,11 +10147,11 @@
       </c>
       <c r="H280" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G280)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G280,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -10180,11 +10180,11 @@
       </c>
       <c r="H281" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G281)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G281,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -10213,11 +10213,11 @@
       </c>
       <c r="H282" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G282)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G282,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -10246,11 +10246,11 @@
       </c>
       <c r="H283" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G283)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G283,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -10279,11 +10279,11 @@
       </c>
       <c r="H284" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G284)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G284,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -10312,11 +10312,11 @@
       </c>
       <c r="H285" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G285)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G285,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -10345,11 +10345,11 @@
       </c>
       <c r="H286" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G286)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G286,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -10378,11 +10378,11 @@
       </c>
       <c r="H287" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G287)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G287,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -10411,11 +10411,11 @@
       </c>
       <c r="H288" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G288)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G288,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -10444,11 +10444,11 @@
       </c>
       <c r="H289" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G289)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G289,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -10477,11 +10477,11 @@
       </c>
       <c r="H290" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G290)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G290,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -10510,11 +10510,11 @@
       </c>
       <c r="H291" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G291)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G291,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -10543,11 +10543,11 @@
       </c>
       <c r="H292" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G292)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G292,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -10576,11 +10576,11 @@
       </c>
       <c r="H293" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G293)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G293,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -10609,11 +10609,11 @@
       </c>
       <c r="H294" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G294)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G294,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -10642,11 +10642,11 @@
       </c>
       <c r="H295" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G295)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G295,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -10675,11 +10675,11 @@
       </c>
       <c r="H296" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G296)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G296,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -10708,11 +10708,11 @@
       </c>
       <c r="H297" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G297)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G297,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -10741,11 +10741,11 @@
       </c>
       <c r="H298" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G298)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G298,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -10774,11 +10774,11 @@
       </c>
       <c r="H299" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G299)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G299,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -10807,11 +10807,11 @@
       </c>
       <c r="H300" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G300)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G300,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -10840,11 +10840,11 @@
       </c>
       <c r="H301" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G301)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G301,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -10860,10 +10860,12 @@
         <f t="shared" si="16"/>
         <v>27</v>
       </c>
-      <c r="D302" s="2"/>
+      <c r="D302" s="2">
+        <v>241000</v>
+      </c>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>93366000</v>
+        <v>93607000</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10871,11 +10873,11 @@
       </c>
       <c r="H302" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G302)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G302,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -10891,10 +10893,12 @@
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="D303" s="2"/>
+      <c r="D303" s="2">
+        <v>305000</v>
+      </c>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>93366000</v>
+        <v>93912000</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10902,11 +10906,11 @@
       </c>
       <c r="H303" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G303)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G303,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -10922,10 +10926,12 @@
         <f t="shared" si="16"/>
         <v>29</v>
       </c>
-      <c r="D304" s="2"/>
+      <c r="D304" s="2">
+        <v>560000</v>
+      </c>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>93366000</v>
+        <v>94472000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10933,11 +10939,11 @@
       </c>
       <c r="H304" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G304)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G304,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -10953,10 +10959,12 @@
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="D305" s="2"/>
+      <c r="D305" s="2">
+        <v>207000</v>
+      </c>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>93366000</v>
+        <v>94679000</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10964,11 +10972,11 @@
       </c>
       <c r="H305" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G305)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G305,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -10984,10 +10992,12 @@
         <f t="shared" si="16"/>
         <v>31</v>
       </c>
-      <c r="D306" s="2"/>
+      <c r="D306" s="2">
+        <v>206000</v>
+      </c>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="14"/>
@@ -10995,11 +11005,11 @@
       </c>
       <c r="H306" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G306)</f>
-        <v>6722000</v>
+        <v>8241000</v>
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G306,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>94885000</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -11015,10 +11025,12 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="D307" s="2"/>
+      <c r="D307" s="2">
+        <v>263000</v>
+      </c>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>93366000</v>
+        <v>95148000</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11026,11 +11038,11 @@
       </c>
       <c r="H307" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G307)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G307,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -11046,10 +11058,12 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="D308" s="2"/>
+      <c r="D308" s="2">
+        <v>291000</v>
+      </c>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>93366000</v>
+        <v>95439000</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11057,11 +11071,11 @@
       </c>
       <c r="H308" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G308)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G308,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -11077,10 +11091,12 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="D309" s="2"/>
+      <c r="D309" s="2">
+        <v>245000</v>
+      </c>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>93366000</v>
+        <v>95684000</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11088,11 +11104,11 @@
       </c>
       <c r="H309" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G309)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G309,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -11108,10 +11124,12 @@
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="D310" s="2"/>
+      <c r="D310" s="2">
+        <v>279000</v>
+      </c>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11119,11 +11137,11 @@
       </c>
       <c r="H310" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G310)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G310,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -11142,7 +11160,7 @@
       <c r="D311" s="2"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11150,11 +11168,11 @@
       </c>
       <c r="H311" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G311)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G311,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -11173,7 +11191,7 @@
       <c r="D312" s="2"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11181,11 +11199,11 @@
       </c>
       <c r="H312" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G312)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G312,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -11204,7 +11222,7 @@
       <c r="D313" s="2"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11212,11 +11230,11 @@
       </c>
       <c r="H313" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G313)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G313,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -11235,7 +11253,7 @@
       <c r="D314" s="2"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11243,11 +11261,11 @@
       </c>
       <c r="H314" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G314)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G314,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -11266,7 +11284,7 @@
       <c r="D315" s="2"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11274,11 +11292,11 @@
       </c>
       <c r="H315" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G315)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G315,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -11297,7 +11315,7 @@
       <c r="D316" s="2"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11305,11 +11323,11 @@
       </c>
       <c r="H316" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G316)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G316,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -11328,7 +11346,7 @@
       <c r="D317" s="2"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11336,11 +11354,11 @@
       </c>
       <c r="H317" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G317)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G317,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -11359,7 +11377,7 @@
       <c r="D318" s="2"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11367,11 +11385,11 @@
       </c>
       <c r="H318" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G318)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G318,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -11390,7 +11408,7 @@
       <c r="D319" s="2"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11398,11 +11416,11 @@
       </c>
       <c r="H319" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G319)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G319,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -11421,7 +11439,7 @@
       <c r="D320" s="2"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11429,11 +11447,11 @@
       </c>
       <c r="H320" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G320)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G320,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -11452,7 +11470,7 @@
       <c r="D321" s="2"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11460,11 +11478,11 @@
       </c>
       <c r="H321" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G321)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G321,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -11483,7 +11501,7 @@
       <c r="D322" s="2"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="14"/>
@@ -11491,11 +11509,11 @@
       </c>
       <c r="H322" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G322)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G322,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -11514,7 +11532,7 @@
       <c r="D323" s="2"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="17">B323</f>
@@ -11522,11 +11540,11 @@
       </c>
       <c r="H323" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G323)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G323,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -11545,7 +11563,7 @@
       <c r="D324" s="2"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11553,11 +11571,11 @@
       </c>
       <c r="H324" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G324)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G324,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -11576,7 +11594,7 @@
       <c r="D325" s="2"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11584,11 +11602,11 @@
       </c>
       <c r="H325" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G325)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G325,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -11607,7 +11625,7 @@
       <c r="D326" s="2"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11615,11 +11633,11 @@
       </c>
       <c r="H326" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G326)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G326,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -11638,7 +11656,7 @@
       <c r="D327" s="2"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11646,11 +11664,11 @@
       </c>
       <c r="H327" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G327)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G327,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -11669,7 +11687,7 @@
       <c r="D328" s="2"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11677,11 +11695,11 @@
       </c>
       <c r="H328" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G328)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G328,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -11700,7 +11718,7 @@
       <c r="D329" s="2"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11708,11 +11726,11 @@
       </c>
       <c r="H329" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G329)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G329,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -11731,7 +11749,7 @@
       <c r="D330" s="2"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11739,11 +11757,11 @@
       </c>
       <c r="H330" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G330)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G330,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -11762,7 +11780,7 @@
       <c r="D331" s="2"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11770,11 +11788,11 @@
       </c>
       <c r="H331" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G331)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G331,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -11793,7 +11811,7 @@
       <c r="D332" s="2"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11801,11 +11819,11 @@
       </c>
       <c r="H332" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G332)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G332,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -11824,7 +11842,7 @@
       <c r="D333" s="2"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11832,11 +11850,11 @@
       </c>
       <c r="H333" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G333)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G333,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -11855,7 +11873,7 @@
       <c r="D334" s="2"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11863,11 +11881,11 @@
       </c>
       <c r="H334" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G334)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G334,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -11886,7 +11904,7 @@
       <c r="D335" s="2"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11894,11 +11912,11 @@
       </c>
       <c r="H335" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G335)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G335,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -11917,7 +11935,7 @@
       <c r="D336" s="2"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11925,11 +11943,11 @@
       </c>
       <c r="H336" s="2">
         <f>SUMIFS(Tunai[TUNAI],Tunai[BULAN],G336)</f>
-        <v>0</v>
+        <v>1078000</v>
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G336,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -11948,7 +11966,7 @@
       <c r="D337" s="2"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11960,7 +11978,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G337,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -11979,7 +11997,7 @@
       <c r="D338" s="2"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="17"/>
@@ -11991,7 +12009,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G338,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -12010,7 +12028,7 @@
       <c r="D339" s="2"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12022,7 +12040,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G339,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -12041,7 +12059,7 @@
       <c r="D340" s="2"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12053,7 +12071,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G340,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -12072,7 +12090,7 @@
       <c r="D341" s="2"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12084,7 +12102,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G341,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -12103,7 +12121,7 @@
       <c r="D342" s="2"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12115,7 +12133,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G342,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -12134,7 +12152,7 @@
       <c r="D343" s="2"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12146,7 +12164,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G343,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -12165,7 +12183,7 @@
       <c r="D344" s="2"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12177,7 +12195,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G344,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -12196,7 +12214,7 @@
       <c r="D345" s="2"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12208,7 +12226,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G345,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -12227,7 +12245,7 @@
       <c r="D346" s="2"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12239,7 +12257,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G346,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -12258,7 +12276,7 @@
       <c r="D347" s="2"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12270,7 +12288,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G347,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -12289,7 +12307,7 @@
       <c r="D348" s="2"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12301,7 +12319,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G348,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -12320,7 +12338,7 @@
       <c r="D349" s="2"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12332,7 +12350,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G349,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -12351,7 +12369,7 @@
       <c r="D350" s="2"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12363,7 +12381,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G350,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -12382,7 +12400,7 @@
       <c r="D351" s="2"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12394,7 +12412,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G351,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -12413,7 +12431,7 @@
       <c r="D352" s="2"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12425,7 +12443,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G352,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -12444,7 +12462,7 @@
       <c r="D353" s="2"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12456,7 +12474,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G353,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -12475,7 +12493,7 @@
       <c r="D354" s="2"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12487,7 +12505,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G354,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -12506,7 +12524,7 @@
       <c r="D355" s="2"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12518,7 +12536,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G355,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -12537,7 +12555,7 @@
       <c r="D356" s="2"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12549,7 +12567,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G356,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -12568,7 +12586,7 @@
       <c r="D357" s="2"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12580,7 +12598,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G357,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -12599,7 +12617,7 @@
       <c r="D358" s="2"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12611,7 +12629,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G358,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -12630,7 +12648,7 @@
       <c r="D359" s="2"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12642,7 +12660,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G359,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -12661,7 +12679,7 @@
       <c r="D360" s="2"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12673,7 +12691,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G360,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -12692,7 +12710,7 @@
       <c r="D361" s="2"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12704,7 +12722,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G361,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -12723,7 +12741,7 @@
       <c r="D362" s="2"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12735,7 +12753,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G362,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -12754,7 +12772,7 @@
       <c r="D363" s="2"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12766,7 +12784,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G363,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -12785,7 +12803,7 @@
       <c r="D364" s="2"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12797,7 +12815,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G364,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -12816,7 +12834,7 @@
       <c r="D365" s="2"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12828,7 +12846,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G365,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -12847,7 +12865,7 @@
       <c r="D366" s="2"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12859,7 +12877,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G366,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -12878,7 +12896,7 @@
       <c r="D367" s="2"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="17"/>
@@ -12890,7 +12908,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Tunai[BULAN]=G367,Tunai[TOTAL],,,-1)</f>
-        <v>93366000</v>
+        <v>95963000</v>
       </c>
     </row>
   </sheetData>
@@ -12925,10 +12943,10 @@
   <dimension ref="A1:N367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D286" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D295" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E302" sqref="E302"/>
+      <selection pane="bottomRight" activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25831,11 +25849,11 @@
       </c>
       <c r="I276" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H276)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J276" s="2" cm="1">
         <f t="array" ref="J276">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H276,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L276" s="1" t="str">
         <f t="shared" si="17"/>
@@ -25843,11 +25861,11 @@
       </c>
       <c r="M276" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L276)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N276" s="2" cm="1">
         <f t="array" ref="N276">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L276,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="277" spans="1:14" x14ac:dyDescent="0.25">
@@ -25879,11 +25897,11 @@
       </c>
       <c r="I277" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H277)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J277" s="2" cm="1">
         <f t="array" ref="J277">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H277,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L277" s="1" t="str">
         <f t="shared" si="17"/>
@@ -25891,11 +25909,11 @@
       </c>
       <c r="M277" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L277)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N277" s="2" cm="1">
         <f t="array" ref="N277">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L277,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="278" spans="1:14" x14ac:dyDescent="0.25">
@@ -25927,11 +25945,11 @@
       </c>
       <c r="I278" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H278)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J278" s="2" cm="1">
         <f t="array" ref="J278">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H278,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L278" s="1" t="str">
         <f t="shared" si="17"/>
@@ -25939,11 +25957,11 @@
       </c>
       <c r="M278" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L278)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N278" s="2" cm="1">
         <f t="array" ref="N278">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L278,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="279" spans="1:14" x14ac:dyDescent="0.25">
@@ -25975,11 +25993,11 @@
       </c>
       <c r="I279" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H279)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J279" s="2" cm="1">
         <f t="array" ref="J279">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H279,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L279" s="1" t="str">
         <f t="shared" si="17"/>
@@ -25987,11 +26005,11 @@
       </c>
       <c r="M279" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L279)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N279" s="2" cm="1">
         <f t="array" ref="N279">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L279,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="280" spans="1:14" x14ac:dyDescent="0.25">
@@ -26023,11 +26041,11 @@
       </c>
       <c r="I280" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H280)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J280" s="2" cm="1">
         <f t="array" ref="J280">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H280,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L280" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26035,11 +26053,11 @@
       </c>
       <c r="M280" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L280)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N280" s="2" cm="1">
         <f t="array" ref="N280">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L280,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="281" spans="1:14" x14ac:dyDescent="0.25">
@@ -26071,11 +26089,11 @@
       </c>
       <c r="I281" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H281)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J281" s="2" cm="1">
         <f t="array" ref="J281">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H281,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L281" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26083,11 +26101,11 @@
       </c>
       <c r="M281" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L281)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N281" s="2" cm="1">
         <f t="array" ref="N281">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L281,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="282" spans="1:14" x14ac:dyDescent="0.25">
@@ -26119,11 +26137,11 @@
       </c>
       <c r="I282" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H282)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J282" s="2" cm="1">
         <f t="array" ref="J282">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H282,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L282" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26131,11 +26149,11 @@
       </c>
       <c r="M282" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L282)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N282" s="2" cm="1">
         <f t="array" ref="N282">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L282,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="283" spans="1:14" x14ac:dyDescent="0.25">
@@ -26167,11 +26185,11 @@
       </c>
       <c r="I283" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H283)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J283" s="2" cm="1">
         <f t="array" ref="J283">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H283,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L283" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26179,11 +26197,11 @@
       </c>
       <c r="M283" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L283)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N283" s="2" cm="1">
         <f t="array" ref="N283">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L283,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="284" spans="1:14" x14ac:dyDescent="0.25">
@@ -26215,11 +26233,11 @@
       </c>
       <c r="I284" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H284)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J284" s="2" cm="1">
         <f t="array" ref="J284">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H284,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L284" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26227,11 +26245,11 @@
       </c>
       <c r="M284" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L284)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N284" s="2" cm="1">
         <f t="array" ref="N284">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L284,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="285" spans="1:14" x14ac:dyDescent="0.25">
@@ -26263,11 +26281,11 @@
       </c>
       <c r="I285" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H285)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J285" s="2" cm="1">
         <f t="array" ref="J285">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H285,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L285" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26275,11 +26293,11 @@
       </c>
       <c r="M285" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L285)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N285" s="2" cm="1">
         <f t="array" ref="N285">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L285,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="286" spans="1:14" x14ac:dyDescent="0.25">
@@ -26311,11 +26329,11 @@
       </c>
       <c r="I286" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H286)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J286" s="2" cm="1">
         <f t="array" ref="J286">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H286,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L286" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26323,11 +26341,11 @@
       </c>
       <c r="M286" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L286)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N286" s="2" cm="1">
         <f t="array" ref="N286">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L286,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="287" spans="1:14" x14ac:dyDescent="0.25">
@@ -26359,11 +26377,11 @@
       </c>
       <c r="I287" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H287)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J287" s="2" cm="1">
         <f t="array" ref="J287">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H287,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L287" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26371,11 +26389,11 @@
       </c>
       <c r="M287" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L287)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N287" s="2" cm="1">
         <f t="array" ref="N287">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L287,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="288" spans="1:14" x14ac:dyDescent="0.25">
@@ -26407,11 +26425,11 @@
       </c>
       <c r="I288" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H288)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J288" s="2" cm="1">
         <f t="array" ref="J288">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H288,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L288" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26419,11 +26437,11 @@
       </c>
       <c r="M288" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L288)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N288" s="2" cm="1">
         <f t="array" ref="N288">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L288,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="289" spans="1:14" x14ac:dyDescent="0.25">
@@ -26455,11 +26473,11 @@
       </c>
       <c r="I289" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H289)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J289" s="2" cm="1">
         <f t="array" ref="J289">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H289,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L289" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26467,11 +26485,11 @@
       </c>
       <c r="M289" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L289)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N289" s="2" cm="1">
         <f t="array" ref="N289">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L289,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="290" spans="1:14" x14ac:dyDescent="0.25">
@@ -26503,11 +26521,11 @@
       </c>
       <c r="I290" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H290)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J290" s="2" cm="1">
         <f t="array" ref="J290">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H290,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L290" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26515,11 +26533,11 @@
       </c>
       <c r="M290" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L290)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N290" s="2" cm="1">
         <f t="array" ref="N290">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L290,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="291" spans="1:14" x14ac:dyDescent="0.25">
@@ -26551,11 +26569,11 @@
       </c>
       <c r="I291" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H291)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J291" s="2" cm="1">
         <f t="array" ref="J291">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H291,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L291" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26563,11 +26581,11 @@
       </c>
       <c r="M291" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L291)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N291" s="2" cm="1">
         <f t="array" ref="N291">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L291,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="292" spans="1:14" x14ac:dyDescent="0.25">
@@ -26599,11 +26617,11 @@
       </c>
       <c r="I292" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H292)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J292" s="2" cm="1">
         <f t="array" ref="J292">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H292,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L292" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26611,11 +26629,11 @@
       </c>
       <c r="M292" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L292)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N292" s="2" cm="1">
         <f t="array" ref="N292">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L292,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="293" spans="1:14" x14ac:dyDescent="0.25">
@@ -26647,11 +26665,11 @@
       </c>
       <c r="I293" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H293)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J293" s="2" cm="1">
         <f t="array" ref="J293">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H293,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L293" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26659,11 +26677,11 @@
       </c>
       <c r="M293" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L293)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N293" s="2" cm="1">
         <f t="array" ref="N293">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L293,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="294" spans="1:14" x14ac:dyDescent="0.25">
@@ -26695,11 +26713,11 @@
       </c>
       <c r="I294" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H294)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J294" s="2" cm="1">
         <f t="array" ref="J294">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H294,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L294" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26707,11 +26725,11 @@
       </c>
       <c r="M294" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L294)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N294" s="2" cm="1">
         <f t="array" ref="N294">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L294,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="295" spans="1:14" x14ac:dyDescent="0.25">
@@ -26743,11 +26761,11 @@
       </c>
       <c r="I295" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H295)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J295" s="2" cm="1">
         <f t="array" ref="J295">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H295,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L295" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26755,11 +26773,11 @@
       </c>
       <c r="M295" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L295)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N295" s="2" cm="1">
         <f t="array" ref="N295">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L295,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="296" spans="1:14" x14ac:dyDescent="0.25">
@@ -26791,11 +26809,11 @@
       </c>
       <c r="I296" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H296)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J296" s="2" cm="1">
         <f t="array" ref="J296">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H296,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L296" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26803,11 +26821,11 @@
       </c>
       <c r="M296" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L296)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N296" s="2" cm="1">
         <f t="array" ref="N296">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L296,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="297" spans="1:14" x14ac:dyDescent="0.25">
@@ -26839,11 +26857,11 @@
       </c>
       <c r="I297" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H297)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J297" s="2" cm="1">
         <f t="array" ref="J297">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H297,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L297" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26851,11 +26869,11 @@
       </c>
       <c r="M297" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L297)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N297" s="2" cm="1">
         <f t="array" ref="N297">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L297,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="298" spans="1:14" x14ac:dyDescent="0.25">
@@ -26887,11 +26905,11 @@
       </c>
       <c r="I298" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H298)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J298" s="2" cm="1">
         <f t="array" ref="J298">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H298,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L298" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26899,11 +26917,11 @@
       </c>
       <c r="M298" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L298)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N298" s="2" cm="1">
         <f t="array" ref="N298">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L298,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="299" spans="1:14" x14ac:dyDescent="0.25">
@@ -26935,11 +26953,11 @@
       </c>
       <c r="I299" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H299)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J299" s="2" cm="1">
         <f t="array" ref="J299">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H299,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L299" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26947,11 +26965,11 @@
       </c>
       <c r="M299" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L299)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N299" s="2" cm="1">
         <f t="array" ref="N299">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L299,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="300" spans="1:14" x14ac:dyDescent="0.25">
@@ -26983,11 +27001,11 @@
       </c>
       <c r="I300" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H300)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J300" s="2" cm="1">
         <f t="array" ref="J300">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H300,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L300" s="1" t="str">
         <f t="shared" si="17"/>
@@ -26995,11 +27013,11 @@
       </c>
       <c r="M300" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L300)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N300" s="2" cm="1">
         <f t="array" ref="N300">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L300,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="301" spans="1:14" x14ac:dyDescent="0.25">
@@ -27031,11 +27049,11 @@
       </c>
       <c r="I301" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H301)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J301" s="2" cm="1">
         <f t="array" ref="J301">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H301,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L301" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27043,11 +27061,11 @@
       </c>
       <c r="M301" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L301)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N301" s="2" cm="1">
         <f t="array" ref="N301">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L301,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="302" spans="1:14" x14ac:dyDescent="0.25">
@@ -27063,11 +27081,15 @@
         <f t="shared" si="16"/>
         <v>27</v>
       </c>
-      <c r="D302" s="4"/>
-      <c r="E302" s="6"/>
+      <c r="D302" s="4">
+        <v>1655500</v>
+      </c>
+      <c r="E302" s="6">
+        <v>1018000</v>
+      </c>
       <c r="F302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>660975000</v>
+        <v>662630500</v>
       </c>
       <c r="H302" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27075,11 +27097,11 @@
       </c>
       <c r="I302" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H302)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J302" s="2" cm="1">
         <f t="array" ref="J302">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H302,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L302" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27087,11 +27109,11 @@
       </c>
       <c r="M302" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L302)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N302" s="2" cm="1">
         <f t="array" ref="N302">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L302,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="303" spans="1:14" x14ac:dyDescent="0.25">
@@ -27107,11 +27129,15 @@
         <f t="shared" si="16"/>
         <v>28</v>
       </c>
-      <c r="D303" s="5"/>
-      <c r="E303" s="2"/>
+      <c r="D303" s="5">
+        <v>1513000</v>
+      </c>
+      <c r="E303" s="2">
+        <v>1088000</v>
+      </c>
       <c r="F303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>660975000</v>
+        <v>664143500</v>
       </c>
       <c r="H303" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27119,11 +27145,11 @@
       </c>
       <c r="I303" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H303)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J303" s="2" cm="1">
         <f t="array" ref="J303">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H303,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L303" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27131,11 +27157,11 @@
       </c>
       <c r="M303" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L303)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N303" s="2" cm="1">
         <f t="array" ref="N303">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L303,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="304" spans="1:14" x14ac:dyDescent="0.25">
@@ -27151,11 +27177,15 @@
         <f t="shared" si="16"/>
         <v>29</v>
       </c>
-      <c r="D304" s="4"/>
-      <c r="E304" s="6"/>
+      <c r="D304" s="4">
+        <v>1893500</v>
+      </c>
+      <c r="E304" s="6">
+        <v>1032000</v>
+      </c>
       <c r="F304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>660975000</v>
+        <v>666037000</v>
       </c>
       <c r="H304" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27163,11 +27193,11 @@
       </c>
       <c r="I304" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H304)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J304" s="2" cm="1">
         <f t="array" ref="J304">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H304,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L304" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27175,11 +27205,11 @@
       </c>
       <c r="M304" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L304)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N304" s="2" cm="1">
         <f t="array" ref="N304">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L304,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="305" spans="1:14" x14ac:dyDescent="0.25">
@@ -27195,11 +27225,15 @@
         <f t="shared" si="16"/>
         <v>30</v>
       </c>
-      <c r="D305" s="5"/>
-      <c r="E305" s="2"/>
+      <c r="D305" s="5">
+        <v>1613500</v>
+      </c>
+      <c r="E305" s="2">
+        <v>891500</v>
+      </c>
       <c r="F305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>660975000</v>
+        <v>667650500</v>
       </c>
       <c r="H305" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27207,11 +27241,11 @@
       </c>
       <c r="I305" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H305)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J305" s="2" cm="1">
         <f t="array" ref="J305">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H305,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L305" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27219,11 +27253,11 @@
       </c>
       <c r="M305" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L305)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N305" s="2" cm="1">
         <f t="array" ref="N305">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L305,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="306" spans="1:14" x14ac:dyDescent="0.25">
@@ -27239,11 +27273,15 @@
         <f t="shared" si="16"/>
         <v>31</v>
       </c>
-      <c r="D306" s="4"/>
-      <c r="E306" s="6"/>
+      <c r="D306" s="4">
+        <v>1503000</v>
+      </c>
+      <c r="E306" s="6">
+        <v>888000</v>
+      </c>
       <c r="F306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="H306" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27251,11 +27289,11 @@
       </c>
       <c r="I306" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H306)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="J306" s="2" cm="1">
         <f t="array" ref="J306">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H306,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
       <c r="L306" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27263,11 +27301,11 @@
       </c>
       <c r="M306" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L306)</f>
-        <v>34608000</v>
+        <v>39525500</v>
       </c>
       <c r="N306" s="2" cm="1">
         <f t="array" ref="N306">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L306,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>669153500</v>
       </c>
     </row>
     <row r="307" spans="1:14" x14ac:dyDescent="0.25">
@@ -27283,11 +27321,15 @@
         <f t="shared" si="16"/>
         <v>1</v>
       </c>
-      <c r="D307" s="5"/>
-      <c r="E307" s="2"/>
+      <c r="D307" s="5">
+        <v>1331000</v>
+      </c>
+      <c r="E307" s="2">
+        <v>841000</v>
+      </c>
       <c r="F307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>660975000</v>
+        <v>670484500</v>
       </c>
       <c r="H307" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27295,11 +27337,11 @@
       </c>
       <c r="I307" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H307)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J307" s="2" cm="1">
         <f t="array" ref="J307">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H307,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L307" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27307,11 +27349,11 @@
       </c>
       <c r="M307" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L307)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N307" s="2" cm="1">
         <f t="array" ref="N307">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L307,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="308" spans="1:14" x14ac:dyDescent="0.25">
@@ -27327,11 +27369,15 @@
         <f t="shared" si="16"/>
         <v>2</v>
       </c>
-      <c r="D308" s="4"/>
-      <c r="E308" s="6"/>
+      <c r="D308" s="4">
+        <v>1775000</v>
+      </c>
+      <c r="E308" s="6">
+        <v>516000</v>
+      </c>
       <c r="F308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>660975000</v>
+        <v>672259500</v>
       </c>
       <c r="H308" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27339,11 +27385,11 @@
       </c>
       <c r="I308" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H308)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J308" s="2" cm="1">
         <f t="array" ref="J308">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H308,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L308" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27351,11 +27397,11 @@
       </c>
       <c r="M308" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L308)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N308" s="2" cm="1">
         <f t="array" ref="N308">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L308,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="309" spans="1:14" x14ac:dyDescent="0.25">
@@ -27371,11 +27417,15 @@
         <f t="shared" si="16"/>
         <v>3</v>
       </c>
-      <c r="D309" s="5"/>
-      <c r="E309" s="2"/>
+      <c r="D309" s="5">
+        <v>1786000</v>
+      </c>
+      <c r="E309" s="2">
+        <v>150000</v>
+      </c>
       <c r="F309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>660975000</v>
+        <v>674045500</v>
       </c>
       <c r="H309" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27383,11 +27433,11 @@
       </c>
       <c r="I309" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H309)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J309" s="2" cm="1">
         <f t="array" ref="J309">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H309,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L309" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27395,11 +27445,11 @@
       </c>
       <c r="M309" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L309)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N309" s="2" cm="1">
         <f t="array" ref="N309">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L309,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="310" spans="1:14" x14ac:dyDescent="0.25">
@@ -27415,11 +27465,15 @@
         <f t="shared" si="16"/>
         <v>4</v>
       </c>
-      <c r="D310" s="4"/>
-      <c r="E310" s="6"/>
+      <c r="D310" s="4">
+        <v>1521000</v>
+      </c>
+      <c r="E310" s="6">
+        <v>520500</v>
+      </c>
       <c r="F310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H310" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27427,11 +27481,11 @@
       </c>
       <c r="I310" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H310)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J310" s="2" cm="1">
         <f t="array" ref="J310">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H310,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L310" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27439,11 +27493,11 @@
       </c>
       <c r="M310" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L310)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N310" s="2" cm="1">
         <f t="array" ref="N310">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L310,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="311" spans="1:14" x14ac:dyDescent="0.25">
@@ -27463,7 +27517,7 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H311" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27471,11 +27525,11 @@
       </c>
       <c r="I311" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H311)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J311" s="2" cm="1">
         <f t="array" ref="J311">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H311,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L311" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27483,11 +27537,11 @@
       </c>
       <c r="M311" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L311)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N311" s="2" cm="1">
         <f t="array" ref="N311">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L311,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="312" spans="1:14" x14ac:dyDescent="0.25">
@@ -27507,7 +27561,7 @@
       <c r="E312" s="6"/>
       <c r="F312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H312" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27515,11 +27569,11 @@
       </c>
       <c r="I312" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H312)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J312" s="2" cm="1">
         <f t="array" ref="J312">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H312,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L312" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27527,11 +27581,11 @@
       </c>
       <c r="M312" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L312)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N312" s="2" cm="1">
         <f t="array" ref="N312">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L312,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="313" spans="1:14" x14ac:dyDescent="0.25">
@@ -27551,7 +27605,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H313" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27559,11 +27613,11 @@
       </c>
       <c r="I313" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H313)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J313" s="2" cm="1">
         <f t="array" ref="J313">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H313,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L313" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27571,11 +27625,11 @@
       </c>
       <c r="M313" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L313)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N313" s="2" cm="1">
         <f t="array" ref="N313">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L313,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="314" spans="1:14" x14ac:dyDescent="0.25">
@@ -27595,7 +27649,7 @@
       <c r="E314" s="6"/>
       <c r="F314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H314" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27603,11 +27657,11 @@
       </c>
       <c r="I314" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H314)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J314" s="2" cm="1">
         <f t="array" ref="J314">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H314,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L314" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27615,11 +27669,11 @@
       </c>
       <c r="M314" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L314)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N314" s="2" cm="1">
         <f t="array" ref="N314">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L314,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="315" spans="1:14" x14ac:dyDescent="0.25">
@@ -27639,7 +27693,7 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H315" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27647,11 +27701,11 @@
       </c>
       <c r="I315" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H315)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J315" s="2" cm="1">
         <f t="array" ref="J315">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H315,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L315" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27659,11 +27713,11 @@
       </c>
       <c r="M315" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L315)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N315" s="2" cm="1">
         <f t="array" ref="N315">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L315,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="316" spans="1:14" x14ac:dyDescent="0.25">
@@ -27683,7 +27737,7 @@
       <c r="E316" s="6"/>
       <c r="F316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H316" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27691,11 +27745,11 @@
       </c>
       <c r="I316" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H316)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J316" s="2" cm="1">
         <f t="array" ref="J316">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H316,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L316" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27703,11 +27757,11 @@
       </c>
       <c r="M316" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L316)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N316" s="2" cm="1">
         <f t="array" ref="N316">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L316,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="317" spans="1:14" x14ac:dyDescent="0.25">
@@ -27727,7 +27781,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H317" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27735,11 +27789,11 @@
       </c>
       <c r="I317" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H317)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J317" s="2" cm="1">
         <f t="array" ref="J317">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H317,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L317" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27747,11 +27801,11 @@
       </c>
       <c r="M317" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L317)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N317" s="2" cm="1">
         <f t="array" ref="N317">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L317,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="318" spans="1:14" x14ac:dyDescent="0.25">
@@ -27771,7 +27825,7 @@
       <c r="E318" s="6"/>
       <c r="F318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H318" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27779,11 +27833,11 @@
       </c>
       <c r="I318" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H318)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J318" s="2" cm="1">
         <f t="array" ref="J318">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H318,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L318" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27791,11 +27845,11 @@
       </c>
       <c r="M318" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L318)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N318" s="2" cm="1">
         <f t="array" ref="N318">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L318,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="319" spans="1:14" x14ac:dyDescent="0.25">
@@ -27815,7 +27869,7 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H319" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27823,11 +27877,11 @@
       </c>
       <c r="I319" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H319)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J319" s="2" cm="1">
         <f t="array" ref="J319">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H319,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L319" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27835,11 +27889,11 @@
       </c>
       <c r="M319" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L319)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N319" s="2" cm="1">
         <f t="array" ref="N319">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L319,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="320" spans="1:14" x14ac:dyDescent="0.25">
@@ -27859,7 +27913,7 @@
       <c r="E320" s="6"/>
       <c r="F320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H320" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27867,11 +27921,11 @@
       </c>
       <c r="I320" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H320)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J320" s="2" cm="1">
         <f t="array" ref="J320">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H320,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L320" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27879,11 +27933,11 @@
       </c>
       <c r="M320" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L320)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N320" s="2" cm="1">
         <f t="array" ref="N320">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L320,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="321" spans="1:14" x14ac:dyDescent="0.25">
@@ -27903,7 +27957,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H321" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27911,11 +27965,11 @@
       </c>
       <c r="I321" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H321)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J321" s="2" cm="1">
         <f t="array" ref="J321">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H321,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L321" s="1" t="str">
         <f t="shared" si="17"/>
@@ -27923,11 +27977,11 @@
       </c>
       <c r="M321" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L321)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N321" s="2" cm="1">
         <f t="array" ref="N321">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L321,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="322" spans="1:14" x14ac:dyDescent="0.25">
@@ -27947,7 +28001,7 @@
       <c r="E322" s="6"/>
       <c r="F322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H322" s="1" t="str">
         <f t="shared" si="18"/>
@@ -27955,11 +28009,11 @@
       </c>
       <c r="I322" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H322)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J322" s="2" cm="1">
         <f t="array" ref="J322">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H322,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L322" s="1" t="str">
         <f t="shared" ref="L322:L367" si="21">B322</f>
@@ -27967,11 +28021,11 @@
       </c>
       <c r="M322" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L322)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N322" s="2" cm="1">
         <f t="array" ref="N322">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L322,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="323" spans="1:14" x14ac:dyDescent="0.25">
@@ -27991,7 +28045,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H323" s="1" t="str">
         <f t="shared" ref="H323:H367" si="22">B323</f>
@@ -27999,11 +28053,11 @@
       </c>
       <c r="I323" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H323)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J323" s="2" cm="1">
         <f t="array" ref="J323">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H323,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L323" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28011,11 +28065,11 @@
       </c>
       <c r="M323" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L323)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N323" s="2" cm="1">
         <f t="array" ref="N323">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L323,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="324" spans="1:14" x14ac:dyDescent="0.25">
@@ -28035,7 +28089,7 @@
       <c r="E324" s="6"/>
       <c r="F324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H324" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28043,11 +28097,11 @@
       </c>
       <c r="I324" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H324)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J324" s="2" cm="1">
         <f t="array" ref="J324">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H324,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L324" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28055,11 +28109,11 @@
       </c>
       <c r="M324" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L324)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N324" s="2" cm="1">
         <f t="array" ref="N324">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L324,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="325" spans="1:14" x14ac:dyDescent="0.25">
@@ -28079,7 +28133,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H325" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28087,11 +28141,11 @@
       </c>
       <c r="I325" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H325)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J325" s="2" cm="1">
         <f t="array" ref="J325">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H325,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L325" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28099,11 +28153,11 @@
       </c>
       <c r="M325" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L325)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N325" s="2" cm="1">
         <f t="array" ref="N325">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L325,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="326" spans="1:14" x14ac:dyDescent="0.25">
@@ -28123,7 +28177,7 @@
       <c r="E326" s="6"/>
       <c r="F326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H326" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28131,11 +28185,11 @@
       </c>
       <c r="I326" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H326)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J326" s="2" cm="1">
         <f t="array" ref="J326">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H326,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L326" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28143,11 +28197,11 @@
       </c>
       <c r="M326" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L326)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N326" s="2" cm="1">
         <f t="array" ref="N326">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L326,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="327" spans="1:14" x14ac:dyDescent="0.25">
@@ -28167,7 +28221,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H327" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28175,11 +28229,11 @@
       </c>
       <c r="I327" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H327)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J327" s="2" cm="1">
         <f t="array" ref="J327">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H327,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L327" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28187,11 +28241,11 @@
       </c>
       <c r="M327" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L327)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N327" s="2" cm="1">
         <f t="array" ref="N327">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L327,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="328" spans="1:14" x14ac:dyDescent="0.25">
@@ -28211,7 +28265,7 @@
       <c r="E328" s="6"/>
       <c r="F328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H328" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28219,11 +28273,11 @@
       </c>
       <c r="I328" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H328)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J328" s="2" cm="1">
         <f t="array" ref="J328">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H328,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L328" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28231,11 +28285,11 @@
       </c>
       <c r="M328" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L328)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N328" s="2" cm="1">
         <f t="array" ref="N328">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L328,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="329" spans="1:14" x14ac:dyDescent="0.25">
@@ -28255,7 +28309,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H329" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28263,11 +28317,11 @@
       </c>
       <c r="I329" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H329)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J329" s="2" cm="1">
         <f t="array" ref="J329">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H329,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L329" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28275,11 +28329,11 @@
       </c>
       <c r="M329" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L329)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N329" s="2" cm="1">
         <f t="array" ref="N329">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L329,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="330" spans="1:14" x14ac:dyDescent="0.25">
@@ -28299,7 +28353,7 @@
       <c r="E330" s="6"/>
       <c r="F330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H330" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28307,11 +28361,11 @@
       </c>
       <c r="I330" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H330)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J330" s="2" cm="1">
         <f t="array" ref="J330">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H330,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L330" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28319,11 +28373,11 @@
       </c>
       <c r="M330" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L330)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N330" s="2" cm="1">
         <f t="array" ref="N330">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L330,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="331" spans="1:14" x14ac:dyDescent="0.25">
@@ -28343,7 +28397,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H331" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28351,11 +28405,11 @@
       </c>
       <c r="I331" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H331)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J331" s="2" cm="1">
         <f t="array" ref="J331">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H331,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L331" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28363,11 +28417,11 @@
       </c>
       <c r="M331" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L331)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N331" s="2" cm="1">
         <f t="array" ref="N331">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L331,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="332" spans="1:14" x14ac:dyDescent="0.25">
@@ -28387,7 +28441,7 @@
       <c r="E332" s="6"/>
       <c r="F332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H332" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28395,11 +28449,11 @@
       </c>
       <c r="I332" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H332)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J332" s="2" cm="1">
         <f t="array" ref="J332">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H332,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L332" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28407,11 +28461,11 @@
       </c>
       <c r="M332" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L332)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N332" s="2" cm="1">
         <f t="array" ref="N332">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L332,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="333" spans="1:14" x14ac:dyDescent="0.25">
@@ -28431,7 +28485,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H333" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28439,11 +28493,11 @@
       </c>
       <c r="I333" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H333)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J333" s="2" cm="1">
         <f t="array" ref="J333">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H333,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L333" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28451,11 +28505,11 @@
       </c>
       <c r="M333" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L333)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N333" s="2" cm="1">
         <f t="array" ref="N333">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L333,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="334" spans="1:14" x14ac:dyDescent="0.25">
@@ -28475,7 +28529,7 @@
       <c r="E334" s="6"/>
       <c r="F334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H334" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28483,11 +28537,11 @@
       </c>
       <c r="I334" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H334)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J334" s="2" cm="1">
         <f t="array" ref="J334">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H334,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L334" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28495,11 +28549,11 @@
       </c>
       <c r="M334" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L334)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N334" s="2" cm="1">
         <f t="array" ref="N334">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L334,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="335" spans="1:14" x14ac:dyDescent="0.25">
@@ -28519,7 +28573,7 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H335" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28527,11 +28581,11 @@
       </c>
       <c r="I335" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H335)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J335" s="2" cm="1">
         <f t="array" ref="J335">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H335,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L335" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28539,11 +28593,11 @@
       </c>
       <c r="M335" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L335)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N335" s="2" cm="1">
         <f t="array" ref="N335">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L335,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="336" spans="1:14" x14ac:dyDescent="0.25">
@@ -28563,7 +28617,7 @@
       <c r="E336" s="6"/>
       <c r="F336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H336" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28571,11 +28625,11 @@
       </c>
       <c r="I336" s="2">
         <f>SUMIFS(Belanja[Pasar],Belanja[BULAN],H336)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="J336" s="2" cm="1">
         <f t="array" ref="J336">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H336,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L336" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28583,11 +28637,11 @@
       </c>
       <c r="M336" s="2">
         <f>SUMIFS(Belanja[Indogrosir],Belanja[BULAN],L336)</f>
-        <v>0</v>
+        <v>2027500</v>
       </c>
       <c r="N336" s="2" cm="1">
         <f t="array" ref="N336">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L336,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="337" spans="1:14" x14ac:dyDescent="0.25">
@@ -28607,7 +28661,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H337" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28619,7 +28673,7 @@
       </c>
       <c r="J337" s="2" cm="1">
         <f t="array" ref="J337">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H337,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L337" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28631,7 +28685,7 @@
       </c>
       <c r="N337" s="2" cm="1">
         <f t="array" ref="N337">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L337,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="338" spans="1:14" x14ac:dyDescent="0.25">
@@ -28651,7 +28705,7 @@
       <c r="E338" s="6"/>
       <c r="F338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H338" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28663,7 +28717,7 @@
       </c>
       <c r="J338" s="2" cm="1">
         <f t="array" ref="J338">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H338,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L338" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28675,7 +28729,7 @@
       </c>
       <c r="N338" s="2" cm="1">
         <f t="array" ref="N338">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L338,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="339" spans="1:14" x14ac:dyDescent="0.25">
@@ -28695,7 +28749,7 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H339" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28707,7 +28761,7 @@
       </c>
       <c r="J339" s="2" cm="1">
         <f t="array" ref="J339">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H339,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L339" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28719,7 +28773,7 @@
       </c>
       <c r="N339" s="2" cm="1">
         <f t="array" ref="N339">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L339,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="340" spans="1:14" x14ac:dyDescent="0.25">
@@ -28739,7 +28793,7 @@
       <c r="E340" s="6"/>
       <c r="F340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H340" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28751,7 +28805,7 @@
       </c>
       <c r="J340" s="2" cm="1">
         <f t="array" ref="J340">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H340,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L340" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28763,7 +28817,7 @@
       </c>
       <c r="N340" s="2" cm="1">
         <f t="array" ref="N340">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L340,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="341" spans="1:14" x14ac:dyDescent="0.25">
@@ -28783,7 +28837,7 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H341" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28795,7 +28849,7 @@
       </c>
       <c r="J341" s="2" cm="1">
         <f t="array" ref="J341">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H341,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L341" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28807,7 +28861,7 @@
       </c>
       <c r="N341" s="2" cm="1">
         <f t="array" ref="N341">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L341,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="342" spans="1:14" x14ac:dyDescent="0.25">
@@ -28827,7 +28881,7 @@
       <c r="E342" s="6"/>
       <c r="F342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H342" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28839,7 +28893,7 @@
       </c>
       <c r="J342" s="2" cm="1">
         <f t="array" ref="J342">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H342,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L342" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28851,7 +28905,7 @@
       </c>
       <c r="N342" s="2" cm="1">
         <f t="array" ref="N342">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L342,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="343" spans="1:14" x14ac:dyDescent="0.25">
@@ -28871,7 +28925,7 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H343" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28883,7 +28937,7 @@
       </c>
       <c r="J343" s="2" cm="1">
         <f t="array" ref="J343">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H343,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L343" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28895,7 +28949,7 @@
       </c>
       <c r="N343" s="2" cm="1">
         <f t="array" ref="N343">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L343,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="344" spans="1:14" x14ac:dyDescent="0.25">
@@ -28915,7 +28969,7 @@
       <c r="E344" s="6"/>
       <c r="F344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H344" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28927,7 +28981,7 @@
       </c>
       <c r="J344" s="2" cm="1">
         <f t="array" ref="J344">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H344,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L344" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28939,7 +28993,7 @@
       </c>
       <c r="N344" s="2" cm="1">
         <f t="array" ref="N344">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L344,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="345" spans="1:14" x14ac:dyDescent="0.25">
@@ -28959,7 +29013,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H345" s="1" t="str">
         <f t="shared" si="22"/>
@@ -28971,7 +29025,7 @@
       </c>
       <c r="J345" s="2" cm="1">
         <f t="array" ref="J345">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H345,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L345" s="1" t="str">
         <f t="shared" si="21"/>
@@ -28983,7 +29037,7 @@
       </c>
       <c r="N345" s="2" cm="1">
         <f t="array" ref="N345">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L345,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="346" spans="1:14" x14ac:dyDescent="0.25">
@@ -29003,7 +29057,7 @@
       <c r="E346" s="6"/>
       <c r="F346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H346" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29015,7 +29069,7 @@
       </c>
       <c r="J346" s="2" cm="1">
         <f t="array" ref="J346">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H346,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L346" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29027,7 +29081,7 @@
       </c>
       <c r="N346" s="2" cm="1">
         <f t="array" ref="N346">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L346,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="347" spans="1:14" x14ac:dyDescent="0.25">
@@ -29047,7 +29101,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H347" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29059,7 +29113,7 @@
       </c>
       <c r="J347" s="2" cm="1">
         <f t="array" ref="J347">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H347,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L347" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29071,7 +29125,7 @@
       </c>
       <c r="N347" s="2" cm="1">
         <f t="array" ref="N347">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L347,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="348" spans="1:14" x14ac:dyDescent="0.25">
@@ -29091,7 +29145,7 @@
       <c r="E348" s="6"/>
       <c r="F348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H348" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29103,7 +29157,7 @@
       </c>
       <c r="J348" s="2" cm="1">
         <f t="array" ref="J348">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H348,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L348" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29115,7 +29169,7 @@
       </c>
       <c r="N348" s="2" cm="1">
         <f t="array" ref="N348">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L348,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="349" spans="1:14" x14ac:dyDescent="0.25">
@@ -29135,7 +29189,7 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H349" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29147,7 +29201,7 @@
       </c>
       <c r="J349" s="2" cm="1">
         <f t="array" ref="J349">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H349,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L349" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29159,7 +29213,7 @@
       </c>
       <c r="N349" s="2" cm="1">
         <f t="array" ref="N349">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L349,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="350" spans="1:14" x14ac:dyDescent="0.25">
@@ -29179,7 +29233,7 @@
       <c r="E350" s="6"/>
       <c r="F350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H350" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29191,7 +29245,7 @@
       </c>
       <c r="J350" s="2" cm="1">
         <f t="array" ref="J350">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H350,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L350" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29203,7 +29257,7 @@
       </c>
       <c r="N350" s="2" cm="1">
         <f t="array" ref="N350">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L350,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="351" spans="1:14" x14ac:dyDescent="0.25">
@@ -29223,7 +29277,7 @@
       <c r="E351" s="2"/>
       <c r="F351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H351" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29235,7 +29289,7 @@
       </c>
       <c r="J351" s="2" cm="1">
         <f t="array" ref="J351">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H351,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L351" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29247,7 +29301,7 @@
       </c>
       <c r="N351" s="2" cm="1">
         <f t="array" ref="N351">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L351,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="352" spans="1:14" x14ac:dyDescent="0.25">
@@ -29267,7 +29321,7 @@
       <c r="E352" s="6"/>
       <c r="F352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H352" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29279,7 +29333,7 @@
       </c>
       <c r="J352" s="2" cm="1">
         <f t="array" ref="J352">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H352,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L352" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29291,7 +29345,7 @@
       </c>
       <c r="N352" s="2" cm="1">
         <f t="array" ref="N352">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L352,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="353" spans="1:14" x14ac:dyDescent="0.25">
@@ -29311,7 +29365,7 @@
       <c r="E353" s="2"/>
       <c r="F353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H353" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29323,7 +29377,7 @@
       </c>
       <c r="J353" s="2" cm="1">
         <f t="array" ref="J353">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H353,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L353" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29335,7 +29389,7 @@
       </c>
       <c r="N353" s="2" cm="1">
         <f t="array" ref="N353">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L353,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="354" spans="1:14" x14ac:dyDescent="0.25">
@@ -29355,7 +29409,7 @@
       <c r="E354" s="6"/>
       <c r="F354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H354" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29367,7 +29421,7 @@
       </c>
       <c r="J354" s="2" cm="1">
         <f t="array" ref="J354">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H354,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L354" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29379,7 +29433,7 @@
       </c>
       <c r="N354" s="2" cm="1">
         <f t="array" ref="N354">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L354,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="355" spans="1:14" x14ac:dyDescent="0.25">
@@ -29399,7 +29453,7 @@
       <c r="E355" s="2"/>
       <c r="F355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H355" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29411,7 +29465,7 @@
       </c>
       <c r="J355" s="2" cm="1">
         <f t="array" ref="J355">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H355,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L355" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29423,7 +29477,7 @@
       </c>
       <c r="N355" s="2" cm="1">
         <f t="array" ref="N355">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L355,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="356" spans="1:14" x14ac:dyDescent="0.25">
@@ -29443,7 +29497,7 @@
       <c r="E356" s="6"/>
       <c r="F356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H356" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29455,7 +29509,7 @@
       </c>
       <c r="J356" s="2" cm="1">
         <f t="array" ref="J356">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H356,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L356" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29467,7 +29521,7 @@
       </c>
       <c r="N356" s="2" cm="1">
         <f t="array" ref="N356">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L356,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="357" spans="1:14" x14ac:dyDescent="0.25">
@@ -29487,7 +29541,7 @@
       <c r="E357" s="2"/>
       <c r="F357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H357" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29499,7 +29553,7 @@
       </c>
       <c r="J357" s="2" cm="1">
         <f t="array" ref="J357">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H357,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L357" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29511,7 +29565,7 @@
       </c>
       <c r="N357" s="2" cm="1">
         <f t="array" ref="N357">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L357,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="358" spans="1:14" x14ac:dyDescent="0.25">
@@ -29531,7 +29585,7 @@
       <c r="E358" s="6"/>
       <c r="F358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H358" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29543,7 +29597,7 @@
       </c>
       <c r="J358" s="2" cm="1">
         <f t="array" ref="J358">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H358,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L358" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29555,7 +29609,7 @@
       </c>
       <c r="N358" s="2" cm="1">
         <f t="array" ref="N358">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L358,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="359" spans="1:14" x14ac:dyDescent="0.25">
@@ -29575,7 +29629,7 @@
       <c r="E359" s="2"/>
       <c r="F359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H359" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29587,7 +29641,7 @@
       </c>
       <c r="J359" s="2" cm="1">
         <f t="array" ref="J359">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H359,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L359" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29599,7 +29653,7 @@
       </c>
       <c r="N359" s="2" cm="1">
         <f t="array" ref="N359">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L359,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="360" spans="1:14" x14ac:dyDescent="0.25">
@@ -29619,7 +29673,7 @@
       <c r="E360" s="6"/>
       <c r="F360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H360" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29631,7 +29685,7 @@
       </c>
       <c r="J360" s="2" cm="1">
         <f t="array" ref="J360">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H360,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L360" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29643,7 +29697,7 @@
       </c>
       <c r="N360" s="2" cm="1">
         <f t="array" ref="N360">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L360,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="361" spans="1:14" x14ac:dyDescent="0.25">
@@ -29663,7 +29717,7 @@
       <c r="E361" s="2"/>
       <c r="F361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H361" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29675,7 +29729,7 @@
       </c>
       <c r="J361" s="2" cm="1">
         <f t="array" ref="J361">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H361,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L361" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29687,7 +29741,7 @@
       </c>
       <c r="N361" s="2" cm="1">
         <f t="array" ref="N361">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L361,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="362" spans="1:14" x14ac:dyDescent="0.25">
@@ -29707,7 +29761,7 @@
       <c r="E362" s="6"/>
       <c r="F362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H362" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29719,7 +29773,7 @@
       </c>
       <c r="J362" s="2" cm="1">
         <f t="array" ref="J362">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H362,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L362" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29731,7 +29785,7 @@
       </c>
       <c r="N362" s="2" cm="1">
         <f t="array" ref="N362">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L362,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="363" spans="1:14" x14ac:dyDescent="0.25">
@@ -29751,7 +29805,7 @@
       <c r="E363" s="2"/>
       <c r="F363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H363" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29763,7 +29817,7 @@
       </c>
       <c r="J363" s="2" cm="1">
         <f t="array" ref="J363">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H363,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L363" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29775,7 +29829,7 @@
       </c>
       <c r="N363" s="2" cm="1">
         <f t="array" ref="N363">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L363,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="364" spans="1:14" x14ac:dyDescent="0.25">
@@ -29795,7 +29849,7 @@
       <c r="E364" s="6"/>
       <c r="F364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H364" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29807,7 +29861,7 @@
       </c>
       <c r="J364" s="2" cm="1">
         <f t="array" ref="J364">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H364,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L364" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29819,7 +29873,7 @@
       </c>
       <c r="N364" s="2" cm="1">
         <f t="array" ref="N364">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L364,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="365" spans="1:14" x14ac:dyDescent="0.25">
@@ -29839,7 +29893,7 @@
       <c r="E365" s="2"/>
       <c r="F365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H365" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29851,7 +29905,7 @@
       </c>
       <c r="J365" s="2" cm="1">
         <f t="array" ref="J365">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H365,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L365" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29863,7 +29917,7 @@
       </c>
       <c r="N365" s="2" cm="1">
         <f t="array" ref="N365">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L365,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="366" spans="1:14" x14ac:dyDescent="0.25">
@@ -29883,7 +29937,7 @@
       <c r="E366" s="6"/>
       <c r="F366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H366" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29895,7 +29949,7 @@
       </c>
       <c r="J366" s="2" cm="1">
         <f t="array" ref="J366">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H366,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L366" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29907,7 +29961,7 @@
       </c>
       <c r="N366" s="2" cm="1">
         <f t="array" ref="N366">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L366,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
     <row r="367" spans="1:14" x14ac:dyDescent="0.25">
@@ -29927,7 +29981,7 @@
       <c r="E367" s="2"/>
       <c r="F367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="H367" s="1" t="str">
         <f t="shared" si="22"/>
@@ -29939,7 +29993,7 @@
       </c>
       <c r="J367" s="2" cm="1">
         <f t="array" ref="J367">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=H367,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
       <c r="L367" s="1" t="str">
         <f t="shared" si="21"/>
@@ -29951,7 +30005,7 @@
       </c>
       <c r="N367" s="2" cm="1">
         <f t="array" ref="N367">_xlfn.XLOOKUP(TRUE,Belanja[BULAN]=L367,Belanja[TOTAL],,,-1)</f>
-        <v>660975000</v>
+        <v>675566500</v>
       </c>
     </row>
   </sheetData>
@@ -29999,11 +30053,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95C1940F-1311-4B0D-B6DB-47C1226A8423}">
   <dimension ref="A1:L367"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D287" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D294" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D302" sqref="D302"/>
+      <selection pane="bottomRight" activeCell="D311" sqref="D311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -39079,11 +39133,11 @@
       </c>
       <c r="H276" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G276)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I276" s="2" cm="1">
         <f t="array" ref="I276">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G276,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="277" spans="1:9" x14ac:dyDescent="0.25">
@@ -39112,11 +39166,11 @@
       </c>
       <c r="H277" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G277)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I277" s="2" cm="1">
         <f t="array" ref="I277">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G277,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="278" spans="1:9" x14ac:dyDescent="0.25">
@@ -39145,11 +39199,11 @@
       </c>
       <c r="H278" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G278)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I278" s="2" cm="1">
         <f t="array" ref="I278">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G278,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="279" spans="1:9" x14ac:dyDescent="0.25">
@@ -39178,11 +39232,11 @@
       </c>
       <c r="H279" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G279)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I279" s="2" cm="1">
         <f t="array" ref="I279">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G279,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="280" spans="1:9" x14ac:dyDescent="0.25">
@@ -39211,11 +39265,11 @@
       </c>
       <c r="H280" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G280)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I280" s="2" cm="1">
         <f t="array" ref="I280">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G280,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="281" spans="1:9" x14ac:dyDescent="0.25">
@@ -39244,11 +39298,11 @@
       </c>
       <c r="H281" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G281)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I281" s="2" cm="1">
         <f t="array" ref="I281">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G281,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="282" spans="1:9" x14ac:dyDescent="0.25">
@@ -39277,11 +39331,11 @@
       </c>
       <c r="H282" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G282)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I282" s="2" cm="1">
         <f t="array" ref="I282">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G282,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="283" spans="1:9" x14ac:dyDescent="0.25">
@@ -39310,11 +39364,11 @@
       </c>
       <c r="H283" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G283)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I283" s="2" cm="1">
         <f t="array" ref="I283">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G283,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="284" spans="1:9" x14ac:dyDescent="0.25">
@@ -39343,11 +39397,11 @@
       </c>
       <c r="H284" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G284)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I284" s="2" cm="1">
         <f t="array" ref="I284">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G284,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="285" spans="1:9" x14ac:dyDescent="0.25">
@@ -39376,11 +39430,11 @@
       </c>
       <c r="H285" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G285)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I285" s="2" cm="1">
         <f t="array" ref="I285">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G285,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="286" spans="1:9" x14ac:dyDescent="0.25">
@@ -39409,11 +39463,11 @@
       </c>
       <c r="H286" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G286)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I286" s="2" cm="1">
         <f t="array" ref="I286">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G286,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="287" spans="1:9" x14ac:dyDescent="0.25">
@@ -39442,11 +39496,11 @@
       </c>
       <c r="H287" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G287)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I287" s="2" cm="1">
         <f t="array" ref="I287">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G287,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="288" spans="1:9" x14ac:dyDescent="0.25">
@@ -39475,11 +39529,11 @@
       </c>
       <c r="H288" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G288)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I288" s="2" cm="1">
         <f t="array" ref="I288">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G288,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="289" spans="1:9" x14ac:dyDescent="0.25">
@@ -39508,11 +39562,11 @@
       </c>
       <c r="H289" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G289)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I289" s="2" cm="1">
         <f t="array" ref="I289">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G289,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="290" spans="1:9" x14ac:dyDescent="0.25">
@@ -39541,11 +39595,11 @@
       </c>
       <c r="H290" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G290)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I290" s="2" cm="1">
         <f t="array" ref="I290">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G290,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="291" spans="1:9" x14ac:dyDescent="0.25">
@@ -39574,11 +39628,11 @@
       </c>
       <c r="H291" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G291)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I291" s="2" cm="1">
         <f t="array" ref="I291">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G291,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="292" spans="1:9" x14ac:dyDescent="0.25">
@@ -39607,11 +39661,11 @@
       </c>
       <c r="H292" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G292)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I292" s="2" cm="1">
         <f t="array" ref="I292">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G292,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="293" spans="1:9" x14ac:dyDescent="0.25">
@@ -39640,11 +39694,11 @@
       </c>
       <c r="H293" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G293)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I293" s="2" cm="1">
         <f t="array" ref="I293">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G293,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="294" spans="1:9" x14ac:dyDescent="0.25">
@@ -39673,11 +39727,11 @@
       </c>
       <c r="H294" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G294)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I294" s="2" cm="1">
         <f t="array" ref="I294">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G294,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="295" spans="1:9" x14ac:dyDescent="0.25">
@@ -39706,11 +39760,11 @@
       </c>
       <c r="H295" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G295)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I295" s="2" cm="1">
         <f t="array" ref="I295">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G295,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="296" spans="1:9" x14ac:dyDescent="0.25">
@@ -39739,11 +39793,11 @@
       </c>
       <c r="H296" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G296)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I296" s="2" cm="1">
         <f t="array" ref="I296">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G296,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="297" spans="1:9" x14ac:dyDescent="0.25">
@@ -39772,11 +39826,11 @@
       </c>
       <c r="H297" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G297)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I297" s="2" cm="1">
         <f t="array" ref="I297">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G297,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="298" spans="1:9" x14ac:dyDescent="0.25">
@@ -39805,11 +39859,11 @@
       </c>
       <c r="H298" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G298)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I298" s="2" cm="1">
         <f t="array" ref="I298">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G298,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="299" spans="1:9" x14ac:dyDescent="0.25">
@@ -39838,11 +39892,11 @@
       </c>
       <c r="H299" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G299)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I299" s="2" cm="1">
         <f t="array" ref="I299">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G299,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="300" spans="1:9" x14ac:dyDescent="0.25">
@@ -39871,11 +39925,11 @@
       </c>
       <c r="H300" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G300)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I300" s="2" cm="1">
         <f t="array" ref="I300">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G300,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="301" spans="1:9" x14ac:dyDescent="0.25">
@@ -39904,11 +39958,11 @@
       </c>
       <c r="H301" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G301)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I301" s="2" cm="1">
         <f t="array" ref="I301">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G301,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="302" spans="1:9" x14ac:dyDescent="0.25">
@@ -39924,10 +39978,12 @@
         <f t="shared" si="12"/>
         <v>27</v>
       </c>
-      <c r="D302" s="4"/>
+      <c r="D302" s="4">
+        <v>1655500</v>
+      </c>
       <c r="E302" s="2">
         <f>SUM($D$2:$D302)</f>
-        <v>531867000</v>
+        <v>533522500</v>
       </c>
       <c r="G302" s="1" t="str">
         <f t="shared" si="13"/>
@@ -39935,11 +39991,11 @@
       </c>
       <c r="H302" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G302)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I302" s="2" cm="1">
         <f t="array" ref="I302">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G302,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="303" spans="1:9" x14ac:dyDescent="0.25">
@@ -39955,10 +40011,12 @@
         <f t="shared" si="12"/>
         <v>28</v>
       </c>
-      <c r="D303" s="5"/>
+      <c r="D303" s="5">
+        <v>1513000</v>
+      </c>
       <c r="E303" s="2">
         <f>SUM($D$2:$D303)</f>
-        <v>531867000</v>
+        <v>535035500</v>
       </c>
       <c r="G303" s="1" t="str">
         <f t="shared" si="13"/>
@@ -39966,11 +40024,11 @@
       </c>
       <c r="H303" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G303)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I303" s="2" cm="1">
         <f t="array" ref="I303">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G303,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="304" spans="1:9" x14ac:dyDescent="0.25">
@@ -39986,10 +40044,12 @@
         <f t="shared" si="12"/>
         <v>29</v>
       </c>
-      <c r="D304" s="4"/>
+      <c r="D304" s="4">
+        <v>1893500</v>
+      </c>
       <c r="E304" s="2">
         <f>SUM($D$2:$D304)</f>
-        <v>531867000</v>
+        <v>536929000</v>
       </c>
       <c r="G304" s="1" t="str">
         <f t="shared" si="13"/>
@@ -39997,11 +40057,11 @@
       </c>
       <c r="H304" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G304)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I304" s="2" cm="1">
         <f t="array" ref="I304">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G304,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="305" spans="1:9" x14ac:dyDescent="0.25">
@@ -40017,10 +40077,12 @@
         <f t="shared" si="12"/>
         <v>30</v>
       </c>
-      <c r="D305" s="5"/>
+      <c r="D305" s="5">
+        <v>1613500</v>
+      </c>
       <c r="E305" s="2">
         <f>SUM($D$2:$D305)</f>
-        <v>531867000</v>
+        <v>538542500</v>
       </c>
       <c r="G305" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40028,11 +40090,11 @@
       </c>
       <c r="H305" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G305)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I305" s="2" cm="1">
         <f t="array" ref="I305">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G305,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="306" spans="1:9" x14ac:dyDescent="0.25">
@@ -40048,10 +40110,12 @@
         <f t="shared" si="12"/>
         <v>31</v>
       </c>
-      <c r="D306" s="4"/>
+      <c r="D306" s="4">
+        <v>1503000</v>
+      </c>
       <c r="E306" s="2">
         <f>SUM($D$2:$D306)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
       <c r="G306" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40059,11 +40123,11 @@
       </c>
       <c r="H306" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G306)</f>
-        <v>46315000</v>
+        <v>54493500</v>
       </c>
       <c r="I306" s="2" cm="1">
         <f t="array" ref="I306">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G306,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>540045500</v>
       </c>
     </row>
     <row r="307" spans="1:9" x14ac:dyDescent="0.25">
@@ -40079,10 +40143,12 @@
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="D307" s="5"/>
+      <c r="D307" s="5">
+        <v>1331000</v>
+      </c>
       <c r="E307" s="2">
         <f>SUM($D$2:$D307)</f>
-        <v>531867000</v>
+        <v>541376500</v>
       </c>
       <c r="G307" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40090,11 +40156,11 @@
       </c>
       <c r="H307" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G307)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I307" s="2" cm="1">
         <f t="array" ref="I307">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G307,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="308" spans="1:9" x14ac:dyDescent="0.25">
@@ -40110,10 +40176,12 @@
         <f t="shared" si="12"/>
         <v>2</v>
       </c>
-      <c r="D308" s="4"/>
+      <c r="D308" s="4">
+        <v>1775000</v>
+      </c>
       <c r="E308" s="2">
         <f>SUM($D$2:$D308)</f>
-        <v>531867000</v>
+        <v>543151500</v>
       </c>
       <c r="G308" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40121,11 +40189,11 @@
       </c>
       <c r="H308" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G308)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I308" s="2" cm="1">
         <f t="array" ref="I308">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G308,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="309" spans="1:9" x14ac:dyDescent="0.25">
@@ -40141,10 +40209,12 @@
         <f t="shared" si="12"/>
         <v>3</v>
       </c>
-      <c r="D309" s="5"/>
+      <c r="D309" s="5">
+        <v>1786000</v>
+      </c>
       <c r="E309" s="2">
         <f>SUM($D$2:$D309)</f>
-        <v>531867000</v>
+        <v>544937500</v>
       </c>
       <c r="G309" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40152,11 +40222,11 @@
       </c>
       <c r="H309" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G309)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I309" s="2" cm="1">
         <f t="array" ref="I309">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G309,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="310" spans="1:9" x14ac:dyDescent="0.25">
@@ -40172,10 +40242,12 @@
         <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="D310" s="4"/>
+      <c r="D310" s="4">
+        <v>1521000</v>
+      </c>
       <c r="E310" s="2">
         <f>SUM($D$2:$D310)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G310" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40183,11 +40255,11 @@
       </c>
       <c r="H310" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G310)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I310" s="2" cm="1">
         <f t="array" ref="I310">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G310,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="311" spans="1:9" x14ac:dyDescent="0.25">
@@ -40206,7 +40278,7 @@
       <c r="D311" s="5"/>
       <c r="E311" s="2">
         <f>SUM($D$2:$D311)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G311" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40214,11 +40286,11 @@
       </c>
       <c r="H311" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G311)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I311" s="2" cm="1">
         <f t="array" ref="I311">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G311,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="312" spans="1:9" x14ac:dyDescent="0.25">
@@ -40237,7 +40309,7 @@
       <c r="D312" s="4"/>
       <c r="E312" s="2">
         <f>SUM($D$2:$D312)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G312" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40245,11 +40317,11 @@
       </c>
       <c r="H312" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G312)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I312" s="2" cm="1">
         <f t="array" ref="I312">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G312,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="313" spans="1:9" x14ac:dyDescent="0.25">
@@ -40268,7 +40340,7 @@
       <c r="D313" s="5"/>
       <c r="E313" s="2">
         <f>SUM($D$2:$D313)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G313" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40276,11 +40348,11 @@
       </c>
       <c r="H313" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G313)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I313" s="2" cm="1">
         <f t="array" ref="I313">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G313,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="314" spans="1:9" x14ac:dyDescent="0.25">
@@ -40299,7 +40371,7 @@
       <c r="D314" s="4"/>
       <c r="E314" s="2">
         <f>SUM($D$2:$D314)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G314" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40307,11 +40379,11 @@
       </c>
       <c r="H314" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G314)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I314" s="2" cm="1">
         <f t="array" ref="I314">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G314,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="315" spans="1:9" x14ac:dyDescent="0.25">
@@ -40330,7 +40402,7 @@
       <c r="D315" s="5"/>
       <c r="E315" s="2">
         <f>SUM($D$2:$D315)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G315" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40338,11 +40410,11 @@
       </c>
       <c r="H315" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G315)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I315" s="2" cm="1">
         <f t="array" ref="I315">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G315,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="316" spans="1:9" x14ac:dyDescent="0.25">
@@ -40361,7 +40433,7 @@
       <c r="D316" s="4"/>
       <c r="E316" s="2">
         <f>SUM($D$2:$D316)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G316" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40369,11 +40441,11 @@
       </c>
       <c r="H316" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G316)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I316" s="2" cm="1">
         <f t="array" ref="I316">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G316,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="317" spans="1:9" x14ac:dyDescent="0.25">
@@ -40392,7 +40464,7 @@
       <c r="D317" s="5"/>
       <c r="E317" s="2">
         <f>SUM($D$2:$D317)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G317" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40400,11 +40472,11 @@
       </c>
       <c r="H317" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G317)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I317" s="2" cm="1">
         <f t="array" ref="I317">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G317,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="318" spans="1:9" x14ac:dyDescent="0.25">
@@ -40423,7 +40495,7 @@
       <c r="D318" s="4"/>
       <c r="E318" s="2">
         <f>SUM($D$2:$D318)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G318" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40431,11 +40503,11 @@
       </c>
       <c r="H318" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G318)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I318" s="2" cm="1">
         <f t="array" ref="I318">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G318,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="319" spans="1:9" x14ac:dyDescent="0.25">
@@ -40454,7 +40526,7 @@
       <c r="D319" s="5"/>
       <c r="E319" s="2">
         <f>SUM($D$2:$D319)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G319" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40462,11 +40534,11 @@
       </c>
       <c r="H319" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G319)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I319" s="2" cm="1">
         <f t="array" ref="I319">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G319,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="320" spans="1:9" x14ac:dyDescent="0.25">
@@ -40485,7 +40557,7 @@
       <c r="D320" s="4"/>
       <c r="E320" s="2">
         <f>SUM($D$2:$D320)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G320" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40493,11 +40565,11 @@
       </c>
       <c r="H320" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G320)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I320" s="2" cm="1">
         <f t="array" ref="I320">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G320,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="321" spans="1:9" x14ac:dyDescent="0.25">
@@ -40516,7 +40588,7 @@
       <c r="D321" s="5"/>
       <c r="E321" s="2">
         <f>SUM($D$2:$D321)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G321" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40524,11 +40596,11 @@
       </c>
       <c r="H321" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G321)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I321" s="2" cm="1">
         <f t="array" ref="I321">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G321,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="322" spans="1:9" x14ac:dyDescent="0.25">
@@ -40547,7 +40619,7 @@
       <c r="D322" s="4"/>
       <c r="E322" s="2">
         <f>SUM($D$2:$D322)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G322" s="1" t="str">
         <f t="shared" si="13"/>
@@ -40555,11 +40627,11 @@
       </c>
       <c r="H322" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G322)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I322" s="2" cm="1">
         <f t="array" ref="I322">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G322,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="323" spans="1:9" x14ac:dyDescent="0.25">
@@ -40578,7 +40650,7 @@
       <c r="D323" s="5"/>
       <c r="E323" s="2">
         <f>SUM($D$2:$D323)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G323" s="1" t="str">
         <f t="shared" ref="G323:G367" si="16">B323</f>
@@ -40586,11 +40658,11 @@
       </c>
       <c r="H323" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G323)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I323" s="2" cm="1">
         <f t="array" ref="I323">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G323,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="324" spans="1:9" x14ac:dyDescent="0.25">
@@ -40609,7 +40681,7 @@
       <c r="D324" s="4"/>
       <c r="E324" s="2">
         <f>SUM($D$2:$D324)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G324" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40617,11 +40689,11 @@
       </c>
       <c r="H324" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G324)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I324" s="2" cm="1">
         <f t="array" ref="I324">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G324,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="325" spans="1:9" x14ac:dyDescent="0.25">
@@ -40640,7 +40712,7 @@
       <c r="D325" s="5"/>
       <c r="E325" s="2">
         <f>SUM($D$2:$D325)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G325" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40648,11 +40720,11 @@
       </c>
       <c r="H325" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G325)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I325" s="2" cm="1">
         <f t="array" ref="I325">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G325,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="326" spans="1:9" x14ac:dyDescent="0.25">
@@ -40671,7 +40743,7 @@
       <c r="D326" s="4"/>
       <c r="E326" s="2">
         <f>SUM($D$2:$D326)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G326" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40679,11 +40751,11 @@
       </c>
       <c r="H326" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G326)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I326" s="2" cm="1">
         <f t="array" ref="I326">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G326,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="327" spans="1:9" x14ac:dyDescent="0.25">
@@ -40702,7 +40774,7 @@
       <c r="D327" s="5"/>
       <c r="E327" s="2">
         <f>SUM($D$2:$D327)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G327" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40710,11 +40782,11 @@
       </c>
       <c r="H327" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G327)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I327" s="2" cm="1">
         <f t="array" ref="I327">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G327,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="328" spans="1:9" x14ac:dyDescent="0.25">
@@ -40733,7 +40805,7 @@
       <c r="D328" s="4"/>
       <c r="E328" s="2">
         <f>SUM($D$2:$D328)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G328" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40741,11 +40813,11 @@
       </c>
       <c r="H328" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G328)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I328" s="2" cm="1">
         <f t="array" ref="I328">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G328,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="329" spans="1:9" x14ac:dyDescent="0.25">
@@ -40764,7 +40836,7 @@
       <c r="D329" s="5"/>
       <c r="E329" s="2">
         <f>SUM($D$2:$D329)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G329" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40772,11 +40844,11 @@
       </c>
       <c r="H329" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G329)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I329" s="2" cm="1">
         <f t="array" ref="I329">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G329,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.25">
@@ -40795,7 +40867,7 @@
       <c r="D330" s="4"/>
       <c r="E330" s="2">
         <f>SUM($D$2:$D330)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G330" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40803,11 +40875,11 @@
       </c>
       <c r="H330" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G330)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I330" s="2" cm="1">
         <f t="array" ref="I330">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G330,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="331" spans="1:9" x14ac:dyDescent="0.25">
@@ -40826,7 +40898,7 @@
       <c r="D331" s="5"/>
       <c r="E331" s="2">
         <f>SUM($D$2:$D331)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G331" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40834,11 +40906,11 @@
       </c>
       <c r="H331" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G331)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I331" s="2" cm="1">
         <f t="array" ref="I331">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G331,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="332" spans="1:9" x14ac:dyDescent="0.25">
@@ -40857,7 +40929,7 @@
       <c r="D332" s="4"/>
       <c r="E332" s="2">
         <f>SUM($D$2:$D332)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G332" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40865,11 +40937,11 @@
       </c>
       <c r="H332" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G332)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I332" s="2" cm="1">
         <f t="array" ref="I332">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G332,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="333" spans="1:9" x14ac:dyDescent="0.25">
@@ -40888,7 +40960,7 @@
       <c r="D333" s="5"/>
       <c r="E333" s="2">
         <f>SUM($D$2:$D333)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G333" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40896,11 +40968,11 @@
       </c>
       <c r="H333" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G333)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I333" s="2" cm="1">
         <f t="array" ref="I333">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G333,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="334" spans="1:9" x14ac:dyDescent="0.25">
@@ -40919,7 +40991,7 @@
       <c r="D334" s="4"/>
       <c r="E334" s="2">
         <f>SUM($D$2:$D334)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G334" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40927,11 +40999,11 @@
       </c>
       <c r="H334" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G334)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I334" s="2" cm="1">
         <f t="array" ref="I334">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G334,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.25">
@@ -40950,7 +41022,7 @@
       <c r="D335" s="5"/>
       <c r="E335" s="2">
         <f>SUM($D$2:$D335)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G335" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40958,11 +41030,11 @@
       </c>
       <c r="H335" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G335)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I335" s="2" cm="1">
         <f t="array" ref="I335">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G335,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.25">
@@ -40981,7 +41053,7 @@
       <c r="D336" s="4"/>
       <c r="E336" s="2">
         <f>SUM($D$2:$D336)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G336" s="1" t="str">
         <f t="shared" si="16"/>
@@ -40989,11 +41061,11 @@
       </c>
       <c r="H336" s="2">
         <f>SUMIFS(Transferan[Transferan],Transferan[BULAN],G336)</f>
-        <v>0</v>
+        <v>6413000</v>
       </c>
       <c r="I336" s="2" cm="1">
         <f t="array" ref="I336">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G336,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="337" spans="1:9" x14ac:dyDescent="0.25">
@@ -41012,7 +41084,7 @@
       <c r="D337" s="5"/>
       <c r="E337" s="2">
         <f>SUM($D$2:$D337)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G337" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41024,7 +41096,7 @@
       </c>
       <c r="I337" s="2" cm="1">
         <f t="array" ref="I337">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G337,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="338" spans="1:9" x14ac:dyDescent="0.25">
@@ -41043,7 +41115,7 @@
       <c r="D338" s="4"/>
       <c r="E338" s="2">
         <f>SUM($D$2:$D338)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G338" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41055,7 +41127,7 @@
       </c>
       <c r="I338" s="2" cm="1">
         <f t="array" ref="I338">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G338,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="339" spans="1:9" x14ac:dyDescent="0.25">
@@ -41074,7 +41146,7 @@
       <c r="D339" s="5"/>
       <c r="E339" s="2">
         <f>SUM($D$2:$D339)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G339" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41086,7 +41158,7 @@
       </c>
       <c r="I339" s="2" cm="1">
         <f t="array" ref="I339">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G339,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="340" spans="1:9" x14ac:dyDescent="0.25">
@@ -41105,7 +41177,7 @@
       <c r="D340" s="4"/>
       <c r="E340" s="2">
         <f>SUM($D$2:$D340)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G340" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41117,7 +41189,7 @@
       </c>
       <c r="I340" s="2" cm="1">
         <f t="array" ref="I340">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G340,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="341" spans="1:9" x14ac:dyDescent="0.25">
@@ -41136,7 +41208,7 @@
       <c r="D341" s="5"/>
       <c r="E341" s="2">
         <f>SUM($D$2:$D341)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G341" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41148,7 +41220,7 @@
       </c>
       <c r="I341" s="2" cm="1">
         <f t="array" ref="I341">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G341,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="342" spans="1:9" x14ac:dyDescent="0.25">
@@ -41167,7 +41239,7 @@
       <c r="D342" s="4"/>
       <c r="E342" s="2">
         <f>SUM($D$2:$D342)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G342" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41179,7 +41251,7 @@
       </c>
       <c r="I342" s="2" cm="1">
         <f t="array" ref="I342">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G342,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="343" spans="1:9" x14ac:dyDescent="0.25">
@@ -41198,7 +41270,7 @@
       <c r="D343" s="5"/>
       <c r="E343" s="2">
         <f>SUM($D$2:$D343)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G343" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41210,7 +41282,7 @@
       </c>
       <c r="I343" s="2" cm="1">
         <f t="array" ref="I343">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G343,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="344" spans="1:9" x14ac:dyDescent="0.25">
@@ -41229,7 +41301,7 @@
       <c r="D344" s="4"/>
       <c r="E344" s="2">
         <f>SUM($D$2:$D344)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G344" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41241,7 +41313,7 @@
       </c>
       <c r="I344" s="2" cm="1">
         <f t="array" ref="I344">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G344,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="345" spans="1:9" x14ac:dyDescent="0.25">
@@ -41260,7 +41332,7 @@
       <c r="D345" s="5"/>
       <c r="E345" s="2">
         <f>SUM($D$2:$D345)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G345" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41272,7 +41344,7 @@
       </c>
       <c r="I345" s="2" cm="1">
         <f t="array" ref="I345">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G345,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="346" spans="1:9" x14ac:dyDescent="0.25">
@@ -41291,7 +41363,7 @@
       <c r="D346" s="4"/>
       <c r="E346" s="2">
         <f>SUM($D$2:$D346)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G346" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41303,7 +41375,7 @@
       </c>
       <c r="I346" s="2" cm="1">
         <f t="array" ref="I346">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G346,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="347" spans="1:9" x14ac:dyDescent="0.25">
@@ -41322,7 +41394,7 @@
       <c r="D347" s="5"/>
       <c r="E347" s="2">
         <f>SUM($D$2:$D347)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G347" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41334,7 +41406,7 @@
       </c>
       <c r="I347" s="2" cm="1">
         <f t="array" ref="I347">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G347,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="348" spans="1:9" x14ac:dyDescent="0.25">
@@ -41353,7 +41425,7 @@
       <c r="D348" s="4"/>
       <c r="E348" s="2">
         <f>SUM($D$2:$D348)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G348" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41365,7 +41437,7 @@
       </c>
       <c r="I348" s="2" cm="1">
         <f t="array" ref="I348">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G348,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="349" spans="1:9" x14ac:dyDescent="0.25">
@@ -41384,7 +41456,7 @@
       <c r="D349" s="5"/>
       <c r="E349" s="2">
         <f>SUM($D$2:$D349)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G349" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41396,7 +41468,7 @@
       </c>
       <c r="I349" s="2" cm="1">
         <f t="array" ref="I349">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G349,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="350" spans="1:9" x14ac:dyDescent="0.25">
@@ -41415,7 +41487,7 @@
       <c r="D350" s="4"/>
       <c r="E350" s="2">
         <f>SUM($D$2:$D350)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G350" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41427,7 +41499,7 @@
       </c>
       <c r="I350" s="2" cm="1">
         <f t="array" ref="I350">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G350,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="351" spans="1:9" x14ac:dyDescent="0.25">
@@ -41446,7 +41518,7 @@
       <c r="D351" s="5"/>
       <c r="E351" s="2">
         <f>SUM($D$2:$D351)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G351" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41458,7 +41530,7 @@
       </c>
       <c r="I351" s="2" cm="1">
         <f t="array" ref="I351">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G351,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="352" spans="1:9" x14ac:dyDescent="0.25">
@@ -41477,7 +41549,7 @@
       <c r="D352" s="4"/>
       <c r="E352" s="2">
         <f>SUM($D$2:$D352)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G352" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41489,7 +41561,7 @@
       </c>
       <c r="I352" s="2" cm="1">
         <f t="array" ref="I352">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G352,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="353" spans="1:9" x14ac:dyDescent="0.25">
@@ -41508,7 +41580,7 @@
       <c r="D353" s="5"/>
       <c r="E353" s="2">
         <f>SUM($D$2:$D353)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G353" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41520,7 +41592,7 @@
       </c>
       <c r="I353" s="2" cm="1">
         <f t="array" ref="I353">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G353,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="354" spans="1:9" x14ac:dyDescent="0.25">
@@ -41539,7 +41611,7 @@
       <c r="D354" s="4"/>
       <c r="E354" s="2">
         <f>SUM($D$2:$D354)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G354" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41551,7 +41623,7 @@
       </c>
       <c r="I354" s="2" cm="1">
         <f t="array" ref="I354">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G354,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="355" spans="1:9" x14ac:dyDescent="0.25">
@@ -41570,7 +41642,7 @@
       <c r="D355" s="5"/>
       <c r="E355" s="2">
         <f>SUM($D$2:$D355)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G355" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41582,7 +41654,7 @@
       </c>
       <c r="I355" s="2" cm="1">
         <f t="array" ref="I355">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G355,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="356" spans="1:9" x14ac:dyDescent="0.25">
@@ -41601,7 +41673,7 @@
       <c r="D356" s="4"/>
       <c r="E356" s="2">
         <f>SUM($D$2:$D356)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G356" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41613,7 +41685,7 @@
       </c>
       <c r="I356" s="2" cm="1">
         <f t="array" ref="I356">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G356,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="357" spans="1:9" x14ac:dyDescent="0.25">
@@ -41632,7 +41704,7 @@
       <c r="D357" s="5"/>
       <c r="E357" s="2">
         <f>SUM($D$2:$D357)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G357" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41644,7 +41716,7 @@
       </c>
       <c r="I357" s="2" cm="1">
         <f t="array" ref="I357">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G357,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="358" spans="1:9" x14ac:dyDescent="0.25">
@@ -41663,7 +41735,7 @@
       <c r="D358" s="4"/>
       <c r="E358" s="2">
         <f>SUM($D$2:$D358)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G358" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41675,7 +41747,7 @@
       </c>
       <c r="I358" s="2" cm="1">
         <f t="array" ref="I358">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G358,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="359" spans="1:9" x14ac:dyDescent="0.25">
@@ -41694,7 +41766,7 @@
       <c r="D359" s="5"/>
       <c r="E359" s="2">
         <f>SUM($D$2:$D359)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G359" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41706,7 +41778,7 @@
       </c>
       <c r="I359" s="2" cm="1">
         <f t="array" ref="I359">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G359,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="360" spans="1:9" x14ac:dyDescent="0.25">
@@ -41725,7 +41797,7 @@
       <c r="D360" s="4"/>
       <c r="E360" s="2">
         <f>SUM($D$2:$D360)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G360" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41737,7 +41809,7 @@
       </c>
       <c r="I360" s="2" cm="1">
         <f t="array" ref="I360">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G360,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="361" spans="1:9" x14ac:dyDescent="0.25">
@@ -41756,7 +41828,7 @@
       <c r="D361" s="5"/>
       <c r="E361" s="2">
         <f>SUM($D$2:$D361)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G361" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41768,7 +41840,7 @@
       </c>
       <c r="I361" s="2" cm="1">
         <f t="array" ref="I361">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G361,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="362" spans="1:9" x14ac:dyDescent="0.25">
@@ -41787,7 +41859,7 @@
       <c r="D362" s="4"/>
       <c r="E362" s="2">
         <f>SUM($D$2:$D362)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G362" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41799,7 +41871,7 @@
       </c>
       <c r="I362" s="2" cm="1">
         <f t="array" ref="I362">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G362,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="363" spans="1:9" x14ac:dyDescent="0.25">
@@ -41818,7 +41890,7 @@
       <c r="D363" s="5"/>
       <c r="E363" s="2">
         <f>SUM($D$2:$D363)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G363" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41830,7 +41902,7 @@
       </c>
       <c r="I363" s="2" cm="1">
         <f t="array" ref="I363">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G363,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="364" spans="1:9" x14ac:dyDescent="0.25">
@@ -41849,7 +41921,7 @@
       <c r="D364" s="4"/>
       <c r="E364" s="2">
         <f>SUM($D$2:$D364)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G364" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41861,7 +41933,7 @@
       </c>
       <c r="I364" s="2" cm="1">
         <f t="array" ref="I364">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G364,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="365" spans="1:9" x14ac:dyDescent="0.25">
@@ -41880,7 +41952,7 @@
       <c r="D365" s="5"/>
       <c r="E365" s="2">
         <f>SUM($D$2:$D365)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G365" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41892,7 +41964,7 @@
       </c>
       <c r="I365" s="2" cm="1">
         <f t="array" ref="I365">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G365,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="366" spans="1:9" x14ac:dyDescent="0.25">
@@ -41911,7 +41983,7 @@
       <c r="D366" s="4"/>
       <c r="E366" s="2">
         <f>SUM($D$2:$D366)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G366" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41923,7 +41995,7 @@
       </c>
       <c r="I366" s="2" cm="1">
         <f t="array" ref="I366">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G366,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
     <row r="367" spans="1:9" x14ac:dyDescent="0.25">
@@ -41942,7 +42014,7 @@
       <c r="D367" s="5"/>
       <c r="E367" s="2">
         <f>SUM($D$2:$D367)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
       <c r="G367" s="1" t="str">
         <f t="shared" si="16"/>
@@ -41954,7 +42026,7 @@
       </c>
       <c r="I367" s="2" cm="1">
         <f t="array" ref="I367">_xlfn.XLOOKUP(TRUE,Transferan[BULAN]=G367,Transferan[TOTAL],,,-1)</f>
-        <v>531867000</v>
+        <v>546458500</v>
       </c>
     </row>
   </sheetData>
